--- a/military_drill_pay.xlsx
+++ b/military_drill_pay.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjamin.s.gumser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E6C28E-8975-415F-8804-F4F5F7BEE4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18840" xr2:uid="{B1FD8042-7FB9-423C-B1D0-06F39AC1B7AC}"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="11235" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,20 +434,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF34AC0-9230-4CA3-BDA8-336068A4E503}">
-  <dimension ref="A1:BO17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -650,3252 +650,4374 @@
       <c r="BO1">
         <v>40</v>
       </c>
+      <c r="BP1">
+        <v>0</v>
+      </c>
+      <c r="BQ1">
+        <v>2</v>
+      </c>
+      <c r="BR1">
+        <v>3</v>
+      </c>
+      <c r="BS1">
+        <v>4</v>
+      </c>
+      <c r="BT1">
+        <v>6</v>
+      </c>
+      <c r="BU1">
+        <v>8</v>
+      </c>
+      <c r="BV1">
+        <v>10</v>
+      </c>
+      <c r="BW1">
+        <v>12</v>
+      </c>
+      <c r="BX1">
+        <v>14</v>
+      </c>
+      <c r="BY1">
+        <v>16</v>
+      </c>
+      <c r="BZ1">
+        <v>18</v>
+      </c>
+      <c r="CA1">
+        <v>20</v>
+      </c>
+      <c r="CB1">
+        <v>22</v>
+      </c>
+      <c r="CC1">
+        <v>24</v>
+      </c>
+      <c r="CD1">
+        <v>26</v>
+      </c>
+      <c r="CE1">
+        <v>28</v>
+      </c>
+      <c r="CF1">
+        <v>30</v>
+      </c>
+      <c r="CG1">
+        <v>32</v>
+      </c>
+      <c r="CH1">
+        <v>34</v>
+      </c>
+      <c r="CI1">
+        <v>36</v>
+      </c>
+      <c r="CJ1">
+        <v>38</v>
+      </c>
+      <c r="CK1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>322.27999999999997</v>
+      </c>
+      <c r="C2">
+        <v>337.25</v>
+      </c>
+      <c r="D2">
+        <v>344.18</v>
+      </c>
+      <c r="E2">
+        <v>349.69</v>
+      </c>
+      <c r="F2">
+        <v>359.66</v>
+      </c>
+      <c r="G2">
+        <v>369.51</v>
+      </c>
+      <c r="H2">
+        <v>380.9</v>
+      </c>
+      <c r="I2">
+        <v>392.25</v>
+      </c>
+      <c r="J2">
+        <v>403.65</v>
+      </c>
+      <c r="K2">
+        <v>439.44</v>
+      </c>
+      <c r="L2">
+        <v>469.66</v>
+      </c>
+      <c r="M2">
+        <v>469.66</v>
+      </c>
+      <c r="N2">
+        <v>469.66</v>
+      </c>
+      <c r="O2">
+        <v>469.66</v>
+      </c>
+      <c r="P2">
+        <v>472.07</v>
+      </c>
+      <c r="Q2">
+        <v>472.07</v>
+      </c>
+      <c r="R2">
+        <v>481.52</v>
+      </c>
+      <c r="S2">
+        <v>481.52</v>
+      </c>
+      <c r="T2">
+        <v>481.52</v>
+      </c>
+      <c r="U2">
+        <v>481.52</v>
+      </c>
+      <c r="V2">
+        <v>481.52</v>
+      </c>
+      <c r="W2">
+        <v>481.52</v>
+      </c>
+      <c r="X2">
         <v>313.81</v>
       </c>
-      <c r="C2">
+      <c r="Y2">
         <v>328.38</v>
       </c>
-      <c r="D2">
+      <c r="Z2">
         <v>335.13</v>
       </c>
-      <c r="E2">
+      <c r="AA2">
         <v>340.5</v>
       </c>
-      <c r="F2">
+      <c r="AB2">
         <v>350.2</v>
       </c>
-      <c r="G2">
+      <c r="AC2">
         <v>359.8</v>
       </c>
-      <c r="H2">
+      <c r="AD2">
         <v>370.89</v>
       </c>
-      <c r="I2">
+      <c r="AE2">
         <v>381.94</v>
       </c>
-      <c r="J2">
+      <c r="AF2">
         <v>393.04</v>
       </c>
-      <c r="K2">
+      <c r="AG2">
         <v>427.89</v>
       </c>
-      <c r="L2">
+      <c r="AH2">
         <v>457.31</v>
       </c>
-      <c r="M2">
+      <c r="AI2">
         <v>457.31</v>
       </c>
-      <c r="N2">
+      <c r="AJ2">
         <v>457.31</v>
       </c>
-      <c r="O2">
+      <c r="AK2">
         <v>457.31</v>
       </c>
-      <c r="P2">
+      <c r="AL2">
         <v>458.06</v>
       </c>
-      <c r="Q2">
+      <c r="AM2">
         <v>458.06</v>
       </c>
-      <c r="R2">
+      <c r="AN2">
         <v>458.06</v>
       </c>
-      <c r="S2">
+      <c r="AO2">
         <v>458.06</v>
       </c>
-      <c r="T2">
+      <c r="AP2">
         <v>458.06</v>
       </c>
-      <c r="U2">
+      <c r="AQ2">
         <v>458.06</v>
       </c>
-      <c r="V2">
+      <c r="AR2">
         <v>458.06</v>
       </c>
-      <c r="W2">
+      <c r="AS2">
         <v>458.06</v>
       </c>
-      <c r="X2">
+      <c r="AT2">
         <v>304.67</v>
       </c>
-      <c r="Y2">
+      <c r="AU2">
         <v>318.82</v>
       </c>
-      <c r="Z2">
+      <c r="AV2">
         <v>325.37</v>
       </c>
-      <c r="AA2">
+      <c r="AW2">
         <v>330.58</v>
       </c>
-      <c r="AB2">
+      <c r="AX2">
         <v>340</v>
       </c>
-      <c r="AC2">
+      <c r="AY2">
         <v>349.32</v>
       </c>
-      <c r="AD2">
+      <c r="AZ2">
         <v>360.09</v>
       </c>
-      <c r="AE2">
+      <c r="BA2">
         <v>370.82</v>
       </c>
-      <c r="AF2">
+      <c r="BB2">
         <v>381.59</v>
       </c>
-      <c r="AG2">
+      <c r="BC2">
         <v>415.43</v>
       </c>
-      <c r="AH2">
+      <c r="BD2">
         <v>443.99</v>
       </c>
-      <c r="AI2">
+      <c r="BE2">
         <v>443.99</v>
       </c>
-      <c r="AJ2">
+      <c r="BF2">
         <v>443.99</v>
       </c>
-      <c r="AK2">
+      <c r="BG2">
         <v>443.99</v>
       </c>
-      <c r="AL2">
+      <c r="BH2">
         <v>446.27</v>
       </c>
-      <c r="AM2">
+      <c r="BI2">
         <v>446.27</v>
       </c>
-      <c r="AN2">
+      <c r="BJ2">
         <v>455.2</v>
       </c>
-      <c r="AO2">
+      <c r="BK2">
         <v>455.2</v>
       </c>
-      <c r="AP2">
+      <c r="BL2">
         <v>455.2</v>
       </c>
-      <c r="AQ2">
+      <c r="BM2">
         <v>455.2</v>
       </c>
-      <c r="AR2">
+      <c r="BN2">
         <v>455.2</v>
       </c>
-      <c r="AS2">
+      <c r="BO2">
         <v>455.2</v>
       </c>
-      <c r="AT2">
+      <c r="BP2">
         <v>295.51</v>
       </c>
-      <c r="AU2">
+      <c r="BQ2">
         <v>309.23</v>
       </c>
-      <c r="AV2">
+      <c r="BR2">
         <v>315.58999999999997</v>
       </c>
-      <c r="AW2">
+      <c r="BS2">
         <v>320.64</v>
       </c>
-      <c r="AX2">
+      <c r="BT2">
         <v>329.78</v>
       </c>
-      <c r="AY2">
+      <c r="BU2">
         <v>338.82</v>
       </c>
-      <c r="AZ2">
+      <c r="BV2">
         <v>349.26</v>
       </c>
-      <c r="BA2">
+      <c r="BW2">
         <v>359.67</v>
       </c>
-      <c r="BB2">
+      <c r="BX2">
         <v>370.12</v>
       </c>
-      <c r="BC2">
+      <c r="BY2">
         <v>402.94</v>
       </c>
-      <c r="BD2">
+      <c r="BZ2">
         <v>430.64</v>
       </c>
-      <c r="BE2">
+      <c r="CA2">
         <v>430.64</v>
       </c>
-      <c r="BF2">
+      <c r="CB2">
         <v>430.64</v>
       </c>
-      <c r="BG2">
+      <c r="CC2">
         <v>430.64</v>
       </c>
-      <c r="BH2">
+      <c r="CD2">
         <v>432.85</v>
       </c>
-      <c r="BI2">
+      <c r="CE2">
         <v>432.85</v>
       </c>
-      <c r="BJ2">
+      <c r="CF2">
         <v>441.51</v>
       </c>
-      <c r="BK2">
+      <c r="CG2">
         <v>441.51</v>
       </c>
-      <c r="BL2">
+      <c r="CH2">
         <v>441.51</v>
       </c>
-      <c r="BM2">
+      <c r="CI2">
         <v>441.51</v>
       </c>
-      <c r="BN2">
+      <c r="CJ2">
         <v>441.51</v>
       </c>
-      <c r="BO2">
+      <c r="CK2">
         <v>441.51</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>244.4</v>
+      </c>
+      <c r="C3">
+        <v>268.49</v>
+      </c>
+      <c r="D3">
+        <v>286.11</v>
+      </c>
+      <c r="E3">
+        <v>286.11</v>
+      </c>
+      <c r="F3">
+        <v>287.20999999999998</v>
+      </c>
+      <c r="G3">
+        <v>299.51</v>
+      </c>
+      <c r="H3">
+        <v>301.14999999999998</v>
+      </c>
+      <c r="I3">
+        <v>301.14999999999998</v>
+      </c>
+      <c r="J3">
+        <v>318.26</v>
+      </c>
+      <c r="K3">
+        <v>348.51</v>
+      </c>
+      <c r="L3">
+        <v>366.27</v>
+      </c>
+      <c r="M3">
+        <v>384.02</v>
+      </c>
+      <c r="N3">
+        <v>394.12</v>
+      </c>
+      <c r="O3">
+        <v>404.36</v>
+      </c>
+      <c r="P3">
+        <v>424.18</v>
+      </c>
+      <c r="Q3">
+        <v>424.18</v>
+      </c>
+      <c r="R3">
+        <v>432.65</v>
+      </c>
+      <c r="S3">
+        <v>432.65</v>
+      </c>
+      <c r="T3">
+        <v>432.65</v>
+      </c>
+      <c r="U3">
+        <v>432.65</v>
+      </c>
+      <c r="V3">
+        <v>432.65</v>
+      </c>
+      <c r="W3">
+        <v>432.65</v>
+      </c>
+      <c r="X3">
         <v>237.97</v>
       </c>
-      <c r="C3">
+      <c r="Y3">
         <v>261.43</v>
       </c>
-      <c r="D3">
+      <c r="Z3">
         <v>278.58999999999997</v>
       </c>
-      <c r="E3">
+      <c r="AA3">
         <v>278.58999999999997</v>
       </c>
-      <c r="F3">
+      <c r="AB3">
         <v>279.66000000000003</v>
       </c>
-      <c r="G3">
+      <c r="AC3">
         <v>291.64</v>
       </c>
-      <c r="H3">
+      <c r="AD3">
         <v>293.23</v>
       </c>
-      <c r="I3">
+      <c r="AE3">
         <v>293.23</v>
       </c>
-      <c r="J3">
+      <c r="AF3">
         <v>309.89</v>
       </c>
-      <c r="K3">
+      <c r="AG3">
         <v>339.35</v>
       </c>
-      <c r="L3">
+      <c r="AH3">
         <v>356.64</v>
       </c>
-      <c r="M3">
+      <c r="AI3">
         <v>373.92</v>
       </c>
-      <c r="N3">
+      <c r="AJ3">
         <v>383.76</v>
       </c>
-      <c r="O3">
+      <c r="AK3">
         <v>393.73</v>
       </c>
-      <c r="P3">
+      <c r="AL3">
         <v>413.03</v>
       </c>
-      <c r="Q3">
+      <c r="AM3">
         <v>413.03</v>
       </c>
-      <c r="R3">
+      <c r="AN3">
         <v>421.28</v>
       </c>
-      <c r="S3">
+      <c r="AO3">
         <v>421.28</v>
       </c>
-      <c r="T3">
+      <c r="AP3">
         <v>421.28</v>
       </c>
-      <c r="U3">
+      <c r="AQ3">
         <v>421.28</v>
       </c>
-      <c r="V3">
+      <c r="AR3">
         <v>421.28</v>
       </c>
-      <c r="W3">
+      <c r="AS3">
         <v>421.28</v>
       </c>
-      <c r="X3">
+      <c r="AT3">
         <v>231.04</v>
       </c>
-      <c r="Y3">
+      <c r="AU3">
         <v>253.82</v>
       </c>
-      <c r="Z3">
+      <c r="AV3">
         <v>270.48</v>
       </c>
-      <c r="AA3">
+      <c r="AW3">
         <v>270.48</v>
       </c>
-      <c r="AB3">
+      <c r="AX3">
         <v>271.51</v>
       </c>
-      <c r="AC3">
+      <c r="AY3">
         <v>283.14999999999998</v>
       </c>
-      <c r="AD3">
+      <c r="AZ3">
         <v>284.69</v>
       </c>
-      <c r="AE3">
+      <c r="BA3">
         <v>284.69</v>
       </c>
-      <c r="AF3">
+      <c r="BB3">
         <v>300.86</v>
       </c>
-      <c r="AG3">
+      <c r="BC3">
         <v>329.47</v>
       </c>
-      <c r="AH3">
+      <c r="BD3">
         <v>346.25</v>
       </c>
-      <c r="AI3">
+      <c r="BE3">
         <v>363.03</v>
       </c>
-      <c r="AJ3">
+      <c r="BF3">
         <v>372.58</v>
       </c>
-      <c r="AK3">
+      <c r="BG3">
         <v>382.26</v>
       </c>
-      <c r="AL3">
+      <c r="BH3">
         <v>401</v>
       </c>
-      <c r="AM3">
+      <c r="BI3">
         <v>401</v>
       </c>
-      <c r="AN3">
+      <c r="BJ3">
         <v>409.01</v>
       </c>
-      <c r="AO3">
+      <c r="BK3">
         <v>409.01</v>
       </c>
-      <c r="AP3">
+      <c r="BL3">
         <v>409.01</v>
       </c>
-      <c r="AQ3">
+      <c r="BM3">
         <v>409.01</v>
       </c>
-      <c r="AR3">
+      <c r="BN3">
         <v>409.01</v>
       </c>
-      <c r="AS3">
+      <c r="BO3">
         <v>409.01</v>
       </c>
-      <c r="AT3">
+      <c r="BP3">
         <v>224.09</v>
       </c>
-      <c r="AU3">
+      <c r="BQ3">
         <v>246.19</v>
       </c>
-      <c r="AV3">
+      <c r="BR3">
         <v>262.35000000000002</v>
       </c>
-      <c r="AW3">
+      <c r="BS3">
         <v>262.35000000000002</v>
       </c>
-      <c r="AX3">
+      <c r="BT3">
         <v>263.35000000000002</v>
       </c>
-      <c r="AY3">
+      <c r="BU3">
         <v>274.64</v>
       </c>
-      <c r="AZ3">
+      <c r="BV3">
         <v>276.13</v>
       </c>
-      <c r="BA3">
+      <c r="BW3">
         <v>276.13</v>
       </c>
-      <c r="BB3">
+      <c r="BX3">
         <v>291.81</v>
       </c>
-      <c r="BC3">
+      <c r="BY3">
         <v>319.56</v>
       </c>
-      <c r="BD3">
+      <c r="BZ3">
         <v>335.84</v>
       </c>
-      <c r="BE3">
+      <c r="CA3">
         <v>352.11</v>
       </c>
-      <c r="BF3">
+      <c r="CB3">
         <v>361.38</v>
       </c>
-      <c r="BG3">
+      <c r="CC3">
         <v>370.77</v>
       </c>
-      <c r="BH3">
+      <c r="CD3">
         <v>388.94</v>
       </c>
-      <c r="BI3">
+      <c r="CE3">
         <v>388.94</v>
       </c>
-      <c r="BJ3">
+      <c r="CF3">
         <v>396.71</v>
       </c>
-      <c r="BK3">
+      <c r="CG3">
         <v>396.71</v>
       </c>
-      <c r="BL3">
+      <c r="CH3">
         <v>396.71</v>
       </c>
-      <c r="BM3">
+      <c r="CI3">
         <v>396.71</v>
       </c>
-      <c r="BN3">
+      <c r="CJ3">
         <v>396.71</v>
       </c>
-      <c r="BO3">
+      <c r="CK3">
         <v>396.71</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>203.74</v>
+      </c>
+      <c r="C4">
+        <v>229.51</v>
+      </c>
+      <c r="D4">
+        <v>245.39</v>
+      </c>
+      <c r="E4">
+        <v>248.38</v>
+      </c>
+      <c r="F4">
+        <v>258.31</v>
+      </c>
+      <c r="G4">
+        <v>264.23</v>
+      </c>
+      <c r="H4">
+        <v>277.27</v>
+      </c>
+      <c r="I4">
+        <v>286.86</v>
+      </c>
+      <c r="J4">
+        <v>299.23</v>
+      </c>
+      <c r="K4">
+        <v>318.13</v>
+      </c>
+      <c r="L4">
+        <v>327.13</v>
+      </c>
+      <c r="M4">
+        <v>336.03</v>
+      </c>
+      <c r="N4">
+        <v>346.14</v>
+      </c>
+      <c r="O4">
+        <v>346.14</v>
+      </c>
+      <c r="P4">
+        <v>346.14</v>
+      </c>
+      <c r="Q4">
+        <v>346.14</v>
+      </c>
+      <c r="R4">
+        <v>346.14</v>
+      </c>
+      <c r="S4">
+        <v>346.14</v>
+      </c>
+      <c r="T4">
+        <v>346.14</v>
+      </c>
+      <c r="U4">
+        <v>346.14</v>
+      </c>
+      <c r="V4">
+        <v>346.14</v>
+      </c>
+      <c r="W4">
+        <v>346.14</v>
+      </c>
+      <c r="X4">
         <v>198.38</v>
       </c>
-      <c r="C4">
+      <c r="Y4">
         <v>223.48</v>
       </c>
-      <c r="D4">
+      <c r="Z4">
         <v>238.94</v>
       </c>
-      <c r="E4">
+      <c r="AA4">
         <v>241.85</v>
       </c>
-      <c r="F4">
+      <c r="AB4">
         <v>251.52</v>
       </c>
-      <c r="G4">
+      <c r="AC4">
         <v>257.27999999999997</v>
       </c>
-      <c r="H4">
+      <c r="AD4">
         <v>269.98</v>
       </c>
-      <c r="I4">
+      <c r="AE4">
         <v>279.32</v>
       </c>
-      <c r="J4">
+      <c r="AF4">
         <v>291.36</v>
       </c>
-      <c r="K4">
+      <c r="AG4">
         <v>309.77</v>
       </c>
-      <c r="L4">
+      <c r="AH4">
         <v>318.52999999999997</v>
       </c>
-      <c r="M4">
+      <c r="AI4">
         <v>327.2</v>
       </c>
-      <c r="N4">
+      <c r="AJ4">
         <v>337.04</v>
       </c>
-      <c r="O4">
+      <c r="AK4">
         <v>337.04</v>
       </c>
-      <c r="P4">
+      <c r="AL4">
         <v>337.04</v>
       </c>
-      <c r="Q4">
+      <c r="AM4">
         <v>337.04</v>
       </c>
-      <c r="R4">
+      <c r="AN4">
         <v>337.04</v>
       </c>
-      <c r="S4">
+      <c r="AO4">
         <v>337.04</v>
       </c>
-      <c r="T4">
+      <c r="AP4">
         <v>337.04</v>
       </c>
-      <c r="U4">
+      <c r="AQ4">
         <v>337.04</v>
       </c>
-      <c r="V4">
+      <c r="AR4">
         <v>337.04</v>
       </c>
-      <c r="W4">
+      <c r="AS4">
         <v>337.04</v>
       </c>
-      <c r="X4">
+      <c r="AT4">
         <v>192.6</v>
       </c>
-      <c r="Y4">
+      <c r="AU4">
         <v>216.97</v>
       </c>
-      <c r="Z4">
+      <c r="AV4">
         <v>231.98</v>
       </c>
-      <c r="AA4">
+      <c r="AW4">
         <v>234.81</v>
       </c>
-      <c r="AB4">
+      <c r="AX4">
         <v>244.19</v>
       </c>
-      <c r="AC4">
+      <c r="AY4">
         <v>249.79</v>
       </c>
-      <c r="AD4">
+      <c r="AZ4">
         <v>262.12</v>
       </c>
-      <c r="AE4">
+      <c r="BA4">
         <v>271.18</v>
       </c>
-      <c r="AF4">
+      <c r="BB4">
         <v>282.87</v>
       </c>
-      <c r="AG4">
+      <c r="BC4">
         <v>300.75</v>
       </c>
-      <c r="AH4">
+      <c r="BD4">
         <v>309.25</v>
       </c>
-      <c r="AI4">
+      <c r="BE4">
         <v>317.67</v>
       </c>
-      <c r="AJ4">
+      <c r="BF4">
         <v>327.22000000000003</v>
       </c>
-      <c r="AK4">
+      <c r="BG4">
         <v>327.22000000000003</v>
       </c>
-      <c r="AL4">
+      <c r="BH4">
         <v>327.22000000000003</v>
       </c>
-      <c r="AM4">
+      <c r="BI4">
         <v>327.22000000000003</v>
       </c>
-      <c r="AN4">
+      <c r="BJ4">
         <v>327.22000000000003</v>
       </c>
-      <c r="AO4">
+      <c r="BK4">
         <v>327.22000000000003</v>
       </c>
-      <c r="AP4">
+      <c r="BL4">
         <v>327.22000000000003</v>
       </c>
-      <c r="AQ4">
+      <c r="BM4">
         <v>327.22000000000003</v>
       </c>
-      <c r="AR4">
+      <c r="BN4">
         <v>327.22000000000003</v>
       </c>
-      <c r="AS4">
+      <c r="BO4">
         <v>327.22000000000003</v>
       </c>
-      <c r="AT4">
+      <c r="BP4">
         <v>186.81</v>
       </c>
-      <c r="AU4">
+      <c r="BQ4">
         <v>210.45</v>
       </c>
-      <c r="AV4">
+      <c r="BR4">
         <v>225</v>
       </c>
-      <c r="AW4">
+      <c r="BS4">
         <v>227.75</v>
       </c>
-      <c r="AX4">
+      <c r="BT4">
         <v>236.85</v>
       </c>
-      <c r="AY4">
+      <c r="BU4">
         <v>242.28</v>
       </c>
-      <c r="AZ4">
+      <c r="BV4">
         <v>254.24</v>
       </c>
-      <c r="BA4">
+      <c r="BW4">
         <v>263.02999999999997</v>
       </c>
-      <c r="BB4">
+      <c r="BX4">
         <v>274.36</v>
       </c>
-      <c r="BC4">
+      <c r="BY4">
         <v>291.70999999999998</v>
       </c>
-      <c r="BD4">
+      <c r="BZ4">
         <v>299.95</v>
       </c>
-      <c r="BE4">
+      <c r="CA4">
         <v>308.12</v>
       </c>
-      <c r="BF4">
+      <c r="CB4">
         <v>317.38</v>
       </c>
-      <c r="BG4">
+      <c r="CC4">
         <v>317.38</v>
       </c>
-      <c r="BH4">
+      <c r="CD4">
         <v>317.38</v>
       </c>
-      <c r="BI4">
+      <c r="CE4">
         <v>317.38</v>
       </c>
-      <c r="BJ4">
+      <c r="CF4">
         <v>317.38</v>
       </c>
-      <c r="BK4">
+      <c r="CG4">
         <v>317.38</v>
       </c>
-      <c r="BL4">
+      <c r="CH4">
         <v>317.38</v>
       </c>
-      <c r="BM4">
+      <c r="CI4">
         <v>317.38</v>
       </c>
-      <c r="BN4">
+      <c r="CJ4">
         <v>317.38</v>
       </c>
-      <c r="BO4">
+      <c r="CK4">
         <v>317.38</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>175.79</v>
+      </c>
+      <c r="C5">
+        <v>203.48</v>
+      </c>
+      <c r="D5">
+        <v>217.08</v>
+      </c>
+      <c r="E5">
+        <v>220.09</v>
+      </c>
+      <c r="F5">
+        <v>232.69</v>
+      </c>
+      <c r="G5">
+        <v>246.21</v>
+      </c>
+      <c r="H5">
+        <v>263.06</v>
+      </c>
+      <c r="I5">
+        <v>276.14999999999998</v>
+      </c>
+      <c r="J5">
+        <v>285.25</v>
+      </c>
+      <c r="K5">
+        <v>290.49</v>
+      </c>
+      <c r="L5">
+        <v>293.51</v>
+      </c>
+      <c r="M5">
+        <v>293.51</v>
+      </c>
+      <c r="N5">
+        <v>293.51</v>
+      </c>
+      <c r="O5">
+        <v>293.51</v>
+      </c>
+      <c r="P5">
+        <v>293.51</v>
+      </c>
+      <c r="Q5">
+        <v>293.51</v>
+      </c>
+      <c r="R5">
+        <v>293.51</v>
+      </c>
+      <c r="S5">
+        <v>293.51</v>
+      </c>
+      <c r="T5">
+        <v>293.51</v>
+      </c>
+      <c r="U5">
+        <v>293.51</v>
+      </c>
+      <c r="V5">
+        <v>293.51</v>
+      </c>
+      <c r="W5">
+        <v>293.51</v>
+      </c>
+      <c r="X5">
         <v>171.17</v>
       </c>
-      <c r="C5">
+      <c r="Y5">
         <v>198.13</v>
       </c>
-      <c r="D5">
+      <c r="Z5">
         <v>211.37</v>
       </c>
-      <c r="E5">
+      <c r="AA5">
         <v>214.3</v>
       </c>
-      <c r="F5">
+      <c r="AB5">
         <v>226.57</v>
       </c>
-      <c r="G5">
+      <c r="AC5">
         <v>239.74</v>
       </c>
-      <c r="H5">
+      <c r="AD5">
         <v>256.14</v>
       </c>
-      <c r="I5">
+      <c r="AE5">
         <v>268.89</v>
       </c>
-      <c r="J5">
+      <c r="AF5">
         <v>277.75</v>
       </c>
-      <c r="K5">
+      <c r="AG5">
         <v>282.85000000000002</v>
       </c>
-      <c r="L5">
+      <c r="AH5">
         <v>285.79000000000002</v>
       </c>
-      <c r="M5">
+      <c r="AI5">
         <v>285.79000000000002</v>
       </c>
-      <c r="N5">
+      <c r="AJ5">
         <v>285.79000000000002</v>
       </c>
-      <c r="O5">
+      <c r="AK5">
         <v>285.79000000000002</v>
       </c>
-      <c r="P5">
+      <c r="AL5">
         <v>285.79000000000002</v>
       </c>
-      <c r="Q5">
+      <c r="AM5">
         <v>285.79000000000002</v>
       </c>
-      <c r="R5">
+      <c r="AN5">
         <v>285.79000000000002</v>
       </c>
-      <c r="S5">
+      <c r="AO5">
         <v>285.79000000000002</v>
       </c>
-      <c r="T5">
+      <c r="AP5">
         <v>285.79000000000002</v>
       </c>
-      <c r="U5">
+      <c r="AQ5">
         <v>285.79000000000002</v>
       </c>
-      <c r="V5">
+      <c r="AR5">
         <v>285.79000000000002</v>
       </c>
-      <c r="W5">
+      <c r="AS5">
         <v>285.79000000000002</v>
       </c>
-      <c r="X5">
+      <c r="AT5">
         <v>166.18</v>
       </c>
-      <c r="Y5">
+      <c r="AU5">
         <v>192.36</v>
       </c>
-      <c r="Z5">
+      <c r="AV5">
         <v>205.21</v>
       </c>
-      <c r="AA5">
+      <c r="AW5">
         <v>208.06</v>
       </c>
-      <c r="AB5">
+      <c r="AX5">
         <v>219.97</v>
       </c>
-      <c r="AC5">
+      <c r="AY5">
         <v>232.76</v>
       </c>
-      <c r="AD5">
+      <c r="AZ5">
         <v>248.68</v>
       </c>
-      <c r="AE5">
+      <c r="BA5">
         <v>261.06</v>
       </c>
-      <c r="AF5">
+      <c r="BB5">
         <v>269.66000000000003</v>
       </c>
-      <c r="AG5">
+      <c r="BC5">
         <v>274.61</v>
       </c>
-      <c r="AH5">
+      <c r="BD5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AI5">
+      <c r="BE5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AJ5">
+      <c r="BF5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AK5">
+      <c r="BG5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AL5">
+      <c r="BH5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AM5">
+      <c r="BI5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AN5">
+      <c r="BJ5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AO5">
+      <c r="BK5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AP5">
+      <c r="BL5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AQ5">
+      <c r="BM5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AR5">
+      <c r="BN5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AS5">
+      <c r="BO5">
         <v>277.47000000000003</v>
       </c>
-      <c r="AT5">
+      <c r="BP5">
         <v>161.18</v>
       </c>
-      <c r="AU5">
+      <c r="BQ5">
         <v>186.58</v>
       </c>
-      <c r="AV5">
+      <c r="BR5">
         <v>199.04</v>
       </c>
-      <c r="AW5">
+      <c r="BS5">
         <v>201.8</v>
       </c>
-      <c r="AX5">
+      <c r="BT5">
         <v>213.36</v>
       </c>
-      <c r="AY5">
+      <c r="BU5">
         <v>225.76</v>
       </c>
-      <c r="AZ5">
+      <c r="BV5">
         <v>241.2</v>
       </c>
-      <c r="BA5">
+      <c r="BW5">
         <v>253.21</v>
       </c>
-      <c r="BB5">
+      <c r="BX5">
         <v>261.55</v>
       </c>
-      <c r="BC5">
+      <c r="BY5">
         <v>266.35000000000002</v>
       </c>
-      <c r="BD5">
+      <c r="BZ5">
         <v>269.13</v>
       </c>
-      <c r="BE5">
+      <c r="CA5">
         <v>269.13</v>
       </c>
-      <c r="BF5">
+      <c r="CB5">
         <v>269.13</v>
       </c>
-      <c r="BG5">
+      <c r="CC5">
         <v>269.13</v>
       </c>
-      <c r="BH5">
+      <c r="CD5">
         <v>269.13</v>
       </c>
-      <c r="BI5">
+      <c r="CE5">
         <v>269.13</v>
       </c>
-      <c r="BJ5">
+      <c r="CF5">
         <v>269.13</v>
       </c>
-      <c r="BK5">
+      <c r="CG5">
         <v>269.13</v>
       </c>
-      <c r="BL5">
+      <c r="CH5">
         <v>269.13</v>
       </c>
-      <c r="BM5">
+      <c r="CI5">
         <v>269.13</v>
       </c>
-      <c r="BN5">
+      <c r="CJ5">
         <v>269.13</v>
       </c>
-      <c r="BO5">
+      <c r="CK5">
         <v>269.13</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>154.55000000000001</v>
+      </c>
+      <c r="C6">
+        <v>175.2</v>
+      </c>
+      <c r="D6">
+        <v>189.08</v>
+      </c>
+      <c r="E6">
+        <v>206.18</v>
+      </c>
+      <c r="F6">
+        <v>216.07</v>
+      </c>
+      <c r="G6">
+        <v>226.91</v>
+      </c>
+      <c r="H6">
+        <v>233.91</v>
+      </c>
+      <c r="I6">
+        <v>245.43</v>
+      </c>
+      <c r="J6">
+        <v>251.45</v>
+      </c>
+      <c r="K6">
+        <v>251.45</v>
+      </c>
+      <c r="L6">
+        <v>251.45</v>
+      </c>
+      <c r="M6">
+        <v>251.45</v>
+      </c>
+      <c r="N6">
+        <v>251.45</v>
+      </c>
+      <c r="O6">
+        <v>251.45</v>
+      </c>
+      <c r="P6">
+        <v>251.45</v>
+      </c>
+      <c r="Q6">
+        <v>251.45</v>
+      </c>
+      <c r="R6">
+        <v>251.45</v>
+      </c>
+      <c r="S6">
+        <v>251.45</v>
+      </c>
+      <c r="T6">
+        <v>251.45</v>
+      </c>
+      <c r="U6">
+        <v>251.45</v>
+      </c>
+      <c r="V6">
+        <v>251.45</v>
+      </c>
+      <c r="W6">
+        <v>251.45</v>
+      </c>
+      <c r="X6">
         <v>150.49</v>
       </c>
-      <c r="C6">
+      <c r="Y6">
         <v>170.59</v>
       </c>
-      <c r="D6">
+      <c r="Z6">
         <v>184.11</v>
       </c>
-      <c r="E6">
+      <c r="AA6">
         <v>200.76</v>
       </c>
-      <c r="F6">
+      <c r="AB6">
         <v>210.39</v>
       </c>
-      <c r="G6">
+      <c r="AC6">
         <v>220.94</v>
       </c>
-      <c r="H6">
+      <c r="AD6">
         <v>227.76</v>
       </c>
-      <c r="I6">
+      <c r="AE6">
         <v>238.98</v>
       </c>
-      <c r="J6">
+      <c r="AF6">
         <v>244.84</v>
       </c>
-      <c r="K6">
+      <c r="AG6">
         <v>244.84</v>
       </c>
-      <c r="L6">
+      <c r="AH6">
         <v>244.84</v>
       </c>
-      <c r="M6">
+      <c r="AI6">
         <v>244.84</v>
       </c>
-      <c r="N6">
+      <c r="AJ6">
         <v>244.84</v>
       </c>
-      <c r="O6">
+      <c r="AK6">
         <v>244.84</v>
       </c>
-      <c r="P6">
+      <c r="AL6">
         <v>244.84</v>
       </c>
-      <c r="Q6">
+      <c r="AM6">
         <v>244.84</v>
       </c>
-      <c r="R6">
+      <c r="AN6">
         <v>244.84</v>
       </c>
-      <c r="S6">
+      <c r="AO6">
         <v>244.84</v>
       </c>
-      <c r="T6">
+      <c r="AP6">
         <v>244.84</v>
       </c>
-      <c r="U6">
+      <c r="AQ6">
         <v>244.84</v>
       </c>
-      <c r="V6">
+      <c r="AR6">
         <v>244.84</v>
       </c>
-      <c r="W6">
+      <c r="AS6">
         <v>244.84</v>
       </c>
-      <c r="X6">
+      <c r="AT6">
         <v>146.11000000000001</v>
       </c>
-      <c r="Y6">
+      <c r="AU6">
         <v>165.62</v>
       </c>
-      <c r="Z6">
+      <c r="AV6">
         <v>178.75</v>
       </c>
-      <c r="AA6">
+      <c r="AW6">
         <v>194.91</v>
       </c>
-      <c r="AB6">
+      <c r="AX6">
         <v>204.26</v>
       </c>
-      <c r="AC6">
+      <c r="AY6">
         <v>214.5</v>
       </c>
-      <c r="AD6">
+      <c r="AZ6">
         <v>221.13</v>
       </c>
-      <c r="AE6">
+      <c r="BA6">
         <v>232.02</v>
       </c>
-      <c r="AF6">
+      <c r="BB6">
         <v>237.71</v>
       </c>
-      <c r="AG6">
+      <c r="BC6">
         <v>237.71</v>
       </c>
-      <c r="AH6">
+      <c r="BD6">
         <v>237.71</v>
       </c>
-      <c r="AI6">
+      <c r="BE6">
         <v>237.71</v>
       </c>
-      <c r="AJ6">
+      <c r="BF6">
         <v>237.71</v>
       </c>
-      <c r="AK6">
+      <c r="BG6">
         <v>237.71</v>
       </c>
-      <c r="AL6">
+      <c r="BH6">
         <v>237.71</v>
       </c>
-      <c r="AM6">
+      <c r="BI6">
         <v>237.71</v>
       </c>
-      <c r="AN6">
+      <c r="BJ6">
         <v>237.71</v>
       </c>
-      <c r="AO6">
+      <c r="BK6">
         <v>237.71</v>
       </c>
-      <c r="AP6">
+      <c r="BL6">
         <v>237.71</v>
       </c>
-      <c r="AQ6">
+      <c r="BM6">
         <v>237.71</v>
       </c>
-      <c r="AR6">
+      <c r="BN6">
         <v>237.71</v>
       </c>
-      <c r="AS6">
+      <c r="BO6">
         <v>237.71</v>
       </c>
-      <c r="AT6">
+      <c r="BP6">
         <v>141.72</v>
       </c>
-      <c r="AU6">
+      <c r="BQ6">
         <v>160.63999999999999</v>
       </c>
-      <c r="AV6">
+      <c r="BR6">
         <v>173.38</v>
       </c>
-      <c r="AW6">
+      <c r="BS6">
         <v>189.05</v>
       </c>
-      <c r="AX6">
+      <c r="BT6">
         <v>198.12</v>
       </c>
-      <c r="AY6">
+      <c r="BU6">
         <v>208.05</v>
       </c>
-      <c r="AZ6">
+      <c r="BV6">
         <v>214.48</v>
       </c>
-      <c r="BA6">
+      <c r="BW6">
         <v>225.04</v>
       </c>
-      <c r="BB6">
+      <c r="BX6">
         <v>230.56</v>
       </c>
-      <c r="BC6">
+      <c r="BY6">
         <v>230.56</v>
       </c>
-      <c r="BD6">
+      <c r="BZ6">
         <v>230.56</v>
       </c>
-      <c r="BE6">
+      <c r="CA6">
         <v>230.56</v>
       </c>
-      <c r="BF6">
+      <c r="CB6">
         <v>230.56</v>
       </c>
-      <c r="BG6">
+      <c r="CC6">
         <v>230.56</v>
       </c>
-      <c r="BH6">
+      <c r="CD6">
         <v>230.56</v>
       </c>
-      <c r="BI6">
+      <c r="CE6">
         <v>230.56</v>
       </c>
-      <c r="BJ6">
+      <c r="CF6">
         <v>230.56</v>
       </c>
-      <c r="BK6">
+      <c r="CG6">
         <v>230.56</v>
       </c>
-      <c r="BL6">
+      <c r="CH6">
         <v>230.56</v>
       </c>
-      <c r="BM6">
+      <c r="CI6">
         <v>230.56</v>
       </c>
-      <c r="BN6">
+      <c r="CJ6">
         <v>230.56</v>
       </c>
-      <c r="BO6">
+      <c r="CK6">
         <v>230.56</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>133.55000000000001</v>
+      </c>
+      <c r="C7">
+        <v>152.09</v>
+      </c>
+      <c r="D7">
+        <v>175.17</v>
+      </c>
+      <c r="E7">
+        <v>181.09</v>
+      </c>
+      <c r="F7">
+        <v>184.81</v>
+      </c>
+      <c r="G7">
+        <v>184.81</v>
+      </c>
+      <c r="H7">
+        <v>184.81</v>
+      </c>
+      <c r="I7">
+        <v>184.81</v>
+      </c>
+      <c r="J7">
+        <v>184.81</v>
+      </c>
+      <c r="K7">
+        <v>184.81</v>
+      </c>
+      <c r="L7">
+        <v>184.81</v>
+      </c>
+      <c r="M7">
+        <v>184.81</v>
+      </c>
+      <c r="N7">
+        <v>184.81</v>
+      </c>
+      <c r="O7">
+        <v>184.81</v>
+      </c>
+      <c r="P7">
+        <v>184.81</v>
+      </c>
+      <c r="Q7">
+        <v>184.81</v>
+      </c>
+      <c r="R7">
+        <v>184.81</v>
+      </c>
+      <c r="S7">
+        <v>184.81</v>
+      </c>
+      <c r="T7">
+        <v>184.81</v>
+      </c>
+      <c r="U7">
+        <v>184.81</v>
+      </c>
+      <c r="V7">
+        <v>184.81</v>
+      </c>
+      <c r="W7">
+        <v>184.81</v>
+      </c>
+      <c r="X7">
         <v>130.04</v>
       </c>
-      <c r="C7">
+      <c r="Y7">
         <v>148.09</v>
       </c>
-      <c r="D7">
+      <c r="Z7">
         <v>170.56</v>
       </c>
-      <c r="E7">
+      <c r="AA7">
         <v>176.33</v>
       </c>
-      <c r="F7">
+      <c r="AB7">
         <v>179.95</v>
       </c>
-      <c r="G7">
+      <c r="AC7">
         <v>179.95</v>
       </c>
-      <c r="H7">
+      <c r="AD7">
         <v>179.95</v>
       </c>
-      <c r="I7">
+      <c r="AE7">
         <v>179.95</v>
       </c>
-      <c r="J7">
+      <c r="AF7">
         <v>179.95</v>
       </c>
-      <c r="K7">
+      <c r="AG7">
         <v>179.95</v>
       </c>
-      <c r="L7">
+      <c r="AH7">
         <v>179.95</v>
       </c>
-      <c r="M7">
+      <c r="AI7">
         <v>179.95</v>
       </c>
-      <c r="N7">
+      <c r="AJ7">
         <v>179.95</v>
       </c>
-      <c r="O7">
+      <c r="AK7">
         <v>179.95</v>
       </c>
-      <c r="P7">
+      <c r="AL7">
         <v>179.95</v>
       </c>
-      <c r="Q7">
+      <c r="AM7">
         <v>179.95</v>
       </c>
-      <c r="R7">
+      <c r="AN7">
         <v>179.95</v>
       </c>
-      <c r="S7">
+      <c r="AO7">
         <v>179.95</v>
       </c>
-      <c r="T7">
+      <c r="AP7">
         <v>179.95</v>
       </c>
-      <c r="U7">
+      <c r="AQ7">
         <v>179.95</v>
       </c>
-      <c r="V7">
+      <c r="AR7">
         <v>179.95</v>
       </c>
-      <c r="W7">
+      <c r="AS7">
         <v>179.95</v>
       </c>
-      <c r="X7">
+      <c r="AT7">
         <v>126.25</v>
       </c>
-      <c r="Y7">
+      <c r="AU7">
         <v>143.78</v>
       </c>
-      <c r="Z7">
+      <c r="AV7">
         <v>165.59</v>
       </c>
-      <c r="AA7">
+      <c r="AW7">
         <v>171.19</v>
       </c>
-      <c r="AB7">
+      <c r="AX7">
         <v>174.71</v>
       </c>
-      <c r="AC7">
+      <c r="AY7">
         <v>174.71</v>
       </c>
-      <c r="AD7">
+      <c r="AZ7">
         <v>174.71</v>
       </c>
-      <c r="AE7">
+      <c r="BA7">
         <v>174.71</v>
       </c>
-      <c r="AF7">
+      <c r="BB7">
         <v>174.71</v>
       </c>
-      <c r="AG7">
+      <c r="BC7">
         <v>174.71</v>
       </c>
-      <c r="AH7">
+      <c r="BD7">
         <v>174.71</v>
       </c>
-      <c r="AI7">
+      <c r="BE7">
         <v>174.71</v>
       </c>
-      <c r="AJ7">
+      <c r="BF7">
         <v>174.71</v>
       </c>
-      <c r="AK7">
+      <c r="BG7">
         <v>174.71</v>
       </c>
-      <c r="AL7">
+      <c r="BH7">
         <v>174.71</v>
       </c>
-      <c r="AM7">
+      <c r="BI7">
         <v>174.71</v>
       </c>
-      <c r="AN7">
+      <c r="BJ7">
         <v>174.71</v>
       </c>
-      <c r="AO7">
+      <c r="BK7">
         <v>174.71</v>
       </c>
-      <c r="AP7">
+      <c r="BL7">
         <v>174.71</v>
       </c>
-      <c r="AQ7">
+      <c r="BM7">
         <v>174.71</v>
       </c>
-      <c r="AR7">
+      <c r="BN7">
         <v>174.71</v>
       </c>
-      <c r="AS7">
+      <c r="BO7">
         <v>174.71</v>
       </c>
-      <c r="AT7">
+      <c r="BP7">
         <v>122.45</v>
       </c>
-      <c r="AU7">
+      <c r="BQ7">
         <v>139.46</v>
       </c>
-      <c r="AV7">
+      <c r="BR7">
         <v>160.61000000000001</v>
       </c>
-      <c r="AW7">
+      <c r="BS7">
         <v>166.04</v>
       </c>
-      <c r="AX7">
+      <c r="BT7">
         <v>169.46</v>
       </c>
-      <c r="AY7">
+      <c r="BU7">
         <v>169.46</v>
       </c>
-      <c r="AZ7">
+      <c r="BV7">
         <v>169.46</v>
       </c>
-      <c r="BA7">
+      <c r="BW7">
         <v>169.46</v>
       </c>
-      <c r="BB7">
+      <c r="BX7">
         <v>169.46</v>
       </c>
-      <c r="BC7">
+      <c r="BY7">
         <v>169.46</v>
       </c>
-      <c r="BD7">
+      <c r="BZ7">
         <v>169.46</v>
       </c>
-      <c r="BE7">
+      <c r="CA7">
         <v>169.46</v>
       </c>
-      <c r="BF7">
+      <c r="CB7">
         <v>169.46</v>
       </c>
-      <c r="BG7">
+      <c r="CC7">
         <v>169.46</v>
       </c>
-      <c r="BH7">
+      <c r="CD7">
         <v>169.46</v>
       </c>
-      <c r="BI7">
+      <c r="CE7">
         <v>169.46</v>
       </c>
-      <c r="BJ7">
+      <c r="CF7">
         <v>169.46</v>
       </c>
-      <c r="BK7">
+      <c r="CG7">
         <v>169.46</v>
       </c>
-      <c r="BL7">
+      <c r="CH7">
         <v>169.46</v>
       </c>
-      <c r="BM7">
+      <c r="CI7">
         <v>169.46</v>
       </c>
-      <c r="BN7">
+      <c r="CJ7">
         <v>169.46</v>
       </c>
-      <c r="BO7">
+      <c r="CK7">
         <v>169.46</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>115.91</v>
+      </c>
+      <c r="C8">
+        <v>120.65</v>
+      </c>
+      <c r="D8">
+        <v>145.85</v>
+      </c>
+      <c r="E8">
+        <v>145.85</v>
+      </c>
+      <c r="F8">
+        <v>145.85</v>
+      </c>
+      <c r="G8">
+        <v>145.85</v>
+      </c>
+      <c r="H8">
+        <v>145.85</v>
+      </c>
+      <c r="I8">
+        <v>145.85</v>
+      </c>
+      <c r="J8">
+        <v>145.85</v>
+      </c>
+      <c r="K8">
+        <v>145.85</v>
+      </c>
+      <c r="L8">
+        <v>145.85</v>
+      </c>
+      <c r="M8">
+        <v>145.85</v>
+      </c>
+      <c r="N8">
+        <v>145.85</v>
+      </c>
+      <c r="O8">
+        <v>145.85</v>
+      </c>
+      <c r="P8">
+        <v>145.85</v>
+      </c>
+      <c r="Q8">
+        <v>145.85</v>
+      </c>
+      <c r="R8">
+        <v>145.85</v>
+      </c>
+      <c r="S8">
+        <v>145.85</v>
+      </c>
+      <c r="T8">
+        <v>145.85</v>
+      </c>
+      <c r="U8">
+        <v>145.85</v>
+      </c>
+      <c r="V8">
+        <v>145.85</v>
+      </c>
+      <c r="W8">
+        <v>145.85</v>
+      </c>
+      <c r="X8">
         <v>112.86</v>
       </c>
-      <c r="C8">
+      <c r="Y8">
         <v>117.48</v>
       </c>
-      <c r="D8">
+      <c r="Z8">
         <v>142.02000000000001</v>
       </c>
-      <c r="E8">
+      <c r="AA8">
         <v>142.02000000000001</v>
       </c>
-      <c r="F8">
+      <c r="AB8">
         <v>142.02000000000001</v>
       </c>
-      <c r="G8">
+      <c r="AC8">
         <v>142.02000000000001</v>
       </c>
-      <c r="H8">
+      <c r="AD8">
         <v>142.02000000000001</v>
       </c>
-      <c r="I8">
+      <c r="AE8">
         <v>142.02000000000001</v>
       </c>
-      <c r="J8">
+      <c r="AF8">
         <v>142.02000000000001</v>
       </c>
-      <c r="K8">
+      <c r="AG8">
         <v>142.02000000000001</v>
       </c>
-      <c r="L8">
+      <c r="AH8">
         <v>142.02000000000001</v>
       </c>
-      <c r="M8">
+      <c r="AI8">
         <v>142.02000000000001</v>
       </c>
-      <c r="N8">
+      <c r="AJ8">
         <v>142.02000000000001</v>
       </c>
-      <c r="O8">
+      <c r="AK8">
         <v>142.02000000000001</v>
       </c>
-      <c r="P8">
+      <c r="AL8">
         <v>142.02000000000001</v>
       </c>
-      <c r="Q8">
+      <c r="AM8">
         <v>142.02000000000001</v>
       </c>
-      <c r="R8">
+      <c r="AN8">
         <v>142.02000000000001</v>
       </c>
-      <c r="S8">
+      <c r="AO8">
         <v>142.02000000000001</v>
       </c>
-      <c r="T8">
+      <c r="AP8">
         <v>142.02000000000001</v>
       </c>
-      <c r="U8">
+      <c r="AQ8">
         <v>142.02000000000001</v>
       </c>
-      <c r="V8">
+      <c r="AR8">
         <v>142.02000000000001</v>
       </c>
-      <c r="W8">
+      <c r="AS8">
         <v>142.02000000000001</v>
       </c>
-      <c r="X8">
+      <c r="AT8">
         <v>109.57</v>
       </c>
-      <c r="Y8">
+      <c r="AU8">
         <v>114.06</v>
       </c>
-      <c r="Z8">
+      <c r="AV8">
         <v>137.88</v>
       </c>
-      <c r="AA8">
+      <c r="AW8">
         <v>137.88</v>
       </c>
-      <c r="AB8">
+      <c r="AX8">
         <v>137.88</v>
       </c>
-      <c r="AC8">
+      <c r="AY8">
         <v>137.88</v>
       </c>
-      <c r="AD8">
+      <c r="AZ8">
         <v>137.88</v>
       </c>
-      <c r="AE8">
+      <c r="BA8">
         <v>137.88</v>
       </c>
-      <c r="AF8">
+      <c r="BB8">
         <v>137.88</v>
       </c>
-      <c r="AG8">
+      <c r="BC8">
         <v>137.88</v>
       </c>
-      <c r="AH8">
+      <c r="BD8">
         <v>137.88</v>
       </c>
-      <c r="AI8">
+      <c r="BE8">
         <v>137.88</v>
       </c>
-      <c r="AJ8">
+      <c r="BF8">
         <v>137.88</v>
       </c>
-      <c r="AK8">
+      <c r="BG8">
         <v>137.88</v>
       </c>
-      <c r="AL8">
+      <c r="BH8">
         <v>137.88</v>
       </c>
-      <c r="AM8">
+      <c r="BI8">
         <v>137.88</v>
       </c>
-      <c r="AN8">
+      <c r="BJ8">
         <v>137.88</v>
       </c>
-      <c r="AO8">
+      <c r="BK8">
         <v>137.88</v>
       </c>
-      <c r="AP8">
+      <c r="BL8">
         <v>137.88</v>
       </c>
-      <c r="AQ8">
+      <c r="BM8">
         <v>137.88</v>
       </c>
-      <c r="AR8">
+      <c r="BN8">
         <v>137.88</v>
       </c>
-      <c r="AS8">
+      <c r="BO8">
         <v>137.88</v>
       </c>
-      <c r="AT8">
+      <c r="BP8">
         <v>106.28</v>
       </c>
-      <c r="AU8">
+      <c r="BQ8">
         <v>110.63</v>
       </c>
-      <c r="AV8">
+      <c r="BR8">
         <v>133.72999999999999</v>
       </c>
-      <c r="AW8">
+      <c r="BS8">
         <v>133.72999999999999</v>
       </c>
-      <c r="AX8">
+      <c r="BT8">
         <v>133.72999999999999</v>
       </c>
-      <c r="AY8">
+      <c r="BU8">
         <v>133.72999999999999</v>
       </c>
-      <c r="AZ8">
+      <c r="BV8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BA8">
+      <c r="BW8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BB8">
+      <c r="BX8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BC8">
+      <c r="BY8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BD8">
+      <c r="BZ8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BE8">
+      <c r="CA8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BF8">
+      <c r="CB8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BG8">
+      <c r="CC8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BH8">
+      <c r="CD8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BI8">
+      <c r="CE8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BJ8">
+      <c r="CF8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BK8">
+      <c r="CG8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BL8">
+      <c r="CH8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BM8">
+      <c r="CI8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BN8">
+      <c r="CJ8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BO8">
+      <c r="CK8">
         <v>133.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>192.97</v>
+      </c>
+      <c r="C9">
+        <v>192.97</v>
+      </c>
+      <c r="D9">
+        <v>192.97</v>
+      </c>
+      <c r="E9">
+        <v>192.97</v>
+      </c>
+      <c r="F9">
+        <v>192.97</v>
+      </c>
+      <c r="G9">
+        <v>192.97</v>
+      </c>
+      <c r="H9">
+        <v>192.97</v>
+      </c>
+      <c r="I9">
+        <v>197.35</v>
+      </c>
+      <c r="J9">
+        <v>202.86</v>
+      </c>
+      <c r="K9">
+        <v>209.33</v>
+      </c>
+      <c r="L9">
+        <v>215.9</v>
+      </c>
+      <c r="M9">
+        <v>226.35</v>
+      </c>
+      <c r="N9">
+        <v>235.23</v>
+      </c>
+      <c r="O9">
+        <v>244.54</v>
+      </c>
+      <c r="P9">
+        <v>258.81</v>
+      </c>
+      <c r="Q9">
+        <v>258.81</v>
+      </c>
+      <c r="R9">
+        <v>271.73</v>
+      </c>
+      <c r="S9">
+        <v>271.73</v>
+      </c>
+      <c r="T9">
+        <v>285.33</v>
+      </c>
+      <c r="U9">
+        <v>285.33</v>
+      </c>
+      <c r="V9">
+        <v>299.63</v>
+      </c>
+      <c r="W9">
+        <v>299.63</v>
+      </c>
+      <c r="X9">
         <v>187.9</v>
       </c>
-      <c r="C9">
+      <c r="Y9">
         <v>187.9</v>
       </c>
-      <c r="D9">
+      <c r="Z9">
         <v>187.9</v>
       </c>
-      <c r="E9">
+      <c r="AA9">
         <v>187.9</v>
       </c>
-      <c r="F9">
+      <c r="AB9">
         <v>187.9</v>
       </c>
-      <c r="G9">
+      <c r="AC9">
         <v>187.9</v>
       </c>
-      <c r="H9">
+      <c r="AD9">
         <v>187.9</v>
       </c>
-      <c r="I9">
+      <c r="AE9">
         <v>192.16</v>
       </c>
-      <c r="J9">
+      <c r="AF9">
         <v>197.53</v>
       </c>
-      <c r="K9">
+      <c r="AG9">
         <v>203.83</v>
       </c>
-      <c r="L9">
+      <c r="AH9">
         <v>210.22</v>
       </c>
-      <c r="M9">
+      <c r="AI9">
         <v>220.4</v>
       </c>
-      <c r="N9">
+      <c r="AJ9">
         <v>229.05</v>
       </c>
-      <c r="O9">
+      <c r="AK9">
         <v>238.11</v>
       </c>
-      <c r="P9">
+      <c r="AL9">
         <v>252.01</v>
       </c>
-      <c r="Q9">
+      <c r="AM9">
         <v>252.01</v>
       </c>
-      <c r="R9">
+      <c r="AN9">
         <v>264.58999999999997</v>
       </c>
-      <c r="S9">
+      <c r="AO9">
         <v>264.58999999999997</v>
       </c>
-      <c r="T9">
+      <c r="AP9">
         <v>277.83</v>
       </c>
-      <c r="U9">
+      <c r="AQ9">
         <v>277.83</v>
       </c>
-      <c r="V9">
+      <c r="AR9">
         <v>291.75</v>
       </c>
-      <c r="W9">
+      <c r="AS9">
         <v>291.75</v>
       </c>
-      <c r="X9">
+      <c r="AT9">
         <v>182.43</v>
       </c>
-      <c r="Y9">
+      <c r="AU9">
         <v>182.43</v>
       </c>
-      <c r="Z9">
+      <c r="AV9">
         <v>182.43</v>
       </c>
-      <c r="AA9">
+      <c r="AW9">
         <v>182.43</v>
       </c>
-      <c r="AB9">
+      <c r="AX9">
         <v>182.43</v>
       </c>
-      <c r="AC9">
+      <c r="AY9">
         <v>182.43</v>
       </c>
-      <c r="AD9">
+      <c r="AZ9">
         <v>182.43</v>
       </c>
-      <c r="AE9">
+      <c r="BA9">
         <v>186.56</v>
       </c>
-      <c r="AF9">
+      <c r="BB9">
         <v>191.78</v>
       </c>
-      <c r="AG9">
+      <c r="BC9">
         <v>197.89</v>
       </c>
-      <c r="AH9">
+      <c r="BD9">
         <v>204.1</v>
       </c>
-      <c r="AI9">
+      <c r="BE9">
         <v>213.98</v>
       </c>
-      <c r="AJ9">
+      <c r="BF9">
         <v>222.38</v>
       </c>
-      <c r="AK9">
+      <c r="BG9">
         <v>231.17</v>
       </c>
-      <c r="AL9">
+      <c r="BH9">
         <v>244.67</v>
       </c>
-      <c r="AM9">
+      <c r="BI9">
         <v>244.67</v>
       </c>
-      <c r="AN9">
+      <c r="BJ9">
         <v>256.88</v>
       </c>
-      <c r="AO9">
+      <c r="BK9">
         <v>256.88</v>
       </c>
-      <c r="AP9">
+      <c r="BL9">
         <v>269.74</v>
       </c>
-      <c r="AQ9">
+      <c r="BM9">
         <v>269.74</v>
       </c>
-      <c r="AR9">
+      <c r="BN9">
         <v>283.25</v>
       </c>
-      <c r="AS9">
+      <c r="BO9">
         <v>283.25</v>
       </c>
-      <c r="AT9">
+      <c r="BP9">
         <v>176.94</v>
       </c>
-      <c r="AU9">
+      <c r="BQ9">
         <v>176.94</v>
       </c>
-      <c r="AV9">
+      <c r="BR9">
         <v>176.94</v>
       </c>
-      <c r="AW9">
+      <c r="BS9">
         <v>176.94</v>
       </c>
-      <c r="AX9">
+      <c r="BT9">
         <v>176.94</v>
       </c>
-      <c r="AY9">
+      <c r="BU9">
         <v>176.94</v>
       </c>
-      <c r="AZ9">
+      <c r="BV9">
         <v>176.94</v>
       </c>
-      <c r="BA9">
+      <c r="BW9">
         <v>180.95</v>
       </c>
-      <c r="BB9">
+      <c r="BX9">
         <v>186.01</v>
       </c>
-      <c r="BC9">
+      <c r="BY9">
         <v>191.94</v>
       </c>
-      <c r="BD9">
+      <c r="BZ9">
         <v>197.96</v>
       </c>
-      <c r="BE9">
+      <c r="CA9">
         <v>207.55</v>
       </c>
-      <c r="BF9">
+      <c r="CB9">
         <v>215.69</v>
       </c>
-      <c r="BG9">
+      <c r="CC9">
         <v>224.22</v>
       </c>
-      <c r="BH9">
+      <c r="CD9">
         <v>237.31</v>
       </c>
-      <c r="BI9">
+      <c r="CE9">
         <v>237.31</v>
       </c>
-      <c r="BJ9">
+      <c r="CF9">
         <v>249.16</v>
       </c>
-      <c r="BK9">
+      <c r="CG9">
         <v>249.16</v>
       </c>
-      <c r="BL9">
+      <c r="CH9">
         <v>261.63</v>
       </c>
-      <c r="BM9">
+      <c r="CI9">
         <v>261.63</v>
       </c>
-      <c r="BN9">
+      <c r="CJ9">
         <v>274.73</v>
       </c>
-      <c r="BO9">
+      <c r="CK9">
         <v>274.73</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>157.97</v>
+      </c>
+      <c r="C10">
+        <v>157.97</v>
+      </c>
+      <c r="D10">
+        <v>157.97</v>
+      </c>
+      <c r="E10">
+        <v>157.97</v>
+      </c>
+      <c r="F10">
+        <v>157.97</v>
+      </c>
+      <c r="G10">
+        <v>157.97</v>
+      </c>
+      <c r="H10">
+        <v>164.96</v>
+      </c>
+      <c r="I10">
+        <v>169.28</v>
+      </c>
+      <c r="J10">
+        <v>174.46</v>
+      </c>
+      <c r="K10">
+        <v>180.08</v>
+      </c>
+      <c r="L10">
+        <v>190.21</v>
+      </c>
+      <c r="M10">
+        <v>195.35</v>
+      </c>
+      <c r="N10">
+        <v>204.09</v>
+      </c>
+      <c r="O10">
+        <v>208.94</v>
+      </c>
+      <c r="P10">
+        <v>220.87</v>
+      </c>
+      <c r="Q10">
+        <v>220.87</v>
+      </c>
+      <c r="R10">
+        <v>225.3</v>
+      </c>
+      <c r="S10">
+        <v>225.3</v>
+      </c>
+      <c r="T10">
+        <v>225.3</v>
+      </c>
+      <c r="U10">
+        <v>225.3</v>
+      </c>
+      <c r="V10">
+        <v>225.3</v>
+      </c>
+      <c r="W10">
+        <v>225.3</v>
+      </c>
+      <c r="X10">
         <v>153.82</v>
       </c>
-      <c r="C10">
+      <c r="Y10">
         <v>153.82</v>
       </c>
-      <c r="D10">
+      <c r="Z10">
         <v>153.82</v>
       </c>
-      <c r="E10">
+      <c r="AA10">
         <v>153.82</v>
       </c>
-      <c r="F10">
+      <c r="AB10">
         <v>153.82</v>
       </c>
-      <c r="G10">
+      <c r="AC10">
         <v>153.82</v>
       </c>
-      <c r="H10">
+      <c r="AD10">
         <v>160.62</v>
       </c>
-      <c r="I10">
+      <c r="AE10">
         <v>164.83</v>
       </c>
-      <c r="J10">
+      <c r="AF10">
         <v>169.87</v>
       </c>
-      <c r="K10">
+      <c r="AG10">
         <v>175.35</v>
       </c>
-      <c r="L10">
+      <c r="AH10">
         <v>185.21</v>
       </c>
-      <c r="M10">
+      <c r="AI10">
         <v>190.21</v>
       </c>
-      <c r="N10">
+      <c r="AJ10">
         <v>198.72</v>
       </c>
-      <c r="O10">
+      <c r="AK10">
         <v>203.45</v>
       </c>
-      <c r="P10">
+      <c r="AL10">
         <v>215.06</v>
       </c>
-      <c r="Q10">
+      <c r="AM10">
         <v>215.06</v>
       </c>
-      <c r="R10">
+      <c r="AN10">
         <v>219.38</v>
       </c>
-      <c r="S10">
+      <c r="AO10">
         <v>219.38</v>
       </c>
-      <c r="T10">
+      <c r="AP10">
         <v>219.38</v>
       </c>
-      <c r="U10">
+      <c r="AQ10">
         <v>219.38</v>
       </c>
-      <c r="V10">
+      <c r="AR10">
         <v>219.38</v>
       </c>
-      <c r="W10">
+      <c r="AS10">
         <v>219.38</v>
       </c>
-      <c r="X10">
+      <c r="AT10">
         <v>149.34</v>
       </c>
-      <c r="Y10">
+      <c r="AU10">
         <v>149.34</v>
       </c>
-      <c r="Z10">
+      <c r="AV10">
         <v>149.34</v>
       </c>
-      <c r="AA10">
+      <c r="AW10">
         <v>149.34</v>
       </c>
-      <c r="AB10">
+      <c r="AX10">
         <v>149.34</v>
       </c>
-      <c r="AC10">
+      <c r="AY10">
         <v>149.34</v>
       </c>
-      <c r="AD10">
+      <c r="AZ10">
         <v>155.94</v>
       </c>
-      <c r="AE10">
+      <c r="BA10">
         <v>160.03</v>
       </c>
-      <c r="AF10">
+      <c r="BB10">
         <v>164.92</v>
       </c>
-      <c r="AG10">
+      <c r="BC10">
         <v>170.24</v>
       </c>
-      <c r="AH10">
+      <c r="BD10">
         <v>179.82</v>
       </c>
-      <c r="AI10">
+      <c r="BE10">
         <v>184.67</v>
       </c>
-      <c r="AJ10">
+      <c r="BF10">
         <v>192.93</v>
       </c>
-      <c r="AK10">
+      <c r="BG10">
         <v>197.52</v>
       </c>
-      <c r="AL10">
+      <c r="BH10">
         <v>208.8</v>
       </c>
-      <c r="AM10">
+      <c r="BI10">
         <v>208.8</v>
       </c>
-      <c r="AN10">
+      <c r="BJ10">
         <v>212.99</v>
       </c>
-      <c r="AO10">
+      <c r="BK10">
         <v>212.99</v>
       </c>
-      <c r="AP10">
+      <c r="BL10">
         <v>212.99</v>
       </c>
-      <c r="AQ10">
+      <c r="BM10">
         <v>212.99</v>
       </c>
-      <c r="AR10">
+      <c r="BN10">
         <v>212.99</v>
       </c>
-      <c r="AS10">
+      <c r="BO10">
         <v>212.99</v>
       </c>
-      <c r="AT10">
+      <c r="BP10">
         <v>144.85</v>
       </c>
-      <c r="AU10">
+      <c r="BQ10">
         <v>144.85</v>
       </c>
-      <c r="AV10">
+      <c r="BR10">
         <v>144.85</v>
       </c>
-      <c r="AW10">
+      <c r="BS10">
         <v>144.85</v>
       </c>
-      <c r="AX10">
+      <c r="BT10">
         <v>144.85</v>
       </c>
-      <c r="AY10">
+      <c r="BU10">
         <v>144.85</v>
       </c>
-      <c r="AZ10">
+      <c r="BV10">
         <v>151.25</v>
       </c>
-      <c r="BA10">
+      <c r="BW10">
         <v>155.22</v>
       </c>
-      <c r="BB10">
+      <c r="BX10">
         <v>159.96</v>
       </c>
-      <c r="BC10">
+      <c r="BY10">
         <v>165.12</v>
       </c>
-      <c r="BD10">
+      <c r="BZ10">
         <v>174.41</v>
       </c>
-      <c r="BE10">
+      <c r="CA10">
         <v>179.12</v>
       </c>
-      <c r="BF10">
+      <c r="CB10">
         <v>187.13</v>
       </c>
-      <c r="BG10">
+      <c r="CC10">
         <v>191.58</v>
       </c>
-      <c r="BH10">
+      <c r="CD10">
         <v>202.52</v>
       </c>
-      <c r="BI10">
+      <c r="CE10">
         <v>202.52</v>
       </c>
-      <c r="BJ10">
+      <c r="CF10">
         <v>206.59</v>
       </c>
-      <c r="BK10">
+      <c r="CG10">
         <v>206.59</v>
       </c>
-      <c r="BL10">
+      <c r="CH10">
         <v>206.59</v>
       </c>
-      <c r="BM10">
+      <c r="CI10">
         <v>206.59</v>
       </c>
-      <c r="BN10">
+      <c r="CJ10">
         <v>206.59</v>
       </c>
-      <c r="BO10">
+      <c r="CK10">
         <v>206.59</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>109.81</v>
+      </c>
+      <c r="C11">
+        <v>119.85</v>
+      </c>
+      <c r="D11">
+        <v>124.45</v>
+      </c>
+      <c r="E11">
+        <v>130.51</v>
+      </c>
+      <c r="F11">
+        <v>135.27000000000001</v>
+      </c>
+      <c r="G11">
+        <v>143.41999999999999</v>
+      </c>
+      <c r="H11">
+        <v>148.02000000000001</v>
+      </c>
+      <c r="I11">
+        <v>156.16999999999999</v>
+      </c>
+      <c r="J11">
+        <v>162.94999999999999</v>
+      </c>
+      <c r="K11">
+        <v>167.58</v>
+      </c>
+      <c r="L11">
+        <v>172.51</v>
+      </c>
+      <c r="M11">
+        <v>174.42</v>
+      </c>
+      <c r="N11">
+        <v>180.83</v>
+      </c>
+      <c r="O11">
+        <v>184.27</v>
+      </c>
+      <c r="P11">
+        <v>197.37</v>
+      </c>
+      <c r="Q11">
+        <v>197.37</v>
+      </c>
+      <c r="R11">
+        <v>197.37</v>
+      </c>
+      <c r="S11">
+        <v>197.37</v>
+      </c>
+      <c r="T11">
+        <v>197.37</v>
+      </c>
+      <c r="U11">
+        <v>197.37</v>
+      </c>
+      <c r="V11">
+        <v>197.37</v>
+      </c>
+      <c r="W11">
+        <v>197.37</v>
+      </c>
+      <c r="X11">
         <v>106.92</v>
       </c>
-      <c r="C11">
+      <c r="Y11">
         <v>116.7</v>
       </c>
-      <c r="D11">
+      <c r="Z11">
         <v>121.18</v>
       </c>
-      <c r="E11">
+      <c r="AA11">
         <v>127.08</v>
       </c>
-      <c r="F11">
+      <c r="AB11">
         <v>131.71</v>
       </c>
-      <c r="G11">
+      <c r="AC11">
         <v>139.65</v>
       </c>
-      <c r="H11">
+      <c r="AD11">
         <v>144.13</v>
       </c>
-      <c r="I11">
+      <c r="AE11">
         <v>152.06</v>
       </c>
-      <c r="J11">
+      <c r="AF11">
         <v>158.66999999999999</v>
       </c>
-      <c r="K11">
+      <c r="AG11">
         <v>163.16999999999999</v>
       </c>
-      <c r="L11">
+      <c r="AH11">
         <v>167.97</v>
       </c>
-      <c r="M11">
+      <c r="AI11">
         <v>169.83</v>
       </c>
-      <c r="N11">
+      <c r="AJ11">
         <v>176.08</v>
       </c>
-      <c r="O11">
+      <c r="AK11">
         <v>179.43</v>
       </c>
-      <c r="P11">
+      <c r="AL11">
         <v>192.18</v>
       </c>
-      <c r="Q11">
+      <c r="AM11">
         <v>192.18</v>
       </c>
-      <c r="R11">
+      <c r="AN11">
         <v>192.18</v>
       </c>
-      <c r="S11">
+      <c r="AO11">
         <v>192.18</v>
       </c>
-      <c r="T11">
+      <c r="AP11">
         <v>192.18</v>
       </c>
-      <c r="U11">
+      <c r="AQ11">
         <v>192.18</v>
       </c>
-      <c r="V11">
+      <c r="AR11">
         <v>192.18</v>
       </c>
-      <c r="W11">
+      <c r="AS11">
         <v>192.18</v>
       </c>
-      <c r="X11">
+      <c r="AT11">
         <v>103.81</v>
       </c>
-      <c r="Y11">
+      <c r="AU11">
         <v>113.3</v>
       </c>
-      <c r="Z11">
+      <c r="AV11">
         <v>117.65</v>
       </c>
-      <c r="AA11">
+      <c r="AW11">
         <v>123.38</v>
       </c>
-      <c r="AB11">
+      <c r="AX11">
         <v>127.87</v>
       </c>
-      <c r="AC11">
+      <c r="AY11">
         <v>135.58000000000001</v>
       </c>
-      <c r="AD11">
+      <c r="AZ11">
         <v>139.93</v>
       </c>
-      <c r="AE11">
+      <c r="BA11">
         <v>147.63</v>
       </c>
-      <c r="AF11">
+      <c r="BB11">
         <v>154.05000000000001</v>
       </c>
-      <c r="AG11">
+      <c r="BC11">
         <v>158.41999999999999</v>
       </c>
-      <c r="AH11">
+      <c r="BD11">
         <v>163.08000000000001</v>
       </c>
-      <c r="AI11">
+      <c r="BE11">
         <v>164.88</v>
       </c>
-      <c r="AJ11">
+      <c r="BF11">
         <v>170.95</v>
       </c>
-      <c r="AK11">
+      <c r="BG11">
         <v>174.2</v>
       </c>
-      <c r="AL11">
+      <c r="BH11">
         <v>186.58</v>
       </c>
-      <c r="AM11">
+      <c r="BI11">
         <v>186.58</v>
       </c>
-      <c r="AN11">
+      <c r="BJ11">
         <v>186.58</v>
       </c>
-      <c r="AO11">
+      <c r="BK11">
         <v>186.58</v>
       </c>
-      <c r="AP11">
+      <c r="BL11">
         <v>186.58</v>
       </c>
-      <c r="AQ11">
+      <c r="BM11">
         <v>186.58</v>
       </c>
-      <c r="AR11">
+      <c r="BN11">
         <v>186.58</v>
       </c>
-      <c r="AS11">
+      <c r="BO11">
         <v>186.58</v>
       </c>
-      <c r="AT11">
+      <c r="BP11">
         <v>100.69</v>
       </c>
-      <c r="AU11">
+      <c r="BQ11">
         <v>109.89</v>
       </c>
-      <c r="AV11">
+      <c r="BR11">
         <v>114.11</v>
       </c>
-      <c r="AW11">
+      <c r="BS11">
         <v>119.67</v>
       </c>
-      <c r="AX11">
+      <c r="BT11">
         <v>124.03</v>
       </c>
-      <c r="AY11">
+      <c r="BU11">
         <v>131.5</v>
       </c>
-      <c r="AZ11">
+      <c r="BV11">
         <v>135.72</v>
       </c>
-      <c r="BA11">
+      <c r="BW11">
         <v>143.19</v>
       </c>
-      <c r="BB11">
+      <c r="BX11">
         <v>149.41999999999999</v>
       </c>
-      <c r="BC11">
+      <c r="BY11">
         <v>153.66</v>
       </c>
-      <c r="BD11">
+      <c r="BZ11">
         <v>158.18</v>
       </c>
-      <c r="BE11">
+      <c r="CA11">
         <v>159.91999999999999</v>
       </c>
-      <c r="BF11">
+      <c r="CB11">
         <v>165.81</v>
       </c>
-      <c r="BG11">
+      <c r="CC11">
         <v>168.96</v>
       </c>
-      <c r="BH11">
+      <c r="CD11">
         <v>180.97</v>
       </c>
-      <c r="BI11">
+      <c r="CE11">
         <v>180.97</v>
       </c>
-      <c r="BJ11">
+      <c r="CF11">
         <v>180.97</v>
       </c>
-      <c r="BK11">
+      <c r="CG11">
         <v>180.97</v>
       </c>
-      <c r="BL11">
+      <c r="CH11">
         <v>180.97</v>
       </c>
-      <c r="BM11">
+      <c r="CI11">
         <v>180.97</v>
       </c>
-      <c r="BN11">
+      <c r="CJ11">
         <v>180.97</v>
       </c>
-      <c r="BO11">
+      <c r="CK11">
         <v>180.97</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>94.98</v>
+      </c>
+      <c r="C12">
+        <v>104.52</v>
+      </c>
+      <c r="D12">
+        <v>109.14</v>
+      </c>
+      <c r="E12">
+        <v>113.62</v>
+      </c>
+      <c r="F12">
+        <v>118.29</v>
+      </c>
+      <c r="G12">
+        <v>128.81</v>
+      </c>
+      <c r="H12">
+        <v>132.91999999999999</v>
+      </c>
+      <c r="I12">
+        <v>140.85</v>
+      </c>
+      <c r="J12">
+        <v>143.28</v>
+      </c>
+      <c r="K12">
+        <v>145.04</v>
+      </c>
+      <c r="L12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="M12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="N12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="O12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="P12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="R12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="S12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="T12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="U12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="V12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="W12">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="X12">
         <v>92.48</v>
       </c>
-      <c r="C12">
+      <c r="Y12">
         <v>101.77</v>
       </c>
-      <c r="D12">
+      <c r="Z12">
         <v>106.27</v>
       </c>
-      <c r="E12">
+      <c r="AA12">
         <v>110.63</v>
       </c>
-      <c r="F12">
+      <c r="AB12">
         <v>115.18</v>
       </c>
-      <c r="G12">
+      <c r="AC12">
         <v>125.42</v>
       </c>
-      <c r="H12">
+      <c r="AD12">
         <v>129.43</v>
       </c>
-      <c r="I12">
+      <c r="AE12">
         <v>137.15</v>
       </c>
-      <c r="J12">
+      <c r="AF12">
         <v>139.51</v>
       </c>
-      <c r="K12">
+      <c r="AG12">
         <v>141.22999999999999</v>
       </c>
-      <c r="L12">
+      <c r="AH12">
         <v>143.24</v>
       </c>
-      <c r="M12">
+      <c r="AI12">
         <v>143.24</v>
       </c>
-      <c r="N12">
+      <c r="AJ12">
         <v>143.24</v>
       </c>
-      <c r="O12">
+      <c r="AK12">
         <v>143.24</v>
       </c>
-      <c r="P12">
+      <c r="AL12">
         <v>143.24</v>
       </c>
-      <c r="Q12">
+      <c r="AM12">
         <v>143.24</v>
       </c>
-      <c r="R12">
+      <c r="AN12">
         <v>143.24</v>
       </c>
-      <c r="S12">
+      <c r="AO12">
         <v>143.24</v>
       </c>
-      <c r="T12">
+      <c r="AP12">
         <v>143.24</v>
       </c>
-      <c r="U12">
+      <c r="AQ12">
         <v>143.24</v>
       </c>
-      <c r="V12">
+      <c r="AR12">
         <v>143.24</v>
       </c>
-      <c r="W12">
+      <c r="AS12">
         <v>143.24</v>
       </c>
-      <c r="X12">
+      <c r="AT12">
         <v>89.79</v>
       </c>
-      <c r="Y12">
+      <c r="AU12">
         <v>98.81</v>
       </c>
-      <c r="Z12">
+      <c r="AV12">
         <v>103.17</v>
       </c>
-      <c r="AA12">
+      <c r="AW12">
         <v>107.41</v>
       </c>
-      <c r="AB12">
+      <c r="AX12">
         <v>111.83</v>
       </c>
-      <c r="AC12">
+      <c r="AY12">
         <v>121.77</v>
       </c>
-      <c r="AD12">
+      <c r="AZ12">
         <v>125.66</v>
       </c>
-      <c r="AE12">
+      <c r="BA12">
         <v>133.16</v>
       </c>
-      <c r="AF12">
+      <c r="BB12">
         <v>135.44999999999999</v>
       </c>
-      <c r="AG12">
+      <c r="BC12">
         <v>137.12</v>
       </c>
-      <c r="AH12">
+      <c r="BD12">
         <v>139.07</v>
       </c>
-      <c r="AI12">
+      <c r="BE12">
         <v>139.07</v>
       </c>
-      <c r="AJ12">
+      <c r="BF12">
         <v>139.07</v>
       </c>
-      <c r="AK12">
+      <c r="BG12">
         <v>139.07</v>
       </c>
-      <c r="AL12">
+      <c r="BH12">
         <v>139.07</v>
       </c>
-      <c r="AM12">
+      <c r="BI12">
         <v>139.07</v>
       </c>
-      <c r="AN12">
+      <c r="BJ12">
         <v>139.07</v>
       </c>
-      <c r="AO12">
+      <c r="BK12">
         <v>139.07</v>
       </c>
-      <c r="AP12">
+      <c r="BL12">
         <v>139.07</v>
       </c>
-      <c r="AQ12">
+      <c r="BM12">
         <v>139.07</v>
       </c>
-      <c r="AR12">
+      <c r="BN12">
         <v>139.07</v>
       </c>
-      <c r="AS12">
+      <c r="BO12">
         <v>139.07</v>
       </c>
-      <c r="AT12">
+      <c r="BP12">
         <v>87.09</v>
       </c>
-      <c r="AU12">
+      <c r="BQ12">
         <v>95.84</v>
       </c>
-      <c r="AV12">
+      <c r="BR12">
         <v>100.07</v>
       </c>
-      <c r="AW12">
+      <c r="BS12">
         <v>104.18</v>
       </c>
-      <c r="AX12">
+      <c r="BT12">
         <v>108.47</v>
       </c>
-      <c r="AY12">
+      <c r="BU12">
         <v>118.11</v>
       </c>
-      <c r="AZ12">
+      <c r="BV12">
         <v>121.88</v>
       </c>
-      <c r="BA12">
+      <c r="BW12">
         <v>129.16</v>
       </c>
-      <c r="BB12">
+      <c r="BX12">
         <v>131.38</v>
       </c>
-      <c r="BC12">
+      <c r="BY12">
         <v>133</v>
       </c>
-      <c r="BD12">
+      <c r="BZ12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BE12">
+      <c r="CA12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BF12">
+      <c r="CB12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BG12">
+      <c r="CC12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BH12">
+      <c r="CD12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BI12">
+      <c r="CE12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BJ12">
+      <c r="CF12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BK12">
+      <c r="CG12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BL12">
+      <c r="CH12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BM12">
+      <c r="CI12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BN12">
+      <c r="CJ12">
         <v>134.88999999999999</v>
       </c>
-      <c r="BO12">
+      <c r="CK12">
         <v>134.88999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>87.01</v>
+      </c>
+      <c r="C13">
+        <v>92.87</v>
+      </c>
+      <c r="D13">
+        <v>97.36</v>
+      </c>
+      <c r="E13">
+        <v>101.95</v>
+      </c>
+      <c r="F13">
+        <v>109.11</v>
+      </c>
+      <c r="G13">
+        <v>116.59</v>
+      </c>
+      <c r="H13">
+        <v>122.74</v>
+      </c>
+      <c r="I13">
+        <v>123.48</v>
+      </c>
+      <c r="J13">
+        <v>123.48</v>
+      </c>
+      <c r="K13">
+        <v>123.48</v>
+      </c>
+      <c r="L13">
+        <v>123.48</v>
+      </c>
+      <c r="M13">
+        <v>123.48</v>
+      </c>
+      <c r="N13">
+        <v>123.48</v>
+      </c>
+      <c r="O13">
+        <v>123.48</v>
+      </c>
+      <c r="P13">
+        <v>123.48</v>
+      </c>
+      <c r="Q13">
+        <v>123.48</v>
+      </c>
+      <c r="R13">
+        <v>123.48</v>
+      </c>
+      <c r="S13">
+        <v>123.48</v>
+      </c>
+      <c r="T13">
+        <v>123.48</v>
+      </c>
+      <c r="U13">
+        <v>123.48</v>
+      </c>
+      <c r="V13">
+        <v>123.48</v>
+      </c>
+      <c r="W13">
+        <v>123.48</v>
+      </c>
+      <c r="X13">
         <v>84.72</v>
       </c>
-      <c r="C13">
+      <c r="Y13">
         <v>90.43</v>
       </c>
-      <c r="D13">
+      <c r="Z13">
         <v>94.8</v>
       </c>
-      <c r="E13">
+      <c r="AA13">
         <v>99.27</v>
       </c>
-      <c r="F13">
+      <c r="AB13">
         <v>106.24</v>
       </c>
-      <c r="G13">
+      <c r="AC13">
         <v>113.52</v>
       </c>
-      <c r="H13">
+      <c r="AD13">
         <v>119.51</v>
       </c>
-      <c r="I13">
+      <c r="AE13">
         <v>120.23</v>
       </c>
-      <c r="J13">
+      <c r="AF13">
         <v>120.23</v>
       </c>
-      <c r="K13">
+      <c r="AG13">
         <v>120.23</v>
       </c>
-      <c r="L13">
+      <c r="AH13">
         <v>120.23</v>
       </c>
-      <c r="M13">
+      <c r="AI13">
         <v>120.23</v>
       </c>
-      <c r="N13">
+      <c r="AJ13">
         <v>120.23</v>
       </c>
-      <c r="O13">
+      <c r="AK13">
         <v>120.23</v>
       </c>
-      <c r="P13">
+      <c r="AL13">
         <v>120.23</v>
       </c>
-      <c r="Q13">
+      <c r="AM13">
         <v>120.23</v>
       </c>
-      <c r="R13">
+      <c r="AN13">
         <v>120.23</v>
       </c>
-      <c r="S13">
+      <c r="AO13">
         <v>120.23</v>
       </c>
-      <c r="T13">
+      <c r="AP13">
         <v>120.23</v>
       </c>
-      <c r="U13">
+      <c r="AQ13">
         <v>120.23</v>
       </c>
-      <c r="V13">
+      <c r="AR13">
         <v>120.23</v>
       </c>
-      <c r="W13">
+      <c r="AS13">
         <v>120.23</v>
       </c>
-      <c r="X13">
+      <c r="AT13">
         <v>82.25</v>
       </c>
-      <c r="Y13">
+      <c r="AU13">
         <v>87.8</v>
       </c>
-      <c r="Z13">
+      <c r="AV13">
         <v>92.04</v>
       </c>
-      <c r="AA13">
+      <c r="AW13">
         <v>96.38</v>
       </c>
-      <c r="AB13">
+      <c r="AX13">
         <v>103.15</v>
       </c>
-      <c r="AC13">
+      <c r="AY13">
         <v>110.21</v>
       </c>
-      <c r="AD13">
+      <c r="AZ13">
         <v>116.03</v>
       </c>
-      <c r="AE13">
+      <c r="BA13">
         <v>116.73</v>
       </c>
-      <c r="AF13">
+      <c r="BB13">
         <v>116.73</v>
       </c>
-      <c r="AG13">
+      <c r="BC13">
         <v>116.73</v>
       </c>
-      <c r="AH13">
+      <c r="BD13">
         <v>116.73</v>
       </c>
-      <c r="AI13">
+      <c r="BE13">
         <v>116.73</v>
       </c>
-      <c r="AJ13">
+      <c r="BF13">
         <v>116.73</v>
       </c>
-      <c r="AK13">
+      <c r="BG13">
         <v>116.73</v>
       </c>
-      <c r="AL13">
+      <c r="BH13">
         <v>116.73</v>
       </c>
-      <c r="AM13">
+      <c r="BI13">
         <v>116.73</v>
       </c>
-      <c r="AN13">
+      <c r="BJ13">
         <v>116.73</v>
       </c>
-      <c r="AO13">
+      <c r="BK13">
         <v>116.73</v>
       </c>
-      <c r="AP13">
+      <c r="BL13">
         <v>116.73</v>
       </c>
-      <c r="AQ13">
+      <c r="BM13">
         <v>116.73</v>
       </c>
-      <c r="AR13">
+      <c r="BN13">
         <v>116.73</v>
       </c>
-      <c r="AS13">
+      <c r="BO13">
         <v>116.73</v>
       </c>
-      <c r="AT13">
+      <c r="BP13">
         <v>79.78</v>
       </c>
-      <c r="AU13">
+      <c r="BQ13">
         <v>85.16</v>
       </c>
-      <c r="AV13">
+      <c r="BR13">
         <v>89.27</v>
       </c>
-      <c r="AW13">
+      <c r="BS13">
         <v>93.48</v>
       </c>
-      <c r="AX13">
+      <c r="BT13">
         <v>100.05</v>
       </c>
-      <c r="AY13">
+      <c r="BU13">
         <v>106.9</v>
       </c>
-      <c r="AZ13">
+      <c r="BV13">
         <v>112.54</v>
       </c>
-      <c r="BA13">
+      <c r="BW13">
         <v>113.22</v>
       </c>
-      <c r="BB13">
+      <c r="BX13">
         <v>113.22</v>
       </c>
-      <c r="BC13">
+      <c r="BY13">
         <v>113.22</v>
       </c>
-      <c r="BD13">
+      <c r="BZ13">
         <v>113.22</v>
       </c>
-      <c r="BE13">
+      <c r="CA13">
         <v>113.22</v>
       </c>
-      <c r="BF13">
+      <c r="CB13">
         <v>113.22</v>
       </c>
-      <c r="BG13">
+      <c r="CC13">
         <v>113.22</v>
       </c>
-      <c r="BH13">
+      <c r="CD13">
         <v>113.22</v>
       </c>
-      <c r="BI13">
+      <c r="CE13">
         <v>113.22</v>
       </c>
-      <c r="BJ13">
+      <c r="CF13">
         <v>113.22</v>
       </c>
-      <c r="BK13">
+      <c r="CG13">
         <v>113.22</v>
       </c>
-      <c r="BL13">
+      <c r="CH13">
         <v>113.22</v>
       </c>
-      <c r="BM13">
+      <c r="CI13">
         <v>113.22</v>
       </c>
-      <c r="BN13">
+      <c r="CJ13">
         <v>113.22</v>
       </c>
-      <c r="BO13">
+      <c r="CK13">
         <v>113.22</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>79.78</v>
+      </c>
+      <c r="C14">
+        <v>83.86</v>
+      </c>
+      <c r="D14">
+        <v>88.4</v>
+      </c>
+      <c r="E14">
+        <v>92.89</v>
+      </c>
+      <c r="F14">
+        <v>96.85</v>
+      </c>
+      <c r="G14">
+        <v>96.85</v>
+      </c>
+      <c r="H14">
+        <v>96.85</v>
+      </c>
+      <c r="I14">
+        <v>96.85</v>
+      </c>
+      <c r="J14">
+        <v>96.85</v>
+      </c>
+      <c r="K14">
+        <v>96.85</v>
+      </c>
+      <c r="L14">
+        <v>96.85</v>
+      </c>
+      <c r="M14">
+        <v>96.85</v>
+      </c>
+      <c r="N14">
+        <v>96.85</v>
+      </c>
+      <c r="O14">
+        <v>96.85</v>
+      </c>
+      <c r="P14">
+        <v>96.85</v>
+      </c>
+      <c r="Q14">
+        <v>96.85</v>
+      </c>
+      <c r="R14">
+        <v>96.85</v>
+      </c>
+      <c r="S14">
+        <v>96.85</v>
+      </c>
+      <c r="T14">
+        <v>96.85</v>
+      </c>
+      <c r="U14">
+        <v>96.85</v>
+      </c>
+      <c r="V14">
+        <v>96.85</v>
+      </c>
+      <c r="W14">
+        <v>96.85</v>
+      </c>
+      <c r="X14">
         <v>77.680000000000007</v>
       </c>
-      <c r="C14">
+      <c r="Y14">
         <v>81.66</v>
       </c>
-      <c r="D14">
+      <c r="Z14">
         <v>86.08</v>
       </c>
-      <c r="E14">
+      <c r="AA14">
         <v>90.45</v>
       </c>
-      <c r="F14">
+      <c r="AB14">
         <v>94.3</v>
       </c>
-      <c r="G14">
+      <c r="AC14">
         <v>94.3</v>
       </c>
-      <c r="H14">
+      <c r="AD14">
         <v>94.3</v>
       </c>
-      <c r="I14">
+      <c r="AE14">
         <v>94.3</v>
       </c>
-      <c r="J14">
+      <c r="AF14">
         <v>94.3</v>
       </c>
-      <c r="K14">
+      <c r="AG14">
         <v>94.3</v>
       </c>
-      <c r="L14">
+      <c r="AH14">
         <v>94.3</v>
       </c>
-      <c r="M14">
+      <c r="AI14">
         <v>94.3</v>
       </c>
-      <c r="N14">
+      <c r="AJ14">
         <v>94.3</v>
       </c>
-      <c r="O14">
+      <c r="AK14">
         <v>94.3</v>
       </c>
-      <c r="P14">
+      <c r="AL14">
         <v>94.3</v>
       </c>
-      <c r="Q14">
+      <c r="AM14">
         <v>94.3</v>
       </c>
-      <c r="R14">
+      <c r="AN14">
         <v>94.3</v>
       </c>
-      <c r="S14">
+      <c r="AO14">
         <v>94.3</v>
       </c>
-      <c r="T14">
+      <c r="AP14">
         <v>94.3</v>
       </c>
-      <c r="U14">
+      <c r="AQ14">
         <v>94.3</v>
       </c>
-      <c r="V14">
+      <c r="AR14">
         <v>94.3</v>
       </c>
-      <c r="W14">
+      <c r="AS14">
         <v>94.3</v>
       </c>
-      <c r="X14">
+      <c r="AT14">
         <v>75.42</v>
       </c>
-      <c r="Y14">
+      <c r="AU14">
         <v>79.28</v>
       </c>
-      <c r="Z14">
+      <c r="AV14">
         <v>83.57</v>
       </c>
-      <c r="AA14">
+      <c r="AW14">
         <v>87.82</v>
       </c>
-      <c r="AB14">
+      <c r="AX14">
         <v>91.55</v>
       </c>
-      <c r="AC14">
+      <c r="AY14">
         <v>91.55</v>
       </c>
-      <c r="AD14">
+      <c r="AZ14">
         <v>91.55</v>
       </c>
-      <c r="AE14">
+      <c r="BA14">
         <v>91.55</v>
       </c>
-      <c r="AF14">
+      <c r="BB14">
         <v>91.55</v>
       </c>
-      <c r="AG14">
+      <c r="BC14">
         <v>91.55</v>
       </c>
-      <c r="AH14">
+      <c r="BD14">
         <v>91.55</v>
       </c>
-      <c r="AI14">
+      <c r="BE14">
         <v>91.55</v>
       </c>
-      <c r="AJ14">
+      <c r="BF14">
         <v>91.55</v>
       </c>
-      <c r="AK14">
+      <c r="BG14">
         <v>91.55</v>
       </c>
-      <c r="AL14">
+      <c r="BH14">
         <v>91.55</v>
       </c>
-      <c r="AM14">
+      <c r="BI14">
         <v>91.55</v>
       </c>
-      <c r="AN14">
+      <c r="BJ14">
         <v>91.55</v>
       </c>
-      <c r="AO14">
+      <c r="BK14">
         <v>91.55</v>
       </c>
-      <c r="AP14">
+      <c r="BL14">
         <v>91.55</v>
       </c>
-      <c r="AQ14">
+      <c r="BM14">
         <v>91.55</v>
       </c>
-      <c r="AR14">
+      <c r="BN14">
         <v>91.55</v>
       </c>
-      <c r="AS14">
+      <c r="BO14">
         <v>91.55</v>
       </c>
-      <c r="AT14">
+      <c r="BP14">
         <v>73.150000000000006</v>
       </c>
-      <c r="AU14">
+      <c r="BQ14">
         <v>76.900000000000006</v>
       </c>
-      <c r="AV14">
+      <c r="BR14">
         <v>81.06</v>
       </c>
-      <c r="AW14">
+      <c r="BS14">
         <v>85.18</v>
       </c>
-      <c r="AX14">
+      <c r="BT14">
         <v>88.8</v>
       </c>
-      <c r="AY14">
+      <c r="BU14">
         <v>88.8</v>
       </c>
-      <c r="AZ14">
+      <c r="BV14">
         <v>88.8</v>
       </c>
-      <c r="BA14">
+      <c r="BW14">
         <v>88.8</v>
       </c>
-      <c r="BB14">
+      <c r="BX14">
         <v>88.8</v>
       </c>
-      <c r="BC14">
+      <c r="BY14">
         <v>88.8</v>
       </c>
-      <c r="BD14">
+      <c r="BZ14">
         <v>88.8</v>
       </c>
-      <c r="BE14">
+      <c r="CA14">
         <v>88.8</v>
       </c>
-      <c r="BF14">
+      <c r="CB14">
         <v>88.8</v>
       </c>
-      <c r="BG14">
+      <c r="CC14">
         <v>88.8</v>
       </c>
-      <c r="BH14">
+      <c r="CD14">
         <v>88.8</v>
       </c>
-      <c r="BI14">
+      <c r="CE14">
         <v>88.8</v>
       </c>
-      <c r="BJ14">
+      <c r="CF14">
         <v>88.8</v>
       </c>
-      <c r="BK14">
+      <c r="CG14">
         <v>88.8</v>
       </c>
-      <c r="BL14">
+      <c r="CH14">
         <v>88.8</v>
       </c>
-      <c r="BM14">
+      <c r="CI14">
         <v>88.8</v>
       </c>
-      <c r="BN14">
+      <c r="CJ14">
         <v>88.8</v>
       </c>
-      <c r="BO14">
+      <c r="CK14">
         <v>88.8</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
+        <v>72.02</v>
+      </c>
+      <c r="C15">
+        <v>76.55</v>
+      </c>
+      <c r="D15">
+        <v>81.19</v>
+      </c>
+      <c r="E15">
+        <v>81.19</v>
+      </c>
+      <c r="F15">
+        <v>81.19</v>
+      </c>
+      <c r="G15">
+        <v>81.19</v>
+      </c>
+      <c r="H15">
+        <v>81.19</v>
+      </c>
+      <c r="I15">
+        <v>81.19</v>
+      </c>
+      <c r="J15">
+        <v>81.19</v>
+      </c>
+      <c r="K15">
+        <v>81.19</v>
+      </c>
+      <c r="L15">
+        <v>81.19</v>
+      </c>
+      <c r="M15">
+        <v>81.19</v>
+      </c>
+      <c r="N15">
+        <v>81.19</v>
+      </c>
+      <c r="O15">
+        <v>81.19</v>
+      </c>
+      <c r="P15">
+        <v>81.19</v>
+      </c>
+      <c r="Q15">
+        <v>81.19</v>
+      </c>
+      <c r="R15">
+        <v>81.19</v>
+      </c>
+      <c r="S15">
+        <v>81.19</v>
+      </c>
+      <c r="T15">
+        <v>81.19</v>
+      </c>
+      <c r="U15">
+        <v>81.19</v>
+      </c>
+      <c r="V15">
+        <v>81.19</v>
+      </c>
+      <c r="W15">
+        <v>81.19</v>
+      </c>
+      <c r="X15">
         <v>70.13</v>
       </c>
-      <c r="C15">
+      <c r="Y15">
         <v>74.540000000000006</v>
       </c>
-      <c r="D15">
+      <c r="Z15">
         <v>79.06</v>
       </c>
-      <c r="E15">
+      <c r="AA15">
         <v>79.06</v>
       </c>
-      <c r="F15">
+      <c r="AB15">
         <v>79.06</v>
       </c>
-      <c r="G15">
+      <c r="AC15">
         <v>79.06</v>
       </c>
-      <c r="H15">
+      <c r="AD15">
         <v>79.06</v>
       </c>
-      <c r="I15">
+      <c r="AE15">
         <v>79.06</v>
       </c>
-      <c r="J15">
+      <c r="AF15">
         <v>79.06</v>
       </c>
-      <c r="K15">
+      <c r="AG15">
         <v>79.06</v>
       </c>
-      <c r="L15">
+      <c r="AH15">
         <v>79.06</v>
       </c>
-      <c r="M15">
+      <c r="AI15">
         <v>79.06</v>
       </c>
-      <c r="N15">
+      <c r="AJ15">
         <v>79.06</v>
       </c>
-      <c r="O15">
+      <c r="AK15">
         <v>79.06</v>
       </c>
-      <c r="P15">
+      <c r="AL15">
         <v>79.06</v>
       </c>
-      <c r="Q15">
+      <c r="AM15">
         <v>79.06</v>
       </c>
-      <c r="R15">
+      <c r="AN15">
         <v>79.06</v>
       </c>
-      <c r="S15">
+      <c r="AO15">
         <v>79.06</v>
       </c>
-      <c r="T15">
+      <c r="AP15">
         <v>79.06</v>
       </c>
-      <c r="U15">
+      <c r="AQ15">
         <v>79.06</v>
       </c>
-      <c r="V15">
+      <c r="AR15">
         <v>79.06</v>
       </c>
-      <c r="W15">
+      <c r="AS15">
         <v>79.06</v>
       </c>
-      <c r="X15">
+      <c r="AT15">
         <v>68.09</v>
       </c>
-      <c r="Y15">
+      <c r="AU15">
         <v>72.37</v>
       </c>
-      <c r="Z15">
+      <c r="AV15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AA15">
+      <c r="AW15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AB15">
+      <c r="AX15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AC15">
+      <c r="AY15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AD15">
+      <c r="AZ15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AE15">
+      <c r="BA15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AF15">
+      <c r="BB15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AG15">
+      <c r="BC15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AH15">
+      <c r="BD15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AI15">
+      <c r="BE15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AJ15">
+      <c r="BF15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AK15">
+      <c r="BG15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AL15">
+      <c r="BH15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AM15">
+      <c r="BI15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AN15">
+      <c r="BJ15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AO15">
+      <c r="BK15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AP15">
+      <c r="BL15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AQ15">
+      <c r="BM15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AR15">
+      <c r="BN15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AS15">
+      <c r="BO15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AT15">
+      <c r="BP15">
         <v>66.040000000000006</v>
       </c>
-      <c r="AU15">
+      <c r="BQ15">
         <v>70.19</v>
       </c>
-      <c r="AV15">
+      <c r="BR15">
         <v>74.45</v>
       </c>
-      <c r="AW15">
+      <c r="BS15">
         <v>74.45</v>
       </c>
-      <c r="AX15">
+      <c r="BT15">
         <v>74.45</v>
       </c>
-      <c r="AY15">
+      <c r="BU15">
         <v>74.45</v>
       </c>
-      <c r="AZ15">
+      <c r="BV15">
         <v>74.45</v>
       </c>
-      <c r="BA15">
+      <c r="BW15">
         <v>74.45</v>
       </c>
-      <c r="BB15">
+      <c r="BX15">
         <v>74.45</v>
       </c>
-      <c r="BC15">
+      <c r="BY15">
         <v>74.45</v>
       </c>
-      <c r="BD15">
+      <c r="BZ15">
         <v>74.45</v>
       </c>
-      <c r="BE15">
+      <c r="CA15">
         <v>74.45</v>
       </c>
-      <c r="BF15">
+      <c r="CB15">
         <v>74.45</v>
       </c>
-      <c r="BG15">
+      <c r="CC15">
         <v>74.45</v>
       </c>
-      <c r="BH15">
+      <c r="CD15">
         <v>74.45</v>
       </c>
-      <c r="BI15">
+      <c r="CE15">
         <v>74.45</v>
       </c>
-      <c r="BJ15">
+      <c r="CF15">
         <v>74.45</v>
       </c>
-      <c r="BK15">
+      <c r="CG15">
         <v>74.45</v>
       </c>
-      <c r="BL15">
+      <c r="CH15">
         <v>74.45</v>
       </c>
-      <c r="BM15">
+      <c r="CI15">
         <v>74.45</v>
       </c>
-      <c r="BN15">
+      <c r="CJ15">
         <v>74.45</v>
       </c>
-      <c r="BO15">
+      <c r="CK15">
         <v>74.45</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="C16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="D16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="E16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="F16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="G16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="H16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="I16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="J16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="K16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="L16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="M16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="N16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="O16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="P16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="Q16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="R16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="S16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="T16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="U16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="V16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="W16">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="X16">
         <v>66.69</v>
       </c>
-      <c r="C16">
+      <c r="Y16">
         <v>66.69</v>
       </c>
-      <c r="D16">
+      <c r="Z16">
         <v>66.69</v>
       </c>
-      <c r="E16">
+      <c r="AA16">
         <v>66.69</v>
       </c>
-      <c r="F16">
+      <c r="AB16">
         <v>66.69</v>
       </c>
-      <c r="G16">
+      <c r="AC16">
         <v>66.69</v>
       </c>
-      <c r="H16">
+      <c r="AD16">
         <v>66.69</v>
       </c>
-      <c r="I16">
+      <c r="AE16">
         <v>66.69</v>
       </c>
-      <c r="J16">
+      <c r="AF16">
         <v>66.69</v>
       </c>
-      <c r="K16">
+      <c r="AG16">
         <v>66.69</v>
       </c>
-      <c r="L16">
+      <c r="AH16">
         <v>66.69</v>
       </c>
-      <c r="M16">
+      <c r="AI16">
         <v>66.69</v>
       </c>
-      <c r="N16">
+      <c r="AJ16">
         <v>66.69</v>
       </c>
-      <c r="O16">
+      <c r="AK16">
         <v>66.69</v>
       </c>
-      <c r="P16">
+      <c r="AL16">
         <v>66.69</v>
       </c>
-      <c r="Q16">
+      <c r="AM16">
         <v>66.69</v>
       </c>
-      <c r="R16">
+      <c r="AN16">
         <v>66.69</v>
       </c>
-      <c r="S16">
+      <c r="AO16">
         <v>66.69</v>
       </c>
-      <c r="T16">
+      <c r="AP16">
         <v>66.69</v>
       </c>
-      <c r="U16">
+      <c r="AQ16">
         <v>66.69</v>
       </c>
-      <c r="V16">
+      <c r="AR16">
         <v>66.69</v>
       </c>
-      <c r="W16">
+      <c r="AS16">
         <v>66.69</v>
       </c>
-      <c r="X16">
+      <c r="AT16">
         <v>64.75</v>
       </c>
-      <c r="Y16">
+      <c r="AU16">
         <v>64.75</v>
       </c>
-      <c r="Z16">
+      <c r="AV16">
         <v>64.75</v>
       </c>
-      <c r="AA16">
+      <c r="AW16">
         <v>64.75</v>
       </c>
-      <c r="AB16">
+      <c r="AX16">
         <v>64.75</v>
       </c>
-      <c r="AC16">
+      <c r="AY16">
         <v>64.75</v>
       </c>
-      <c r="AD16">
+      <c r="AZ16">
         <v>64.75</v>
       </c>
-      <c r="AE16">
+      <c r="BA16">
         <v>64.75</v>
       </c>
-      <c r="AF16">
+      <c r="BB16">
         <v>64.75</v>
       </c>
-      <c r="AG16">
+      <c r="BC16">
         <v>64.75</v>
       </c>
-      <c r="AH16">
+      <c r="BD16">
         <v>64.75</v>
       </c>
-      <c r="AI16">
+      <c r="BE16">
         <v>64.75</v>
       </c>
-      <c r="AJ16">
+      <c r="BF16">
         <v>64.75</v>
       </c>
-      <c r="AK16">
+      <c r="BG16">
         <v>64.75</v>
       </c>
-      <c r="AL16">
+      <c r="BH16">
         <v>64.75</v>
       </c>
-      <c r="AM16">
+      <c r="BI16">
         <v>64.75</v>
       </c>
-      <c r="AN16">
+      <c r="BJ16">
         <v>64.75</v>
       </c>
-      <c r="AO16">
+      <c r="BK16">
         <v>64.75</v>
       </c>
-      <c r="AP16">
+      <c r="BL16">
         <v>64.75</v>
       </c>
-      <c r="AQ16">
+      <c r="BM16">
         <v>64.75</v>
       </c>
-      <c r="AR16">
+      <c r="BN16">
         <v>64.75</v>
       </c>
-      <c r="AS16">
+      <c r="BO16">
         <v>64.75</v>
       </c>
-      <c r="AT16">
+      <c r="BP16">
         <v>62.8</v>
       </c>
-      <c r="AU16">
+      <c r="BQ16">
         <v>62.8</v>
       </c>
-      <c r="AV16">
+      <c r="BR16">
         <v>62.8</v>
       </c>
-      <c r="AW16">
+      <c r="BS16">
         <v>62.8</v>
       </c>
-      <c r="AX16">
+      <c r="BT16">
         <v>62.8</v>
       </c>
-      <c r="AY16">
+      <c r="BU16">
         <v>62.8</v>
       </c>
-      <c r="AZ16">
+      <c r="BV16">
         <v>62.8</v>
       </c>
-      <c r="BA16">
+      <c r="BW16">
         <v>62.8</v>
       </c>
-      <c r="BB16">
+      <c r="BX16">
         <v>62.8</v>
       </c>
-      <c r="BC16">
+      <c r="BY16">
         <v>62.8</v>
       </c>
-      <c r="BD16">
+      <c r="BZ16">
         <v>62.8</v>
       </c>
-      <c r="BE16">
+      <c r="CA16">
         <v>62.8</v>
       </c>
-      <c r="BF16">
+      <c r="CB16">
         <v>62.8</v>
       </c>
-      <c r="BG16">
+      <c r="CC16">
         <v>62.8</v>
       </c>
-      <c r="BH16">
+      <c r="CD16">
         <v>62.8</v>
       </c>
-      <c r="BI16">
+      <c r="CE16">
         <v>62.8</v>
       </c>
-      <c r="BJ16">
+      <c r="CF16">
         <v>62.8</v>
       </c>
-      <c r="BK16">
+      <c r="CG16">
         <v>62.8</v>
       </c>
-      <c r="BL16">
+      <c r="CH16">
         <v>62.8</v>
       </c>
-      <c r="BM16">
+      <c r="CI16">
         <v>62.8</v>
       </c>
-      <c r="BN16">
+      <c r="CJ16">
         <v>62.8</v>
       </c>
-      <c r="BO16">
+      <c r="CK16">
         <v>62.8</v>
       </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
+        <v>61.11</v>
+      </c>
+      <c r="C17">
+        <v>61.11</v>
+      </c>
+      <c r="D17">
+        <v>61.11</v>
+      </c>
+      <c r="E17">
+        <v>61.11</v>
+      </c>
+      <c r="F17">
+        <v>61.11</v>
+      </c>
+      <c r="G17">
+        <v>61.11</v>
+      </c>
+      <c r="H17">
+        <v>61.11</v>
+      </c>
+      <c r="I17">
+        <v>61.11</v>
+      </c>
+      <c r="J17">
+        <v>61.11</v>
+      </c>
+      <c r="K17">
+        <v>61.11</v>
+      </c>
+      <c r="L17">
+        <v>61.11</v>
+      </c>
+      <c r="M17">
+        <v>61.11</v>
+      </c>
+      <c r="N17">
+        <v>61.11</v>
+      </c>
+      <c r="O17">
+        <v>61.11</v>
+      </c>
+      <c r="P17">
+        <v>61.11</v>
+      </c>
+      <c r="Q17">
+        <v>61.11</v>
+      </c>
+      <c r="R17">
+        <v>61.11</v>
+      </c>
+      <c r="S17">
+        <v>61.11</v>
+      </c>
+      <c r="T17">
+        <v>61.11</v>
+      </c>
+      <c r="U17">
+        <v>61.11</v>
+      </c>
+      <c r="V17">
+        <v>61.11</v>
+      </c>
+      <c r="W17">
+        <v>61.11</v>
+      </c>
+      <c r="X17">
         <v>59.5</v>
       </c>
-      <c r="C17">
+      <c r="Y17">
         <v>59.5</v>
       </c>
-      <c r="D17">
+      <c r="Z17">
         <v>59.5</v>
       </c>
-      <c r="E17">
+      <c r="AA17">
         <v>59.5</v>
       </c>
-      <c r="F17">
+      <c r="AB17">
         <v>59.5</v>
       </c>
-      <c r="G17">
+      <c r="AC17">
         <v>59.5</v>
       </c>
-      <c r="H17">
+      <c r="AD17">
         <v>59.5</v>
       </c>
-      <c r="I17">
+      <c r="AE17">
         <v>59.5</v>
       </c>
-      <c r="J17">
+      <c r="AF17">
         <v>59.5</v>
       </c>
-      <c r="K17">
+      <c r="AG17">
         <v>59.5</v>
       </c>
-      <c r="L17">
+      <c r="AH17">
         <v>59.5</v>
       </c>
-      <c r="M17">
+      <c r="AI17">
         <v>59.5</v>
       </c>
-      <c r="N17">
+      <c r="AJ17">
         <v>59.5</v>
       </c>
-      <c r="O17">
+      <c r="AK17">
         <v>59.5</v>
       </c>
-      <c r="P17">
+      <c r="AL17">
         <v>59.5</v>
       </c>
-      <c r="Q17">
+      <c r="AM17">
         <v>59.5</v>
       </c>
-      <c r="R17">
+      <c r="AN17">
         <v>59.5</v>
       </c>
-      <c r="S17">
+      <c r="AO17">
         <v>59.5</v>
       </c>
-      <c r="T17">
+      <c r="AP17">
         <v>59.5</v>
       </c>
-      <c r="U17">
+      <c r="AQ17">
         <v>59.5</v>
       </c>
-      <c r="V17">
+      <c r="AR17">
         <v>59.5</v>
       </c>
-      <c r="W17">
+      <c r="AS17">
         <v>59.5</v>
       </c>
-      <c r="X17">
+      <c r="AT17">
         <v>57.77</v>
       </c>
-      <c r="Y17">
+      <c r="AU17">
         <v>57.77</v>
       </c>
-      <c r="Z17">
+      <c r="AV17">
         <v>57.77</v>
       </c>
-      <c r="AA17">
+      <c r="AW17">
         <v>57.77</v>
       </c>
-      <c r="AB17">
+      <c r="AX17">
         <v>57.77</v>
       </c>
-      <c r="AC17">
+      <c r="AY17">
         <v>57.77</v>
       </c>
-      <c r="AD17">
+      <c r="AZ17">
         <v>57.77</v>
       </c>
-      <c r="AE17">
+      <c r="BA17">
         <v>57.77</v>
       </c>
-      <c r="AF17">
+      <c r="BB17">
         <v>57.77</v>
       </c>
-      <c r="AG17">
+      <c r="BC17">
         <v>57.77</v>
       </c>
-      <c r="AH17">
+      <c r="BD17">
         <v>57.77</v>
       </c>
-      <c r="AI17">
+      <c r="BE17">
         <v>57.77</v>
       </c>
-      <c r="AJ17">
+      <c r="BF17">
         <v>57.77</v>
       </c>
-      <c r="AK17">
+      <c r="BG17">
         <v>57.77</v>
       </c>
-      <c r="AL17">
+      <c r="BH17">
         <v>57.77</v>
       </c>
-      <c r="AM17">
+      <c r="BI17">
         <v>57.77</v>
       </c>
-      <c r="AN17">
+      <c r="BJ17">
         <v>57.77</v>
       </c>
-      <c r="AO17">
+      <c r="BK17">
         <v>57.77</v>
       </c>
-      <c r="AP17">
+      <c r="BL17">
         <v>57.77</v>
       </c>
-      <c r="AQ17">
+      <c r="BM17">
         <v>57.77</v>
       </c>
-      <c r="AR17">
+      <c r="BN17">
         <v>57.77</v>
       </c>
-      <c r="AS17">
+      <c r="BO17">
         <v>57.77</v>
       </c>
-      <c r="AT17">
+      <c r="BP17">
         <v>56.03</v>
       </c>
-      <c r="AU17">
+      <c r="BQ17">
         <v>56.03</v>
       </c>
-      <c r="AV17">
+      <c r="BR17">
         <v>56.03</v>
       </c>
-      <c r="AW17">
+      <c r="BS17">
         <v>56.03</v>
       </c>
-      <c r="AX17">
+      <c r="BT17">
         <v>56.03</v>
       </c>
-      <c r="AY17">
+      <c r="BU17">
         <v>56.03</v>
       </c>
-      <c r="AZ17">
+      <c r="BV17">
         <v>56.03</v>
       </c>
-      <c r="BA17">
+      <c r="BW17">
         <v>56.03</v>
       </c>
-      <c r="BB17">
+      <c r="BX17">
         <v>56.03</v>
       </c>
-      <c r="BC17">
+      <c r="BY17">
         <v>56.03</v>
       </c>
-      <c r="BD17">
+      <c r="BZ17">
         <v>56.03</v>
       </c>
-      <c r="BE17">
+      <c r="CA17">
         <v>56.03</v>
       </c>
-      <c r="BF17">
+      <c r="CB17">
         <v>56.03</v>
       </c>
-      <c r="BG17">
+      <c r="CC17">
         <v>56.03</v>
       </c>
-      <c r="BH17">
+      <c r="CD17">
         <v>56.03</v>
       </c>
-      <c r="BI17">
+      <c r="CE17">
         <v>56.03</v>
       </c>
-      <c r="BJ17">
+      <c r="CF17">
         <v>56.03</v>
       </c>
-      <c r="BK17">
+      <c r="CG17">
         <v>56.03</v>
       </c>
-      <c r="BL17">
+      <c r="CH17">
         <v>56.03</v>
       </c>
-      <c r="BM17">
+      <c r="CI17">
         <v>56.03</v>
       </c>
-      <c r="BN17">
+      <c r="CJ17">
         <v>56.03</v>
       </c>
-      <c r="BO17">
+      <c r="CK17">
         <v>56.03</v>
       </c>
     </row>

--- a/military_drill_pay.xlsx
+++ b/military_drill_pay.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="11235" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="27915" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>O07</t>
   </si>
@@ -84,6 +85,12 @@
   </si>
   <si>
     <t>Paygrade</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -435,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CK17"/>
+  <dimension ref="A1:DG17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +455,7 @@
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -716,4309 +723,6656 @@
       <c r="CK1">
         <v>40</v>
       </c>
+      <c r="CL1">
+        <v>0</v>
+      </c>
+      <c r="CM1">
+        <v>2</v>
+      </c>
+      <c r="CN1">
+        <v>3</v>
+      </c>
+      <c r="CO1">
+        <v>4</v>
+      </c>
+      <c r="CP1">
+        <v>6</v>
+      </c>
+      <c r="CQ1">
+        <v>8</v>
+      </c>
+      <c r="CR1">
+        <v>10</v>
+      </c>
+      <c r="CS1">
+        <v>12</v>
+      </c>
+      <c r="CT1">
+        <v>14</v>
+      </c>
+      <c r="CU1">
+        <v>16</v>
+      </c>
+      <c r="CV1">
+        <v>18</v>
+      </c>
+      <c r="CW1">
+        <v>20</v>
+      </c>
+      <c r="CX1">
+        <v>22</v>
+      </c>
+      <c r="CY1">
+        <v>24</v>
+      </c>
+      <c r="CZ1">
+        <v>26</v>
+      </c>
+      <c r="DA1">
+        <v>28</v>
+      </c>
+      <c r="DB1">
+        <v>30</v>
+      </c>
+      <c r="DC1">
+        <v>32</v>
+      </c>
+      <c r="DD1">
+        <v>34</v>
+      </c>
+      <c r="DE1">
+        <v>36</v>
+      </c>
+      <c r="DF1">
+        <v>38</v>
+      </c>
+      <c r="DG1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>337.1</v>
+      </c>
+      <c r="C2">
+        <v>352.76</v>
+      </c>
+      <c r="D2">
+        <v>360.01</v>
+      </c>
+      <c r="E2">
+        <v>365.78</v>
+      </c>
+      <c r="F2">
+        <v>376.2</v>
+      </c>
+      <c r="G2">
+        <v>386.51</v>
+      </c>
+      <c r="H2">
+        <v>398.42</v>
+      </c>
+      <c r="I2">
+        <v>410.29</v>
+      </c>
+      <c r="J2">
+        <v>422.22</v>
+      </c>
+      <c r="K2">
+        <v>459.65</v>
+      </c>
+      <c r="L2">
+        <v>491.26</v>
+      </c>
+      <c r="M2">
+        <v>491.26</v>
+      </c>
+      <c r="N2">
+        <v>491.26</v>
+      </c>
+      <c r="O2">
+        <v>491.26</v>
+      </c>
+      <c r="P2">
+        <v>493.79</v>
+      </c>
+      <c r="Q2">
+        <v>493.79</v>
+      </c>
+      <c r="R2">
+        <v>503.67</v>
+      </c>
+      <c r="S2">
+        <v>503.67</v>
+      </c>
+      <c r="T2">
+        <v>503.67</v>
+      </c>
+      <c r="U2">
+        <v>503.67</v>
+      </c>
+      <c r="V2">
+        <v>503.67</v>
+      </c>
+      <c r="W2">
+        <v>503.67</v>
+      </c>
+      <c r="X2">
         <v>322.27999999999997</v>
       </c>
-      <c r="C2">
+      <c r="Y2">
         <v>337.25</v>
       </c>
-      <c r="D2">
+      <c r="Z2">
         <v>344.18</v>
       </c>
-      <c r="E2">
+      <c r="AA2">
         <v>349.69</v>
       </c>
-      <c r="F2">
+      <c r="AB2">
         <v>359.66</v>
       </c>
-      <c r="G2">
+      <c r="AC2">
         <v>369.51</v>
       </c>
-      <c r="H2">
+      <c r="AD2">
         <v>380.9</v>
       </c>
-      <c r="I2">
+      <c r="AE2">
         <v>392.25</v>
       </c>
-      <c r="J2">
+      <c r="AF2">
         <v>403.65</v>
       </c>
-      <c r="K2">
+      <c r="AG2">
         <v>439.44</v>
       </c>
-      <c r="L2">
+      <c r="AH2">
         <v>469.66</v>
       </c>
-      <c r="M2">
+      <c r="AI2">
         <v>469.66</v>
       </c>
-      <c r="N2">
+      <c r="AJ2">
         <v>469.66</v>
       </c>
-      <c r="O2">
+      <c r="AK2">
         <v>469.66</v>
       </c>
-      <c r="P2">
+      <c r="AL2">
         <v>472.07</v>
       </c>
-      <c r="Q2">
+      <c r="AM2">
         <v>472.07</v>
       </c>
-      <c r="R2">
+      <c r="AN2">
         <v>481.52</v>
       </c>
-      <c r="S2">
+      <c r="AO2">
         <v>481.52</v>
       </c>
-      <c r="T2">
+      <c r="AP2">
         <v>481.52</v>
       </c>
-      <c r="U2">
+      <c r="AQ2">
         <v>481.52</v>
       </c>
-      <c r="V2">
+      <c r="AR2">
         <v>481.52</v>
       </c>
-      <c r="W2">
+      <c r="AS2">
         <v>481.52</v>
       </c>
-      <c r="X2">
+      <c r="AT2">
         <v>313.81</v>
       </c>
-      <c r="Y2">
+      <c r="AU2">
         <v>328.38</v>
       </c>
-      <c r="Z2">
+      <c r="AV2">
         <v>335.13</v>
       </c>
-      <c r="AA2">
+      <c r="AW2">
         <v>340.5</v>
       </c>
-      <c r="AB2">
+      <c r="AX2">
         <v>350.2</v>
       </c>
-      <c r="AC2">
+      <c r="AY2">
         <v>359.8</v>
       </c>
-      <c r="AD2">
+      <c r="AZ2">
         <v>370.89</v>
       </c>
-      <c r="AE2">
+      <c r="BA2">
         <v>381.94</v>
       </c>
-      <c r="AF2">
+      <c r="BB2">
         <v>393.04</v>
       </c>
-      <c r="AG2">
+      <c r="BC2">
         <v>427.89</v>
       </c>
-      <c r="AH2">
+      <c r="BD2">
         <v>457.31</v>
       </c>
-      <c r="AI2">
+      <c r="BE2">
         <v>457.31</v>
       </c>
-      <c r="AJ2">
+      <c r="BF2">
         <v>457.31</v>
       </c>
-      <c r="AK2">
+      <c r="BG2">
         <v>457.31</v>
       </c>
-      <c r="AL2">
+      <c r="BH2">
         <v>458.06</v>
       </c>
-      <c r="AM2">
+      <c r="BI2">
         <v>458.06</v>
       </c>
-      <c r="AN2">
+      <c r="BJ2">
         <v>458.06</v>
       </c>
-      <c r="AO2">
+      <c r="BK2">
         <v>458.06</v>
       </c>
-      <c r="AP2">
+      <c r="BL2">
         <v>458.06</v>
       </c>
-      <c r="AQ2">
+      <c r="BM2">
         <v>458.06</v>
       </c>
-      <c r="AR2">
+      <c r="BN2">
         <v>458.06</v>
       </c>
-      <c r="AS2">
+      <c r="BO2">
         <v>458.06</v>
       </c>
-      <c r="AT2">
+      <c r="BP2">
         <v>304.67</v>
       </c>
-      <c r="AU2">
+      <c r="BQ2">
         <v>318.82</v>
       </c>
-      <c r="AV2">
+      <c r="BR2">
         <v>325.37</v>
       </c>
-      <c r="AW2">
+      <c r="BS2">
         <v>330.58</v>
       </c>
-      <c r="AX2">
+      <c r="BT2">
         <v>340</v>
       </c>
-      <c r="AY2">
+      <c r="BU2">
         <v>349.32</v>
       </c>
-      <c r="AZ2">
+      <c r="BV2">
         <v>360.09</v>
       </c>
-      <c r="BA2">
+      <c r="BW2">
         <v>370.82</v>
       </c>
-      <c r="BB2">
+      <c r="BX2">
         <v>381.59</v>
       </c>
-      <c r="BC2">
+      <c r="BY2">
         <v>415.43</v>
       </c>
-      <c r="BD2">
+      <c r="BZ2">
         <v>443.99</v>
       </c>
-      <c r="BE2">
+      <c r="CA2">
         <v>443.99</v>
       </c>
-      <c r="BF2">
+      <c r="CB2">
         <v>443.99</v>
       </c>
-      <c r="BG2">
+      <c r="CC2">
         <v>443.99</v>
       </c>
-      <c r="BH2">
+      <c r="CD2">
         <v>446.27</v>
       </c>
-      <c r="BI2">
+      <c r="CE2">
         <v>446.27</v>
       </c>
-      <c r="BJ2">
+      <c r="CF2">
         <v>455.2</v>
       </c>
-      <c r="BK2">
+      <c r="CG2">
         <v>455.2</v>
       </c>
-      <c r="BL2">
+      <c r="CH2">
         <v>455.2</v>
       </c>
-      <c r="BM2">
+      <c r="CI2">
         <v>455.2</v>
       </c>
-      <c r="BN2">
+      <c r="CJ2">
         <v>455.2</v>
       </c>
-      <c r="BO2">
+      <c r="CK2">
         <v>455.2</v>
       </c>
-      <c r="BP2">
+      <c r="CL2">
         <v>295.51</v>
       </c>
-      <c r="BQ2">
+      <c r="CM2">
         <v>309.23</v>
       </c>
-      <c r="BR2">
+      <c r="CN2">
         <v>315.58999999999997</v>
       </c>
-      <c r="BS2">
+      <c r="CO2">
         <v>320.64</v>
       </c>
-      <c r="BT2">
+      <c r="CP2">
         <v>329.78</v>
       </c>
-      <c r="BU2">
+      <c r="CQ2">
         <v>338.82</v>
       </c>
-      <c r="BV2">
+      <c r="CR2">
         <v>349.26</v>
       </c>
-      <c r="BW2">
+      <c r="CS2">
         <v>359.67</v>
       </c>
-      <c r="BX2">
+      <c r="CT2">
         <v>370.12</v>
       </c>
-      <c r="BY2">
+      <c r="CU2">
         <v>402.94</v>
       </c>
-      <c r="BZ2">
+      <c r="CV2">
         <v>430.64</v>
       </c>
-      <c r="CA2">
+      <c r="CW2">
         <v>430.64</v>
       </c>
-      <c r="CB2">
+      <c r="CX2">
         <v>430.64</v>
       </c>
-      <c r="CC2">
+      <c r="CY2">
         <v>430.64</v>
       </c>
-      <c r="CD2">
+      <c r="CZ2">
         <v>432.85</v>
       </c>
-      <c r="CE2">
+      <c r="DA2">
         <v>432.85</v>
       </c>
-      <c r="CF2">
+      <c r="DB2">
         <v>441.51</v>
       </c>
-      <c r="CG2">
+      <c r="DC2">
         <v>441.51</v>
       </c>
-      <c r="CH2">
+      <c r="DD2">
         <v>441.51</v>
       </c>
-      <c r="CI2">
+      <c r="DE2">
         <v>441.51</v>
       </c>
-      <c r="CJ2">
+      <c r="DF2">
         <v>441.51</v>
       </c>
-      <c r="CK2">
+      <c r="DG2">
         <v>441.51</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>255.64</v>
+      </c>
+      <c r="C3">
+        <v>280.83999999999997</v>
+      </c>
+      <c r="D3">
+        <v>299.27</v>
+      </c>
+      <c r="E3">
+        <v>299.27</v>
+      </c>
+      <c r="F3">
+        <v>300.42</v>
+      </c>
+      <c r="G3">
+        <v>313.29000000000002</v>
+      </c>
+      <c r="H3">
+        <v>315</v>
+      </c>
+      <c r="I3">
+        <v>315</v>
+      </c>
+      <c r="J3">
+        <v>332.9</v>
+      </c>
+      <c r="K3">
+        <v>364.54</v>
+      </c>
+      <c r="L3">
+        <v>383.12</v>
+      </c>
+      <c r="M3">
+        <v>401.68</v>
+      </c>
+      <c r="N3">
+        <v>412.25</v>
+      </c>
+      <c r="O3">
+        <v>422.96</v>
+      </c>
+      <c r="P3">
+        <v>443.69</v>
+      </c>
+      <c r="Q3">
+        <v>443.69</v>
+      </c>
+      <c r="R3">
+        <v>452.55</v>
+      </c>
+      <c r="S3">
+        <v>452.55</v>
+      </c>
+      <c r="T3">
+        <v>452.55</v>
+      </c>
+      <c r="U3">
+        <v>452.55</v>
+      </c>
+      <c r="V3">
+        <v>452.55</v>
+      </c>
+      <c r="W3">
+        <v>452.55</v>
+      </c>
+      <c r="X3">
         <v>244.4</v>
       </c>
-      <c r="C3">
+      <c r="Y3">
         <v>268.49</v>
       </c>
-      <c r="D3">
+      <c r="Z3">
         <v>286.11</v>
       </c>
-      <c r="E3">
+      <c r="AA3">
         <v>286.11</v>
       </c>
-      <c r="F3">
+      <c r="AB3">
         <v>287.20999999999998</v>
       </c>
-      <c r="G3">
+      <c r="AC3">
         <v>299.51</v>
       </c>
-      <c r="H3">
+      <c r="AD3">
         <v>301.14999999999998</v>
       </c>
-      <c r="I3">
+      <c r="AE3">
         <v>301.14999999999998</v>
       </c>
-      <c r="J3">
+      <c r="AF3">
         <v>318.26</v>
       </c>
-      <c r="K3">
+      <c r="AG3">
         <v>348.51</v>
       </c>
-      <c r="L3">
+      <c r="AH3">
         <v>366.27</v>
       </c>
-      <c r="M3">
+      <c r="AI3">
         <v>384.02</v>
       </c>
-      <c r="N3">
+      <c r="AJ3">
         <v>394.12</v>
       </c>
-      <c r="O3">
+      <c r="AK3">
         <v>404.36</v>
       </c>
-      <c r="P3">
+      <c r="AL3">
         <v>424.18</v>
       </c>
-      <c r="Q3">
+      <c r="AM3">
         <v>424.18</v>
       </c>
-      <c r="R3">
+      <c r="AN3">
         <v>432.65</v>
       </c>
-      <c r="S3">
+      <c r="AO3">
         <v>432.65</v>
       </c>
-      <c r="T3">
+      <c r="AP3">
         <v>432.65</v>
       </c>
-      <c r="U3">
+      <c r="AQ3">
         <v>432.65</v>
       </c>
-      <c r="V3">
+      <c r="AR3">
         <v>432.65</v>
       </c>
-      <c r="W3">
+      <c r="AS3">
         <v>432.65</v>
       </c>
-      <c r="X3">
+      <c r="AT3">
         <v>237.97</v>
       </c>
-      <c r="Y3">
+      <c r="AU3">
         <v>261.43</v>
       </c>
-      <c r="Z3">
+      <c r="AV3">
         <v>278.58999999999997</v>
       </c>
-      <c r="AA3">
+      <c r="AW3">
         <v>278.58999999999997</v>
       </c>
-      <c r="AB3">
+      <c r="AX3">
         <v>279.66000000000003</v>
       </c>
-      <c r="AC3">
+      <c r="AY3">
         <v>291.64</v>
       </c>
-      <c r="AD3">
+      <c r="AZ3">
         <v>293.23</v>
       </c>
-      <c r="AE3">
+      <c r="BA3">
         <v>293.23</v>
       </c>
-      <c r="AF3">
+      <c r="BB3">
         <v>309.89</v>
       </c>
-      <c r="AG3">
+      <c r="BC3">
         <v>339.35</v>
       </c>
-      <c r="AH3">
+      <c r="BD3">
         <v>356.64</v>
       </c>
-      <c r="AI3">
+      <c r="BE3">
         <v>373.92</v>
       </c>
-      <c r="AJ3">
+      <c r="BF3">
         <v>383.76</v>
       </c>
-      <c r="AK3">
+      <c r="BG3">
         <v>393.73</v>
       </c>
-      <c r="AL3">
+      <c r="BH3">
         <v>413.03</v>
       </c>
-      <c r="AM3">
+      <c r="BI3">
         <v>413.03</v>
       </c>
-      <c r="AN3">
+      <c r="BJ3">
         <v>421.28</v>
       </c>
-      <c r="AO3">
+      <c r="BK3">
         <v>421.28</v>
       </c>
-      <c r="AP3">
+      <c r="BL3">
         <v>421.28</v>
       </c>
-      <c r="AQ3">
+      <c r="BM3">
         <v>421.28</v>
       </c>
-      <c r="AR3">
+      <c r="BN3">
         <v>421.28</v>
       </c>
-      <c r="AS3">
+      <c r="BO3">
         <v>421.28</v>
       </c>
-      <c r="AT3">
+      <c r="BP3">
         <v>231.04</v>
       </c>
-      <c r="AU3">
+      <c r="BQ3">
         <v>253.82</v>
       </c>
-      <c r="AV3">
+      <c r="BR3">
         <v>270.48</v>
       </c>
-      <c r="AW3">
+      <c r="BS3">
         <v>270.48</v>
       </c>
-      <c r="AX3">
+      <c r="BT3">
         <v>271.51</v>
       </c>
-      <c r="AY3">
+      <c r="BU3">
         <v>283.14999999999998</v>
       </c>
-      <c r="AZ3">
+      <c r="BV3">
         <v>284.69</v>
       </c>
-      <c r="BA3">
+      <c r="BW3">
         <v>284.69</v>
       </c>
-      <c r="BB3">
+      <c r="BX3">
         <v>300.86</v>
       </c>
-      <c r="BC3">
+      <c r="BY3">
         <v>329.47</v>
       </c>
-      <c r="BD3">
+      <c r="BZ3">
         <v>346.25</v>
       </c>
-      <c r="BE3">
+      <c r="CA3">
         <v>363.03</v>
       </c>
-      <c r="BF3">
+      <c r="CB3">
         <v>372.58</v>
       </c>
-      <c r="BG3">
+      <c r="CC3">
         <v>382.26</v>
       </c>
-      <c r="BH3">
+      <c r="CD3">
         <v>401</v>
       </c>
-      <c r="BI3">
+      <c r="CE3">
         <v>401</v>
       </c>
-      <c r="BJ3">
+      <c r="CF3">
         <v>409.01</v>
       </c>
-      <c r="BK3">
+      <c r="CG3">
         <v>409.01</v>
       </c>
-      <c r="BL3">
+      <c r="CH3">
         <v>409.01</v>
       </c>
-      <c r="BM3">
+      <c r="CI3">
         <v>409.01</v>
       </c>
-      <c r="BN3">
+      <c r="CJ3">
         <v>409.01</v>
       </c>
-      <c r="BO3">
+      <c r="CK3">
         <v>409.01</v>
       </c>
-      <c r="BP3">
+      <c r="CL3">
         <v>224.09</v>
       </c>
-      <c r="BQ3">
+      <c r="CM3">
         <v>246.19</v>
       </c>
-      <c r="BR3">
+      <c r="CN3">
         <v>262.35000000000002</v>
       </c>
-      <c r="BS3">
+      <c r="CO3">
         <v>262.35000000000002</v>
       </c>
-      <c r="BT3">
+      <c r="CP3">
         <v>263.35000000000002</v>
       </c>
-      <c r="BU3">
+      <c r="CQ3">
         <v>274.64</v>
       </c>
-      <c r="BV3">
+      <c r="CR3">
         <v>276.13</v>
       </c>
-      <c r="BW3">
+      <c r="CS3">
         <v>276.13</v>
       </c>
-      <c r="BX3">
+      <c r="CT3">
         <v>291.81</v>
       </c>
-      <c r="BY3">
+      <c r="CU3">
         <v>319.56</v>
       </c>
-      <c r="BZ3">
+      <c r="CV3">
         <v>335.84</v>
       </c>
-      <c r="CA3">
+      <c r="CW3">
         <v>352.11</v>
       </c>
-      <c r="CB3">
+      <c r="CX3">
         <v>361.38</v>
       </c>
-      <c r="CC3">
+      <c r="CY3">
         <v>370.77</v>
       </c>
-      <c r="CD3">
+      <c r="CZ3">
         <v>388.94</v>
       </c>
-      <c r="CE3">
+      <c r="DA3">
         <v>388.94</v>
       </c>
-      <c r="CF3">
+      <c r="DB3">
         <v>396.71</v>
       </c>
-      <c r="CG3">
+      <c r="DC3">
         <v>396.71</v>
       </c>
-      <c r="CH3">
+      <c r="DD3">
         <v>396.71</v>
       </c>
-      <c r="CI3">
+      <c r="DE3">
         <v>396.71</v>
       </c>
-      <c r="CJ3">
+      <c r="DF3">
         <v>396.71</v>
       </c>
-      <c r="CK3">
+      <c r="DG3">
         <v>396.71</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>213.11</v>
+      </c>
+      <c r="C4">
+        <v>240.07</v>
+      </c>
+      <c r="D4">
+        <v>256.68</v>
+      </c>
+      <c r="E4">
+        <v>259.81</v>
+      </c>
+      <c r="F4">
+        <v>270.19</v>
+      </c>
+      <c r="G4">
+        <v>276.38</v>
+      </c>
+      <c r="H4">
+        <v>290.02</v>
+      </c>
+      <c r="I4">
+        <v>300.06</v>
+      </c>
+      <c r="J4">
+        <v>312.99</v>
+      </c>
+      <c r="K4">
+        <v>332.76</v>
+      </c>
+      <c r="L4">
+        <v>342.18</v>
+      </c>
+      <c r="M4">
+        <v>351.49</v>
+      </c>
+      <c r="N4">
+        <v>362.06</v>
+      </c>
+      <c r="O4">
+        <v>362.06</v>
+      </c>
+      <c r="P4">
+        <v>362.06</v>
+      </c>
+      <c r="Q4">
+        <v>362.06</v>
+      </c>
+      <c r="R4">
+        <v>362.06</v>
+      </c>
+      <c r="S4">
+        <v>362.06</v>
+      </c>
+      <c r="T4">
+        <v>362.06</v>
+      </c>
+      <c r="U4">
+        <v>362.06</v>
+      </c>
+      <c r="V4">
+        <v>362.06</v>
+      </c>
+      <c r="W4">
+        <v>362.06</v>
+      </c>
+      <c r="X4">
         <v>203.74</v>
       </c>
-      <c r="C4">
+      <c r="Y4">
         <v>229.51</v>
       </c>
-      <c r="D4">
+      <c r="Z4">
         <v>245.39</v>
       </c>
-      <c r="E4">
+      <c r="AA4">
         <v>248.38</v>
       </c>
-      <c r="F4">
+      <c r="AB4">
         <v>258.31</v>
       </c>
-      <c r="G4">
+      <c r="AC4">
         <v>264.23</v>
       </c>
-      <c r="H4">
+      <c r="AD4">
         <v>277.27</v>
       </c>
-      <c r="I4">
+      <c r="AE4">
         <v>286.86</v>
       </c>
-      <c r="J4">
+      <c r="AF4">
         <v>299.23</v>
       </c>
-      <c r="K4">
+      <c r="AG4">
         <v>318.13</v>
       </c>
-      <c r="L4">
+      <c r="AH4">
         <v>327.13</v>
       </c>
-      <c r="M4">
+      <c r="AI4">
         <v>336.03</v>
       </c>
-      <c r="N4">
+      <c r="AJ4">
         <v>346.14</v>
       </c>
-      <c r="O4">
+      <c r="AK4">
         <v>346.14</v>
       </c>
-      <c r="P4">
+      <c r="AL4">
         <v>346.14</v>
       </c>
-      <c r="Q4">
+      <c r="AM4">
         <v>346.14</v>
       </c>
-      <c r="R4">
+      <c r="AN4">
         <v>346.14</v>
       </c>
-      <c r="S4">
+      <c r="AO4">
         <v>346.14</v>
       </c>
-      <c r="T4">
+      <c r="AP4">
         <v>346.14</v>
       </c>
-      <c r="U4">
+      <c r="AQ4">
         <v>346.14</v>
       </c>
-      <c r="V4">
+      <c r="AR4">
         <v>346.14</v>
       </c>
-      <c r="W4">
+      <c r="AS4">
         <v>346.14</v>
       </c>
-      <c r="X4">
+      <c r="AT4">
         <v>198.38</v>
       </c>
-      <c r="Y4">
+      <c r="AU4">
         <v>223.48</v>
       </c>
-      <c r="Z4">
+      <c r="AV4">
         <v>238.94</v>
       </c>
-      <c r="AA4">
+      <c r="AW4">
         <v>241.85</v>
       </c>
-      <c r="AB4">
+      <c r="AX4">
         <v>251.52</v>
       </c>
-      <c r="AC4">
+      <c r="AY4">
         <v>257.27999999999997</v>
       </c>
-      <c r="AD4">
+      <c r="AZ4">
         <v>269.98</v>
       </c>
-      <c r="AE4">
+      <c r="BA4">
         <v>279.32</v>
       </c>
-      <c r="AF4">
+      <c r="BB4">
         <v>291.36</v>
       </c>
-      <c r="AG4">
+      <c r="BC4">
         <v>309.77</v>
       </c>
-      <c r="AH4">
+      <c r="BD4">
         <v>318.52999999999997</v>
       </c>
-      <c r="AI4">
+      <c r="BE4">
         <v>327.2</v>
       </c>
-      <c r="AJ4">
+      <c r="BF4">
         <v>337.04</v>
       </c>
-      <c r="AK4">
+      <c r="BG4">
         <v>337.04</v>
       </c>
-      <c r="AL4">
+      <c r="BH4">
         <v>337.04</v>
       </c>
-      <c r="AM4">
+      <c r="BI4">
         <v>337.04</v>
       </c>
-      <c r="AN4">
+      <c r="BJ4">
         <v>337.04</v>
       </c>
-      <c r="AO4">
+      <c r="BK4">
         <v>337.04</v>
       </c>
-      <c r="AP4">
+      <c r="BL4">
         <v>337.04</v>
       </c>
-      <c r="AQ4">
+      <c r="BM4">
         <v>337.04</v>
       </c>
-      <c r="AR4">
+      <c r="BN4">
         <v>337.04</v>
       </c>
-      <c r="AS4">
+      <c r="BO4">
         <v>337.04</v>
       </c>
-      <c r="AT4">
+      <c r="BP4">
         <v>192.6</v>
       </c>
-      <c r="AU4">
+      <c r="BQ4">
         <v>216.97</v>
       </c>
-      <c r="AV4">
+      <c r="BR4">
         <v>231.98</v>
       </c>
-      <c r="AW4">
+      <c r="BS4">
         <v>234.81</v>
       </c>
-      <c r="AX4">
+      <c r="BT4">
         <v>244.19</v>
       </c>
-      <c r="AY4">
+      <c r="BU4">
         <v>249.79</v>
       </c>
-      <c r="AZ4">
+      <c r="BV4">
         <v>262.12</v>
       </c>
-      <c r="BA4">
+      <c r="BW4">
         <v>271.18</v>
       </c>
-      <c r="BB4">
+      <c r="BX4">
         <v>282.87</v>
       </c>
-      <c r="BC4">
+      <c r="BY4">
         <v>300.75</v>
       </c>
-      <c r="BD4">
+      <c r="BZ4">
         <v>309.25</v>
       </c>
-      <c r="BE4">
+      <c r="CA4">
         <v>317.67</v>
       </c>
-      <c r="BF4">
+      <c r="CB4">
         <v>327.22000000000003</v>
       </c>
-      <c r="BG4">
+      <c r="CC4">
         <v>327.22000000000003</v>
       </c>
-      <c r="BH4">
+      <c r="CD4">
         <v>327.22000000000003</v>
       </c>
-      <c r="BI4">
+      <c r="CE4">
         <v>327.22000000000003</v>
       </c>
-      <c r="BJ4">
+      <c r="CF4">
         <v>327.22000000000003</v>
       </c>
-      <c r="BK4">
+      <c r="CG4">
         <v>327.22000000000003</v>
       </c>
-      <c r="BL4">
+      <c r="CH4">
         <v>327.22000000000003</v>
       </c>
-      <c r="BM4">
+      <c r="CI4">
         <v>327.22000000000003</v>
       </c>
-      <c r="BN4">
+      <c r="CJ4">
         <v>327.22000000000003</v>
       </c>
-      <c r="BO4">
+      <c r="CK4">
         <v>327.22000000000003</v>
       </c>
-      <c r="BP4">
+      <c r="CL4">
         <v>186.81</v>
       </c>
-      <c r="BQ4">
+      <c r="CM4">
         <v>210.45</v>
       </c>
-      <c r="BR4">
+      <c r="CN4">
         <v>225</v>
       </c>
-      <c r="BS4">
+      <c r="CO4">
         <v>227.75</v>
       </c>
-      <c r="BT4">
+      <c r="CP4">
         <v>236.85</v>
       </c>
-      <c r="BU4">
+      <c r="CQ4">
         <v>242.28</v>
       </c>
-      <c r="BV4">
+      <c r="CR4">
         <v>254.24</v>
       </c>
-      <c r="BW4">
+      <c r="CS4">
         <v>263.02999999999997</v>
       </c>
-      <c r="BX4">
+      <c r="CT4">
         <v>274.36</v>
       </c>
-      <c r="BY4">
+      <c r="CU4">
         <v>291.70999999999998</v>
       </c>
-      <c r="BZ4">
+      <c r="CV4">
         <v>299.95</v>
       </c>
-      <c r="CA4">
+      <c r="CW4">
         <v>308.12</v>
       </c>
-      <c r="CB4">
+      <c r="CX4">
         <v>317.38</v>
       </c>
-      <c r="CC4">
+      <c r="CY4">
         <v>317.38</v>
       </c>
-      <c r="CD4">
+      <c r="CZ4">
         <v>317.38</v>
       </c>
-      <c r="CE4">
+      <c r="DA4">
         <v>317.38</v>
       </c>
-      <c r="CF4">
+      <c r="DB4">
         <v>317.38</v>
       </c>
-      <c r="CG4">
+      <c r="DC4">
         <v>317.38</v>
       </c>
-      <c r="CH4">
+      <c r="DD4">
         <v>317.38</v>
       </c>
-      <c r="CI4">
+      <c r="DE4">
         <v>317.38</v>
       </c>
-      <c r="CJ4">
+      <c r="DF4">
         <v>317.38</v>
       </c>
-      <c r="CK4">
+      <c r="DG4">
         <v>317.38</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>183.88</v>
+      </c>
+      <c r="C5">
+        <v>212.84</v>
+      </c>
+      <c r="D5">
+        <v>227.07</v>
+      </c>
+      <c r="E5">
+        <v>230.21</v>
+      </c>
+      <c r="F5">
+        <v>243.39</v>
+      </c>
+      <c r="G5">
+        <v>257.54000000000002</v>
+      </c>
+      <c r="H5">
+        <v>275.16000000000003</v>
+      </c>
+      <c r="I5">
+        <v>288.85000000000002</v>
+      </c>
+      <c r="J5">
+        <v>298.37</v>
+      </c>
+      <c r="K5">
+        <v>303.85000000000002</v>
+      </c>
+      <c r="L5">
+        <v>307.01</v>
+      </c>
+      <c r="M5">
+        <v>307.01</v>
+      </c>
+      <c r="N5">
+        <v>307.01</v>
+      </c>
+      <c r="O5">
+        <v>307.01</v>
+      </c>
+      <c r="P5">
+        <v>307.01</v>
+      </c>
+      <c r="Q5">
+        <v>307.01</v>
+      </c>
+      <c r="R5">
+        <v>307.01</v>
+      </c>
+      <c r="S5">
+        <v>307.01</v>
+      </c>
+      <c r="T5">
+        <v>307.01</v>
+      </c>
+      <c r="U5">
+        <v>307.01</v>
+      </c>
+      <c r="V5">
+        <v>307.01</v>
+      </c>
+      <c r="W5">
+        <v>307.01</v>
+      </c>
+      <c r="X5">
         <v>175.79</v>
       </c>
-      <c r="C5">
+      <c r="Y5">
         <v>203.48</v>
       </c>
-      <c r="D5">
+      <c r="Z5">
         <v>217.08</v>
       </c>
-      <c r="E5">
+      <c r="AA5">
         <v>220.09</v>
       </c>
-      <c r="F5">
+      <c r="AB5">
         <v>232.69</v>
       </c>
-      <c r="G5">
+      <c r="AC5">
         <v>246.21</v>
       </c>
-      <c r="H5">
+      <c r="AD5">
         <v>263.06</v>
       </c>
-      <c r="I5">
+      <c r="AE5">
         <v>276.14999999999998</v>
       </c>
-      <c r="J5">
+      <c r="AF5">
         <v>285.25</v>
       </c>
-      <c r="K5">
+      <c r="AG5">
         <v>290.49</v>
       </c>
-      <c r="L5">
+      <c r="AH5">
         <v>293.51</v>
       </c>
-      <c r="M5">
+      <c r="AI5">
         <v>293.51</v>
       </c>
-      <c r="N5">
+      <c r="AJ5">
         <v>293.51</v>
       </c>
-      <c r="O5">
+      <c r="AK5">
         <v>293.51</v>
       </c>
-      <c r="P5">
+      <c r="AL5">
         <v>293.51</v>
       </c>
-      <c r="Q5">
+      <c r="AM5">
         <v>293.51</v>
       </c>
-      <c r="R5">
+      <c r="AN5">
         <v>293.51</v>
       </c>
-      <c r="S5">
+      <c r="AO5">
         <v>293.51</v>
       </c>
-      <c r="T5">
+      <c r="AP5">
         <v>293.51</v>
       </c>
-      <c r="U5">
+      <c r="AQ5">
         <v>293.51</v>
       </c>
-      <c r="V5">
+      <c r="AR5">
         <v>293.51</v>
       </c>
-      <c r="W5">
+      <c r="AS5">
         <v>293.51</v>
       </c>
-      <c r="X5">
+      <c r="AT5">
         <v>171.17</v>
       </c>
-      <c r="Y5">
+      <c r="AU5">
         <v>198.13</v>
       </c>
-      <c r="Z5">
+      <c r="AV5">
         <v>211.37</v>
       </c>
-      <c r="AA5">
+      <c r="AW5">
         <v>214.3</v>
       </c>
-      <c r="AB5">
+      <c r="AX5">
         <v>226.57</v>
       </c>
-      <c r="AC5">
+      <c r="AY5">
         <v>239.74</v>
       </c>
-      <c r="AD5">
+      <c r="AZ5">
         <v>256.14</v>
       </c>
-      <c r="AE5">
+      <c r="BA5">
         <v>268.89</v>
       </c>
-      <c r="AF5">
+      <c r="BB5">
         <v>277.75</v>
       </c>
-      <c r="AG5">
+      <c r="BC5">
         <v>282.85000000000002</v>
       </c>
-      <c r="AH5">
+      <c r="BD5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AI5">
+      <c r="BE5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AJ5">
+      <c r="BF5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AK5">
+      <c r="BG5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AL5">
+      <c r="BH5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AM5">
+      <c r="BI5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AN5">
+      <c r="BJ5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AO5">
+      <c r="BK5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AP5">
+      <c r="BL5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AQ5">
+      <c r="BM5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AR5">
+      <c r="BN5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AS5">
+      <c r="BO5">
         <v>285.79000000000002</v>
       </c>
-      <c r="AT5">
+      <c r="BP5">
         <v>166.18</v>
       </c>
-      <c r="AU5">
+      <c r="BQ5">
         <v>192.36</v>
       </c>
-      <c r="AV5">
+      <c r="BR5">
         <v>205.21</v>
       </c>
-      <c r="AW5">
+      <c r="BS5">
         <v>208.06</v>
       </c>
-      <c r="AX5">
+      <c r="BT5">
         <v>219.97</v>
       </c>
-      <c r="AY5">
+      <c r="BU5">
         <v>232.76</v>
       </c>
-      <c r="AZ5">
+      <c r="BV5">
         <v>248.68</v>
       </c>
-      <c r="BA5">
+      <c r="BW5">
         <v>261.06</v>
       </c>
-      <c r="BB5">
+      <c r="BX5">
         <v>269.66000000000003</v>
       </c>
-      <c r="BC5">
+      <c r="BY5">
         <v>274.61</v>
       </c>
-      <c r="BD5">
+      <c r="BZ5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BE5">
+      <c r="CA5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BF5">
+      <c r="CB5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BG5">
+      <c r="CC5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BH5">
+      <c r="CD5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BI5">
+      <c r="CE5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BJ5">
+      <c r="CF5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BK5">
+      <c r="CG5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BL5">
+      <c r="CH5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BM5">
+      <c r="CI5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BN5">
+      <c r="CJ5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BO5">
+      <c r="CK5">
         <v>277.47000000000003</v>
       </c>
-      <c r="BP5">
+      <c r="CL5">
         <v>161.18</v>
       </c>
-      <c r="BQ5">
+      <c r="CM5">
         <v>186.58</v>
       </c>
-      <c r="BR5">
+      <c r="CN5">
         <v>199.04</v>
       </c>
-      <c r="BS5">
+      <c r="CO5">
         <v>201.8</v>
       </c>
-      <c r="BT5">
+      <c r="CP5">
         <v>213.36</v>
       </c>
-      <c r="BU5">
+      <c r="CQ5">
         <v>225.76</v>
       </c>
-      <c r="BV5">
+      <c r="CR5">
         <v>241.2</v>
       </c>
-      <c r="BW5">
+      <c r="CS5">
         <v>253.21</v>
       </c>
-      <c r="BX5">
+      <c r="CT5">
         <v>261.55</v>
       </c>
-      <c r="BY5">
+      <c r="CU5">
         <v>266.35000000000002</v>
       </c>
-      <c r="BZ5">
+      <c r="CV5">
         <v>269.13</v>
       </c>
-      <c r="CA5">
+      <c r="CW5">
         <v>269.13</v>
       </c>
-      <c r="CB5">
+      <c r="CX5">
         <v>269.13</v>
       </c>
-      <c r="CC5">
+      <c r="CY5">
         <v>269.13</v>
       </c>
-      <c r="CD5">
+      <c r="CZ5">
         <v>269.13</v>
       </c>
-      <c r="CE5">
+      <c r="DA5">
         <v>269.13</v>
       </c>
-      <c r="CF5">
+      <c r="DB5">
         <v>269.13</v>
       </c>
-      <c r="CG5">
+      <c r="DC5">
         <v>269.13</v>
       </c>
-      <c r="CH5">
+      <c r="DD5">
         <v>269.13</v>
       </c>
-      <c r="CI5">
+      <c r="DE5">
         <v>269.13</v>
       </c>
-      <c r="CJ5">
+      <c r="DF5">
         <v>269.13</v>
       </c>
-      <c r="CK5">
+      <c r="DG5">
         <v>269.13</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>161.66</v>
+      </c>
+      <c r="C6">
+        <v>183.26</v>
+      </c>
+      <c r="D6">
+        <v>197.78</v>
+      </c>
+      <c r="E6">
+        <v>215.66</v>
+      </c>
+      <c r="F6">
+        <v>226.01</v>
+      </c>
+      <c r="G6">
+        <v>237.35</v>
+      </c>
+      <c r="H6">
+        <v>244.67</v>
+      </c>
+      <c r="I6">
+        <v>256.72000000000003</v>
+      </c>
+      <c r="J6">
+        <v>263.02</v>
+      </c>
+      <c r="K6">
+        <v>263.02</v>
+      </c>
+      <c r="L6">
+        <v>263.02</v>
+      </c>
+      <c r="M6">
+        <v>263.02</v>
+      </c>
+      <c r="N6">
+        <v>263.02</v>
+      </c>
+      <c r="O6">
+        <v>263.02</v>
+      </c>
+      <c r="P6">
+        <v>263.02</v>
+      </c>
+      <c r="Q6">
+        <v>263.02</v>
+      </c>
+      <c r="R6">
+        <v>263.02</v>
+      </c>
+      <c r="S6">
+        <v>263.02</v>
+      </c>
+      <c r="T6">
+        <v>263.02</v>
+      </c>
+      <c r="U6">
+        <v>263.02</v>
+      </c>
+      <c r="V6">
+        <v>263.02</v>
+      </c>
+      <c r="W6">
+        <v>263.02</v>
+      </c>
+      <c r="X6">
         <v>154.55000000000001</v>
       </c>
-      <c r="C6">
+      <c r="Y6">
         <v>175.2</v>
       </c>
-      <c r="D6">
+      <c r="Z6">
         <v>189.08</v>
       </c>
-      <c r="E6">
+      <c r="AA6">
         <v>206.18</v>
       </c>
-      <c r="F6">
+      <c r="AB6">
         <v>216.07</v>
       </c>
-      <c r="G6">
+      <c r="AC6">
         <v>226.91</v>
       </c>
-      <c r="H6">
+      <c r="AD6">
         <v>233.91</v>
       </c>
-      <c r="I6">
+      <c r="AE6">
         <v>245.43</v>
       </c>
-      <c r="J6">
+      <c r="AF6">
         <v>251.45</v>
       </c>
-      <c r="K6">
+      <c r="AG6">
         <v>251.45</v>
       </c>
-      <c r="L6">
+      <c r="AH6">
         <v>251.45</v>
       </c>
-      <c r="M6">
+      <c r="AI6">
         <v>251.45</v>
       </c>
-      <c r="N6">
+      <c r="AJ6">
         <v>251.45</v>
       </c>
-      <c r="O6">
+      <c r="AK6">
         <v>251.45</v>
       </c>
-      <c r="P6">
+      <c r="AL6">
         <v>251.45</v>
       </c>
-      <c r="Q6">
+      <c r="AM6">
         <v>251.45</v>
       </c>
-      <c r="R6">
+      <c r="AN6">
         <v>251.45</v>
       </c>
-      <c r="S6">
+      <c r="AO6">
         <v>251.45</v>
       </c>
-      <c r="T6">
+      <c r="AP6">
         <v>251.45</v>
       </c>
-      <c r="U6">
+      <c r="AQ6">
         <v>251.45</v>
       </c>
-      <c r="V6">
+      <c r="AR6">
         <v>251.45</v>
       </c>
-      <c r="W6">
+      <c r="AS6">
         <v>251.45</v>
       </c>
-      <c r="X6">
+      <c r="AT6">
         <v>150.49</v>
       </c>
-      <c r="Y6">
+      <c r="AU6">
         <v>170.59</v>
       </c>
-      <c r="Z6">
+      <c r="AV6">
         <v>184.11</v>
       </c>
-      <c r="AA6">
+      <c r="AW6">
         <v>200.76</v>
       </c>
-      <c r="AB6">
+      <c r="AX6">
         <v>210.39</v>
       </c>
-      <c r="AC6">
+      <c r="AY6">
         <v>220.94</v>
       </c>
-      <c r="AD6">
+      <c r="AZ6">
         <v>227.76</v>
       </c>
-      <c r="AE6">
+      <c r="BA6">
         <v>238.98</v>
       </c>
-      <c r="AF6">
+      <c r="BB6">
         <v>244.84</v>
       </c>
-      <c r="AG6">
+      <c r="BC6">
         <v>244.84</v>
       </c>
-      <c r="AH6">
+      <c r="BD6">
         <v>244.84</v>
       </c>
-      <c r="AI6">
+      <c r="BE6">
         <v>244.84</v>
       </c>
-      <c r="AJ6">
+      <c r="BF6">
         <v>244.84</v>
       </c>
-      <c r="AK6">
+      <c r="BG6">
         <v>244.84</v>
       </c>
-      <c r="AL6">
+      <c r="BH6">
         <v>244.84</v>
       </c>
-      <c r="AM6">
+      <c r="BI6">
         <v>244.84</v>
       </c>
-      <c r="AN6">
+      <c r="BJ6">
         <v>244.84</v>
       </c>
-      <c r="AO6">
+      <c r="BK6">
         <v>244.84</v>
       </c>
-      <c r="AP6">
+      <c r="BL6">
         <v>244.84</v>
       </c>
-      <c r="AQ6">
+      <c r="BM6">
         <v>244.84</v>
       </c>
-      <c r="AR6">
+      <c r="BN6">
         <v>244.84</v>
       </c>
-      <c r="AS6">
+      <c r="BO6">
         <v>244.84</v>
       </c>
-      <c r="AT6">
+      <c r="BP6">
         <v>146.11000000000001</v>
       </c>
-      <c r="AU6">
+      <c r="BQ6">
         <v>165.62</v>
       </c>
-      <c r="AV6">
+      <c r="BR6">
         <v>178.75</v>
       </c>
-      <c r="AW6">
+      <c r="BS6">
         <v>194.91</v>
       </c>
-      <c r="AX6">
+      <c r="BT6">
         <v>204.26</v>
       </c>
-      <c r="AY6">
+      <c r="BU6">
         <v>214.5</v>
       </c>
-      <c r="AZ6">
+      <c r="BV6">
         <v>221.13</v>
       </c>
-      <c r="BA6">
+      <c r="BW6">
         <v>232.02</v>
       </c>
-      <c r="BB6">
+      <c r="BX6">
         <v>237.71</v>
       </c>
-      <c r="BC6">
+      <c r="BY6">
         <v>237.71</v>
       </c>
-      <c r="BD6">
+      <c r="BZ6">
         <v>237.71</v>
       </c>
-      <c r="BE6">
+      <c r="CA6">
         <v>237.71</v>
       </c>
-      <c r="BF6">
+      <c r="CB6">
         <v>237.71</v>
       </c>
-      <c r="BG6">
+      <c r="CC6">
         <v>237.71</v>
       </c>
-      <c r="BH6">
+      <c r="CD6">
         <v>237.71</v>
       </c>
-      <c r="BI6">
+      <c r="CE6">
         <v>237.71</v>
       </c>
-      <c r="BJ6">
+      <c r="CF6">
         <v>237.71</v>
       </c>
-      <c r="BK6">
+      <c r="CG6">
         <v>237.71</v>
       </c>
-      <c r="BL6">
+      <c r="CH6">
         <v>237.71</v>
       </c>
-      <c r="BM6">
+      <c r="CI6">
         <v>237.71</v>
       </c>
-      <c r="BN6">
+      <c r="CJ6">
         <v>237.71</v>
       </c>
-      <c r="BO6">
+      <c r="CK6">
         <v>237.71</v>
       </c>
-      <c r="BP6">
+      <c r="CL6">
         <v>141.72</v>
       </c>
-      <c r="BQ6">
+      <c r="CM6">
         <v>160.63999999999999</v>
       </c>
-      <c r="BR6">
+      <c r="CN6">
         <v>173.38</v>
       </c>
-      <c r="BS6">
+      <c r="CO6">
         <v>189.05</v>
       </c>
-      <c r="BT6">
+      <c r="CP6">
         <v>198.12</v>
       </c>
-      <c r="BU6">
+      <c r="CQ6">
         <v>208.05</v>
       </c>
-      <c r="BV6">
+      <c r="CR6">
         <v>214.48</v>
       </c>
-      <c r="BW6">
+      <c r="CS6">
         <v>225.04</v>
       </c>
-      <c r="BX6">
+      <c r="CT6">
         <v>230.56</v>
       </c>
-      <c r="BY6">
+      <c r="CU6">
         <v>230.56</v>
       </c>
-      <c r="BZ6">
+      <c r="CV6">
         <v>230.56</v>
       </c>
-      <c r="CA6">
+      <c r="CW6">
         <v>230.56</v>
       </c>
-      <c r="CB6">
+      <c r="CX6">
         <v>230.56</v>
       </c>
-      <c r="CC6">
+      <c r="CY6">
         <v>230.56</v>
       </c>
-      <c r="CD6">
+      <c r="CZ6">
         <v>230.56</v>
       </c>
-      <c r="CE6">
+      <c r="DA6">
         <v>230.56</v>
       </c>
-      <c r="CF6">
+      <c r="DB6">
         <v>230.56</v>
       </c>
-      <c r="CG6">
+      <c r="DC6">
         <v>230.56</v>
       </c>
-      <c r="CH6">
+      <c r="DD6">
         <v>230.56</v>
       </c>
-      <c r="CI6">
+      <c r="DE6">
         <v>230.56</v>
       </c>
-      <c r="CJ6">
+      <c r="DF6">
         <v>230.56</v>
       </c>
-      <c r="CK6">
+      <c r="DG6">
         <v>230.56</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>139.69</v>
+      </c>
+      <c r="C7">
+        <v>159.09</v>
+      </c>
+      <c r="D7">
+        <v>183.23</v>
+      </c>
+      <c r="E7">
+        <v>189.42</v>
+      </c>
+      <c r="F7">
+        <v>193.31</v>
+      </c>
+      <c r="G7">
+        <v>193.31</v>
+      </c>
+      <c r="H7">
+        <v>193.31</v>
+      </c>
+      <c r="I7">
+        <v>193.31</v>
+      </c>
+      <c r="J7">
+        <v>193.31</v>
+      </c>
+      <c r="K7">
+        <v>193.31</v>
+      </c>
+      <c r="L7">
+        <v>193.31</v>
+      </c>
+      <c r="M7">
+        <v>193.31</v>
+      </c>
+      <c r="N7">
+        <v>193.31</v>
+      </c>
+      <c r="O7">
+        <v>193.31</v>
+      </c>
+      <c r="P7">
+        <v>193.31</v>
+      </c>
+      <c r="Q7">
+        <v>193.31</v>
+      </c>
+      <c r="R7">
+        <v>193.31</v>
+      </c>
+      <c r="S7">
+        <v>193.31</v>
+      </c>
+      <c r="T7">
+        <v>193.31</v>
+      </c>
+      <c r="U7">
+        <v>193.31</v>
+      </c>
+      <c r="V7">
+        <v>193.31</v>
+      </c>
+      <c r="W7">
+        <v>193.31</v>
+      </c>
+      <c r="X7">
         <v>133.55000000000001</v>
       </c>
-      <c r="C7">
+      <c r="Y7">
         <v>152.09</v>
       </c>
-      <c r="D7">
+      <c r="Z7">
         <v>175.17</v>
       </c>
-      <c r="E7">
+      <c r="AA7">
         <v>181.09</v>
       </c>
-      <c r="F7">
+      <c r="AB7">
         <v>184.81</v>
       </c>
-      <c r="G7">
+      <c r="AC7">
         <v>184.81</v>
       </c>
-      <c r="H7">
+      <c r="AD7">
         <v>184.81</v>
       </c>
-      <c r="I7">
+      <c r="AE7">
         <v>184.81</v>
       </c>
-      <c r="J7">
+      <c r="AF7">
         <v>184.81</v>
       </c>
-      <c r="K7">
+      <c r="AG7">
         <v>184.81</v>
       </c>
-      <c r="L7">
+      <c r="AH7">
         <v>184.81</v>
       </c>
-      <c r="M7">
+      <c r="AI7">
         <v>184.81</v>
       </c>
-      <c r="N7">
+      <c r="AJ7">
         <v>184.81</v>
       </c>
-      <c r="O7">
+      <c r="AK7">
         <v>184.81</v>
       </c>
-      <c r="P7">
+      <c r="AL7">
         <v>184.81</v>
       </c>
-      <c r="Q7">
+      <c r="AM7">
         <v>184.81</v>
       </c>
-      <c r="R7">
+      <c r="AN7">
         <v>184.81</v>
       </c>
-      <c r="S7">
+      <c r="AO7">
         <v>184.81</v>
       </c>
-      <c r="T7">
+      <c r="AP7">
         <v>184.81</v>
       </c>
-      <c r="U7">
+      <c r="AQ7">
         <v>184.81</v>
       </c>
-      <c r="V7">
+      <c r="AR7">
         <v>184.81</v>
       </c>
-      <c r="W7">
+      <c r="AS7">
         <v>184.81</v>
       </c>
-      <c r="X7">
+      <c r="AT7">
         <v>130.04</v>
       </c>
-      <c r="Y7">
+      <c r="AU7">
         <v>148.09</v>
       </c>
-      <c r="Z7">
+      <c r="AV7">
         <v>170.56</v>
       </c>
-      <c r="AA7">
+      <c r="AW7">
         <v>176.33</v>
       </c>
-      <c r="AB7">
+      <c r="AX7">
         <v>179.95</v>
       </c>
-      <c r="AC7">
+      <c r="AY7">
         <v>179.95</v>
       </c>
-      <c r="AD7">
+      <c r="AZ7">
         <v>179.95</v>
       </c>
-      <c r="AE7">
+      <c r="BA7">
         <v>179.95</v>
       </c>
-      <c r="AF7">
+      <c r="BB7">
         <v>179.95</v>
       </c>
-      <c r="AG7">
+      <c r="BC7">
         <v>179.95</v>
       </c>
-      <c r="AH7">
+      <c r="BD7">
         <v>179.95</v>
       </c>
-      <c r="AI7">
+      <c r="BE7">
         <v>179.95</v>
       </c>
-      <c r="AJ7">
+      <c r="BF7">
         <v>179.95</v>
       </c>
-      <c r="AK7">
+      <c r="BG7">
         <v>179.95</v>
       </c>
-      <c r="AL7">
+      <c r="BH7">
         <v>179.95</v>
       </c>
-      <c r="AM7">
+      <c r="BI7">
         <v>179.95</v>
       </c>
-      <c r="AN7">
+      <c r="BJ7">
         <v>179.95</v>
       </c>
-      <c r="AO7">
+      <c r="BK7">
         <v>179.95</v>
       </c>
-      <c r="AP7">
+      <c r="BL7">
         <v>179.95</v>
       </c>
-      <c r="AQ7">
+      <c r="BM7">
         <v>179.95</v>
       </c>
-      <c r="AR7">
+      <c r="BN7">
         <v>179.95</v>
       </c>
-      <c r="AS7">
+      <c r="BO7">
         <v>179.95</v>
       </c>
-      <c r="AT7">
+      <c r="BP7">
         <v>126.25</v>
       </c>
-      <c r="AU7">
+      <c r="BQ7">
         <v>143.78</v>
       </c>
-      <c r="AV7">
+      <c r="BR7">
         <v>165.59</v>
       </c>
-      <c r="AW7">
+      <c r="BS7">
         <v>171.19</v>
       </c>
-      <c r="AX7">
+      <c r="BT7">
         <v>174.71</v>
       </c>
-      <c r="AY7">
+      <c r="BU7">
         <v>174.71</v>
       </c>
-      <c r="AZ7">
+      <c r="BV7">
         <v>174.71</v>
       </c>
-      <c r="BA7">
+      <c r="BW7">
         <v>174.71</v>
       </c>
-      <c r="BB7">
+      <c r="BX7">
         <v>174.71</v>
       </c>
-      <c r="BC7">
+      <c r="BY7">
         <v>174.71</v>
       </c>
-      <c r="BD7">
+      <c r="BZ7">
         <v>174.71</v>
       </c>
-      <c r="BE7">
+      <c r="CA7">
         <v>174.71</v>
       </c>
-      <c r="BF7">
+      <c r="CB7">
         <v>174.71</v>
       </c>
-      <c r="BG7">
+      <c r="CC7">
         <v>174.71</v>
       </c>
-      <c r="BH7">
+      <c r="CD7">
         <v>174.71</v>
       </c>
-      <c r="BI7">
+      <c r="CE7">
         <v>174.71</v>
       </c>
-      <c r="BJ7">
+      <c r="CF7">
         <v>174.71</v>
       </c>
-      <c r="BK7">
+      <c r="CG7">
         <v>174.71</v>
       </c>
-      <c r="BL7">
+      <c r="CH7">
         <v>174.71</v>
       </c>
-      <c r="BM7">
+      <c r="CI7">
         <v>174.71</v>
       </c>
-      <c r="BN7">
+      <c r="CJ7">
         <v>174.71</v>
       </c>
-      <c r="BO7">
+      <c r="CK7">
         <v>174.71</v>
       </c>
-      <c r="BP7">
+      <c r="CL7">
         <v>122.45</v>
       </c>
-      <c r="BQ7">
+      <c r="CM7">
         <v>139.46</v>
       </c>
-      <c r="BR7">
+      <c r="CN7">
         <v>160.61000000000001</v>
       </c>
-      <c r="BS7">
+      <c r="CO7">
         <v>166.04</v>
       </c>
-      <c r="BT7">
+      <c r="CP7">
         <v>169.46</v>
       </c>
-      <c r="BU7">
+      <c r="CQ7">
         <v>169.46</v>
       </c>
-      <c r="BV7">
+      <c r="CR7">
         <v>169.46</v>
       </c>
-      <c r="BW7">
+      <c r="CS7">
         <v>169.46</v>
       </c>
-      <c r="BX7">
+      <c r="CT7">
         <v>169.46</v>
       </c>
-      <c r="BY7">
+      <c r="CU7">
         <v>169.46</v>
       </c>
-      <c r="BZ7">
+      <c r="CV7">
         <v>169.46</v>
       </c>
-      <c r="CA7">
+      <c r="CW7">
         <v>169.46</v>
       </c>
-      <c r="CB7">
+      <c r="CX7">
         <v>169.46</v>
       </c>
-      <c r="CC7">
+      <c r="CY7">
         <v>169.46</v>
       </c>
-      <c r="CD7">
+      <c r="CZ7">
         <v>169.46</v>
       </c>
-      <c r="CE7">
+      <c r="DA7">
         <v>169.46</v>
       </c>
-      <c r="CF7">
+      <c r="DB7">
         <v>169.46</v>
       </c>
-      <c r="CG7">
+      <c r="DC7">
         <v>169.46</v>
       </c>
-      <c r="CH7">
+      <c r="DD7">
         <v>169.46</v>
       </c>
-      <c r="CI7">
+      <c r="DE7">
         <v>169.46</v>
       </c>
-      <c r="CJ7">
+      <c r="DF7">
         <v>169.46</v>
       </c>
-      <c r="CK7">
+      <c r="DG7">
         <v>169.46</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>121.24</v>
+      </c>
+      <c r="C8">
+        <v>126.2</v>
+      </c>
+      <c r="D8">
+        <v>152.56</v>
+      </c>
+      <c r="E8">
+        <v>152.56</v>
+      </c>
+      <c r="F8">
+        <v>152.56</v>
+      </c>
+      <c r="G8">
+        <v>152.56</v>
+      </c>
+      <c r="H8">
+        <v>152.56</v>
+      </c>
+      <c r="I8">
+        <v>152.56</v>
+      </c>
+      <c r="J8">
+        <v>152.56</v>
+      </c>
+      <c r="K8">
+        <v>152.56</v>
+      </c>
+      <c r="L8">
+        <v>152.56</v>
+      </c>
+      <c r="M8">
+        <v>152.56</v>
+      </c>
+      <c r="N8">
+        <v>152.56</v>
+      </c>
+      <c r="O8">
+        <v>152.56</v>
+      </c>
+      <c r="P8">
+        <v>152.56</v>
+      </c>
+      <c r="Q8">
+        <v>152.56</v>
+      </c>
+      <c r="R8">
+        <v>152.56</v>
+      </c>
+      <c r="S8">
+        <v>152.56</v>
+      </c>
+      <c r="T8">
+        <v>152.56</v>
+      </c>
+      <c r="U8">
+        <v>152.56</v>
+      </c>
+      <c r="V8">
+        <v>152.56</v>
+      </c>
+      <c r="W8">
+        <v>152.56</v>
+      </c>
+      <c r="X8">
         <v>115.91</v>
       </c>
-      <c r="C8">
+      <c r="Y8">
         <v>120.65</v>
       </c>
-      <c r="D8">
+      <c r="Z8">
         <v>145.85</v>
       </c>
-      <c r="E8">
+      <c r="AA8">
         <v>145.85</v>
       </c>
-      <c r="F8">
+      <c r="AB8">
         <v>145.85</v>
       </c>
-      <c r="G8">
+      <c r="AC8">
         <v>145.85</v>
       </c>
-      <c r="H8">
+      <c r="AD8">
         <v>145.85</v>
       </c>
-      <c r="I8">
+      <c r="AE8">
         <v>145.85</v>
       </c>
-      <c r="J8">
+      <c r="AF8">
         <v>145.85</v>
       </c>
-      <c r="K8">
+      <c r="AG8">
         <v>145.85</v>
       </c>
-      <c r="L8">
+      <c r="AH8">
         <v>145.85</v>
       </c>
-      <c r="M8">
+      <c r="AI8">
         <v>145.85</v>
       </c>
-      <c r="N8">
+      <c r="AJ8">
         <v>145.85</v>
       </c>
-      <c r="O8">
+      <c r="AK8">
         <v>145.85</v>
       </c>
-      <c r="P8">
+      <c r="AL8">
         <v>145.85</v>
       </c>
-      <c r="Q8">
+      <c r="AM8">
         <v>145.85</v>
       </c>
-      <c r="R8">
+      <c r="AN8">
         <v>145.85</v>
       </c>
-      <c r="S8">
+      <c r="AO8">
         <v>145.85</v>
       </c>
-      <c r="T8">
+      <c r="AP8">
         <v>145.85</v>
       </c>
-      <c r="U8">
+      <c r="AQ8">
         <v>145.85</v>
       </c>
-      <c r="V8">
+      <c r="AR8">
         <v>145.85</v>
       </c>
-      <c r="W8">
+      <c r="AS8">
         <v>145.85</v>
       </c>
-      <c r="X8">
+      <c r="AT8">
         <v>112.86</v>
       </c>
-      <c r="Y8">
+      <c r="AU8">
         <v>117.48</v>
       </c>
-      <c r="Z8">
+      <c r="AV8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AA8">
+      <c r="AW8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AB8">
+      <c r="AX8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AC8">
+      <c r="AY8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AD8">
+      <c r="AZ8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AE8">
+      <c r="BA8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AF8">
+      <c r="BB8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AG8">
+      <c r="BC8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AH8">
+      <c r="BD8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AI8">
+      <c r="BE8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AJ8">
+      <c r="BF8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AK8">
+      <c r="BG8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AL8">
+      <c r="BH8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AM8">
+      <c r="BI8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AN8">
+      <c r="BJ8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AO8">
+      <c r="BK8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AP8">
+      <c r="BL8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AQ8">
+      <c r="BM8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AR8">
+      <c r="BN8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AS8">
+      <c r="BO8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AT8">
+      <c r="BP8">
         <v>109.57</v>
       </c>
-      <c r="AU8">
+      <c r="BQ8">
         <v>114.06</v>
       </c>
-      <c r="AV8">
+      <c r="BR8">
         <v>137.88</v>
       </c>
-      <c r="AW8">
+      <c r="BS8">
         <v>137.88</v>
       </c>
-      <c r="AX8">
+      <c r="BT8">
         <v>137.88</v>
       </c>
-      <c r="AY8">
+      <c r="BU8">
         <v>137.88</v>
       </c>
-      <c r="AZ8">
+      <c r="BV8">
         <v>137.88</v>
       </c>
-      <c r="BA8">
+      <c r="BW8">
         <v>137.88</v>
       </c>
-      <c r="BB8">
+      <c r="BX8">
         <v>137.88</v>
       </c>
-      <c r="BC8">
+      <c r="BY8">
         <v>137.88</v>
       </c>
-      <c r="BD8">
+      <c r="BZ8">
         <v>137.88</v>
       </c>
-      <c r="BE8">
+      <c r="CA8">
         <v>137.88</v>
       </c>
-      <c r="BF8">
+      <c r="CB8">
         <v>137.88</v>
       </c>
-      <c r="BG8">
+      <c r="CC8">
         <v>137.88</v>
       </c>
-      <c r="BH8">
+      <c r="CD8">
         <v>137.88</v>
       </c>
-      <c r="BI8">
+      <c r="CE8">
         <v>137.88</v>
       </c>
-      <c r="BJ8">
+      <c r="CF8">
         <v>137.88</v>
       </c>
-      <c r="BK8">
+      <c r="CG8">
         <v>137.88</v>
       </c>
-      <c r="BL8">
+      <c r="CH8">
         <v>137.88</v>
       </c>
-      <c r="BM8">
+      <c r="CI8">
         <v>137.88</v>
       </c>
-      <c r="BN8">
+      <c r="CJ8">
         <v>137.88</v>
       </c>
-      <c r="BO8">
+      <c r="CK8">
         <v>137.88</v>
       </c>
-      <c r="BP8">
+      <c r="CL8">
         <v>106.28</v>
       </c>
-      <c r="BQ8">
+      <c r="CM8">
         <v>110.63</v>
       </c>
-      <c r="BR8">
+      <c r="CN8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BS8">
+      <c r="CO8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BT8">
+      <c r="CP8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BU8">
+      <c r="CQ8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BV8">
+      <c r="CR8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BW8">
+      <c r="CS8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BX8">
+      <c r="CT8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BY8">
+      <c r="CU8">
         <v>133.72999999999999</v>
       </c>
-      <c r="BZ8">
+      <c r="CV8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CA8">
+      <c r="CW8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CB8">
+      <c r="CX8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CC8">
+      <c r="CY8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CD8">
+      <c r="CZ8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CE8">
+      <c r="DA8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CF8">
+      <c r="DB8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CG8">
+      <c r="DC8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CH8">
+      <c r="DD8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CI8">
+      <c r="DE8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CJ8">
+      <c r="DF8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CK8">
+      <c r="DG8">
         <v>133.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>201.85</v>
+      </c>
+      <c r="C9">
+        <v>201.85</v>
+      </c>
+      <c r="D9">
+        <v>201.85</v>
+      </c>
+      <c r="E9">
+        <v>201.85</v>
+      </c>
+      <c r="F9">
+        <v>201.85</v>
+      </c>
+      <c r="G9">
+        <v>201.85</v>
+      </c>
+      <c r="H9">
+        <v>201.85</v>
+      </c>
+      <c r="I9">
+        <v>206.43</v>
+      </c>
+      <c r="J9">
+        <v>212.19</v>
+      </c>
+      <c r="K9">
+        <v>218.96</v>
+      </c>
+      <c r="L9">
+        <v>225.83</v>
+      </c>
+      <c r="M9">
+        <v>236.76</v>
+      </c>
+      <c r="N9">
+        <v>246.05</v>
+      </c>
+      <c r="O9">
+        <v>255.79</v>
+      </c>
+      <c r="P9">
+        <v>270.72000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>270.72000000000003</v>
+      </c>
+      <c r="R9">
+        <v>284.23</v>
+      </c>
+      <c r="S9">
+        <v>284.23</v>
+      </c>
+      <c r="T9">
+        <v>298.45999999999998</v>
+      </c>
+      <c r="U9">
+        <v>298.45999999999998</v>
+      </c>
+      <c r="V9">
+        <v>313.41000000000003</v>
+      </c>
+      <c r="W9">
+        <v>313.41000000000003</v>
+      </c>
+      <c r="X9">
         <v>192.97</v>
       </c>
-      <c r="C9">
+      <c r="Y9">
         <v>192.97</v>
       </c>
-      <c r="D9">
+      <c r="Z9">
         <v>192.97</v>
       </c>
-      <c r="E9">
+      <c r="AA9">
         <v>192.97</v>
       </c>
-      <c r="F9">
+      <c r="AB9">
         <v>192.97</v>
       </c>
-      <c r="G9">
+      <c r="AC9">
         <v>192.97</v>
       </c>
-      <c r="H9">
+      <c r="AD9">
         <v>192.97</v>
       </c>
-      <c r="I9">
+      <c r="AE9">
         <v>197.35</v>
       </c>
-      <c r="J9">
+      <c r="AF9">
         <v>202.86</v>
       </c>
-      <c r="K9">
+      <c r="AG9">
         <v>209.33</v>
       </c>
-      <c r="L9">
+      <c r="AH9">
         <v>215.9</v>
       </c>
-      <c r="M9">
+      <c r="AI9">
         <v>226.35</v>
       </c>
-      <c r="N9">
+      <c r="AJ9">
         <v>235.23</v>
       </c>
-      <c r="O9">
+      <c r="AK9">
         <v>244.54</v>
       </c>
-      <c r="P9">
+      <c r="AL9">
         <v>258.81</v>
       </c>
-      <c r="Q9">
+      <c r="AM9">
         <v>258.81</v>
       </c>
-      <c r="R9">
+      <c r="AN9">
         <v>271.73</v>
       </c>
-      <c r="S9">
+      <c r="AO9">
         <v>271.73</v>
       </c>
-      <c r="T9">
+      <c r="AP9">
         <v>285.33</v>
       </c>
-      <c r="U9">
+      <c r="AQ9">
         <v>285.33</v>
       </c>
-      <c r="V9">
+      <c r="AR9">
         <v>299.63</v>
       </c>
-      <c r="W9">
+      <c r="AS9">
         <v>299.63</v>
       </c>
-      <c r="X9">
+      <c r="AT9">
         <v>187.9</v>
       </c>
-      <c r="Y9">
+      <c r="AU9">
         <v>187.9</v>
       </c>
-      <c r="Z9">
+      <c r="AV9">
         <v>187.9</v>
       </c>
-      <c r="AA9">
+      <c r="AW9">
         <v>187.9</v>
       </c>
-      <c r="AB9">
+      <c r="AX9">
         <v>187.9</v>
       </c>
-      <c r="AC9">
+      <c r="AY9">
         <v>187.9</v>
       </c>
-      <c r="AD9">
+      <c r="AZ9">
         <v>187.9</v>
       </c>
-      <c r="AE9">
+      <c r="BA9">
         <v>192.16</v>
       </c>
-      <c r="AF9">
+      <c r="BB9">
         <v>197.53</v>
       </c>
-      <c r="AG9">
+      <c r="BC9">
         <v>203.83</v>
       </c>
-      <c r="AH9">
+      <c r="BD9">
         <v>210.22</v>
       </c>
-      <c r="AI9">
+      <c r="BE9">
         <v>220.4</v>
       </c>
-      <c r="AJ9">
+      <c r="BF9">
         <v>229.05</v>
       </c>
-      <c r="AK9">
+      <c r="BG9">
         <v>238.11</v>
       </c>
-      <c r="AL9">
+      <c r="BH9">
         <v>252.01</v>
       </c>
-      <c r="AM9">
+      <c r="BI9">
         <v>252.01</v>
       </c>
-      <c r="AN9">
+      <c r="BJ9">
         <v>264.58999999999997</v>
       </c>
-      <c r="AO9">
+      <c r="BK9">
         <v>264.58999999999997</v>
       </c>
-      <c r="AP9">
+      <c r="BL9">
         <v>277.83</v>
       </c>
-      <c r="AQ9">
+      <c r="BM9">
         <v>277.83</v>
       </c>
-      <c r="AR9">
+      <c r="BN9">
         <v>291.75</v>
       </c>
-      <c r="AS9">
+      <c r="BO9">
         <v>291.75</v>
       </c>
-      <c r="AT9">
+      <c r="BP9">
         <v>182.43</v>
       </c>
-      <c r="AU9">
+      <c r="BQ9">
         <v>182.43</v>
       </c>
-      <c r="AV9">
+      <c r="BR9">
         <v>182.43</v>
       </c>
-      <c r="AW9">
+      <c r="BS9">
         <v>182.43</v>
       </c>
-      <c r="AX9">
+      <c r="BT9">
         <v>182.43</v>
       </c>
-      <c r="AY9">
+      <c r="BU9">
         <v>182.43</v>
       </c>
-      <c r="AZ9">
+      <c r="BV9">
         <v>182.43</v>
       </c>
-      <c r="BA9">
+      <c r="BW9">
         <v>186.56</v>
       </c>
-      <c r="BB9">
+      <c r="BX9">
         <v>191.78</v>
       </c>
-      <c r="BC9">
+      <c r="BY9">
         <v>197.89</v>
       </c>
-      <c r="BD9">
+      <c r="BZ9">
         <v>204.1</v>
       </c>
-      <c r="BE9">
+      <c r="CA9">
         <v>213.98</v>
       </c>
-      <c r="BF9">
+      <c r="CB9">
         <v>222.38</v>
       </c>
-      <c r="BG9">
+      <c r="CC9">
         <v>231.17</v>
       </c>
-      <c r="BH9">
+      <c r="CD9">
         <v>244.67</v>
       </c>
-      <c r="BI9">
+      <c r="CE9">
         <v>244.67</v>
       </c>
-      <c r="BJ9">
+      <c r="CF9">
         <v>256.88</v>
       </c>
-      <c r="BK9">
+      <c r="CG9">
         <v>256.88</v>
       </c>
-      <c r="BL9">
+      <c r="CH9">
         <v>269.74</v>
       </c>
-      <c r="BM9">
+      <c r="CI9">
         <v>269.74</v>
       </c>
-      <c r="BN9">
+      <c r="CJ9">
         <v>283.25</v>
       </c>
-      <c r="BO9">
+      <c r="CK9">
         <v>283.25</v>
       </c>
-      <c r="BP9">
+      <c r="CL9">
         <v>176.94</v>
       </c>
-      <c r="BQ9">
+      <c r="CM9">
         <v>176.94</v>
       </c>
-      <c r="BR9">
+      <c r="CN9">
         <v>176.94</v>
       </c>
-      <c r="BS9">
+      <c r="CO9">
         <v>176.94</v>
       </c>
-      <c r="BT9">
+      <c r="CP9">
         <v>176.94</v>
       </c>
-      <c r="BU9">
+      <c r="CQ9">
         <v>176.94</v>
       </c>
-      <c r="BV9">
+      <c r="CR9">
         <v>176.94</v>
       </c>
-      <c r="BW9">
+      <c r="CS9">
         <v>180.95</v>
       </c>
-      <c r="BX9">
+      <c r="CT9">
         <v>186.01</v>
       </c>
-      <c r="BY9">
+      <c r="CU9">
         <v>191.94</v>
       </c>
-      <c r="BZ9">
+      <c r="CV9">
         <v>197.96</v>
       </c>
-      <c r="CA9">
+      <c r="CW9">
         <v>207.55</v>
       </c>
-      <c r="CB9">
+      <c r="CX9">
         <v>215.69</v>
       </c>
-      <c r="CC9">
+      <c r="CY9">
         <v>224.22</v>
       </c>
-      <c r="CD9">
+      <c r="CZ9">
         <v>237.31</v>
       </c>
-      <c r="CE9">
+      <c r="DA9">
         <v>237.31</v>
       </c>
-      <c r="CF9">
+      <c r="DB9">
         <v>249.16</v>
       </c>
-      <c r="CG9">
+      <c r="DC9">
         <v>249.16</v>
       </c>
-      <c r="CH9">
+      <c r="DD9">
         <v>261.63</v>
       </c>
-      <c r="CI9">
+      <c r="DE9">
         <v>261.63</v>
       </c>
-      <c r="CJ9">
+      <c r="DF9">
         <v>274.73</v>
       </c>
-      <c r="CK9">
+      <c r="DG9">
         <v>274.73</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>165.24</v>
+      </c>
+      <c r="C10">
+        <v>165.24</v>
+      </c>
+      <c r="D10">
+        <v>165.24</v>
+      </c>
+      <c r="E10">
+        <v>165.24</v>
+      </c>
+      <c r="F10">
+        <v>165.24</v>
+      </c>
+      <c r="G10">
+        <v>165.24</v>
+      </c>
+      <c r="H10">
+        <v>172.55</v>
+      </c>
+      <c r="I10">
+        <v>177.07</v>
+      </c>
+      <c r="J10">
+        <v>182.49</v>
+      </c>
+      <c r="K10">
+        <v>188.36</v>
+      </c>
+      <c r="L10">
+        <v>198.96</v>
+      </c>
+      <c r="M10">
+        <v>204.34</v>
+      </c>
+      <c r="N10">
+        <v>213.48</v>
+      </c>
+      <c r="O10">
+        <v>218.55</v>
+      </c>
+      <c r="P10">
+        <v>231.03</v>
+      </c>
+      <c r="Q10">
+        <v>231.03</v>
+      </c>
+      <c r="R10">
+        <v>235.66</v>
+      </c>
+      <c r="S10">
+        <v>235.66</v>
+      </c>
+      <c r="T10">
+        <v>235.66</v>
+      </c>
+      <c r="U10">
+        <v>235.66</v>
+      </c>
+      <c r="V10">
+        <v>235.66</v>
+      </c>
+      <c r="W10">
+        <v>235.66</v>
+      </c>
+      <c r="X10">
         <v>157.97</v>
       </c>
-      <c r="C10">
+      <c r="Y10">
         <v>157.97</v>
       </c>
-      <c r="D10">
+      <c r="Z10">
         <v>157.97</v>
       </c>
-      <c r="E10">
+      <c r="AA10">
         <v>157.97</v>
       </c>
-      <c r="F10">
+      <c r="AB10">
         <v>157.97</v>
       </c>
-      <c r="G10">
+      <c r="AC10">
         <v>157.97</v>
       </c>
-      <c r="H10">
+      <c r="AD10">
         <v>164.96</v>
       </c>
-      <c r="I10">
+      <c r="AE10">
         <v>169.28</v>
       </c>
-      <c r="J10">
+      <c r="AF10">
         <v>174.46</v>
       </c>
-      <c r="K10">
+      <c r="AG10">
         <v>180.08</v>
       </c>
-      <c r="L10">
+      <c r="AH10">
         <v>190.21</v>
       </c>
-      <c r="M10">
+      <c r="AI10">
         <v>195.35</v>
       </c>
-      <c r="N10">
+      <c r="AJ10">
         <v>204.09</v>
       </c>
-      <c r="O10">
+      <c r="AK10">
         <v>208.94</v>
       </c>
-      <c r="P10">
+      <c r="AL10">
         <v>220.87</v>
       </c>
-      <c r="Q10">
+      <c r="AM10">
         <v>220.87</v>
       </c>
-      <c r="R10">
+      <c r="AN10">
         <v>225.3</v>
       </c>
-      <c r="S10">
+      <c r="AO10">
         <v>225.3</v>
       </c>
-      <c r="T10">
+      <c r="AP10">
         <v>225.3</v>
       </c>
-      <c r="U10">
+      <c r="AQ10">
         <v>225.3</v>
       </c>
-      <c r="V10">
+      <c r="AR10">
         <v>225.3</v>
       </c>
-      <c r="W10">
+      <c r="AS10">
         <v>225.3</v>
       </c>
-      <c r="X10">
+      <c r="AT10">
         <v>153.82</v>
       </c>
-      <c r="Y10">
+      <c r="AU10">
         <v>153.82</v>
       </c>
-      <c r="Z10">
+      <c r="AV10">
         <v>153.82</v>
       </c>
-      <c r="AA10">
+      <c r="AW10">
         <v>153.82</v>
       </c>
-      <c r="AB10">
+      <c r="AX10">
         <v>153.82</v>
       </c>
-      <c r="AC10">
+      <c r="AY10">
         <v>153.82</v>
       </c>
-      <c r="AD10">
+      <c r="AZ10">
         <v>160.62</v>
       </c>
-      <c r="AE10">
+      <c r="BA10">
         <v>164.83</v>
       </c>
-      <c r="AF10">
+      <c r="BB10">
         <v>169.87</v>
       </c>
-      <c r="AG10">
+      <c r="BC10">
         <v>175.35</v>
       </c>
-      <c r="AH10">
+      <c r="BD10">
         <v>185.21</v>
       </c>
-      <c r="AI10">
+      <c r="BE10">
         <v>190.21</v>
       </c>
-      <c r="AJ10">
+      <c r="BF10">
         <v>198.72</v>
       </c>
-      <c r="AK10">
+      <c r="BG10">
         <v>203.45</v>
       </c>
-      <c r="AL10">
+      <c r="BH10">
         <v>215.06</v>
       </c>
-      <c r="AM10">
+      <c r="BI10">
         <v>215.06</v>
       </c>
-      <c r="AN10">
+      <c r="BJ10">
         <v>219.38</v>
       </c>
-      <c r="AO10">
+      <c r="BK10">
         <v>219.38</v>
       </c>
-      <c r="AP10">
+      <c r="BL10">
         <v>219.38</v>
       </c>
-      <c r="AQ10">
+      <c r="BM10">
         <v>219.38</v>
       </c>
-      <c r="AR10">
+      <c r="BN10">
         <v>219.38</v>
       </c>
-      <c r="AS10">
+      <c r="BO10">
         <v>219.38</v>
       </c>
-      <c r="AT10">
+      <c r="BP10">
         <v>149.34</v>
       </c>
-      <c r="AU10">
+      <c r="BQ10">
         <v>149.34</v>
       </c>
-      <c r="AV10">
+      <c r="BR10">
         <v>149.34</v>
       </c>
-      <c r="AW10">
+      <c r="BS10">
         <v>149.34</v>
       </c>
-      <c r="AX10">
+      <c r="BT10">
         <v>149.34</v>
       </c>
-      <c r="AY10">
+      <c r="BU10">
         <v>149.34</v>
       </c>
-      <c r="AZ10">
+      <c r="BV10">
         <v>155.94</v>
       </c>
-      <c r="BA10">
+      <c r="BW10">
         <v>160.03</v>
       </c>
-      <c r="BB10">
+      <c r="BX10">
         <v>164.92</v>
       </c>
-      <c r="BC10">
+      <c r="BY10">
         <v>170.24</v>
       </c>
-      <c r="BD10">
+      <c r="BZ10">
         <v>179.82</v>
       </c>
-      <c r="BE10">
+      <c r="CA10">
         <v>184.67</v>
       </c>
-      <c r="BF10">
+      <c r="CB10">
         <v>192.93</v>
       </c>
-      <c r="BG10">
+      <c r="CC10">
         <v>197.52</v>
       </c>
-      <c r="BH10">
+      <c r="CD10">
         <v>208.8</v>
       </c>
-      <c r="BI10">
+      <c r="CE10">
         <v>208.8</v>
       </c>
-      <c r="BJ10">
+      <c r="CF10">
         <v>212.99</v>
       </c>
-      <c r="BK10">
+      <c r="CG10">
         <v>212.99</v>
       </c>
-      <c r="BL10">
+      <c r="CH10">
         <v>212.99</v>
       </c>
-      <c r="BM10">
+      <c r="CI10">
         <v>212.99</v>
       </c>
-      <c r="BN10">
+      <c r="CJ10">
         <v>212.99</v>
       </c>
-      <c r="BO10">
+      <c r="CK10">
         <v>212.99</v>
       </c>
-      <c r="BP10">
+      <c r="CL10">
         <v>144.85</v>
       </c>
-      <c r="BQ10">
+      <c r="CM10">
         <v>144.85</v>
       </c>
-      <c r="BR10">
+      <c r="CN10">
         <v>144.85</v>
       </c>
-      <c r="BS10">
+      <c r="CO10">
         <v>144.85</v>
       </c>
-      <c r="BT10">
+      <c r="CP10">
         <v>144.85</v>
       </c>
-      <c r="BU10">
+      <c r="CQ10">
         <v>144.85</v>
       </c>
-      <c r="BV10">
+      <c r="CR10">
         <v>151.25</v>
       </c>
-      <c r="BW10">
+      <c r="CS10">
         <v>155.22</v>
       </c>
-      <c r="BX10">
+      <c r="CT10">
         <v>159.96</v>
       </c>
-      <c r="BY10">
+      <c r="CU10">
         <v>165.12</v>
       </c>
-      <c r="BZ10">
+      <c r="CV10">
         <v>174.41</v>
       </c>
-      <c r="CA10">
+      <c r="CW10">
         <v>179.12</v>
       </c>
-      <c r="CB10">
+      <c r="CX10">
         <v>187.13</v>
       </c>
-      <c r="CC10">
+      <c r="CY10">
         <v>191.58</v>
       </c>
-      <c r="CD10">
+      <c r="CZ10">
         <v>202.52</v>
       </c>
-      <c r="CE10">
+      <c r="DA10">
         <v>202.52</v>
       </c>
-      <c r="CF10">
+      <c r="DB10">
         <v>206.59</v>
       </c>
-      <c r="CG10">
+      <c r="DC10">
         <v>206.59</v>
       </c>
-      <c r="CH10">
+      <c r="DD10">
         <v>206.59</v>
       </c>
-      <c r="CI10">
+      <c r="DE10">
         <v>206.59</v>
       </c>
-      <c r="CJ10">
+      <c r="DF10">
         <v>206.59</v>
       </c>
-      <c r="CK10">
+      <c r="DG10">
         <v>206.59</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>114.86</v>
+      </c>
+      <c r="C11">
+        <v>125.36</v>
+      </c>
+      <c r="D11">
+        <v>130.16999999999999</v>
+      </c>
+      <c r="E11">
+        <v>136.51</v>
+      </c>
+      <c r="F11">
+        <v>141.49</v>
+      </c>
+      <c r="G11">
+        <v>150.02000000000001</v>
+      </c>
+      <c r="H11">
+        <v>154.83000000000001</v>
+      </c>
+      <c r="I11">
+        <v>163.35</v>
+      </c>
+      <c r="J11">
+        <v>170.45</v>
+      </c>
+      <c r="K11">
+        <v>175.29</v>
+      </c>
+      <c r="L11">
+        <v>180.45</v>
+      </c>
+      <c r="M11">
+        <v>182.44</v>
+      </c>
+      <c r="N11">
+        <v>189.15</v>
+      </c>
+      <c r="O11">
+        <v>192.75</v>
+      </c>
+      <c r="P11">
+        <v>206.45</v>
+      </c>
+      <c r="Q11">
+        <v>206.45</v>
+      </c>
+      <c r="R11">
+        <v>206.45</v>
+      </c>
+      <c r="S11">
+        <v>206.45</v>
+      </c>
+      <c r="T11">
+        <v>206.45</v>
+      </c>
+      <c r="U11">
+        <v>206.45</v>
+      </c>
+      <c r="V11">
+        <v>206.45</v>
+      </c>
+      <c r="W11">
+        <v>206.45</v>
+      </c>
+      <c r="X11">
         <v>109.81</v>
       </c>
-      <c r="C11">
+      <c r="Y11">
         <v>119.85</v>
       </c>
-      <c r="D11">
+      <c r="Z11">
         <v>124.45</v>
       </c>
-      <c r="E11">
+      <c r="AA11">
         <v>130.51</v>
       </c>
-      <c r="F11">
+      <c r="AB11">
         <v>135.27000000000001</v>
       </c>
-      <c r="G11">
+      <c r="AC11">
         <v>143.41999999999999</v>
       </c>
-      <c r="H11">
+      <c r="AD11">
         <v>148.02000000000001</v>
       </c>
-      <c r="I11">
+      <c r="AE11">
         <v>156.16999999999999</v>
       </c>
-      <c r="J11">
+      <c r="AF11">
         <v>162.94999999999999</v>
       </c>
-      <c r="K11">
+      <c r="AG11">
         <v>167.58</v>
       </c>
-      <c r="L11">
+      <c r="AH11">
         <v>172.51</v>
       </c>
-      <c r="M11">
+      <c r="AI11">
         <v>174.42</v>
       </c>
-      <c r="N11">
+      <c r="AJ11">
         <v>180.83</v>
       </c>
-      <c r="O11">
+      <c r="AK11">
         <v>184.27</v>
       </c>
-      <c r="P11">
+      <c r="AL11">
         <v>197.37</v>
       </c>
-      <c r="Q11">
+      <c r="AM11">
         <v>197.37</v>
       </c>
-      <c r="R11">
+      <c r="AN11">
         <v>197.37</v>
       </c>
-      <c r="S11">
+      <c r="AO11">
         <v>197.37</v>
       </c>
-      <c r="T11">
+      <c r="AP11">
         <v>197.37</v>
       </c>
-      <c r="U11">
+      <c r="AQ11">
         <v>197.37</v>
       </c>
-      <c r="V11">
+      <c r="AR11">
         <v>197.37</v>
       </c>
-      <c r="W11">
+      <c r="AS11">
         <v>197.37</v>
       </c>
-      <c r="X11">
+      <c r="AT11">
         <v>106.92</v>
       </c>
-      <c r="Y11">
+      <c r="AU11">
         <v>116.7</v>
       </c>
-      <c r="Z11">
+      <c r="AV11">
         <v>121.18</v>
       </c>
-      <c r="AA11">
+      <c r="AW11">
         <v>127.08</v>
       </c>
-      <c r="AB11">
+      <c r="AX11">
         <v>131.71</v>
       </c>
-      <c r="AC11">
+      <c r="AY11">
         <v>139.65</v>
       </c>
-      <c r="AD11">
+      <c r="AZ11">
         <v>144.13</v>
       </c>
-      <c r="AE11">
+      <c r="BA11">
         <v>152.06</v>
       </c>
-      <c r="AF11">
+      <c r="BB11">
         <v>158.66999999999999</v>
       </c>
-      <c r="AG11">
+      <c r="BC11">
         <v>163.16999999999999</v>
       </c>
-      <c r="AH11">
+      <c r="BD11">
         <v>167.97</v>
       </c>
-      <c r="AI11">
+      <c r="BE11">
         <v>169.83</v>
       </c>
-      <c r="AJ11">
+      <c r="BF11">
         <v>176.08</v>
       </c>
-      <c r="AK11">
+      <c r="BG11">
         <v>179.43</v>
       </c>
-      <c r="AL11">
+      <c r="BH11">
         <v>192.18</v>
       </c>
-      <c r="AM11">
+      <c r="BI11">
         <v>192.18</v>
       </c>
-      <c r="AN11">
+      <c r="BJ11">
         <v>192.18</v>
       </c>
-      <c r="AO11">
+      <c r="BK11">
         <v>192.18</v>
       </c>
-      <c r="AP11">
+      <c r="BL11">
         <v>192.18</v>
       </c>
-      <c r="AQ11">
+      <c r="BM11">
         <v>192.18</v>
       </c>
-      <c r="AR11">
+      <c r="BN11">
         <v>192.18</v>
       </c>
-      <c r="AS11">
+      <c r="BO11">
         <v>192.18</v>
       </c>
-      <c r="AT11">
+      <c r="BP11">
         <v>103.81</v>
       </c>
-      <c r="AU11">
+      <c r="BQ11">
         <v>113.3</v>
       </c>
-      <c r="AV11">
+      <c r="BR11">
         <v>117.65</v>
       </c>
-      <c r="AW11">
+      <c r="BS11">
         <v>123.38</v>
       </c>
-      <c r="AX11">
+      <c r="BT11">
         <v>127.87</v>
       </c>
-      <c r="AY11">
+      <c r="BU11">
         <v>135.58000000000001</v>
       </c>
-      <c r="AZ11">
+      <c r="BV11">
         <v>139.93</v>
       </c>
-      <c r="BA11">
+      <c r="BW11">
         <v>147.63</v>
       </c>
-      <c r="BB11">
+      <c r="BX11">
         <v>154.05000000000001</v>
       </c>
-      <c r="BC11">
+      <c r="BY11">
         <v>158.41999999999999</v>
       </c>
-      <c r="BD11">
+      <c r="BZ11">
         <v>163.08000000000001</v>
       </c>
-      <c r="BE11">
+      <c r="CA11">
         <v>164.88</v>
       </c>
-      <c r="BF11">
+      <c r="CB11">
         <v>170.95</v>
       </c>
-      <c r="BG11">
+      <c r="CC11">
         <v>174.2</v>
       </c>
-      <c r="BH11">
+      <c r="CD11">
         <v>186.58</v>
       </c>
-      <c r="BI11">
+      <c r="CE11">
         <v>186.58</v>
       </c>
-      <c r="BJ11">
+      <c r="CF11">
         <v>186.58</v>
       </c>
-      <c r="BK11">
+      <c r="CG11">
         <v>186.58</v>
       </c>
-      <c r="BL11">
+      <c r="CH11">
         <v>186.58</v>
       </c>
-      <c r="BM11">
+      <c r="CI11">
         <v>186.58</v>
       </c>
-      <c r="BN11">
+      <c r="CJ11">
         <v>186.58</v>
       </c>
-      <c r="BO11">
+      <c r="CK11">
         <v>186.58</v>
       </c>
-      <c r="BP11">
+      <c r="CL11">
         <v>100.69</v>
       </c>
-      <c r="BQ11">
+      <c r="CM11">
         <v>109.89</v>
       </c>
-      <c r="BR11">
+      <c r="CN11">
         <v>114.11</v>
       </c>
-      <c r="BS11">
+      <c r="CO11">
         <v>119.67</v>
       </c>
-      <c r="BT11">
+      <c r="CP11">
         <v>124.03</v>
       </c>
-      <c r="BU11">
+      <c r="CQ11">
         <v>131.5</v>
       </c>
-      <c r="BV11">
+      <c r="CR11">
         <v>135.72</v>
       </c>
-      <c r="BW11">
+      <c r="CS11">
         <v>143.19</v>
       </c>
-      <c r="BX11">
+      <c r="CT11">
         <v>149.41999999999999</v>
       </c>
-      <c r="BY11">
+      <c r="CU11">
         <v>153.66</v>
       </c>
-      <c r="BZ11">
+      <c r="CV11">
         <v>158.18</v>
       </c>
-      <c r="CA11">
+      <c r="CW11">
         <v>159.91999999999999</v>
       </c>
-      <c r="CB11">
+      <c r="CX11">
         <v>165.81</v>
       </c>
-      <c r="CC11">
+      <c r="CY11">
         <v>168.96</v>
       </c>
-      <c r="CD11">
+      <c r="CZ11">
         <v>180.97</v>
       </c>
-      <c r="CE11">
+      <c r="DA11">
         <v>180.97</v>
       </c>
-      <c r="CF11">
+      <c r="DB11">
         <v>180.97</v>
       </c>
-      <c r="CG11">
+      <c r="DC11">
         <v>180.97</v>
       </c>
-      <c r="CH11">
+      <c r="DD11">
         <v>180.97</v>
       </c>
-      <c r="CI11">
+      <c r="DE11">
         <v>180.97</v>
       </c>
-      <c r="CJ11">
+      <c r="DF11">
         <v>180.97</v>
       </c>
-      <c r="CK11">
+      <c r="DG11">
         <v>180.97</v>
       </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>99.35</v>
+      </c>
+      <c r="C12">
+        <v>109.33</v>
+      </c>
+      <c r="D12">
+        <v>114.16</v>
+      </c>
+      <c r="E12">
+        <v>118.85</v>
+      </c>
+      <c r="F12">
+        <v>123.73</v>
+      </c>
+      <c r="G12">
+        <v>134.74</v>
+      </c>
+      <c r="H12">
+        <v>139.03</v>
+      </c>
+      <c r="I12">
+        <v>147.33000000000001</v>
+      </c>
+      <c r="J12">
+        <v>149.87</v>
+      </c>
+      <c r="K12">
+        <v>151.71</v>
+      </c>
+      <c r="L12">
+        <v>153.88</v>
+      </c>
+      <c r="M12">
+        <v>153.88</v>
+      </c>
+      <c r="N12">
+        <v>153.88</v>
+      </c>
+      <c r="O12">
+        <v>153.88</v>
+      </c>
+      <c r="P12">
+        <v>153.88</v>
+      </c>
+      <c r="Q12">
+        <v>153.88</v>
+      </c>
+      <c r="R12">
+        <v>153.88</v>
+      </c>
+      <c r="S12">
+        <v>153.88</v>
+      </c>
+      <c r="T12">
+        <v>153.88</v>
+      </c>
+      <c r="U12">
+        <v>153.88</v>
+      </c>
+      <c r="V12">
+        <v>153.88</v>
+      </c>
+      <c r="W12">
+        <v>153.88</v>
+      </c>
+      <c r="X12">
         <v>94.98</v>
       </c>
-      <c r="C12">
+      <c r="Y12">
         <v>104.52</v>
       </c>
-      <c r="D12">
+      <c r="Z12">
         <v>109.14</v>
       </c>
-      <c r="E12">
+      <c r="AA12">
         <v>113.62</v>
       </c>
-      <c r="F12">
+      <c r="AB12">
         <v>118.29</v>
       </c>
-      <c r="G12">
+      <c r="AC12">
         <v>128.81</v>
       </c>
-      <c r="H12">
+      <c r="AD12">
         <v>132.91999999999999</v>
       </c>
-      <c r="I12">
+      <c r="AE12">
         <v>140.85</v>
       </c>
-      <c r="J12">
+      <c r="AF12">
         <v>143.28</v>
       </c>
-      <c r="K12">
+      <c r="AG12">
         <v>145.04</v>
       </c>
-      <c r="L12">
+      <c r="AH12">
         <v>147.11000000000001</v>
       </c>
-      <c r="M12">
+      <c r="AI12">
         <v>147.11000000000001</v>
       </c>
-      <c r="N12">
+      <c r="AJ12">
         <v>147.11000000000001</v>
       </c>
-      <c r="O12">
+      <c r="AK12">
         <v>147.11000000000001</v>
       </c>
-      <c r="P12">
+      <c r="AL12">
         <v>147.11000000000001</v>
       </c>
-      <c r="Q12">
+      <c r="AM12">
         <v>147.11000000000001</v>
       </c>
-      <c r="R12">
+      <c r="AN12">
         <v>147.11000000000001</v>
       </c>
-      <c r="S12">
+      <c r="AO12">
         <v>147.11000000000001</v>
       </c>
-      <c r="T12">
+      <c r="AP12">
         <v>147.11000000000001</v>
       </c>
-      <c r="U12">
+      <c r="AQ12">
         <v>147.11000000000001</v>
       </c>
-      <c r="V12">
+      <c r="AR12">
         <v>147.11000000000001</v>
       </c>
-      <c r="W12">
+      <c r="AS12">
         <v>147.11000000000001</v>
       </c>
-      <c r="X12">
+      <c r="AT12">
         <v>92.48</v>
       </c>
-      <c r="Y12">
+      <c r="AU12">
         <v>101.77</v>
       </c>
-      <c r="Z12">
+      <c r="AV12">
         <v>106.27</v>
       </c>
-      <c r="AA12">
+      <c r="AW12">
         <v>110.63</v>
       </c>
-      <c r="AB12">
+      <c r="AX12">
         <v>115.18</v>
       </c>
-      <c r="AC12">
+      <c r="AY12">
         <v>125.42</v>
       </c>
-      <c r="AD12">
+      <c r="AZ12">
         <v>129.43</v>
       </c>
-      <c r="AE12">
+      <c r="BA12">
         <v>137.15</v>
       </c>
-      <c r="AF12">
+      <c r="BB12">
         <v>139.51</v>
       </c>
-      <c r="AG12">
+      <c r="BC12">
         <v>141.22999999999999</v>
       </c>
-      <c r="AH12">
+      <c r="BD12">
         <v>143.24</v>
       </c>
-      <c r="AI12">
+      <c r="BE12">
         <v>143.24</v>
       </c>
-      <c r="AJ12">
+      <c r="BF12">
         <v>143.24</v>
       </c>
-      <c r="AK12">
+      <c r="BG12">
         <v>143.24</v>
       </c>
-      <c r="AL12">
+      <c r="BH12">
         <v>143.24</v>
       </c>
-      <c r="AM12">
+      <c r="BI12">
         <v>143.24</v>
       </c>
-      <c r="AN12">
+      <c r="BJ12">
         <v>143.24</v>
       </c>
-      <c r="AO12">
+      <c r="BK12">
         <v>143.24</v>
       </c>
-      <c r="AP12">
+      <c r="BL12">
         <v>143.24</v>
       </c>
-      <c r="AQ12">
+      <c r="BM12">
         <v>143.24</v>
       </c>
-      <c r="AR12">
+      <c r="BN12">
         <v>143.24</v>
       </c>
-      <c r="AS12">
+      <c r="BO12">
         <v>143.24</v>
       </c>
-      <c r="AT12">
+      <c r="BP12">
         <v>89.79</v>
       </c>
-      <c r="AU12">
+      <c r="BQ12">
         <v>98.81</v>
       </c>
-      <c r="AV12">
+      <c r="BR12">
         <v>103.17</v>
       </c>
-      <c r="AW12">
+      <c r="BS12">
         <v>107.41</v>
       </c>
-      <c r="AX12">
+      <c r="BT12">
         <v>111.83</v>
       </c>
-      <c r="AY12">
+      <c r="BU12">
         <v>121.77</v>
       </c>
-      <c r="AZ12">
+      <c r="BV12">
         <v>125.66</v>
       </c>
-      <c r="BA12">
+      <c r="BW12">
         <v>133.16</v>
       </c>
-      <c r="BB12">
+      <c r="BX12">
         <v>135.44999999999999</v>
       </c>
-      <c r="BC12">
+      <c r="BY12">
         <v>137.12</v>
       </c>
-      <c r="BD12">
+      <c r="BZ12">
         <v>139.07</v>
       </c>
-      <c r="BE12">
+      <c r="CA12">
         <v>139.07</v>
       </c>
-      <c r="BF12">
+      <c r="CB12">
         <v>139.07</v>
       </c>
-      <c r="BG12">
+      <c r="CC12">
         <v>139.07</v>
       </c>
-      <c r="BH12">
+      <c r="CD12">
         <v>139.07</v>
       </c>
-      <c r="BI12">
+      <c r="CE12">
         <v>139.07</v>
       </c>
-      <c r="BJ12">
+      <c r="CF12">
         <v>139.07</v>
       </c>
-      <c r="BK12">
+      <c r="CG12">
         <v>139.07</v>
       </c>
-      <c r="BL12">
+      <c r="CH12">
         <v>139.07</v>
       </c>
-      <c r="BM12">
+      <c r="CI12">
         <v>139.07</v>
       </c>
-      <c r="BN12">
+      <c r="CJ12">
         <v>139.07</v>
       </c>
-      <c r="BO12">
+      <c r="CK12">
         <v>139.07</v>
       </c>
-      <c r="BP12">
+      <c r="CL12">
         <v>87.09</v>
       </c>
-      <c r="BQ12">
+      <c r="CM12">
         <v>95.84</v>
       </c>
-      <c r="BR12">
+      <c r="CN12">
         <v>100.07</v>
       </c>
-      <c r="BS12">
+      <c r="CO12">
         <v>104.18</v>
       </c>
-      <c r="BT12">
+      <c r="CP12">
         <v>108.47</v>
       </c>
-      <c r="BU12">
+      <c r="CQ12">
         <v>118.11</v>
       </c>
-      <c r="BV12">
+      <c r="CR12">
         <v>121.88</v>
       </c>
-      <c r="BW12">
+      <c r="CS12">
         <v>129.16</v>
       </c>
-      <c r="BX12">
+      <c r="CT12">
         <v>131.38</v>
       </c>
-      <c r="BY12">
+      <c r="CU12">
         <v>133</v>
       </c>
-      <c r="BZ12">
+      <c r="CV12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CA12">
+      <c r="CW12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CB12">
+      <c r="CX12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CC12">
+      <c r="CY12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CD12">
+      <c r="CZ12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CE12">
+      <c r="DA12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CF12">
+      <c r="DB12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CG12">
+      <c r="DC12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CH12">
+      <c r="DD12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CI12">
+      <c r="DE12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CJ12">
+      <c r="DF12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CK12">
+      <c r="DG12">
         <v>134.88999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>91.01</v>
+      </c>
+      <c r="C13">
+        <v>97.14</v>
+      </c>
+      <c r="D13">
+        <v>101.84</v>
+      </c>
+      <c r="E13">
+        <v>106.64</v>
+      </c>
+      <c r="F13">
+        <v>114.13</v>
+      </c>
+      <c r="G13">
+        <v>121.95</v>
+      </c>
+      <c r="H13">
+        <v>128.38999999999999</v>
+      </c>
+      <c r="I13">
+        <v>129.16</v>
+      </c>
+      <c r="J13">
+        <v>129.16</v>
+      </c>
+      <c r="K13">
+        <v>129.16</v>
+      </c>
+      <c r="L13">
+        <v>129.16</v>
+      </c>
+      <c r="M13">
+        <v>129.16</v>
+      </c>
+      <c r="N13">
+        <v>129.16</v>
+      </c>
+      <c r="O13">
+        <v>129.16</v>
+      </c>
+      <c r="P13">
+        <v>129.16</v>
+      </c>
+      <c r="Q13">
+        <v>129.16</v>
+      </c>
+      <c r="R13">
+        <v>129.16</v>
+      </c>
+      <c r="S13">
+        <v>129.16</v>
+      </c>
+      <c r="T13">
+        <v>129.16</v>
+      </c>
+      <c r="U13">
+        <v>129.16</v>
+      </c>
+      <c r="V13">
+        <v>129.16</v>
+      </c>
+      <c r="W13">
+        <v>129.16</v>
+      </c>
+      <c r="X13">
         <v>87.01</v>
       </c>
-      <c r="C13">
+      <c r="Y13">
         <v>92.87</v>
       </c>
-      <c r="D13">
+      <c r="Z13">
         <v>97.36</v>
       </c>
-      <c r="E13">
+      <c r="AA13">
         <v>101.95</v>
       </c>
-      <c r="F13">
+      <c r="AB13">
         <v>109.11</v>
       </c>
-      <c r="G13">
+      <c r="AC13">
         <v>116.59</v>
       </c>
-      <c r="H13">
+      <c r="AD13">
         <v>122.74</v>
       </c>
-      <c r="I13">
+      <c r="AE13">
         <v>123.48</v>
       </c>
-      <c r="J13">
+      <c r="AF13">
         <v>123.48</v>
       </c>
-      <c r="K13">
+      <c r="AG13">
         <v>123.48</v>
       </c>
-      <c r="L13">
+      <c r="AH13">
         <v>123.48</v>
       </c>
-      <c r="M13">
+      <c r="AI13">
         <v>123.48</v>
       </c>
-      <c r="N13">
+      <c r="AJ13">
         <v>123.48</v>
       </c>
-      <c r="O13">
+      <c r="AK13">
         <v>123.48</v>
       </c>
-      <c r="P13">
+      <c r="AL13">
         <v>123.48</v>
       </c>
-      <c r="Q13">
+      <c r="AM13">
         <v>123.48</v>
       </c>
-      <c r="R13">
+      <c r="AN13">
         <v>123.48</v>
       </c>
-      <c r="S13">
+      <c r="AO13">
         <v>123.48</v>
       </c>
-      <c r="T13">
+      <c r="AP13">
         <v>123.48</v>
       </c>
-      <c r="U13">
+      <c r="AQ13">
         <v>123.48</v>
       </c>
-      <c r="V13">
+      <c r="AR13">
         <v>123.48</v>
       </c>
-      <c r="W13">
+      <c r="AS13">
         <v>123.48</v>
       </c>
-      <c r="X13">
+      <c r="AT13">
         <v>84.72</v>
       </c>
-      <c r="Y13">
+      <c r="AU13">
         <v>90.43</v>
       </c>
-      <c r="Z13">
+      <c r="AV13">
         <v>94.8</v>
       </c>
-      <c r="AA13">
+      <c r="AW13">
         <v>99.27</v>
       </c>
-      <c r="AB13">
+      <c r="AX13">
         <v>106.24</v>
       </c>
-      <c r="AC13">
+      <c r="AY13">
         <v>113.52</v>
       </c>
-      <c r="AD13">
+      <c r="AZ13">
         <v>119.51</v>
       </c>
-      <c r="AE13">
+      <c r="BA13">
         <v>120.23</v>
       </c>
-      <c r="AF13">
+      <c r="BB13">
         <v>120.23</v>
       </c>
-      <c r="AG13">
+      <c r="BC13">
         <v>120.23</v>
       </c>
-      <c r="AH13">
+      <c r="BD13">
         <v>120.23</v>
       </c>
-      <c r="AI13">
+      <c r="BE13">
         <v>120.23</v>
       </c>
-      <c r="AJ13">
+      <c r="BF13">
         <v>120.23</v>
       </c>
-      <c r="AK13">
+      <c r="BG13">
         <v>120.23</v>
       </c>
-      <c r="AL13">
+      <c r="BH13">
         <v>120.23</v>
       </c>
-      <c r="AM13">
+      <c r="BI13">
         <v>120.23</v>
       </c>
-      <c r="AN13">
+      <c r="BJ13">
         <v>120.23</v>
       </c>
-      <c r="AO13">
+      <c r="BK13">
         <v>120.23</v>
       </c>
-      <c r="AP13">
+      <c r="BL13">
         <v>120.23</v>
       </c>
-      <c r="AQ13">
+      <c r="BM13">
         <v>120.23</v>
       </c>
-      <c r="AR13">
+      <c r="BN13">
         <v>120.23</v>
       </c>
-      <c r="AS13">
+      <c r="BO13">
         <v>120.23</v>
       </c>
-      <c r="AT13">
+      <c r="BP13">
         <v>82.25</v>
       </c>
-      <c r="AU13">
+      <c r="BQ13">
         <v>87.8</v>
       </c>
-      <c r="AV13">
+      <c r="BR13">
         <v>92.04</v>
       </c>
-      <c r="AW13">
+      <c r="BS13">
         <v>96.38</v>
       </c>
-      <c r="AX13">
+      <c r="BT13">
         <v>103.15</v>
       </c>
-      <c r="AY13">
+      <c r="BU13">
         <v>110.21</v>
       </c>
-      <c r="AZ13">
+      <c r="BV13">
         <v>116.03</v>
       </c>
-      <c r="BA13">
+      <c r="BW13">
         <v>116.73</v>
       </c>
-      <c r="BB13">
+      <c r="BX13">
         <v>116.73</v>
       </c>
-      <c r="BC13">
+      <c r="BY13">
         <v>116.73</v>
       </c>
-      <c r="BD13">
+      <c r="BZ13">
         <v>116.73</v>
       </c>
-      <c r="BE13">
+      <c r="CA13">
         <v>116.73</v>
       </c>
-      <c r="BF13">
+      <c r="CB13">
         <v>116.73</v>
       </c>
-      <c r="BG13">
+      <c r="CC13">
         <v>116.73</v>
       </c>
-      <c r="BH13">
+      <c r="CD13">
         <v>116.73</v>
       </c>
-      <c r="BI13">
+      <c r="CE13">
         <v>116.73</v>
       </c>
-      <c r="BJ13">
+      <c r="CF13">
         <v>116.73</v>
       </c>
-      <c r="BK13">
+      <c r="CG13">
         <v>116.73</v>
       </c>
-      <c r="BL13">
+      <c r="CH13">
         <v>116.73</v>
       </c>
-      <c r="BM13">
+      <c r="CI13">
         <v>116.73</v>
       </c>
-      <c r="BN13">
+      <c r="CJ13">
         <v>116.73</v>
       </c>
-      <c r="BO13">
+      <c r="CK13">
         <v>116.73</v>
       </c>
-      <c r="BP13">
+      <c r="CL13">
         <v>79.78</v>
       </c>
-      <c r="BQ13">
+      <c r="CM13">
         <v>85.16</v>
       </c>
-      <c r="BR13">
+      <c r="CN13">
         <v>89.27</v>
       </c>
-      <c r="BS13">
+      <c r="CO13">
         <v>93.48</v>
       </c>
-      <c r="BT13">
+      <c r="CP13">
         <v>100.05</v>
       </c>
-      <c r="BU13">
+      <c r="CQ13">
         <v>106.9</v>
       </c>
-      <c r="BV13">
+      <c r="CR13">
         <v>112.54</v>
       </c>
-      <c r="BW13">
+      <c r="CS13">
         <v>113.22</v>
       </c>
-      <c r="BX13">
+      <c r="CT13">
         <v>113.22</v>
       </c>
-      <c r="BY13">
+      <c r="CU13">
         <v>113.22</v>
       </c>
-      <c r="BZ13">
+      <c r="CV13">
         <v>113.22</v>
       </c>
-      <c r="CA13">
+      <c r="CW13">
         <v>113.22</v>
       </c>
-      <c r="CB13">
+      <c r="CX13">
         <v>113.22</v>
       </c>
-      <c r="CC13">
+      <c r="CY13">
         <v>113.22</v>
       </c>
-      <c r="CD13">
+      <c r="CZ13">
         <v>113.22</v>
       </c>
-      <c r="CE13">
+      <c r="DA13">
         <v>113.22</v>
       </c>
-      <c r="CF13">
+      <c r="DB13">
         <v>113.22</v>
       </c>
-      <c r="CG13">
+      <c r="DC13">
         <v>113.22</v>
       </c>
-      <c r="CH13">
+      <c r="DD13">
         <v>113.22</v>
       </c>
-      <c r="CI13">
+      <c r="DE13">
         <v>113.22</v>
       </c>
-      <c r="CJ13">
+      <c r="DF13">
         <v>113.22</v>
       </c>
-      <c r="CK13">
+      <c r="DG13">
         <v>113.22</v>
       </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>83.45</v>
+      </c>
+      <c r="C14">
+        <v>87.72</v>
+      </c>
+      <c r="D14">
+        <v>92.47</v>
+      </c>
+      <c r="E14">
+        <v>97.16</v>
+      </c>
+      <c r="F14">
+        <v>101.31</v>
+      </c>
+      <c r="G14">
+        <v>101.31</v>
+      </c>
+      <c r="H14">
+        <v>101.31</v>
+      </c>
+      <c r="I14">
+        <v>101.31</v>
+      </c>
+      <c r="J14">
+        <v>101.31</v>
+      </c>
+      <c r="K14">
+        <v>101.31</v>
+      </c>
+      <c r="L14">
+        <v>101.31</v>
+      </c>
+      <c r="M14">
+        <v>101.31</v>
+      </c>
+      <c r="N14">
+        <v>101.31</v>
+      </c>
+      <c r="O14">
+        <v>101.31</v>
+      </c>
+      <c r="P14">
+        <v>101.31</v>
+      </c>
+      <c r="Q14">
+        <v>101.31</v>
+      </c>
+      <c r="R14">
+        <v>101.31</v>
+      </c>
+      <c r="S14">
+        <v>101.31</v>
+      </c>
+      <c r="T14">
+        <v>101.31</v>
+      </c>
+      <c r="U14">
+        <v>101.31</v>
+      </c>
+      <c r="V14">
+        <v>101.31</v>
+      </c>
+      <c r="W14">
+        <v>101.31</v>
+      </c>
+      <c r="X14">
         <v>79.78</v>
       </c>
-      <c r="C14">
+      <c r="Y14">
         <v>83.86</v>
       </c>
-      <c r="D14">
+      <c r="Z14">
         <v>88.4</v>
       </c>
-      <c r="E14">
+      <c r="AA14">
         <v>92.89</v>
       </c>
-      <c r="F14">
+      <c r="AB14">
         <v>96.85</v>
       </c>
-      <c r="G14">
+      <c r="AC14">
         <v>96.85</v>
       </c>
-      <c r="H14">
+      <c r="AD14">
         <v>96.85</v>
       </c>
-      <c r="I14">
+      <c r="AE14">
         <v>96.85</v>
       </c>
-      <c r="J14">
+      <c r="AF14">
         <v>96.85</v>
       </c>
-      <c r="K14">
+      <c r="AG14">
         <v>96.85</v>
       </c>
-      <c r="L14">
+      <c r="AH14">
         <v>96.85</v>
       </c>
-      <c r="M14">
+      <c r="AI14">
         <v>96.85</v>
       </c>
-      <c r="N14">
+      <c r="AJ14">
         <v>96.85</v>
       </c>
-      <c r="O14">
+      <c r="AK14">
         <v>96.85</v>
       </c>
-      <c r="P14">
+      <c r="AL14">
         <v>96.85</v>
       </c>
-      <c r="Q14">
+      <c r="AM14">
         <v>96.85</v>
       </c>
-      <c r="R14">
+      <c r="AN14">
         <v>96.85</v>
       </c>
-      <c r="S14">
+      <c r="AO14">
         <v>96.85</v>
       </c>
-      <c r="T14">
+      <c r="AP14">
         <v>96.85</v>
       </c>
-      <c r="U14">
+      <c r="AQ14">
         <v>96.85</v>
       </c>
-      <c r="V14">
+      <c r="AR14">
         <v>96.85</v>
       </c>
-      <c r="W14">
+      <c r="AS14">
         <v>96.85</v>
       </c>
-      <c r="X14">
+      <c r="AT14">
         <v>77.680000000000007</v>
       </c>
-      <c r="Y14">
+      <c r="AU14">
         <v>81.66</v>
       </c>
-      <c r="Z14">
+      <c r="AV14">
         <v>86.08</v>
       </c>
-      <c r="AA14">
+      <c r="AW14">
         <v>90.45</v>
       </c>
-      <c r="AB14">
+      <c r="AX14">
         <v>94.3</v>
       </c>
-      <c r="AC14">
+      <c r="AY14">
         <v>94.3</v>
       </c>
-      <c r="AD14">
+      <c r="AZ14">
         <v>94.3</v>
       </c>
-      <c r="AE14">
+      <c r="BA14">
         <v>94.3</v>
       </c>
-      <c r="AF14">
+      <c r="BB14">
         <v>94.3</v>
       </c>
-      <c r="AG14">
+      <c r="BC14">
         <v>94.3</v>
       </c>
-      <c r="AH14">
+      <c r="BD14">
         <v>94.3</v>
       </c>
-      <c r="AI14">
+      <c r="BE14">
         <v>94.3</v>
       </c>
-      <c r="AJ14">
+      <c r="BF14">
         <v>94.3</v>
       </c>
-      <c r="AK14">
+      <c r="BG14">
         <v>94.3</v>
       </c>
-      <c r="AL14">
+      <c r="BH14">
         <v>94.3</v>
       </c>
-      <c r="AM14">
+      <c r="BI14">
         <v>94.3</v>
       </c>
-      <c r="AN14">
+      <c r="BJ14">
         <v>94.3</v>
       </c>
-      <c r="AO14">
+      <c r="BK14">
         <v>94.3</v>
       </c>
-      <c r="AP14">
+      <c r="BL14">
         <v>94.3</v>
       </c>
-      <c r="AQ14">
+      <c r="BM14">
         <v>94.3</v>
       </c>
-      <c r="AR14">
+      <c r="BN14">
         <v>94.3</v>
       </c>
-      <c r="AS14">
+      <c r="BO14">
         <v>94.3</v>
       </c>
-      <c r="AT14">
+      <c r="BP14">
         <v>75.42</v>
       </c>
-      <c r="AU14">
+      <c r="BQ14">
         <v>79.28</v>
       </c>
-      <c r="AV14">
+      <c r="BR14">
         <v>83.57</v>
       </c>
-      <c r="AW14">
+      <c r="BS14">
         <v>87.82</v>
       </c>
-      <c r="AX14">
+      <c r="BT14">
         <v>91.55</v>
       </c>
-      <c r="AY14">
+      <c r="BU14">
         <v>91.55</v>
       </c>
-      <c r="AZ14">
+      <c r="BV14">
         <v>91.55</v>
       </c>
-      <c r="BA14">
+      <c r="BW14">
         <v>91.55</v>
       </c>
-      <c r="BB14">
+      <c r="BX14">
         <v>91.55</v>
       </c>
-      <c r="BC14">
+      <c r="BY14">
         <v>91.55</v>
       </c>
-      <c r="BD14">
+      <c r="BZ14">
         <v>91.55</v>
       </c>
-      <c r="BE14">
+      <c r="CA14">
         <v>91.55</v>
       </c>
-      <c r="BF14">
+      <c r="CB14">
         <v>91.55</v>
       </c>
-      <c r="BG14">
+      <c r="CC14">
         <v>91.55</v>
       </c>
-      <c r="BH14">
+      <c r="CD14">
         <v>91.55</v>
       </c>
-      <c r="BI14">
+      <c r="CE14">
         <v>91.55</v>
       </c>
-      <c r="BJ14">
+      <c r="CF14">
         <v>91.55</v>
       </c>
-      <c r="BK14">
+      <c r="CG14">
         <v>91.55</v>
       </c>
-      <c r="BL14">
+      <c r="CH14">
         <v>91.55</v>
       </c>
-      <c r="BM14">
+      <c r="CI14">
         <v>91.55</v>
       </c>
-      <c r="BN14">
+      <c r="CJ14">
         <v>91.55</v>
       </c>
-      <c r="BO14">
+      <c r="CK14">
         <v>91.55</v>
       </c>
-      <c r="BP14">
+      <c r="CL14">
         <v>73.150000000000006</v>
       </c>
-      <c r="BQ14">
+      <c r="CM14">
         <v>76.900000000000006</v>
       </c>
-      <c r="BR14">
+      <c r="CN14">
         <v>81.06</v>
       </c>
-      <c r="BS14">
+      <c r="CO14">
         <v>85.18</v>
       </c>
-      <c r="BT14">
+      <c r="CP14">
         <v>88.8</v>
       </c>
-      <c r="BU14">
+      <c r="CQ14">
         <v>88.8</v>
       </c>
-      <c r="BV14">
+      <c r="CR14">
         <v>88.8</v>
       </c>
-      <c r="BW14">
+      <c r="CS14">
         <v>88.8</v>
       </c>
-      <c r="BX14">
+      <c r="CT14">
         <v>88.8</v>
       </c>
-      <c r="BY14">
+      <c r="CU14">
         <v>88.8</v>
       </c>
-      <c r="BZ14">
+      <c r="CV14">
         <v>88.8</v>
       </c>
-      <c r="CA14">
+      <c r="CW14">
         <v>88.8</v>
       </c>
-      <c r="CB14">
+      <c r="CX14">
         <v>88.8</v>
       </c>
-      <c r="CC14">
+      <c r="CY14">
         <v>88.8</v>
       </c>
-      <c r="CD14">
+      <c r="CZ14">
         <v>88.8</v>
       </c>
-      <c r="CE14">
+      <c r="DA14">
         <v>88.8</v>
       </c>
-      <c r="CF14">
+      <c r="DB14">
         <v>88.8</v>
       </c>
-      <c r="CG14">
+      <c r="DC14">
         <v>88.8</v>
       </c>
-      <c r="CH14">
+      <c r="DD14">
         <v>88.8</v>
       </c>
-      <c r="CI14">
+      <c r="DE14">
         <v>88.8</v>
       </c>
-      <c r="CJ14">
+      <c r="DF14">
         <v>88.8</v>
       </c>
-      <c r="CK14">
+      <c r="DG14">
         <v>88.8</v>
       </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
+        <v>75.33</v>
+      </c>
+      <c r="C15">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="D15">
+        <v>84.92</v>
+      </c>
+      <c r="E15">
+        <v>84.92</v>
+      </c>
+      <c r="F15">
+        <v>84.92</v>
+      </c>
+      <c r="G15">
+        <v>84.92</v>
+      </c>
+      <c r="H15">
+        <v>84.92</v>
+      </c>
+      <c r="I15">
+        <v>84.92</v>
+      </c>
+      <c r="J15">
+        <v>84.92</v>
+      </c>
+      <c r="K15">
+        <v>84.92</v>
+      </c>
+      <c r="L15">
+        <v>84.92</v>
+      </c>
+      <c r="M15">
+        <v>84.92</v>
+      </c>
+      <c r="N15">
+        <v>84.92</v>
+      </c>
+      <c r="O15">
+        <v>84.92</v>
+      </c>
+      <c r="P15">
+        <v>84.92</v>
+      </c>
+      <c r="Q15">
+        <v>84.92</v>
+      </c>
+      <c r="R15">
+        <v>84.92</v>
+      </c>
+      <c r="S15">
+        <v>84.92</v>
+      </c>
+      <c r="T15">
+        <v>84.92</v>
+      </c>
+      <c r="U15">
+        <v>84.92</v>
+      </c>
+      <c r="V15">
+        <v>84.92</v>
+      </c>
+      <c r="W15">
+        <v>84.92</v>
+      </c>
+      <c r="X15">
         <v>72.02</v>
       </c>
-      <c r="C15">
+      <c r="Y15">
         <v>76.55</v>
       </c>
-      <c r="D15">
+      <c r="Z15">
         <v>81.19</v>
       </c>
-      <c r="E15">
+      <c r="AA15">
         <v>81.19</v>
       </c>
-      <c r="F15">
+      <c r="AB15">
         <v>81.19</v>
       </c>
-      <c r="G15">
+      <c r="AC15">
         <v>81.19</v>
       </c>
-      <c r="H15">
+      <c r="AD15">
         <v>81.19</v>
       </c>
-      <c r="I15">
+      <c r="AE15">
         <v>81.19</v>
       </c>
-      <c r="J15">
+      <c r="AF15">
         <v>81.19</v>
       </c>
-      <c r="K15">
+      <c r="AG15">
         <v>81.19</v>
       </c>
-      <c r="L15">
+      <c r="AH15">
         <v>81.19</v>
       </c>
-      <c r="M15">
+      <c r="AI15">
         <v>81.19</v>
       </c>
-      <c r="N15">
+      <c r="AJ15">
         <v>81.19</v>
       </c>
-      <c r="O15">
+      <c r="AK15">
         <v>81.19</v>
       </c>
-      <c r="P15">
+      <c r="AL15">
         <v>81.19</v>
       </c>
-      <c r="Q15">
+      <c r="AM15">
         <v>81.19</v>
       </c>
-      <c r="R15">
+      <c r="AN15">
         <v>81.19</v>
       </c>
-      <c r="S15">
+      <c r="AO15">
         <v>81.19</v>
       </c>
-      <c r="T15">
+      <c r="AP15">
         <v>81.19</v>
       </c>
-      <c r="U15">
+      <c r="AQ15">
         <v>81.19</v>
       </c>
-      <c r="V15">
+      <c r="AR15">
         <v>81.19</v>
       </c>
-      <c r="W15">
+      <c r="AS15">
         <v>81.19</v>
       </c>
-      <c r="X15">
+      <c r="AT15">
         <v>70.13</v>
       </c>
-      <c r="Y15">
+      <c r="AU15">
         <v>74.540000000000006</v>
       </c>
-      <c r="Z15">
+      <c r="AV15">
         <v>79.06</v>
       </c>
-      <c r="AA15">
+      <c r="AW15">
         <v>79.06</v>
       </c>
-      <c r="AB15">
+      <c r="AX15">
         <v>79.06</v>
       </c>
-      <c r="AC15">
+      <c r="AY15">
         <v>79.06</v>
       </c>
-      <c r="AD15">
+      <c r="AZ15">
         <v>79.06</v>
       </c>
-      <c r="AE15">
+      <c r="BA15">
         <v>79.06</v>
       </c>
-      <c r="AF15">
+      <c r="BB15">
         <v>79.06</v>
       </c>
-      <c r="AG15">
+      <c r="BC15">
         <v>79.06</v>
       </c>
-      <c r="AH15">
+      <c r="BD15">
         <v>79.06</v>
       </c>
-      <c r="AI15">
+      <c r="BE15">
         <v>79.06</v>
       </c>
-      <c r="AJ15">
+      <c r="BF15">
         <v>79.06</v>
       </c>
-      <c r="AK15">
+      <c r="BG15">
         <v>79.06</v>
       </c>
-      <c r="AL15">
+      <c r="BH15">
         <v>79.06</v>
       </c>
-      <c r="AM15">
+      <c r="BI15">
         <v>79.06</v>
       </c>
-      <c r="AN15">
+      <c r="BJ15">
         <v>79.06</v>
       </c>
-      <c r="AO15">
+      <c r="BK15">
         <v>79.06</v>
       </c>
-      <c r="AP15">
+      <c r="BL15">
         <v>79.06</v>
       </c>
-      <c r="AQ15">
+      <c r="BM15">
         <v>79.06</v>
       </c>
-      <c r="AR15">
+      <c r="BN15">
         <v>79.06</v>
       </c>
-      <c r="AS15">
+      <c r="BO15">
         <v>79.06</v>
       </c>
-      <c r="AT15">
+      <c r="BP15">
         <v>68.09</v>
       </c>
-      <c r="AU15">
+      <c r="BQ15">
         <v>72.37</v>
       </c>
-      <c r="AV15">
+      <c r="BR15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AW15">
+      <c r="BS15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AX15">
+      <c r="BT15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AY15">
+      <c r="BU15">
         <v>76.760000000000005</v>
       </c>
-      <c r="AZ15">
+      <c r="BV15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BA15">
+      <c r="BW15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BB15">
+      <c r="BX15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BC15">
+      <c r="BY15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BD15">
+      <c r="BZ15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BE15">
+      <c r="CA15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BF15">
+      <c r="CB15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BG15">
+      <c r="CC15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BH15">
+      <c r="CD15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BI15">
+      <c r="CE15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BJ15">
+      <c r="CF15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BK15">
+      <c r="CG15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BL15">
+      <c r="CH15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BM15">
+      <c r="CI15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BN15">
+      <c r="CJ15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BO15">
+      <c r="CK15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BP15">
+      <c r="CL15">
         <v>66.040000000000006</v>
       </c>
-      <c r="BQ15">
+      <c r="CM15">
         <v>70.19</v>
       </c>
-      <c r="BR15">
+      <c r="CN15">
         <v>74.45</v>
       </c>
-      <c r="BS15">
+      <c r="CO15">
         <v>74.45</v>
       </c>
-      <c r="BT15">
+      <c r="CP15">
         <v>74.45</v>
       </c>
-      <c r="BU15">
+      <c r="CQ15">
         <v>74.45</v>
       </c>
-      <c r="BV15">
+      <c r="CR15">
         <v>74.45</v>
       </c>
-      <c r="BW15">
+      <c r="CS15">
         <v>74.45</v>
       </c>
-      <c r="BX15">
+      <c r="CT15">
         <v>74.45</v>
       </c>
-      <c r="BY15">
+      <c r="CU15">
         <v>74.45</v>
       </c>
-      <c r="BZ15">
+      <c r="CV15">
         <v>74.45</v>
       </c>
-      <c r="CA15">
+      <c r="CW15">
         <v>74.45</v>
       </c>
-      <c r="CB15">
+      <c r="CX15">
         <v>74.45</v>
       </c>
-      <c r="CC15">
+      <c r="CY15">
         <v>74.45</v>
       </c>
-      <c r="CD15">
+      <c r="CZ15">
         <v>74.45</v>
       </c>
-      <c r="CE15">
+      <c r="DA15">
         <v>74.45</v>
       </c>
-      <c r="CF15">
+      <c r="DB15">
         <v>74.45</v>
       </c>
-      <c r="CG15">
+      <c r="DC15">
         <v>74.45</v>
       </c>
-      <c r="CH15">
+      <c r="DD15">
         <v>74.45</v>
       </c>
-      <c r="CI15">
+      <c r="DE15">
         <v>74.45</v>
       </c>
-      <c r="CJ15">
+      <c r="DF15">
         <v>74.45</v>
       </c>
-      <c r="CK15">
+      <c r="DG15">
         <v>74.45</v>
       </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
+        <v>71.64</v>
+      </c>
+      <c r="C16">
+        <v>71.64</v>
+      </c>
+      <c r="D16">
+        <v>71.64</v>
+      </c>
+      <c r="E16">
+        <v>71.64</v>
+      </c>
+      <c r="F16">
+        <v>71.64</v>
+      </c>
+      <c r="G16">
+        <v>71.64</v>
+      </c>
+      <c r="H16">
+        <v>71.64</v>
+      </c>
+      <c r="I16">
+        <v>71.64</v>
+      </c>
+      <c r="J16">
+        <v>71.64</v>
+      </c>
+      <c r="K16">
+        <v>71.64</v>
+      </c>
+      <c r="L16">
+        <v>71.64</v>
+      </c>
+      <c r="M16">
+        <v>71.64</v>
+      </c>
+      <c r="N16">
+        <v>71.64</v>
+      </c>
+      <c r="O16">
+        <v>71.64</v>
+      </c>
+      <c r="P16">
+        <v>71.64</v>
+      </c>
+      <c r="Q16">
+        <v>71.64</v>
+      </c>
+      <c r="R16">
+        <v>71.64</v>
+      </c>
+      <c r="S16">
+        <v>71.64</v>
+      </c>
+      <c r="T16">
+        <v>71.64</v>
+      </c>
+      <c r="U16">
+        <v>71.64</v>
+      </c>
+      <c r="V16">
+        <v>71.64</v>
+      </c>
+      <c r="W16">
+        <v>71.64</v>
+      </c>
+      <c r="X16">
         <v>68.489999999999995</v>
       </c>
-      <c r="C16">
+      <c r="Y16">
         <v>68.489999999999995</v>
       </c>
-      <c r="D16">
+      <c r="Z16">
         <v>68.489999999999995</v>
       </c>
-      <c r="E16">
+      <c r="AA16">
         <v>68.489999999999995</v>
       </c>
-      <c r="F16">
+      <c r="AB16">
         <v>68.489999999999995</v>
       </c>
-      <c r="G16">
+      <c r="AC16">
         <v>68.489999999999995</v>
       </c>
-      <c r="H16">
+      <c r="AD16">
         <v>68.489999999999995</v>
       </c>
-      <c r="I16">
+      <c r="AE16">
         <v>68.489999999999995</v>
       </c>
-      <c r="J16">
+      <c r="AF16">
         <v>68.489999999999995</v>
       </c>
-      <c r="K16">
+      <c r="AG16">
         <v>68.489999999999995</v>
       </c>
-      <c r="L16">
+      <c r="AH16">
         <v>68.489999999999995</v>
       </c>
-      <c r="M16">
+      <c r="AI16">
         <v>68.489999999999995</v>
       </c>
-      <c r="N16">
+      <c r="AJ16">
         <v>68.489999999999995</v>
       </c>
-      <c r="O16">
+      <c r="AK16">
         <v>68.489999999999995</v>
       </c>
-      <c r="P16">
+      <c r="AL16">
         <v>68.489999999999995</v>
       </c>
-      <c r="Q16">
+      <c r="AM16">
         <v>68.489999999999995</v>
       </c>
-      <c r="R16">
+      <c r="AN16">
         <v>68.489999999999995</v>
       </c>
-      <c r="S16">
+      <c r="AO16">
         <v>68.489999999999995</v>
       </c>
-      <c r="T16">
+      <c r="AP16">
         <v>68.489999999999995</v>
       </c>
-      <c r="U16">
+      <c r="AQ16">
         <v>68.489999999999995</v>
       </c>
-      <c r="V16">
+      <c r="AR16">
         <v>68.489999999999995</v>
       </c>
-      <c r="W16">
+      <c r="AS16">
         <v>68.489999999999995</v>
       </c>
-      <c r="X16">
+      <c r="AT16">
         <v>66.69</v>
       </c>
-      <c r="Y16">
+      <c r="AU16">
         <v>66.69</v>
       </c>
-      <c r="Z16">
+      <c r="AV16">
         <v>66.69</v>
       </c>
-      <c r="AA16">
+      <c r="AW16">
         <v>66.69</v>
       </c>
-      <c r="AB16">
+      <c r="AX16">
         <v>66.69</v>
       </c>
-      <c r="AC16">
+      <c r="AY16">
         <v>66.69</v>
       </c>
-      <c r="AD16">
+      <c r="AZ16">
         <v>66.69</v>
       </c>
-      <c r="AE16">
+      <c r="BA16">
         <v>66.69</v>
       </c>
-      <c r="AF16">
+      <c r="BB16">
         <v>66.69</v>
       </c>
-      <c r="AG16">
+      <c r="BC16">
         <v>66.69</v>
       </c>
-      <c r="AH16">
+      <c r="BD16">
         <v>66.69</v>
       </c>
-      <c r="AI16">
+      <c r="BE16">
         <v>66.69</v>
       </c>
-      <c r="AJ16">
+      <c r="BF16">
         <v>66.69</v>
       </c>
-      <c r="AK16">
+      <c r="BG16">
         <v>66.69</v>
       </c>
-      <c r="AL16">
+      <c r="BH16">
         <v>66.69</v>
       </c>
-      <c r="AM16">
+      <c r="BI16">
         <v>66.69</v>
       </c>
-      <c r="AN16">
+      <c r="BJ16">
         <v>66.69</v>
       </c>
-      <c r="AO16">
+      <c r="BK16">
         <v>66.69</v>
       </c>
-      <c r="AP16">
+      <c r="BL16">
         <v>66.69</v>
       </c>
-      <c r="AQ16">
+      <c r="BM16">
         <v>66.69</v>
       </c>
-      <c r="AR16">
+      <c r="BN16">
         <v>66.69</v>
       </c>
-      <c r="AS16">
+      <c r="BO16">
         <v>66.69</v>
       </c>
-      <c r="AT16">
+      <c r="BP16">
         <v>64.75</v>
       </c>
-      <c r="AU16">
+      <c r="BQ16">
         <v>64.75</v>
       </c>
-      <c r="AV16">
+      <c r="BR16">
         <v>64.75</v>
       </c>
-      <c r="AW16">
+      <c r="BS16">
         <v>64.75</v>
       </c>
-      <c r="AX16">
+      <c r="BT16">
         <v>64.75</v>
       </c>
-      <c r="AY16">
+      <c r="BU16">
         <v>64.75</v>
       </c>
-      <c r="AZ16">
+      <c r="BV16">
         <v>64.75</v>
       </c>
-      <c r="BA16">
+      <c r="BW16">
         <v>64.75</v>
       </c>
-      <c r="BB16">
+      <c r="BX16">
         <v>64.75</v>
       </c>
-      <c r="BC16">
+      <c r="BY16">
         <v>64.75</v>
       </c>
-      <c r="BD16">
+      <c r="BZ16">
         <v>64.75</v>
       </c>
-      <c r="BE16">
+      <c r="CA16">
         <v>64.75</v>
       </c>
-      <c r="BF16">
+      <c r="CB16">
         <v>64.75</v>
       </c>
-      <c r="BG16">
+      <c r="CC16">
         <v>64.75</v>
       </c>
-      <c r="BH16">
+      <c r="CD16">
         <v>64.75</v>
       </c>
-      <c r="BI16">
+      <c r="CE16">
         <v>64.75</v>
       </c>
-      <c r="BJ16">
+      <c r="CF16">
         <v>64.75</v>
       </c>
-      <c r="BK16">
+      <c r="CG16">
         <v>64.75</v>
       </c>
-      <c r="BL16">
+      <c r="CH16">
         <v>64.75</v>
       </c>
-      <c r="BM16">
+      <c r="CI16">
         <v>64.75</v>
       </c>
-      <c r="BN16">
+      <c r="CJ16">
         <v>64.75</v>
       </c>
-      <c r="BO16">
+      <c r="CK16">
         <v>64.75</v>
       </c>
-      <c r="BP16">
+      <c r="CL16">
         <v>62.8</v>
       </c>
-      <c r="BQ16">
+      <c r="CM16">
         <v>62.8</v>
       </c>
-      <c r="BR16">
+      <c r="CN16">
         <v>62.8</v>
       </c>
-      <c r="BS16">
+      <c r="CO16">
         <v>62.8</v>
       </c>
-      <c r="BT16">
+      <c r="CP16">
         <v>62.8</v>
       </c>
-      <c r="BU16">
+      <c r="CQ16">
         <v>62.8</v>
       </c>
-      <c r="BV16">
+      <c r="CR16">
         <v>62.8</v>
       </c>
-      <c r="BW16">
+      <c r="CS16">
         <v>62.8</v>
       </c>
-      <c r="BX16">
+      <c r="CT16">
         <v>62.8</v>
       </c>
-      <c r="BY16">
+      <c r="CU16">
         <v>62.8</v>
       </c>
-      <c r="BZ16">
+      <c r="CV16">
         <v>62.8</v>
       </c>
-      <c r="CA16">
+      <c r="CW16">
         <v>62.8</v>
       </c>
-      <c r="CB16">
+      <c r="CX16">
         <v>62.8</v>
       </c>
-      <c r="CC16">
+      <c r="CY16">
         <v>62.8</v>
       </c>
-      <c r="CD16">
+      <c r="CZ16">
         <v>62.8</v>
       </c>
-      <c r="CE16">
+      <c r="DA16">
         <v>62.8</v>
       </c>
-      <c r="CF16">
+      <c r="DB16">
         <v>62.8</v>
       </c>
-      <c r="CG16">
+      <c r="DC16">
         <v>62.8</v>
       </c>
-      <c r="CH16">
+      <c r="DD16">
         <v>62.8</v>
       </c>
-      <c r="CI16">
+      <c r="DE16">
         <v>62.8</v>
       </c>
-      <c r="CJ16">
+      <c r="DF16">
         <v>62.8</v>
       </c>
-      <c r="CK16">
+      <c r="DG16">
         <v>62.8</v>
       </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
+        <v>59.1</v>
+      </c>
+      <c r="C17">
+        <v>63.92</v>
+      </c>
+      <c r="D17">
+        <v>63.92</v>
+      </c>
+      <c r="E17">
+        <v>63.92</v>
+      </c>
+      <c r="F17">
+        <v>63.92</v>
+      </c>
+      <c r="G17">
+        <v>63.92</v>
+      </c>
+      <c r="H17">
+        <v>63.92</v>
+      </c>
+      <c r="I17">
+        <v>63.92</v>
+      </c>
+      <c r="J17">
+        <v>63.92</v>
+      </c>
+      <c r="K17">
+        <v>63.92</v>
+      </c>
+      <c r="L17">
+        <v>63.92</v>
+      </c>
+      <c r="M17">
+        <v>63.92</v>
+      </c>
+      <c r="N17">
+        <v>63.92</v>
+      </c>
+      <c r="O17">
+        <v>63.92</v>
+      </c>
+      <c r="P17">
+        <v>63.92</v>
+      </c>
+      <c r="Q17">
+        <v>63.92</v>
+      </c>
+      <c r="R17">
+        <v>63.92</v>
+      </c>
+      <c r="S17">
+        <v>63.92</v>
+      </c>
+      <c r="T17">
+        <v>63.92</v>
+      </c>
+      <c r="U17">
+        <v>63.92</v>
+      </c>
+      <c r="V17">
+        <v>63.92</v>
+      </c>
+      <c r="W17">
+        <v>63.92</v>
+      </c>
+      <c r="X17">
         <v>61.11</v>
       </c>
+      <c r="Y17">
+        <v>61.11</v>
+      </c>
+      <c r="Z17">
+        <v>61.11</v>
+      </c>
+      <c r="AA17">
+        <v>61.11</v>
+      </c>
+      <c r="AB17">
+        <v>61.11</v>
+      </c>
+      <c r="AC17">
+        <v>61.11</v>
+      </c>
+      <c r="AD17">
+        <v>61.11</v>
+      </c>
+      <c r="AE17">
+        <v>61.11</v>
+      </c>
+      <c r="AF17">
+        <v>61.11</v>
+      </c>
+      <c r="AG17">
+        <v>61.11</v>
+      </c>
+      <c r="AH17">
+        <v>61.11</v>
+      </c>
+      <c r="AI17">
+        <v>61.11</v>
+      </c>
+      <c r="AJ17">
+        <v>61.11</v>
+      </c>
+      <c r="AK17">
+        <v>61.11</v>
+      </c>
+      <c r="AL17">
+        <v>61.11</v>
+      </c>
+      <c r="AM17">
+        <v>61.11</v>
+      </c>
+      <c r="AN17">
+        <v>61.11</v>
+      </c>
+      <c r="AO17">
+        <v>61.11</v>
+      </c>
+      <c r="AP17">
+        <v>61.11</v>
+      </c>
+      <c r="AQ17">
+        <v>61.11</v>
+      </c>
+      <c r="AR17">
+        <v>61.11</v>
+      </c>
+      <c r="AS17">
+        <v>61.11</v>
+      </c>
+      <c r="AT17">
+        <v>59.5</v>
+      </c>
+      <c r="AU17">
+        <v>59.5</v>
+      </c>
+      <c r="AV17">
+        <v>59.5</v>
+      </c>
+      <c r="AW17">
+        <v>59.5</v>
+      </c>
+      <c r="AX17">
+        <v>59.5</v>
+      </c>
+      <c r="AY17">
+        <v>59.5</v>
+      </c>
+      <c r="AZ17">
+        <v>59.5</v>
+      </c>
+      <c r="BA17">
+        <v>59.5</v>
+      </c>
+      <c r="BB17">
+        <v>59.5</v>
+      </c>
+      <c r="BC17">
+        <v>59.5</v>
+      </c>
+      <c r="BD17">
+        <v>59.5</v>
+      </c>
+      <c r="BE17">
+        <v>59.5</v>
+      </c>
+      <c r="BF17">
+        <v>59.5</v>
+      </c>
+      <c r="BG17">
+        <v>59.5</v>
+      </c>
+      <c r="BH17">
+        <v>59.5</v>
+      </c>
+      <c r="BI17">
+        <v>59.5</v>
+      </c>
+      <c r="BJ17">
+        <v>59.5</v>
+      </c>
+      <c r="BK17">
+        <v>59.5</v>
+      </c>
+      <c r="BL17">
+        <v>59.5</v>
+      </c>
+      <c r="BM17">
+        <v>59.5</v>
+      </c>
+      <c r="BN17">
+        <v>59.5</v>
+      </c>
+      <c r="BO17">
+        <v>59.5</v>
+      </c>
+      <c r="BP17">
+        <v>57.77</v>
+      </c>
+      <c r="BQ17">
+        <v>57.77</v>
+      </c>
+      <c r="BR17">
+        <v>57.77</v>
+      </c>
+      <c r="BS17">
+        <v>57.77</v>
+      </c>
+      <c r="BT17">
+        <v>57.77</v>
+      </c>
+      <c r="BU17">
+        <v>57.77</v>
+      </c>
+      <c r="BV17">
+        <v>57.77</v>
+      </c>
+      <c r="BW17">
+        <v>57.77</v>
+      </c>
+      <c r="BX17">
+        <v>57.77</v>
+      </c>
+      <c r="BY17">
+        <v>57.77</v>
+      </c>
+      <c r="BZ17">
+        <v>57.77</v>
+      </c>
+      <c r="CA17">
+        <v>57.77</v>
+      </c>
+      <c r="CB17">
+        <v>57.77</v>
+      </c>
+      <c r="CC17">
+        <v>57.77</v>
+      </c>
+      <c r="CD17">
+        <v>57.77</v>
+      </c>
+      <c r="CE17">
+        <v>57.77</v>
+      </c>
+      <c r="CF17">
+        <v>57.77</v>
+      </c>
+      <c r="CG17">
+        <v>57.77</v>
+      </c>
+      <c r="CH17">
+        <v>57.77</v>
+      </c>
+      <c r="CI17">
+        <v>57.77</v>
+      </c>
+      <c r="CJ17">
+        <v>57.77</v>
+      </c>
+      <c r="CK17">
+        <v>57.77</v>
+      </c>
+      <c r="CL17">
+        <v>56.03</v>
+      </c>
+      <c r="CM17">
+        <v>56.03</v>
+      </c>
+      <c r="CN17">
+        <v>56.03</v>
+      </c>
+      <c r="CO17">
+        <v>56.03</v>
+      </c>
+      <c r="CP17">
+        <v>56.03</v>
+      </c>
+      <c r="CQ17">
+        <v>56.03</v>
+      </c>
+      <c r="CR17">
+        <v>56.03</v>
+      </c>
+      <c r="CS17">
+        <v>56.03</v>
+      </c>
+      <c r="CT17">
+        <v>56.03</v>
+      </c>
+      <c r="CU17">
+        <v>56.03</v>
+      </c>
+      <c r="CV17">
+        <v>56.03</v>
+      </c>
+      <c r="CW17">
+        <v>56.03</v>
+      </c>
+      <c r="CX17">
+        <v>56.03</v>
+      </c>
+      <c r="CY17">
+        <v>56.03</v>
+      </c>
+      <c r="CZ17">
+        <v>56.03</v>
+      </c>
+      <c r="DA17">
+        <v>56.03</v>
+      </c>
+      <c r="DB17">
+        <v>56.03</v>
+      </c>
+      <c r="DC17">
+        <v>56.03</v>
+      </c>
+      <c r="DD17">
+        <v>56.03</v>
+      </c>
+      <c r="DE17">
+        <v>56.03</v>
+      </c>
+      <c r="DF17">
+        <v>56.03</v>
+      </c>
+      <c r="DG17">
+        <v>56.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:X17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>10</v>
+      </c>
+      <c r="J1">
+        <v>12</v>
+      </c>
+      <c r="K1">
+        <v>14</v>
+      </c>
+      <c r="L1">
+        <v>16</v>
+      </c>
+      <c r="M1">
+        <v>18</v>
+      </c>
+      <c r="N1">
+        <v>20</v>
+      </c>
+      <c r="O1">
+        <v>22</v>
+      </c>
+      <c r="P1">
+        <v>24</v>
+      </c>
+      <c r="Q1">
+        <v>26</v>
+      </c>
+      <c r="R1">
+        <v>28</v>
+      </c>
+      <c r="S1">
+        <v>30</v>
+      </c>
+      <c r="T1">
+        <v>32</v>
+      </c>
+      <c r="U1">
+        <v>34</v>
+      </c>
+      <c r="V1">
+        <v>36</v>
+      </c>
+      <c r="W1">
+        <v>38</v>
+      </c>
+      <c r="X1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>337.1</v>
+      </c>
+      <c r="D2">
+        <v>352.76</v>
+      </c>
+      <c r="E2">
+        <v>360.01</v>
+      </c>
+      <c r="F2">
+        <v>365.78</v>
+      </c>
+      <c r="G2">
+        <v>376.2</v>
+      </c>
+      <c r="H2">
+        <v>386.51</v>
+      </c>
+      <c r="I2">
+        <v>398.42</v>
+      </c>
+      <c r="J2">
+        <v>410.29</v>
+      </c>
+      <c r="K2">
+        <v>422.22</v>
+      </c>
+      <c r="L2">
+        <v>459.65</v>
+      </c>
+      <c r="M2">
+        <v>491.26</v>
+      </c>
+      <c r="N2">
+        <v>491.26</v>
+      </c>
+      <c r="O2">
+        <v>491.26</v>
+      </c>
+      <c r="P2">
+        <v>491.26</v>
+      </c>
+      <c r="Q2">
+        <v>493.79</v>
+      </c>
+      <c r="R2">
+        <v>493.79</v>
+      </c>
+      <c r="S2">
+        <v>503.67</v>
+      </c>
+      <c r="T2">
+        <v>503.67</v>
+      </c>
+      <c r="U2">
+        <v>503.67</v>
+      </c>
+      <c r="V2">
+        <v>503.67</v>
+      </c>
+      <c r="W2">
+        <v>503.67</v>
+      </c>
+      <c r="X2">
+        <v>503.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>255.64</v>
+      </c>
+      <c r="D3">
+        <v>280.83999999999997</v>
+      </c>
+      <c r="E3">
+        <v>299.27</v>
+      </c>
+      <c r="F3">
+        <v>299.27</v>
+      </c>
+      <c r="G3">
+        <v>300.42</v>
+      </c>
+      <c r="H3">
+        <v>313.29000000000002</v>
+      </c>
+      <c r="I3">
+        <v>315</v>
+      </c>
+      <c r="J3">
+        <v>315</v>
+      </c>
+      <c r="K3">
+        <v>332.9</v>
+      </c>
+      <c r="L3">
+        <v>364.54</v>
+      </c>
+      <c r="M3">
+        <v>383.12</v>
+      </c>
+      <c r="N3">
+        <v>401.68</v>
+      </c>
+      <c r="O3">
+        <v>412.25</v>
+      </c>
+      <c r="P3">
+        <v>422.96</v>
+      </c>
+      <c r="Q3">
+        <v>443.69</v>
+      </c>
+      <c r="R3">
+        <v>443.69</v>
+      </c>
+      <c r="S3">
+        <v>452.55</v>
+      </c>
+      <c r="T3">
+        <v>452.55</v>
+      </c>
+      <c r="U3">
+        <v>452.55</v>
+      </c>
+      <c r="V3">
+        <v>452.55</v>
+      </c>
+      <c r="W3">
+        <v>452.55</v>
+      </c>
+      <c r="X3">
+        <v>452.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>213.11</v>
+      </c>
+      <c r="D4">
+        <v>240.07</v>
+      </c>
+      <c r="E4">
+        <v>256.68</v>
+      </c>
+      <c r="F4">
+        <v>259.81</v>
+      </c>
+      <c r="G4">
+        <v>270.19</v>
+      </c>
+      <c r="H4">
+        <v>276.38</v>
+      </c>
+      <c r="I4">
+        <v>290.02</v>
+      </c>
+      <c r="J4">
+        <v>300.06</v>
+      </c>
+      <c r="K4">
+        <v>312.99</v>
+      </c>
+      <c r="L4">
+        <v>332.76</v>
+      </c>
+      <c r="M4">
+        <v>342.18</v>
+      </c>
+      <c r="N4">
+        <v>351.49</v>
+      </c>
+      <c r="O4">
+        <v>362.06</v>
+      </c>
+      <c r="P4">
+        <v>362.06</v>
+      </c>
+      <c r="Q4">
+        <v>362.06</v>
+      </c>
+      <c r="R4">
+        <v>362.06</v>
+      </c>
+      <c r="S4">
+        <v>362.06</v>
+      </c>
+      <c r="T4">
+        <v>362.06</v>
+      </c>
+      <c r="U4">
+        <v>362.06</v>
+      </c>
+      <c r="V4">
+        <v>362.06</v>
+      </c>
+      <c r="W4">
+        <v>362.06</v>
+      </c>
+      <c r="X4">
+        <v>362.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>183.88</v>
+      </c>
+      <c r="D5">
+        <v>212.84</v>
+      </c>
+      <c r="E5">
+        <v>227.07</v>
+      </c>
+      <c r="F5">
+        <v>230.21</v>
+      </c>
+      <c r="G5">
+        <v>243.39</v>
+      </c>
+      <c r="H5">
+        <v>257.54000000000002</v>
+      </c>
+      <c r="I5">
+        <v>275.16000000000003</v>
+      </c>
+      <c r="J5">
+        <v>288.85000000000002</v>
+      </c>
+      <c r="K5">
+        <v>298.37</v>
+      </c>
+      <c r="L5">
+        <v>303.85000000000002</v>
+      </c>
+      <c r="M5">
+        <v>307.01</v>
+      </c>
+      <c r="N5">
+        <v>307.01</v>
+      </c>
+      <c r="O5">
+        <v>307.01</v>
+      </c>
+      <c r="P5">
+        <v>307.01</v>
+      </c>
+      <c r="Q5">
+        <v>307.01</v>
+      </c>
+      <c r="R5">
+        <v>307.01</v>
+      </c>
+      <c r="S5">
+        <v>307.01</v>
+      </c>
+      <c r="T5">
+        <v>307.01</v>
+      </c>
+      <c r="U5">
+        <v>307.01</v>
+      </c>
+      <c r="V5">
+        <v>307.01</v>
+      </c>
+      <c r="W5">
+        <v>307.01</v>
+      </c>
+      <c r="X5">
+        <v>307.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>161.66</v>
+      </c>
+      <c r="D6">
+        <v>183.26</v>
+      </c>
+      <c r="E6">
+        <v>197.78</v>
+      </c>
+      <c r="F6">
+        <v>215.66</v>
+      </c>
+      <c r="G6">
+        <v>226.01</v>
+      </c>
+      <c r="H6">
+        <v>237.35</v>
+      </c>
+      <c r="I6">
+        <v>244.67</v>
+      </c>
+      <c r="J6">
+        <v>256.72000000000003</v>
+      </c>
+      <c r="K6">
+        <v>263.02</v>
+      </c>
+      <c r="L6">
+        <v>263.02</v>
+      </c>
+      <c r="M6">
+        <v>263.02</v>
+      </c>
+      <c r="N6">
+        <v>263.02</v>
+      </c>
+      <c r="O6">
+        <v>263.02</v>
+      </c>
+      <c r="P6">
+        <v>263.02</v>
+      </c>
+      <c r="Q6">
+        <v>263.02</v>
+      </c>
+      <c r="R6">
+        <v>263.02</v>
+      </c>
+      <c r="S6">
+        <v>263.02</v>
+      </c>
+      <c r="T6">
+        <v>263.02</v>
+      </c>
+      <c r="U6">
+        <v>263.02</v>
+      </c>
+      <c r="V6">
+        <v>263.02</v>
+      </c>
+      <c r="W6">
+        <v>263.02</v>
+      </c>
+      <c r="X6">
+        <v>263.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>139.69</v>
+      </c>
+      <c r="D7">
+        <v>159.09</v>
+      </c>
+      <c r="E7">
+        <v>183.23</v>
+      </c>
+      <c r="F7">
+        <v>189.42</v>
+      </c>
+      <c r="G7">
+        <v>193.31</v>
+      </c>
+      <c r="H7">
+        <v>193.31</v>
+      </c>
+      <c r="I7">
+        <v>193.31</v>
+      </c>
+      <c r="J7">
+        <v>193.31</v>
+      </c>
+      <c r="K7">
+        <v>193.31</v>
+      </c>
+      <c r="L7">
+        <v>193.31</v>
+      </c>
+      <c r="M7">
+        <v>193.31</v>
+      </c>
+      <c r="N7">
+        <v>193.31</v>
+      </c>
+      <c r="O7">
+        <v>193.31</v>
+      </c>
+      <c r="P7">
+        <v>193.31</v>
+      </c>
+      <c r="Q7">
+        <v>193.31</v>
+      </c>
+      <c r="R7">
+        <v>193.31</v>
+      </c>
+      <c r="S7">
+        <v>193.31</v>
+      </c>
+      <c r="T7">
+        <v>193.31</v>
+      </c>
+      <c r="U7">
+        <v>193.31</v>
+      </c>
+      <c r="V7">
+        <v>193.31</v>
+      </c>
+      <c r="W7">
+        <v>193.31</v>
+      </c>
+      <c r="X7">
+        <v>193.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>121.24</v>
+      </c>
+      <c r="D8">
+        <v>126.2</v>
+      </c>
+      <c r="E8">
+        <v>152.56</v>
+      </c>
+      <c r="F8">
+        <v>152.56</v>
+      </c>
+      <c r="G8">
+        <v>152.56</v>
+      </c>
+      <c r="H8">
+        <v>152.56</v>
+      </c>
+      <c r="I8">
+        <v>152.56</v>
+      </c>
+      <c r="J8">
+        <v>152.56</v>
+      </c>
+      <c r="K8">
+        <v>152.56</v>
+      </c>
+      <c r="L8">
+        <v>152.56</v>
+      </c>
+      <c r="M8">
+        <v>152.56</v>
+      </c>
+      <c r="N8">
+        <v>152.56</v>
+      </c>
+      <c r="O8">
+        <v>152.56</v>
+      </c>
+      <c r="P8">
+        <v>152.56</v>
+      </c>
+      <c r="Q8">
+        <v>152.56</v>
+      </c>
+      <c r="R8">
+        <v>152.56</v>
+      </c>
+      <c r="S8">
+        <v>152.56</v>
+      </c>
+      <c r="T8">
+        <v>152.56</v>
+      </c>
+      <c r="U8">
+        <v>152.56</v>
+      </c>
+      <c r="V8">
+        <v>152.56</v>
+      </c>
+      <c r="W8">
+        <v>152.56</v>
+      </c>
+      <c r="X8">
+        <v>152.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>201.85</v>
+      </c>
+      <c r="D9">
+        <v>201.85</v>
+      </c>
+      <c r="E9">
+        <v>201.85</v>
+      </c>
+      <c r="F9">
+        <v>201.85</v>
+      </c>
+      <c r="G9">
+        <v>201.85</v>
+      </c>
+      <c r="H9">
+        <v>201.85</v>
+      </c>
+      <c r="I9">
+        <v>201.85</v>
+      </c>
+      <c r="J9">
+        <v>206.43</v>
+      </c>
+      <c r="K9">
+        <v>212.19</v>
+      </c>
+      <c r="L9">
+        <v>218.96</v>
+      </c>
+      <c r="M9">
+        <v>225.83</v>
+      </c>
+      <c r="N9">
+        <v>236.76</v>
+      </c>
+      <c r="O9">
+        <v>246.05</v>
+      </c>
+      <c r="P9">
+        <v>255.79</v>
+      </c>
+      <c r="Q9">
+        <v>270.72000000000003</v>
+      </c>
+      <c r="R9">
+        <v>270.72000000000003</v>
+      </c>
+      <c r="S9">
+        <v>284.23</v>
+      </c>
+      <c r="T9">
+        <v>284.23</v>
+      </c>
+      <c r="U9">
+        <v>298.45999999999998</v>
+      </c>
+      <c r="V9">
+        <v>298.45999999999998</v>
+      </c>
+      <c r="W9">
+        <v>313.41000000000003</v>
+      </c>
+      <c r="X9">
+        <v>313.41000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>165.24</v>
+      </c>
+      <c r="D10">
+        <v>165.24</v>
+      </c>
+      <c r="E10">
+        <v>165.24</v>
+      </c>
+      <c r="F10">
+        <v>165.24</v>
+      </c>
+      <c r="G10">
+        <v>165.24</v>
+      </c>
+      <c r="H10">
+        <v>165.24</v>
+      </c>
+      <c r="I10">
+        <v>172.55</v>
+      </c>
+      <c r="J10">
+        <v>177.07</v>
+      </c>
+      <c r="K10">
+        <v>182.49</v>
+      </c>
+      <c r="L10">
+        <v>188.36</v>
+      </c>
+      <c r="M10">
+        <v>198.96</v>
+      </c>
+      <c r="N10">
+        <v>204.34</v>
+      </c>
+      <c r="O10">
+        <v>213.48</v>
+      </c>
+      <c r="P10">
+        <v>218.55</v>
+      </c>
+      <c r="Q10">
+        <v>231.03</v>
+      </c>
+      <c r="R10">
+        <v>231.03</v>
+      </c>
+      <c r="S10">
+        <v>235.66</v>
+      </c>
+      <c r="T10">
+        <v>235.66</v>
+      </c>
+      <c r="U10">
+        <v>235.66</v>
+      </c>
+      <c r="V10">
+        <v>235.66</v>
+      </c>
+      <c r="W10">
+        <v>235.66</v>
+      </c>
+      <c r="X10">
+        <v>235.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>114.86</v>
+      </c>
+      <c r="D11">
+        <v>125.36</v>
+      </c>
+      <c r="E11">
+        <v>130.16999999999999</v>
+      </c>
+      <c r="F11">
+        <v>136.51</v>
+      </c>
+      <c r="G11">
+        <v>141.49</v>
+      </c>
+      <c r="H11">
+        <v>150.02000000000001</v>
+      </c>
+      <c r="I11">
+        <v>154.83000000000001</v>
+      </c>
+      <c r="J11">
+        <v>163.35</v>
+      </c>
+      <c r="K11">
+        <v>170.45</v>
+      </c>
+      <c r="L11">
+        <v>175.29</v>
+      </c>
+      <c r="M11">
+        <v>180.45</v>
+      </c>
+      <c r="N11">
+        <v>182.44</v>
+      </c>
+      <c r="O11">
+        <v>189.15</v>
+      </c>
+      <c r="P11">
+        <v>192.75</v>
+      </c>
+      <c r="Q11">
+        <v>206.45</v>
+      </c>
+      <c r="R11">
+        <v>206.45</v>
+      </c>
+      <c r="S11">
+        <v>206.45</v>
+      </c>
+      <c r="T11">
+        <v>206.45</v>
+      </c>
+      <c r="U11">
+        <v>206.45</v>
+      </c>
+      <c r="V11">
+        <v>206.45</v>
+      </c>
+      <c r="W11">
+        <v>206.45</v>
+      </c>
+      <c r="X11">
+        <v>206.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>99.35</v>
+      </c>
+      <c r="D12">
+        <v>109.33</v>
+      </c>
+      <c r="E12">
+        <v>114.16</v>
+      </c>
+      <c r="F12">
+        <v>118.85</v>
+      </c>
+      <c r="G12">
+        <v>123.73</v>
+      </c>
+      <c r="H12">
+        <v>134.74</v>
+      </c>
+      <c r="I12">
+        <v>139.03</v>
+      </c>
+      <c r="J12">
+        <v>147.33000000000001</v>
+      </c>
+      <c r="K12">
+        <v>149.87</v>
+      </c>
+      <c r="L12">
+        <v>151.71</v>
+      </c>
+      <c r="M12">
+        <v>153.88</v>
+      </c>
+      <c r="N12">
+        <v>153.88</v>
+      </c>
+      <c r="O12">
+        <v>153.88</v>
+      </c>
+      <c r="P12">
+        <v>153.88</v>
+      </c>
+      <c r="Q12">
+        <v>153.88</v>
+      </c>
+      <c r="R12">
+        <v>153.88</v>
+      </c>
+      <c r="S12">
+        <v>153.88</v>
+      </c>
+      <c r="T12">
+        <v>153.88</v>
+      </c>
+      <c r="U12">
+        <v>153.88</v>
+      </c>
+      <c r="V12">
+        <v>153.88</v>
+      </c>
+      <c r="W12">
+        <v>153.88</v>
+      </c>
+      <c r="X12">
+        <v>153.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>91.01</v>
+      </c>
+      <c r="D13">
+        <v>97.14</v>
+      </c>
+      <c r="E13">
+        <v>101.84</v>
+      </c>
+      <c r="F13">
+        <v>106.64</v>
+      </c>
+      <c r="G13">
+        <v>114.13</v>
+      </c>
+      <c r="H13">
+        <v>121.95</v>
+      </c>
+      <c r="I13">
+        <v>128.38999999999999</v>
+      </c>
+      <c r="J13">
+        <v>129.16</v>
+      </c>
+      <c r="K13">
+        <v>129.16</v>
+      </c>
+      <c r="L13">
+        <v>129.16</v>
+      </c>
+      <c r="M13">
+        <v>129.16</v>
+      </c>
+      <c r="N13">
+        <v>129.16</v>
+      </c>
+      <c r="O13">
+        <v>129.16</v>
+      </c>
+      <c r="P13">
+        <v>129.16</v>
+      </c>
+      <c r="Q13">
+        <v>129.16</v>
+      </c>
+      <c r="R13">
+        <v>129.16</v>
+      </c>
+      <c r="S13">
+        <v>129.16</v>
+      </c>
+      <c r="T13">
+        <v>129.16</v>
+      </c>
+      <c r="U13">
+        <v>129.16</v>
+      </c>
+      <c r="V13">
+        <v>129.16</v>
+      </c>
+      <c r="W13">
+        <v>129.16</v>
+      </c>
+      <c r="X13">
+        <v>129.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>83.45</v>
+      </c>
+      <c r="D14">
+        <v>87.72</v>
+      </c>
+      <c r="E14">
+        <v>92.47</v>
+      </c>
+      <c r="F14">
+        <v>97.16</v>
+      </c>
+      <c r="G14">
+        <v>101.31</v>
+      </c>
+      <c r="H14">
+        <v>101.31</v>
+      </c>
+      <c r="I14">
+        <v>101.31</v>
+      </c>
+      <c r="J14">
+        <v>101.31</v>
+      </c>
+      <c r="K14">
+        <v>101.31</v>
+      </c>
+      <c r="L14">
+        <v>101.31</v>
+      </c>
+      <c r="M14">
+        <v>101.31</v>
+      </c>
+      <c r="N14">
+        <v>101.31</v>
+      </c>
+      <c r="O14">
+        <v>101.31</v>
+      </c>
+      <c r="P14">
+        <v>101.31</v>
+      </c>
+      <c r="Q14">
+        <v>101.31</v>
+      </c>
+      <c r="R14">
+        <v>101.31</v>
+      </c>
+      <c r="S14">
+        <v>101.31</v>
+      </c>
+      <c r="T14">
+        <v>101.31</v>
+      </c>
+      <c r="U14">
+        <v>101.31</v>
+      </c>
+      <c r="V14">
+        <v>101.31</v>
+      </c>
+      <c r="W14">
+        <v>101.31</v>
+      </c>
+      <c r="X14">
+        <v>101.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>75.33</v>
+      </c>
+      <c r="D15">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="E15">
+        <v>84.92</v>
+      </c>
+      <c r="F15">
+        <v>84.92</v>
+      </c>
+      <c r="G15">
+        <v>84.92</v>
+      </c>
+      <c r="H15">
+        <v>84.92</v>
+      </c>
+      <c r="I15">
+        <v>84.92</v>
+      </c>
+      <c r="J15">
+        <v>84.92</v>
+      </c>
+      <c r="K15">
+        <v>84.92</v>
+      </c>
+      <c r="L15">
+        <v>84.92</v>
+      </c>
+      <c r="M15">
+        <v>84.92</v>
+      </c>
+      <c r="N15">
+        <v>84.92</v>
+      </c>
+      <c r="O15">
+        <v>84.92</v>
+      </c>
+      <c r="P15">
+        <v>84.92</v>
+      </c>
+      <c r="Q15">
+        <v>84.92</v>
+      </c>
+      <c r="R15">
+        <v>84.92</v>
+      </c>
+      <c r="S15">
+        <v>84.92</v>
+      </c>
+      <c r="T15">
+        <v>84.92</v>
+      </c>
+      <c r="U15">
+        <v>84.92</v>
+      </c>
+      <c r="V15">
+        <v>84.92</v>
+      </c>
+      <c r="W15">
+        <v>84.92</v>
+      </c>
+      <c r="X15">
+        <v>84.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>71.64</v>
+      </c>
+      <c r="D16">
+        <v>71.64</v>
+      </c>
+      <c r="E16">
+        <v>71.64</v>
+      </c>
+      <c r="F16">
+        <v>71.64</v>
+      </c>
+      <c r="G16">
+        <v>71.64</v>
+      </c>
+      <c r="H16">
+        <v>71.64</v>
+      </c>
+      <c r="I16">
+        <v>71.64</v>
+      </c>
+      <c r="J16">
+        <v>71.64</v>
+      </c>
+      <c r="K16">
+        <v>71.64</v>
+      </c>
+      <c r="L16">
+        <v>71.64</v>
+      </c>
+      <c r="M16">
+        <v>71.64</v>
+      </c>
+      <c r="N16">
+        <v>71.64</v>
+      </c>
+      <c r="O16">
+        <v>71.64</v>
+      </c>
+      <c r="P16">
+        <v>71.64</v>
+      </c>
+      <c r="Q16">
+        <v>71.64</v>
+      </c>
+      <c r="R16">
+        <v>71.64</v>
+      </c>
+      <c r="S16">
+        <v>71.64</v>
+      </c>
+      <c r="T16">
+        <v>71.64</v>
+      </c>
+      <c r="U16">
+        <v>71.64</v>
+      </c>
+      <c r="V16">
+        <v>71.64</v>
+      </c>
+      <c r="W16">
+        <v>71.64</v>
+      </c>
+      <c r="X16">
+        <v>71.64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17">
-        <v>61.11</v>
+        <v>59.1</v>
       </c>
       <c r="D17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="E17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="F17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="G17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="H17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="I17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="J17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="K17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="L17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="M17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="N17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="O17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="P17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="Q17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="R17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="S17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="T17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="U17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="V17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="W17">
-        <v>61.11</v>
+        <v>63.92</v>
       </c>
       <c r="X17">
-        <v>59.5</v>
-      </c>
-      <c r="Y17">
-        <v>59.5</v>
-      </c>
-      <c r="Z17">
-        <v>59.5</v>
-      </c>
-      <c r="AA17">
-        <v>59.5</v>
-      </c>
-      <c r="AB17">
-        <v>59.5</v>
-      </c>
-      <c r="AC17">
-        <v>59.5</v>
-      </c>
-      <c r="AD17">
-        <v>59.5</v>
-      </c>
-      <c r="AE17">
-        <v>59.5</v>
-      </c>
-      <c r="AF17">
-        <v>59.5</v>
-      </c>
-      <c r="AG17">
-        <v>59.5</v>
-      </c>
-      <c r="AH17">
-        <v>59.5</v>
-      </c>
-      <c r="AI17">
-        <v>59.5</v>
-      </c>
-      <c r="AJ17">
-        <v>59.5</v>
-      </c>
-      <c r="AK17">
-        <v>59.5</v>
-      </c>
-      <c r="AL17">
-        <v>59.5</v>
-      </c>
-      <c r="AM17">
-        <v>59.5</v>
-      </c>
-      <c r="AN17">
-        <v>59.5</v>
-      </c>
-      <c r="AO17">
-        <v>59.5</v>
-      </c>
-      <c r="AP17">
-        <v>59.5</v>
-      </c>
-      <c r="AQ17">
-        <v>59.5</v>
-      </c>
-      <c r="AR17">
-        <v>59.5</v>
-      </c>
-      <c r="AS17">
-        <v>59.5</v>
-      </c>
-      <c r="AT17">
-        <v>57.77</v>
-      </c>
-      <c r="AU17">
-        <v>57.77</v>
-      </c>
-      <c r="AV17">
-        <v>57.77</v>
-      </c>
-      <c r="AW17">
-        <v>57.77</v>
-      </c>
-      <c r="AX17">
-        <v>57.77</v>
-      </c>
-      <c r="AY17">
-        <v>57.77</v>
-      </c>
-      <c r="AZ17">
-        <v>57.77</v>
-      </c>
-      <c r="BA17">
-        <v>57.77</v>
-      </c>
-      <c r="BB17">
-        <v>57.77</v>
-      </c>
-      <c r="BC17">
-        <v>57.77</v>
-      </c>
-      <c r="BD17">
-        <v>57.77</v>
-      </c>
-      <c r="BE17">
-        <v>57.77</v>
-      </c>
-      <c r="BF17">
-        <v>57.77</v>
-      </c>
-      <c r="BG17">
-        <v>57.77</v>
-      </c>
-      <c r="BH17">
-        <v>57.77</v>
-      </c>
-      <c r="BI17">
-        <v>57.77</v>
-      </c>
-      <c r="BJ17">
-        <v>57.77</v>
-      </c>
-      <c r="BK17">
-        <v>57.77</v>
-      </c>
-      <c r="BL17">
-        <v>57.77</v>
-      </c>
-      <c r="BM17">
-        <v>57.77</v>
-      </c>
-      <c r="BN17">
-        <v>57.77</v>
-      </c>
-      <c r="BO17">
-        <v>57.77</v>
-      </c>
-      <c r="BP17">
-        <v>56.03</v>
-      </c>
-      <c r="BQ17">
-        <v>56.03</v>
-      </c>
-      <c r="BR17">
-        <v>56.03</v>
-      </c>
-      <c r="BS17">
-        <v>56.03</v>
-      </c>
-      <c r="BT17">
-        <v>56.03</v>
-      </c>
-      <c r="BU17">
-        <v>56.03</v>
-      </c>
-      <c r="BV17">
-        <v>56.03</v>
-      </c>
-      <c r="BW17">
-        <v>56.03</v>
-      </c>
-      <c r="BX17">
-        <v>56.03</v>
-      </c>
-      <c r="BY17">
-        <v>56.03</v>
-      </c>
-      <c r="BZ17">
-        <v>56.03</v>
-      </c>
-      <c r="CA17">
-        <v>56.03</v>
-      </c>
-      <c r="CB17">
-        <v>56.03</v>
-      </c>
-      <c r="CC17">
-        <v>56.03</v>
-      </c>
-      <c r="CD17">
-        <v>56.03</v>
-      </c>
-      <c r="CE17">
-        <v>56.03</v>
-      </c>
-      <c r="CF17">
-        <v>56.03</v>
-      </c>
-      <c r="CG17">
-        <v>56.03</v>
-      </c>
-      <c r="CH17">
-        <v>56.03</v>
-      </c>
-      <c r="CI17">
-        <v>56.03</v>
-      </c>
-      <c r="CJ17">
-        <v>56.03</v>
-      </c>
-      <c r="CK17">
-        <v>56.03</v>
+        <v>63.92</v>
       </c>
     </row>
   </sheetData>

--- a/military_drill_pay.xlsx
+++ b/military_drill_pay.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjamin.s.gumser\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AC15EB-9E12-4BD7-8FC8-7AB3DB1DF2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="27915" windowHeight="9480"/>
+    <workbookView xWindow="4890" yWindow="4710" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -96,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,21 +434,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DG17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:EZ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="45" width="9.140625" customWidth="1"/>
+    <col min="46" max="46" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -789,5374 +782,6795 @@
       <c r="DG1">
         <v>40</v>
       </c>
+      <c r="DH1">
+        <v>0</v>
+      </c>
+      <c r="DI1">
+        <v>2</v>
+      </c>
+      <c r="DJ1">
+        <v>3</v>
+      </c>
+      <c r="DK1">
+        <v>4</v>
+      </c>
+      <c r="DL1">
+        <v>6</v>
+      </c>
+      <c r="DM1">
+        <v>8</v>
+      </c>
+      <c r="DN1">
+        <v>10</v>
+      </c>
+      <c r="DO1">
+        <v>12</v>
+      </c>
+      <c r="DP1">
+        <v>14</v>
+      </c>
+      <c r="DQ1">
+        <v>16</v>
+      </c>
+      <c r="DR1">
+        <v>18</v>
+      </c>
+      <c r="DS1">
+        <v>20</v>
+      </c>
+      <c r="DT1">
+        <v>22</v>
+      </c>
+      <c r="DU1">
+        <v>24</v>
+      </c>
+      <c r="DV1">
+        <v>26</v>
+      </c>
+      <c r="DW1">
+        <v>28</v>
+      </c>
+      <c r="DX1">
+        <v>30</v>
+      </c>
+      <c r="DY1">
+        <v>32</v>
+      </c>
+      <c r="DZ1">
+        <v>34</v>
+      </c>
+      <c r="EA1">
+        <v>36</v>
+      </c>
+      <c r="EB1">
+        <v>38</v>
+      </c>
+      <c r="EC1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>354.63</v>
+      </c>
+      <c r="C2">
+        <v>371.1</v>
+      </c>
+      <c r="D2">
+        <v>378.73</v>
+      </c>
+      <c r="E2">
+        <v>384.8</v>
+      </c>
+      <c r="F2">
+        <v>395.76</v>
+      </c>
+      <c r="G2">
+        <v>406.61</v>
+      </c>
+      <c r="H2">
+        <v>419.14</v>
+      </c>
+      <c r="I2">
+        <v>431.63</v>
+      </c>
+      <c r="J2">
+        <v>444.18</v>
+      </c>
+      <c r="K2">
+        <v>483.55</v>
+      </c>
+      <c r="L2">
+        <v>516.80999999999995</v>
+      </c>
+      <c r="M2">
+        <v>516.80999999999995</v>
+      </c>
+      <c r="N2">
+        <v>516.80999999999995</v>
+      </c>
+      <c r="O2">
+        <v>516.80999999999995</v>
+      </c>
+      <c r="P2">
+        <v>519.47</v>
+      </c>
+      <c r="Q2">
+        <v>519.47</v>
+      </c>
+      <c r="R2">
+        <v>529.86</v>
+      </c>
+      <c r="S2">
+        <v>529.86</v>
+      </c>
+      <c r="T2">
+        <v>529.86</v>
+      </c>
+      <c r="U2">
+        <v>529.86</v>
+      </c>
+      <c r="V2">
+        <v>529.86</v>
+      </c>
+      <c r="W2">
+        <v>529.86</v>
+      </c>
+      <c r="X2">
         <v>337.1</v>
       </c>
-      <c r="C2">
+      <c r="Y2">
         <v>352.76</v>
       </c>
-      <c r="D2">
+      <c r="Z2">
         <v>360.01</v>
       </c>
-      <c r="E2">
+      <c r="AA2">
         <v>365.78</v>
       </c>
-      <c r="F2">
+      <c r="AB2">
         <v>376.2</v>
       </c>
-      <c r="G2">
+      <c r="AC2">
         <v>386.51</v>
       </c>
-      <c r="H2">
+      <c r="AD2">
         <v>398.42</v>
       </c>
-      <c r="I2">
+      <c r="AE2">
         <v>410.29</v>
       </c>
-      <c r="J2">
+      <c r="AF2">
         <v>422.22</v>
       </c>
-      <c r="K2">
+      <c r="AG2">
         <v>459.65</v>
       </c>
-      <c r="L2">
+      <c r="AH2">
         <v>491.26</v>
       </c>
-      <c r="M2">
+      <c r="AI2">
         <v>491.26</v>
       </c>
-      <c r="N2">
+      <c r="AJ2">
         <v>491.26</v>
       </c>
-      <c r="O2">
+      <c r="AK2">
         <v>491.26</v>
       </c>
-      <c r="P2">
+      <c r="AL2">
         <v>493.79</v>
       </c>
-      <c r="Q2">
+      <c r="AM2">
         <v>493.79</v>
       </c>
-      <c r="R2">
+      <c r="AN2">
         <v>503.67</v>
       </c>
-      <c r="S2">
+      <c r="AO2">
         <v>503.67</v>
       </c>
-      <c r="T2">
+      <c r="AP2">
         <v>503.67</v>
       </c>
-      <c r="U2">
+      <c r="AQ2">
         <v>503.67</v>
       </c>
-      <c r="V2">
+      <c r="AR2">
         <v>503.67</v>
       </c>
-      <c r="W2">
+      <c r="AS2">
         <v>503.67</v>
       </c>
-      <c r="X2">
+      <c r="AT2">
         <v>322.27999999999997</v>
       </c>
-      <c r="Y2">
+      <c r="AU2">
         <v>337.25</v>
       </c>
-      <c r="Z2">
+      <c r="AV2">
         <v>344.18</v>
       </c>
-      <c r="AA2">
+      <c r="AW2">
         <v>349.69</v>
       </c>
-      <c r="AB2">
+      <c r="AX2">
         <v>359.66</v>
       </c>
-      <c r="AC2">
+      <c r="AY2">
         <v>369.51</v>
       </c>
-      <c r="AD2">
+      <c r="AZ2">
         <v>380.9</v>
       </c>
-      <c r="AE2">
+      <c r="BA2">
         <v>392.25</v>
       </c>
-      <c r="AF2">
+      <c r="BB2">
         <v>403.65</v>
       </c>
-      <c r="AG2">
+      <c r="BC2">
         <v>439.44</v>
       </c>
-      <c r="AH2">
+      <c r="BD2">
         <v>469.66</v>
       </c>
-      <c r="AI2">
+      <c r="BE2">
         <v>469.66</v>
       </c>
-      <c r="AJ2">
+      <c r="BF2">
         <v>469.66</v>
       </c>
-      <c r="AK2">
+      <c r="BG2">
         <v>469.66</v>
       </c>
-      <c r="AL2">
+      <c r="BH2">
         <v>472.07</v>
       </c>
-      <c r="AM2">
+      <c r="BI2">
         <v>472.07</v>
       </c>
-      <c r="AN2">
+      <c r="BJ2">
         <v>481.52</v>
       </c>
-      <c r="AO2">
+      <c r="BK2">
         <v>481.52</v>
       </c>
-      <c r="AP2">
+      <c r="BL2">
         <v>481.52</v>
       </c>
-      <c r="AQ2">
+      <c r="BM2">
         <v>481.52</v>
       </c>
-      <c r="AR2">
+      <c r="BN2">
         <v>481.52</v>
       </c>
-      <c r="AS2">
+      <c r="BO2">
         <v>481.52</v>
       </c>
-      <c r="AT2">
+      <c r="BP2">
         <v>313.81</v>
       </c>
-      <c r="AU2">
+      <c r="BQ2">
         <v>328.38</v>
       </c>
-      <c r="AV2">
+      <c r="BR2">
         <v>335.13</v>
       </c>
-      <c r="AW2">
+      <c r="BS2">
         <v>340.5</v>
       </c>
-      <c r="AX2">
+      <c r="BT2">
         <v>350.2</v>
       </c>
-      <c r="AY2">
+      <c r="BU2">
         <v>359.8</v>
       </c>
-      <c r="AZ2">
+      <c r="BV2">
         <v>370.89</v>
       </c>
-      <c r="BA2">
+      <c r="BW2">
         <v>381.94</v>
       </c>
-      <c r="BB2">
+      <c r="BX2">
         <v>393.04</v>
       </c>
-      <c r="BC2">
+      <c r="BY2">
         <v>427.89</v>
       </c>
-      <c r="BD2">
+      <c r="BZ2">
         <v>457.31</v>
       </c>
-      <c r="BE2">
+      <c r="CA2">
         <v>457.31</v>
       </c>
-      <c r="BF2">
+      <c r="CB2">
         <v>457.31</v>
       </c>
-      <c r="BG2">
+      <c r="CC2">
         <v>457.31</v>
       </c>
-      <c r="BH2">
+      <c r="CD2">
         <v>458.06</v>
       </c>
-      <c r="BI2">
+      <c r="CE2">
         <v>458.06</v>
       </c>
-      <c r="BJ2">
+      <c r="CF2">
         <v>458.06</v>
       </c>
-      <c r="BK2">
+      <c r="CG2">
         <v>458.06</v>
       </c>
-      <c r="BL2">
+      <c r="CH2">
         <v>458.06</v>
       </c>
-      <c r="BM2">
+      <c r="CI2">
         <v>458.06</v>
       </c>
-      <c r="BN2">
+      <c r="CJ2">
         <v>458.06</v>
       </c>
-      <c r="BO2">
+      <c r="CK2">
         <v>458.06</v>
       </c>
-      <c r="BP2">
+      <c r="CL2">
         <v>304.67</v>
       </c>
-      <c r="BQ2">
+      <c r="CM2">
         <v>318.82</v>
       </c>
-      <c r="BR2">
+      <c r="CN2">
         <v>325.37</v>
       </c>
-      <c r="BS2">
+      <c r="CO2">
         <v>330.58</v>
       </c>
-      <c r="BT2">
+      <c r="CP2">
         <v>340</v>
       </c>
-      <c r="BU2">
+      <c r="CQ2">
         <v>349.32</v>
       </c>
-      <c r="BV2">
+      <c r="CR2">
         <v>360.09</v>
       </c>
-      <c r="BW2">
+      <c r="CS2">
         <v>370.82</v>
       </c>
-      <c r="BX2">
+      <c r="CT2">
         <v>381.59</v>
       </c>
-      <c r="BY2">
+      <c r="CU2">
         <v>415.43</v>
       </c>
-      <c r="BZ2">
+      <c r="CV2">
         <v>443.99</v>
       </c>
-      <c r="CA2">
+      <c r="CW2">
         <v>443.99</v>
       </c>
-      <c r="CB2">
+      <c r="CX2">
         <v>443.99</v>
       </c>
-      <c r="CC2">
+      <c r="CY2">
         <v>443.99</v>
       </c>
-      <c r="CD2">
+      <c r="CZ2">
         <v>446.27</v>
       </c>
-      <c r="CE2">
+      <c r="DA2">
         <v>446.27</v>
       </c>
-      <c r="CF2">
+      <c r="DB2">
         <v>455.2</v>
       </c>
-      <c r="CG2">
+      <c r="DC2">
         <v>455.2</v>
       </c>
-      <c r="CH2">
+      <c r="DD2">
         <v>455.2</v>
       </c>
-      <c r="CI2">
+      <c r="DE2">
         <v>455.2</v>
       </c>
-      <c r="CJ2">
+      <c r="DF2">
         <v>455.2</v>
       </c>
-      <c r="CK2">
+      <c r="DG2">
         <v>455.2</v>
       </c>
-      <c r="CL2">
+      <c r="DH2">
         <v>295.51</v>
       </c>
-      <c r="CM2">
+      <c r="DI2">
         <v>309.23</v>
       </c>
-      <c r="CN2">
+      <c r="DJ2">
         <v>315.58999999999997</v>
       </c>
-      <c r="CO2">
+      <c r="DK2">
         <v>320.64</v>
       </c>
-      <c r="CP2">
+      <c r="DL2">
         <v>329.78</v>
       </c>
-      <c r="CQ2">
+      <c r="DM2">
         <v>338.82</v>
       </c>
-      <c r="CR2">
+      <c r="DN2">
         <v>349.26</v>
       </c>
-      <c r="CS2">
+      <c r="DO2">
         <v>359.67</v>
       </c>
-      <c r="CT2">
+      <c r="DP2">
         <v>370.12</v>
       </c>
-      <c r="CU2">
+      <c r="DQ2">
         <v>402.94</v>
       </c>
-      <c r="CV2">
+      <c r="DR2">
         <v>430.64</v>
       </c>
-      <c r="CW2">
+      <c r="DS2">
         <v>430.64</v>
       </c>
-      <c r="CX2">
+      <c r="DT2">
         <v>430.64</v>
       </c>
-      <c r="CY2">
+      <c r="DU2">
         <v>430.64</v>
       </c>
-      <c r="CZ2">
+      <c r="DV2">
         <v>432.85</v>
       </c>
-      <c r="DA2">
+      <c r="DW2">
         <v>432.85</v>
       </c>
-      <c r="DB2">
+      <c r="DX2">
         <v>441.51</v>
       </c>
-      <c r="DC2">
+      <c r="DY2">
         <v>441.51</v>
       </c>
-      <c r="DD2">
+      <c r="DZ2">
         <v>441.51</v>
       </c>
-      <c r="DE2">
+      <c r="EA2">
         <v>441.51</v>
       </c>
-      <c r="DF2">
+      <c r="EB2">
         <v>441.51</v>
       </c>
-      <c r="DG2">
+      <c r="EC2">
         <v>441.51</v>
       </c>
     </row>
-    <row r="3" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>268.93</v>
+      </c>
+      <c r="C3">
+        <v>295.44</v>
+      </c>
+      <c r="D3">
+        <v>314.83</v>
+      </c>
+      <c r="E3">
+        <v>314.83</v>
+      </c>
+      <c r="F3">
+        <v>316.04000000000002</v>
+      </c>
+      <c r="G3">
+        <v>329.58</v>
+      </c>
+      <c r="H3">
+        <v>331.38</v>
+      </c>
+      <c r="I3">
+        <v>331.38</v>
+      </c>
+      <c r="J3">
+        <v>350.21</v>
+      </c>
+      <c r="K3">
+        <v>383.5</v>
+      </c>
+      <c r="L3">
+        <v>403.04</v>
+      </c>
+      <c r="M3">
+        <v>422.57</v>
+      </c>
+      <c r="N3">
+        <v>433.69</v>
+      </c>
+      <c r="O3">
+        <v>444.95</v>
+      </c>
+      <c r="P3">
+        <v>466.76</v>
+      </c>
+      <c r="Q3">
+        <v>466.76</v>
+      </c>
+      <c r="R3">
+        <v>476.08</v>
+      </c>
+      <c r="S3">
+        <v>476.08</v>
+      </c>
+      <c r="T3">
+        <v>476.08</v>
+      </c>
+      <c r="U3">
+        <v>476.08</v>
+      </c>
+      <c r="V3">
+        <v>476.08</v>
+      </c>
+      <c r="W3">
+        <v>476.08</v>
+      </c>
+      <c r="X3">
         <v>255.64</v>
       </c>
-      <c r="C3">
+      <c r="Y3">
         <v>280.83999999999997</v>
       </c>
-      <c r="D3">
+      <c r="Z3">
         <v>299.27</v>
       </c>
-      <c r="E3">
+      <c r="AA3">
         <v>299.27</v>
       </c>
-      <c r="F3">
+      <c r="AB3">
         <v>300.42</v>
       </c>
-      <c r="G3">
+      <c r="AC3">
         <v>313.29000000000002</v>
       </c>
-      <c r="H3">
+      <c r="AD3">
         <v>315</v>
       </c>
-      <c r="I3">
+      <c r="AE3">
         <v>315</v>
       </c>
-      <c r="J3">
+      <c r="AF3">
         <v>332.9</v>
       </c>
-      <c r="K3">
+      <c r="AG3">
         <v>364.54</v>
       </c>
-      <c r="L3">
+      <c r="AH3">
         <v>383.12</v>
       </c>
-      <c r="M3">
+      <c r="AI3">
         <v>401.68</v>
       </c>
-      <c r="N3">
+      <c r="AJ3">
         <v>412.25</v>
       </c>
-      <c r="O3">
+      <c r="AK3">
         <v>422.96</v>
       </c>
-      <c r="P3">
+      <c r="AL3">
         <v>443.69</v>
       </c>
-      <c r="Q3">
+      <c r="AM3">
         <v>443.69</v>
       </c>
-      <c r="R3">
+      <c r="AN3">
         <v>452.55</v>
       </c>
-      <c r="S3">
+      <c r="AO3">
         <v>452.55</v>
       </c>
-      <c r="T3">
+      <c r="AP3">
         <v>452.55</v>
       </c>
-      <c r="U3">
+      <c r="AQ3">
         <v>452.55</v>
       </c>
-      <c r="V3">
+      <c r="AR3">
         <v>452.55</v>
       </c>
-      <c r="W3">
+      <c r="AS3">
         <v>452.55</v>
       </c>
-      <c r="X3">
+      <c r="AT3">
         <v>244.4</v>
       </c>
-      <c r="Y3">
+      <c r="AU3">
         <v>268.49</v>
       </c>
-      <c r="Z3">
+      <c r="AV3">
         <v>286.11</v>
       </c>
-      <c r="AA3">
+      <c r="AW3">
         <v>286.11</v>
       </c>
-      <c r="AB3">
+      <c r="AX3">
         <v>287.20999999999998</v>
       </c>
-      <c r="AC3">
+      <c r="AY3">
         <v>299.51</v>
       </c>
-      <c r="AD3">
+      <c r="AZ3">
         <v>301.14999999999998</v>
       </c>
-      <c r="AE3">
+      <c r="BA3">
         <v>301.14999999999998</v>
       </c>
-      <c r="AF3">
+      <c r="BB3">
         <v>318.26</v>
       </c>
-      <c r="AG3">
+      <c r="BC3">
         <v>348.51</v>
       </c>
-      <c r="AH3">
+      <c r="BD3">
         <v>366.27</v>
       </c>
-      <c r="AI3">
+      <c r="BE3">
         <v>384.02</v>
       </c>
-      <c r="AJ3">
+      <c r="BF3">
         <v>394.12</v>
       </c>
-      <c r="AK3">
+      <c r="BG3">
         <v>404.36</v>
       </c>
-      <c r="AL3">
+      <c r="BH3">
         <v>424.18</v>
       </c>
-      <c r="AM3">
+      <c r="BI3">
         <v>424.18</v>
       </c>
-      <c r="AN3">
+      <c r="BJ3">
         <v>432.65</v>
       </c>
-      <c r="AO3">
+      <c r="BK3">
         <v>432.65</v>
       </c>
-      <c r="AP3">
+      <c r="BL3">
         <v>432.65</v>
       </c>
-      <c r="AQ3">
+      <c r="BM3">
         <v>432.65</v>
       </c>
-      <c r="AR3">
+      <c r="BN3">
         <v>432.65</v>
       </c>
-      <c r="AS3">
+      <c r="BO3">
         <v>432.65</v>
       </c>
-      <c r="AT3">
+      <c r="BP3">
         <v>237.97</v>
       </c>
-      <c r="AU3">
+      <c r="BQ3">
         <v>261.43</v>
       </c>
-      <c r="AV3">
+      <c r="BR3">
         <v>278.58999999999997</v>
       </c>
-      <c r="AW3">
+      <c r="BS3">
         <v>278.58999999999997</v>
       </c>
-      <c r="AX3">
+      <c r="BT3">
         <v>279.66000000000003</v>
       </c>
-      <c r="AY3">
+      <c r="BU3">
         <v>291.64</v>
       </c>
-      <c r="AZ3">
+      <c r="BV3">
         <v>293.23</v>
       </c>
-      <c r="BA3">
+      <c r="BW3">
         <v>293.23</v>
       </c>
-      <c r="BB3">
+      <c r="BX3">
         <v>309.89</v>
       </c>
-      <c r="BC3">
+      <c r="BY3">
         <v>339.35</v>
       </c>
-      <c r="BD3">
+      <c r="BZ3">
         <v>356.64</v>
       </c>
-      <c r="BE3">
+      <c r="CA3">
         <v>373.92</v>
       </c>
-      <c r="BF3">
+      <c r="CB3">
         <v>383.76</v>
       </c>
-      <c r="BG3">
+      <c r="CC3">
         <v>393.73</v>
       </c>
-      <c r="BH3">
+      <c r="CD3">
         <v>413.03</v>
       </c>
-      <c r="BI3">
+      <c r="CE3">
         <v>413.03</v>
       </c>
-      <c r="BJ3">
+      <c r="CF3">
         <v>421.28</v>
       </c>
-      <c r="BK3">
+      <c r="CG3">
         <v>421.28</v>
       </c>
-      <c r="BL3">
+      <c r="CH3">
         <v>421.28</v>
       </c>
-      <c r="BM3">
+      <c r="CI3">
         <v>421.28</v>
       </c>
-      <c r="BN3">
+      <c r="CJ3">
         <v>421.28</v>
       </c>
-      <c r="BO3">
+      <c r="CK3">
         <v>421.28</v>
       </c>
-      <c r="BP3">
+      <c r="CL3">
         <v>231.04</v>
       </c>
-      <c r="BQ3">
+      <c r="CM3">
         <v>253.82</v>
       </c>
-      <c r="BR3">
+      <c r="CN3">
         <v>270.48</v>
       </c>
-      <c r="BS3">
+      <c r="CO3">
         <v>270.48</v>
       </c>
-      <c r="BT3">
+      <c r="CP3">
         <v>271.51</v>
       </c>
-      <c r="BU3">
+      <c r="CQ3">
         <v>283.14999999999998</v>
       </c>
-      <c r="BV3">
+      <c r="CR3">
         <v>284.69</v>
       </c>
-      <c r="BW3">
+      <c r="CS3">
         <v>284.69</v>
       </c>
-      <c r="BX3">
+      <c r="CT3">
         <v>300.86</v>
       </c>
-      <c r="BY3">
+      <c r="CU3">
         <v>329.47</v>
       </c>
-      <c r="BZ3">
+      <c r="CV3">
         <v>346.25</v>
       </c>
-      <c r="CA3">
+      <c r="CW3">
         <v>363.03</v>
       </c>
-      <c r="CB3">
+      <c r="CX3">
         <v>372.58</v>
       </c>
-      <c r="CC3">
+      <c r="CY3">
         <v>382.26</v>
       </c>
-      <c r="CD3">
+      <c r="CZ3">
         <v>401</v>
       </c>
-      <c r="CE3">
+      <c r="DA3">
         <v>401</v>
       </c>
-      <c r="CF3">
+      <c r="DB3">
         <v>409.01</v>
       </c>
-      <c r="CG3">
+      <c r="DC3">
         <v>409.01</v>
       </c>
-      <c r="CH3">
+      <c r="DD3">
         <v>409.01</v>
       </c>
-      <c r="CI3">
+      <c r="DE3">
         <v>409.01</v>
       </c>
-      <c r="CJ3">
+      <c r="DF3">
         <v>409.01</v>
       </c>
-      <c r="CK3">
+      <c r="DG3">
         <v>409.01</v>
       </c>
-      <c r="CL3">
+      <c r="DH3">
         <v>224.09</v>
       </c>
-      <c r="CM3">
+      <c r="DI3">
         <v>246.19</v>
       </c>
-      <c r="CN3">
+      <c r="DJ3">
         <v>262.35000000000002</v>
       </c>
-      <c r="CO3">
+      <c r="DK3">
         <v>262.35000000000002</v>
       </c>
-      <c r="CP3">
+      <c r="DL3">
         <v>263.35000000000002</v>
       </c>
-      <c r="CQ3">
+      <c r="DM3">
         <v>274.64</v>
       </c>
-      <c r="CR3">
+      <c r="DN3">
         <v>276.13</v>
       </c>
-      <c r="CS3">
+      <c r="DO3">
         <v>276.13</v>
       </c>
-      <c r="CT3">
+      <c r="DP3">
         <v>291.81</v>
       </c>
-      <c r="CU3">
+      <c r="DQ3">
         <v>319.56</v>
       </c>
-      <c r="CV3">
+      <c r="DR3">
         <v>335.84</v>
       </c>
-      <c r="CW3">
+      <c r="DS3">
         <v>352.11</v>
       </c>
-      <c r="CX3">
+      <c r="DT3">
         <v>361.38</v>
       </c>
-      <c r="CY3">
+      <c r="DU3">
         <v>370.77</v>
       </c>
-      <c r="CZ3">
+      <c r="DV3">
         <v>388.94</v>
       </c>
-      <c r="DA3">
+      <c r="DW3">
         <v>388.94</v>
       </c>
-      <c r="DB3">
+      <c r="DX3">
         <v>396.71</v>
       </c>
-      <c r="DC3">
+      <c r="DY3">
         <v>396.71</v>
       </c>
-      <c r="DD3">
+      <c r="DZ3">
         <v>396.71</v>
       </c>
-      <c r="DE3">
+      <c r="EA3">
         <v>396.71</v>
       </c>
-      <c r="DF3">
+      <c r="EB3">
         <v>396.71</v>
       </c>
-      <c r="DG3">
+      <c r="EC3">
         <v>396.71</v>
       </c>
     </row>
-    <row r="4" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>224.19</v>
+      </c>
+      <c r="C4">
+        <v>252.55</v>
+      </c>
+      <c r="D4">
+        <v>270.02999999999997</v>
+      </c>
+      <c r="E4">
+        <v>273.32</v>
+      </c>
+      <c r="F4">
+        <v>284.24</v>
+      </c>
+      <c r="G4">
+        <v>290.75</v>
+      </c>
+      <c r="H4">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="I4">
+        <v>315.66000000000003</v>
+      </c>
+      <c r="J4">
+        <v>329.27</v>
+      </c>
+      <c r="K4">
+        <v>350.06</v>
+      </c>
+      <c r="L4">
+        <v>359.97</v>
+      </c>
+      <c r="M4">
+        <v>369.77</v>
+      </c>
+      <c r="N4">
+        <v>380.89</v>
+      </c>
+      <c r="O4">
+        <v>380.89</v>
+      </c>
+      <c r="P4">
+        <v>380.89</v>
+      </c>
+      <c r="Q4">
+        <v>380.89</v>
+      </c>
+      <c r="R4">
+        <v>380.89</v>
+      </c>
+      <c r="S4">
+        <v>380.89</v>
+      </c>
+      <c r="T4">
+        <v>380.89</v>
+      </c>
+      <c r="U4">
+        <v>380.89</v>
+      </c>
+      <c r="V4">
+        <v>380.89</v>
+      </c>
+      <c r="W4">
+        <v>380.89</v>
+      </c>
+      <c r="X4">
         <v>213.11</v>
       </c>
-      <c r="C4">
+      <c r="Y4">
         <v>240.07</v>
       </c>
-      <c r="D4">
+      <c r="Z4">
         <v>256.68</v>
       </c>
-      <c r="E4">
+      <c r="AA4">
         <v>259.81</v>
       </c>
-      <c r="F4">
+      <c r="AB4">
         <v>270.19</v>
       </c>
-      <c r="G4">
+      <c r="AC4">
         <v>276.38</v>
       </c>
-      <c r="H4">
+      <c r="AD4">
         <v>290.02</v>
       </c>
-      <c r="I4">
+      <c r="AE4">
         <v>300.06</v>
       </c>
-      <c r="J4">
+      <c r="AF4">
         <v>312.99</v>
       </c>
-      <c r="K4">
+      <c r="AG4">
         <v>332.76</v>
       </c>
-      <c r="L4">
+      <c r="AH4">
         <v>342.18</v>
       </c>
-      <c r="M4">
+      <c r="AI4">
         <v>351.49</v>
       </c>
-      <c r="N4">
+      <c r="AJ4">
         <v>362.06</v>
       </c>
-      <c r="O4">
+      <c r="AK4">
         <v>362.06</v>
       </c>
-      <c r="P4">
+      <c r="AL4">
         <v>362.06</v>
       </c>
-      <c r="Q4">
+      <c r="AM4">
         <v>362.06</v>
       </c>
-      <c r="R4">
+      <c r="AN4">
         <v>362.06</v>
       </c>
-      <c r="S4">
+      <c r="AO4">
         <v>362.06</v>
       </c>
-      <c r="T4">
+      <c r="AP4">
         <v>362.06</v>
       </c>
-      <c r="U4">
+      <c r="AQ4">
         <v>362.06</v>
       </c>
-      <c r="V4">
+      <c r="AR4">
         <v>362.06</v>
       </c>
-      <c r="W4">
+      <c r="AS4">
         <v>362.06</v>
       </c>
-      <c r="X4">
+      <c r="AT4">
         <v>203.74</v>
       </c>
-      <c r="Y4">
+      <c r="AU4">
         <v>229.51</v>
       </c>
-      <c r="Z4">
+      <c r="AV4">
         <v>245.39</v>
       </c>
-      <c r="AA4">
+      <c r="AW4">
         <v>248.38</v>
       </c>
-      <c r="AB4">
+      <c r="AX4">
         <v>258.31</v>
       </c>
-      <c r="AC4">
+      <c r="AY4">
         <v>264.23</v>
       </c>
-      <c r="AD4">
+      <c r="AZ4">
         <v>277.27</v>
       </c>
-      <c r="AE4">
+      <c r="BA4">
         <v>286.86</v>
       </c>
-      <c r="AF4">
+      <c r="BB4">
         <v>299.23</v>
       </c>
-      <c r="AG4">
+      <c r="BC4">
         <v>318.13</v>
       </c>
-      <c r="AH4">
+      <c r="BD4">
         <v>327.13</v>
       </c>
-      <c r="AI4">
+      <c r="BE4">
         <v>336.03</v>
       </c>
-      <c r="AJ4">
+      <c r="BF4">
         <v>346.14</v>
       </c>
-      <c r="AK4">
+      <c r="BG4">
         <v>346.14</v>
       </c>
-      <c r="AL4">
+      <c r="BH4">
         <v>346.14</v>
       </c>
-      <c r="AM4">
+      <c r="BI4">
         <v>346.14</v>
       </c>
-      <c r="AN4">
+      <c r="BJ4">
         <v>346.14</v>
       </c>
-      <c r="AO4">
+      <c r="BK4">
         <v>346.14</v>
       </c>
-      <c r="AP4">
+      <c r="BL4">
         <v>346.14</v>
       </c>
-      <c r="AQ4">
+      <c r="BM4">
         <v>346.14</v>
       </c>
-      <c r="AR4">
+      <c r="BN4">
         <v>346.14</v>
       </c>
-      <c r="AS4">
+      <c r="BO4">
         <v>346.14</v>
       </c>
-      <c r="AT4">
+      <c r="BP4">
         <v>198.38</v>
       </c>
-      <c r="AU4">
+      <c r="BQ4">
         <v>223.48</v>
       </c>
-      <c r="AV4">
+      <c r="BR4">
         <v>238.94</v>
       </c>
-      <c r="AW4">
+      <c r="BS4">
         <v>241.85</v>
       </c>
-      <c r="AX4">
+      <c r="BT4">
         <v>251.52</v>
       </c>
-      <c r="AY4">
+      <c r="BU4">
         <v>257.27999999999997</v>
       </c>
-      <c r="AZ4">
+      <c r="BV4">
         <v>269.98</v>
       </c>
-      <c r="BA4">
+      <c r="BW4">
         <v>279.32</v>
       </c>
-      <c r="BB4">
+      <c r="BX4">
         <v>291.36</v>
       </c>
-      <c r="BC4">
+      <c r="BY4">
         <v>309.77</v>
       </c>
-      <c r="BD4">
+      <c r="BZ4">
         <v>318.52999999999997</v>
       </c>
-      <c r="BE4">
+      <c r="CA4">
         <v>327.2</v>
       </c>
-      <c r="BF4">
+      <c r="CB4">
         <v>337.04</v>
       </c>
-      <c r="BG4">
+      <c r="CC4">
         <v>337.04</v>
       </c>
-      <c r="BH4">
+      <c r="CD4">
         <v>337.04</v>
       </c>
-      <c r="BI4">
+      <c r="CE4">
         <v>337.04</v>
       </c>
-      <c r="BJ4">
+      <c r="CF4">
         <v>337.04</v>
       </c>
-      <c r="BK4">
+      <c r="CG4">
         <v>337.04</v>
       </c>
-      <c r="BL4">
+      <c r="CH4">
         <v>337.04</v>
       </c>
-      <c r="BM4">
+      <c r="CI4">
         <v>337.04</v>
       </c>
-      <c r="BN4">
+      <c r="CJ4">
         <v>337.04</v>
       </c>
-      <c r="BO4">
+      <c r="CK4">
         <v>337.04</v>
       </c>
-      <c r="BP4">
+      <c r="CL4">
         <v>192.6</v>
       </c>
-      <c r="BQ4">
+      <c r="CM4">
         <v>216.97</v>
       </c>
-      <c r="BR4">
+      <c r="CN4">
         <v>231.98</v>
       </c>
-      <c r="BS4">
+      <c r="CO4">
         <v>234.81</v>
       </c>
-      <c r="BT4">
+      <c r="CP4">
         <v>244.19</v>
       </c>
-      <c r="BU4">
+      <c r="CQ4">
         <v>249.79</v>
       </c>
-      <c r="BV4">
+      <c r="CR4">
         <v>262.12</v>
       </c>
-      <c r="BW4">
+      <c r="CS4">
         <v>271.18</v>
       </c>
-      <c r="BX4">
+      <c r="CT4">
         <v>282.87</v>
       </c>
-      <c r="BY4">
+      <c r="CU4">
         <v>300.75</v>
       </c>
-      <c r="BZ4">
+      <c r="CV4">
         <v>309.25</v>
       </c>
-      <c r="CA4">
+      <c r="CW4">
         <v>317.67</v>
       </c>
-      <c r="CB4">
+      <c r="CX4">
         <v>327.22000000000003</v>
       </c>
-      <c r="CC4">
+      <c r="CY4">
         <v>327.22000000000003</v>
       </c>
-      <c r="CD4">
+      <c r="CZ4">
         <v>327.22000000000003</v>
       </c>
-      <c r="CE4">
+      <c r="DA4">
         <v>327.22000000000003</v>
       </c>
-      <c r="CF4">
+      <c r="DB4">
         <v>327.22000000000003</v>
       </c>
-      <c r="CG4">
+      <c r="DC4">
         <v>327.22000000000003</v>
       </c>
-      <c r="CH4">
+      <c r="DD4">
         <v>327.22000000000003</v>
       </c>
-      <c r="CI4">
+      <c r="DE4">
         <v>327.22000000000003</v>
       </c>
-      <c r="CJ4">
+      <c r="DF4">
         <v>327.22000000000003</v>
       </c>
-      <c r="CK4">
+      <c r="DG4">
         <v>327.22000000000003</v>
       </c>
-      <c r="CL4">
+      <c r="DH4">
         <v>186.81</v>
       </c>
-      <c r="CM4">
+      <c r="DI4">
         <v>210.45</v>
       </c>
-      <c r="CN4">
+      <c r="DJ4">
         <v>225</v>
       </c>
-      <c r="CO4">
+      <c r="DK4">
         <v>227.75</v>
       </c>
-      <c r="CP4">
+      <c r="DL4">
         <v>236.85</v>
       </c>
-      <c r="CQ4">
+      <c r="DM4">
         <v>242.28</v>
       </c>
-      <c r="CR4">
+      <c r="DN4">
         <v>254.24</v>
       </c>
-      <c r="CS4">
+      <c r="DO4">
         <v>263.02999999999997</v>
       </c>
-      <c r="CT4">
+      <c r="DP4">
         <v>274.36</v>
       </c>
-      <c r="CU4">
+      <c r="DQ4">
         <v>291.70999999999998</v>
       </c>
-      <c r="CV4">
+      <c r="DR4">
         <v>299.95</v>
       </c>
-      <c r="CW4">
+      <c r="DS4">
         <v>308.12</v>
       </c>
-      <c r="CX4">
+      <c r="DT4">
         <v>317.38</v>
       </c>
-      <c r="CY4">
+      <c r="DU4">
         <v>317.38</v>
       </c>
-      <c r="CZ4">
+      <c r="DV4">
         <v>317.38</v>
       </c>
-      <c r="DA4">
+      <c r="DW4">
         <v>317.38</v>
       </c>
-      <c r="DB4">
+      <c r="DX4">
         <v>317.38</v>
       </c>
-      <c r="DC4">
+      <c r="DY4">
         <v>317.38</v>
       </c>
-      <c r="DD4">
+      <c r="DZ4">
         <v>317.38</v>
       </c>
-      <c r="DE4">
+      <c r="EA4">
         <v>317.38</v>
       </c>
-      <c r="DF4">
+      <c r="EB4">
         <v>317.38</v>
       </c>
-      <c r="DG4">
+      <c r="EC4">
         <v>317.38</v>
       </c>
     </row>
-    <row r="5" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>193.44</v>
+      </c>
+      <c r="C5">
+        <v>223.91</v>
+      </c>
+      <c r="D5">
+        <v>238.88</v>
+      </c>
+      <c r="E5">
+        <v>242.18</v>
+      </c>
+      <c r="F5">
+        <v>256.05</v>
+      </c>
+      <c r="G5">
+        <v>270.93</v>
+      </c>
+      <c r="H5">
+        <v>289.47000000000003</v>
+      </c>
+      <c r="I5">
+        <v>303.87</v>
+      </c>
+      <c r="J5">
+        <v>313.89</v>
+      </c>
+      <c r="K5">
+        <v>319.64999999999998</v>
+      </c>
+      <c r="L5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="M5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="N5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="O5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="P5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="R5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="S5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="T5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="U5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="V5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="W5">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="X5">
         <v>183.88</v>
       </c>
-      <c r="C5">
+      <c r="Y5">
         <v>212.84</v>
       </c>
-      <c r="D5">
+      <c r="Z5">
         <v>227.07</v>
       </c>
-      <c r="E5">
+      <c r="AA5">
         <v>230.21</v>
       </c>
-      <c r="F5">
+      <c r="AB5">
         <v>243.39</v>
       </c>
-      <c r="G5">
+      <c r="AC5">
         <v>257.54000000000002</v>
       </c>
-      <c r="H5">
+      <c r="AD5">
         <v>275.16000000000003</v>
       </c>
-      <c r="I5">
+      <c r="AE5">
         <v>288.85000000000002</v>
       </c>
-      <c r="J5">
+      <c r="AF5">
         <v>298.37</v>
       </c>
-      <c r="K5">
+      <c r="AG5">
         <v>303.85000000000002</v>
       </c>
-      <c r="L5">
+      <c r="AH5">
         <v>307.01</v>
       </c>
-      <c r="M5">
+      <c r="AI5">
         <v>307.01</v>
       </c>
-      <c r="N5">
+      <c r="AJ5">
         <v>307.01</v>
       </c>
-      <c r="O5">
+      <c r="AK5">
         <v>307.01</v>
       </c>
-      <c r="P5">
+      <c r="AL5">
         <v>307.01</v>
       </c>
-      <c r="Q5">
+      <c r="AM5">
         <v>307.01</v>
       </c>
-      <c r="R5">
+      <c r="AN5">
         <v>307.01</v>
       </c>
-      <c r="S5">
+      <c r="AO5">
         <v>307.01</v>
       </c>
-      <c r="T5">
+      <c r="AP5">
         <v>307.01</v>
       </c>
-      <c r="U5">
+      <c r="AQ5">
         <v>307.01</v>
       </c>
-      <c r="V5">
+      <c r="AR5">
         <v>307.01</v>
       </c>
-      <c r="W5">
+      <c r="AS5">
         <v>307.01</v>
       </c>
-      <c r="X5">
+      <c r="AT5">
         <v>175.79</v>
       </c>
-      <c r="Y5">
+      <c r="AU5">
         <v>203.48</v>
       </c>
-      <c r="Z5">
+      <c r="AV5">
         <v>217.08</v>
       </c>
-      <c r="AA5">
+      <c r="AW5">
         <v>220.09</v>
       </c>
-      <c r="AB5">
+      <c r="AX5">
         <v>232.69</v>
       </c>
-      <c r="AC5">
+      <c r="AY5">
         <v>246.21</v>
       </c>
-      <c r="AD5">
+      <c r="AZ5">
         <v>263.06</v>
       </c>
-      <c r="AE5">
+      <c r="BA5">
         <v>276.14999999999998</v>
       </c>
-      <c r="AF5">
+      <c r="BB5">
         <v>285.25</v>
       </c>
-      <c r="AG5">
+      <c r="BC5">
         <v>290.49</v>
       </c>
-      <c r="AH5">
+      <c r="BD5">
         <v>293.51</v>
       </c>
-      <c r="AI5">
+      <c r="BE5">
         <v>293.51</v>
       </c>
-      <c r="AJ5">
+      <c r="BF5">
         <v>293.51</v>
       </c>
-      <c r="AK5">
+      <c r="BG5">
         <v>293.51</v>
       </c>
-      <c r="AL5">
+      <c r="BH5">
         <v>293.51</v>
       </c>
-      <c r="AM5">
+      <c r="BI5">
         <v>293.51</v>
       </c>
-      <c r="AN5">
+      <c r="BJ5">
         <v>293.51</v>
       </c>
-      <c r="AO5">
+      <c r="BK5">
         <v>293.51</v>
       </c>
-      <c r="AP5">
+      <c r="BL5">
         <v>293.51</v>
       </c>
-      <c r="AQ5">
+      <c r="BM5">
         <v>293.51</v>
       </c>
-      <c r="AR5">
+      <c r="BN5">
         <v>293.51</v>
       </c>
-      <c r="AS5">
+      <c r="BO5">
         <v>293.51</v>
       </c>
-      <c r="AT5">
+      <c r="BP5">
         <v>171.17</v>
       </c>
-      <c r="AU5">
+      <c r="BQ5">
         <v>198.13</v>
       </c>
-      <c r="AV5">
+      <c r="BR5">
         <v>211.37</v>
       </c>
-      <c r="AW5">
+      <c r="BS5">
         <v>214.3</v>
       </c>
-      <c r="AX5">
+      <c r="BT5">
         <v>226.57</v>
       </c>
-      <c r="AY5">
+      <c r="BU5">
         <v>239.74</v>
       </c>
-      <c r="AZ5">
+      <c r="BV5">
         <v>256.14</v>
       </c>
-      <c r="BA5">
+      <c r="BW5">
         <v>268.89</v>
       </c>
-      <c r="BB5">
+      <c r="BX5">
         <v>277.75</v>
       </c>
-      <c r="BC5">
+      <c r="BY5">
         <v>282.85000000000002</v>
       </c>
-      <c r="BD5">
+      <c r="BZ5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BE5">
+      <c r="CA5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BF5">
+      <c r="CB5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BG5">
+      <c r="CC5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BH5">
+      <c r="CD5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BI5">
+      <c r="CE5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BJ5">
+      <c r="CF5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BK5">
+      <c r="CG5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BL5">
+      <c r="CH5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BM5">
+      <c r="CI5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BN5">
+      <c r="CJ5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BO5">
+      <c r="CK5">
         <v>285.79000000000002</v>
       </c>
-      <c r="BP5">
+      <c r="CL5">
         <v>166.18</v>
       </c>
-      <c r="BQ5">
+      <c r="CM5">
         <v>192.36</v>
       </c>
-      <c r="BR5">
+      <c r="CN5">
         <v>205.21</v>
       </c>
-      <c r="BS5">
+      <c r="CO5">
         <v>208.06</v>
       </c>
-      <c r="BT5">
+      <c r="CP5">
         <v>219.97</v>
       </c>
-      <c r="BU5">
+      <c r="CQ5">
         <v>232.76</v>
       </c>
-      <c r="BV5">
+      <c r="CR5">
         <v>248.68</v>
       </c>
-      <c r="BW5">
+      <c r="CS5">
         <v>261.06</v>
       </c>
-      <c r="BX5">
+      <c r="CT5">
         <v>269.66000000000003</v>
       </c>
-      <c r="BY5">
+      <c r="CU5">
         <v>274.61</v>
       </c>
-      <c r="BZ5">
+      <c r="CV5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CA5">
+      <c r="CW5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CB5">
+      <c r="CX5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CC5">
+      <c r="CY5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CD5">
+      <c r="CZ5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CE5">
+      <c r="DA5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CF5">
+      <c r="DB5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CG5">
+      <c r="DC5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CH5">
+      <c r="DD5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CI5">
+      <c r="DE5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CJ5">
+      <c r="DF5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CK5">
+      <c r="DG5">
         <v>277.47000000000003</v>
       </c>
-      <c r="CL5">
+      <c r="DH5">
         <v>161.18</v>
       </c>
-      <c r="CM5">
+      <c r="DI5">
         <v>186.58</v>
       </c>
-      <c r="CN5">
+      <c r="DJ5">
         <v>199.04</v>
       </c>
-      <c r="CO5">
+      <c r="DK5">
         <v>201.8</v>
       </c>
-      <c r="CP5">
+      <c r="DL5">
         <v>213.36</v>
       </c>
-      <c r="CQ5">
+      <c r="DM5">
         <v>225.76</v>
       </c>
-      <c r="CR5">
+      <c r="DN5">
         <v>241.2</v>
       </c>
-      <c r="CS5">
+      <c r="DO5">
         <v>253.21</v>
       </c>
-      <c r="CT5">
+      <c r="DP5">
         <v>261.55</v>
       </c>
-      <c r="CU5">
+      <c r="DQ5">
         <v>266.35000000000002</v>
       </c>
-      <c r="CV5">
+      <c r="DR5">
         <v>269.13</v>
       </c>
-      <c r="CW5">
+      <c r="DS5">
         <v>269.13</v>
       </c>
-      <c r="CX5">
+      <c r="DT5">
         <v>269.13</v>
       </c>
-      <c r="CY5">
+      <c r="DU5">
         <v>269.13</v>
       </c>
-      <c r="CZ5">
+      <c r="DV5">
         <v>269.13</v>
       </c>
-      <c r="DA5">
+      <c r="DW5">
         <v>269.13</v>
       </c>
-      <c r="DB5">
+      <c r="DX5">
         <v>269.13</v>
       </c>
-      <c r="DC5">
+      <c r="DY5">
         <v>269.13</v>
       </c>
-      <c r="DD5">
+      <c r="DZ5">
         <v>269.13</v>
       </c>
-      <c r="DE5">
+      <c r="EA5">
         <v>269.13</v>
       </c>
-      <c r="DF5">
+      <c r="EB5">
         <v>269.13</v>
       </c>
-      <c r="DG5">
+      <c r="EC5">
         <v>269.13</v>
       </c>
     </row>
-    <row r="6" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>170.07</v>
+      </c>
+      <c r="C6">
+        <v>192.79</v>
+      </c>
+      <c r="D6">
+        <v>208.06</v>
+      </c>
+      <c r="E6">
+        <v>226.87</v>
+      </c>
+      <c r="F6">
+        <v>237.76</v>
+      </c>
+      <c r="G6">
+        <v>249.69</v>
+      </c>
+      <c r="H6">
+        <v>257.39</v>
+      </c>
+      <c r="I6">
+        <v>270.07</v>
+      </c>
+      <c r="J6">
+        <v>276.7</v>
+      </c>
+      <c r="K6">
+        <v>276.7</v>
+      </c>
+      <c r="L6">
+        <v>276.7</v>
+      </c>
+      <c r="M6">
+        <v>276.7</v>
+      </c>
+      <c r="N6">
+        <v>276.7</v>
+      </c>
+      <c r="O6">
+        <v>276.7</v>
+      </c>
+      <c r="P6">
+        <v>276.7</v>
+      </c>
+      <c r="Q6">
+        <v>276.7</v>
+      </c>
+      <c r="R6">
+        <v>276.7</v>
+      </c>
+      <c r="S6">
+        <v>276.7</v>
+      </c>
+      <c r="T6">
+        <v>276.7</v>
+      </c>
+      <c r="U6">
+        <v>276.7</v>
+      </c>
+      <c r="V6">
+        <v>276.7</v>
+      </c>
+      <c r="W6">
+        <v>276.7</v>
+      </c>
+      <c r="X6">
         <v>161.66</v>
       </c>
-      <c r="C6">
+      <c r="Y6">
         <v>183.26</v>
       </c>
-      <c r="D6">
+      <c r="Z6">
         <v>197.78</v>
       </c>
-      <c r="E6">
+      <c r="AA6">
         <v>215.66</v>
       </c>
-      <c r="F6">
+      <c r="AB6">
         <v>226.01</v>
       </c>
-      <c r="G6">
+      <c r="AC6">
         <v>237.35</v>
       </c>
-      <c r="H6">
+      <c r="AD6">
         <v>244.67</v>
       </c>
-      <c r="I6">
+      <c r="AE6">
         <v>256.72000000000003</v>
       </c>
-      <c r="J6">
+      <c r="AF6">
         <v>263.02</v>
       </c>
-      <c r="K6">
+      <c r="AG6">
         <v>263.02</v>
       </c>
-      <c r="L6">
+      <c r="AH6">
         <v>263.02</v>
       </c>
-      <c r="M6">
+      <c r="AI6">
         <v>263.02</v>
       </c>
-      <c r="N6">
+      <c r="AJ6">
         <v>263.02</v>
       </c>
-      <c r="O6">
+      <c r="AK6">
         <v>263.02</v>
       </c>
-      <c r="P6">
+      <c r="AL6">
         <v>263.02</v>
       </c>
-      <c r="Q6">
+      <c r="AM6">
         <v>263.02</v>
       </c>
-      <c r="R6">
+      <c r="AN6">
         <v>263.02</v>
       </c>
-      <c r="S6">
+      <c r="AO6">
         <v>263.02</v>
       </c>
-      <c r="T6">
+      <c r="AP6">
         <v>263.02</v>
       </c>
-      <c r="U6">
+      <c r="AQ6">
         <v>263.02</v>
       </c>
-      <c r="V6">
+      <c r="AR6">
         <v>263.02</v>
       </c>
-      <c r="W6">
+      <c r="AS6">
         <v>263.02</v>
       </c>
-      <c r="X6">
+      <c r="AT6">
         <v>154.55000000000001</v>
       </c>
-      <c r="Y6">
+      <c r="AU6">
         <v>175.2</v>
       </c>
-      <c r="Z6">
+      <c r="AV6">
         <v>189.08</v>
       </c>
-      <c r="AA6">
+      <c r="AW6">
         <v>206.18</v>
       </c>
-      <c r="AB6">
+      <c r="AX6">
         <v>216.07</v>
       </c>
-      <c r="AC6">
+      <c r="AY6">
         <v>226.91</v>
       </c>
-      <c r="AD6">
+      <c r="AZ6">
         <v>233.91</v>
       </c>
-      <c r="AE6">
+      <c r="BA6">
         <v>245.43</v>
       </c>
-      <c r="AF6">
+      <c r="BB6">
         <v>251.45</v>
       </c>
-      <c r="AG6">
+      <c r="BC6">
         <v>251.45</v>
       </c>
-      <c r="AH6">
+      <c r="BD6">
         <v>251.45</v>
       </c>
-      <c r="AI6">
+      <c r="BE6">
         <v>251.45</v>
       </c>
-      <c r="AJ6">
+      <c r="BF6">
         <v>251.45</v>
       </c>
-      <c r="AK6">
+      <c r="BG6">
         <v>251.45</v>
       </c>
-      <c r="AL6">
+      <c r="BH6">
         <v>251.45</v>
       </c>
-      <c r="AM6">
+      <c r="BI6">
         <v>251.45</v>
       </c>
-      <c r="AN6">
+      <c r="BJ6">
         <v>251.45</v>
       </c>
-      <c r="AO6">
+      <c r="BK6">
         <v>251.45</v>
       </c>
-      <c r="AP6">
+      <c r="BL6">
         <v>251.45</v>
       </c>
-      <c r="AQ6">
+      <c r="BM6">
         <v>251.45</v>
       </c>
-      <c r="AR6">
+      <c r="BN6">
         <v>251.45</v>
       </c>
-      <c r="AS6">
+      <c r="BO6">
         <v>251.45</v>
       </c>
-      <c r="AT6">
+      <c r="BP6">
         <v>150.49</v>
       </c>
-      <c r="AU6">
+      <c r="BQ6">
         <v>170.59</v>
       </c>
-      <c r="AV6">
+      <c r="BR6">
         <v>184.11</v>
       </c>
-      <c r="AW6">
+      <c r="BS6">
         <v>200.76</v>
       </c>
-      <c r="AX6">
+      <c r="BT6">
         <v>210.39</v>
       </c>
-      <c r="AY6">
+      <c r="BU6">
         <v>220.94</v>
       </c>
-      <c r="AZ6">
+      <c r="BV6">
         <v>227.76</v>
       </c>
-      <c r="BA6">
+      <c r="BW6">
         <v>238.98</v>
       </c>
-      <c r="BB6">
+      <c r="BX6">
         <v>244.84</v>
       </c>
-      <c r="BC6">
+      <c r="BY6">
         <v>244.84</v>
       </c>
-      <c r="BD6">
+      <c r="BZ6">
         <v>244.84</v>
       </c>
-      <c r="BE6">
+      <c r="CA6">
         <v>244.84</v>
       </c>
-      <c r="BF6">
+      <c r="CB6">
         <v>244.84</v>
       </c>
-      <c r="BG6">
+      <c r="CC6">
         <v>244.84</v>
       </c>
-      <c r="BH6">
+      <c r="CD6">
         <v>244.84</v>
       </c>
-      <c r="BI6">
+      <c r="CE6">
         <v>244.84</v>
       </c>
-      <c r="BJ6">
+      <c r="CF6">
         <v>244.84</v>
       </c>
-      <c r="BK6">
+      <c r="CG6">
         <v>244.84</v>
       </c>
-      <c r="BL6">
+      <c r="CH6">
         <v>244.84</v>
       </c>
-      <c r="BM6">
+      <c r="CI6">
         <v>244.84</v>
       </c>
-      <c r="BN6">
+      <c r="CJ6">
         <v>244.84</v>
       </c>
-      <c r="BO6">
+      <c r="CK6">
         <v>244.84</v>
       </c>
-      <c r="BP6">
+      <c r="CL6">
         <v>146.11000000000001</v>
       </c>
-      <c r="BQ6">
+      <c r="CM6">
         <v>165.62</v>
       </c>
-      <c r="BR6">
+      <c r="CN6">
         <v>178.75</v>
       </c>
-      <c r="BS6">
+      <c r="CO6">
         <v>194.91</v>
       </c>
-      <c r="BT6">
+      <c r="CP6">
         <v>204.26</v>
       </c>
-      <c r="BU6">
+      <c r="CQ6">
         <v>214.5</v>
       </c>
-      <c r="BV6">
+      <c r="CR6">
         <v>221.13</v>
       </c>
-      <c r="BW6">
+      <c r="CS6">
         <v>232.02</v>
       </c>
-      <c r="BX6">
+      <c r="CT6">
         <v>237.71</v>
       </c>
-      <c r="BY6">
+      <c r="CU6">
         <v>237.71</v>
       </c>
-      <c r="BZ6">
+      <c r="CV6">
         <v>237.71</v>
       </c>
-      <c r="CA6">
+      <c r="CW6">
         <v>237.71</v>
       </c>
-      <c r="CB6">
+      <c r="CX6">
         <v>237.71</v>
       </c>
-      <c r="CC6">
+      <c r="CY6">
         <v>237.71</v>
       </c>
-      <c r="CD6">
+      <c r="CZ6">
         <v>237.71</v>
       </c>
-      <c r="CE6">
+      <c r="DA6">
         <v>237.71</v>
       </c>
-      <c r="CF6">
+      <c r="DB6">
         <v>237.71</v>
       </c>
-      <c r="CG6">
+      <c r="DC6">
         <v>237.71</v>
       </c>
-      <c r="CH6">
+      <c r="DD6">
         <v>237.71</v>
       </c>
-      <c r="CI6">
+      <c r="DE6">
         <v>237.71</v>
       </c>
-      <c r="CJ6">
+      <c r="DF6">
         <v>237.71</v>
       </c>
-      <c r="CK6">
+      <c r="DG6">
         <v>237.71</v>
       </c>
-      <c r="CL6">
+      <c r="DH6">
         <v>141.72</v>
       </c>
-      <c r="CM6">
+      <c r="DI6">
         <v>160.63999999999999</v>
       </c>
-      <c r="CN6">
+      <c r="DJ6">
         <v>173.38</v>
       </c>
-      <c r="CO6">
+      <c r="DK6">
         <v>189.05</v>
       </c>
-      <c r="CP6">
+      <c r="DL6">
         <v>198.12</v>
       </c>
-      <c r="CQ6">
+      <c r="DM6">
         <v>208.05</v>
       </c>
-      <c r="CR6">
+      <c r="DN6">
         <v>214.48</v>
       </c>
-      <c r="CS6">
+      <c r="DO6">
         <v>225.04</v>
       </c>
-      <c r="CT6">
+      <c r="DP6">
         <v>230.56</v>
       </c>
-      <c r="CU6">
+      <c r="DQ6">
         <v>230.56</v>
       </c>
-      <c r="CV6">
+      <c r="DR6">
         <v>230.56</v>
       </c>
-      <c r="CW6">
+      <c r="DS6">
         <v>230.56</v>
       </c>
-      <c r="CX6">
+      <c r="DT6">
         <v>230.56</v>
       </c>
-      <c r="CY6">
+      <c r="DU6">
         <v>230.56</v>
       </c>
-      <c r="CZ6">
+      <c r="DV6">
         <v>230.56</v>
       </c>
-      <c r="DA6">
+      <c r="DW6">
         <v>230.56</v>
       </c>
-      <c r="DB6">
+      <c r="DX6">
         <v>230.56</v>
       </c>
-      <c r="DC6">
+      <c r="DY6">
         <v>230.56</v>
       </c>
-      <c r="DD6">
+      <c r="DZ6">
         <v>230.56</v>
       </c>
-      <c r="DE6">
+      <c r="EA6">
         <v>230.56</v>
       </c>
-      <c r="DF6">
+      <c r="EB6">
         <v>230.56</v>
       </c>
-      <c r="DG6">
+      <c r="EC6">
         <v>230.56</v>
       </c>
     </row>
-    <row r="7" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>146.94999999999999</v>
+      </c>
+      <c r="C7">
+        <v>167.36</v>
+      </c>
+      <c r="D7">
+        <v>192.76</v>
+      </c>
+      <c r="E7">
+        <v>199.27</v>
+      </c>
+      <c r="F7">
+        <v>203.36</v>
+      </c>
+      <c r="G7">
+        <v>203.36</v>
+      </c>
+      <c r="H7">
+        <v>203.36</v>
+      </c>
+      <c r="I7">
+        <v>203.36</v>
+      </c>
+      <c r="J7">
+        <v>203.36</v>
+      </c>
+      <c r="K7">
+        <v>203.36</v>
+      </c>
+      <c r="L7">
+        <v>203.36</v>
+      </c>
+      <c r="M7">
+        <v>203.36</v>
+      </c>
+      <c r="N7">
+        <v>203.36</v>
+      </c>
+      <c r="O7">
+        <v>203.36</v>
+      </c>
+      <c r="P7">
+        <v>203.36</v>
+      </c>
+      <c r="Q7">
+        <v>203.36</v>
+      </c>
+      <c r="R7">
+        <v>203.36</v>
+      </c>
+      <c r="S7">
+        <v>203.36</v>
+      </c>
+      <c r="T7">
+        <v>203.36</v>
+      </c>
+      <c r="U7">
+        <v>203.36</v>
+      </c>
+      <c r="V7">
+        <v>203.36</v>
+      </c>
+      <c r="W7">
+        <v>203.36</v>
+      </c>
+      <c r="X7">
         <v>139.69</v>
       </c>
-      <c r="C7">
+      <c r="Y7">
         <v>159.09</v>
       </c>
-      <c r="D7">
+      <c r="Z7">
         <v>183.23</v>
       </c>
-      <c r="E7">
+      <c r="AA7">
         <v>189.42</v>
       </c>
-      <c r="F7">
+      <c r="AB7">
         <v>193.31</v>
       </c>
-      <c r="G7">
+      <c r="AC7">
         <v>193.31</v>
       </c>
-      <c r="H7">
+      <c r="AD7">
         <v>193.31</v>
       </c>
-      <c r="I7">
+      <c r="AE7">
         <v>193.31</v>
       </c>
-      <c r="J7">
+      <c r="AF7">
         <v>193.31</v>
       </c>
-      <c r="K7">
+      <c r="AG7">
         <v>193.31</v>
       </c>
-      <c r="L7">
+      <c r="AH7">
         <v>193.31</v>
       </c>
-      <c r="M7">
+      <c r="AI7">
         <v>193.31</v>
       </c>
-      <c r="N7">
+      <c r="AJ7">
         <v>193.31</v>
       </c>
-      <c r="O7">
+      <c r="AK7">
         <v>193.31</v>
       </c>
-      <c r="P7">
+      <c r="AL7">
         <v>193.31</v>
       </c>
-      <c r="Q7">
+      <c r="AM7">
         <v>193.31</v>
       </c>
-      <c r="R7">
+      <c r="AN7">
         <v>193.31</v>
       </c>
-      <c r="S7">
+      <c r="AO7">
         <v>193.31</v>
       </c>
-      <c r="T7">
+      <c r="AP7">
         <v>193.31</v>
       </c>
-      <c r="U7">
+      <c r="AQ7">
         <v>193.31</v>
       </c>
-      <c r="V7">
+      <c r="AR7">
         <v>193.31</v>
       </c>
-      <c r="W7">
+      <c r="AS7">
         <v>193.31</v>
       </c>
-      <c r="X7">
+      <c r="AT7">
         <v>133.55000000000001</v>
       </c>
-      <c r="Y7">
+      <c r="AU7">
         <v>152.09</v>
       </c>
-      <c r="Z7">
+      <c r="AV7">
         <v>175.17</v>
       </c>
-      <c r="AA7">
+      <c r="AW7">
         <v>181.09</v>
       </c>
-      <c r="AB7">
+      <c r="AX7">
         <v>184.81</v>
       </c>
-      <c r="AC7">
+      <c r="AY7">
         <v>184.81</v>
       </c>
-      <c r="AD7">
+      <c r="AZ7">
         <v>184.81</v>
       </c>
-      <c r="AE7">
+      <c r="BA7">
         <v>184.81</v>
       </c>
-      <c r="AF7">
+      <c r="BB7">
         <v>184.81</v>
       </c>
-      <c r="AG7">
+      <c r="BC7">
         <v>184.81</v>
       </c>
-      <c r="AH7">
+      <c r="BD7">
         <v>184.81</v>
       </c>
-      <c r="AI7">
+      <c r="BE7">
         <v>184.81</v>
       </c>
-      <c r="AJ7">
+      <c r="BF7">
         <v>184.81</v>
       </c>
-      <c r="AK7">
+      <c r="BG7">
         <v>184.81</v>
       </c>
-      <c r="AL7">
+      <c r="BH7">
         <v>184.81</v>
       </c>
-      <c r="AM7">
+      <c r="BI7">
         <v>184.81</v>
       </c>
-      <c r="AN7">
+      <c r="BJ7">
         <v>184.81</v>
       </c>
-      <c r="AO7">
+      <c r="BK7">
         <v>184.81</v>
       </c>
-      <c r="AP7">
+      <c r="BL7">
         <v>184.81</v>
       </c>
-      <c r="AQ7">
+      <c r="BM7">
         <v>184.81</v>
       </c>
-      <c r="AR7">
+      <c r="BN7">
         <v>184.81</v>
       </c>
-      <c r="AS7">
+      <c r="BO7">
         <v>184.81</v>
       </c>
-      <c r="AT7">
+      <c r="BP7">
         <v>130.04</v>
       </c>
-      <c r="AU7">
+      <c r="BQ7">
         <v>148.09</v>
       </c>
-      <c r="AV7">
+      <c r="BR7">
         <v>170.56</v>
       </c>
-      <c r="AW7">
+      <c r="BS7">
         <v>176.33</v>
       </c>
-      <c r="AX7">
+      <c r="BT7">
         <v>179.95</v>
       </c>
-      <c r="AY7">
+      <c r="BU7">
         <v>179.95</v>
       </c>
-      <c r="AZ7">
+      <c r="BV7">
         <v>179.95</v>
       </c>
-      <c r="BA7">
+      <c r="BW7">
         <v>179.95</v>
       </c>
-      <c r="BB7">
+      <c r="BX7">
         <v>179.95</v>
       </c>
-      <c r="BC7">
+      <c r="BY7">
         <v>179.95</v>
       </c>
-      <c r="BD7">
+      <c r="BZ7">
         <v>179.95</v>
       </c>
-      <c r="BE7">
+      <c r="CA7">
         <v>179.95</v>
       </c>
-      <c r="BF7">
+      <c r="CB7">
         <v>179.95</v>
       </c>
-      <c r="BG7">
+      <c r="CC7">
         <v>179.95</v>
       </c>
-      <c r="BH7">
+      <c r="CD7">
         <v>179.95</v>
       </c>
-      <c r="BI7">
+      <c r="CE7">
         <v>179.95</v>
       </c>
-      <c r="BJ7">
+      <c r="CF7">
         <v>179.95</v>
       </c>
-      <c r="BK7">
+      <c r="CG7">
         <v>179.95</v>
       </c>
-      <c r="BL7">
+      <c r="CH7">
         <v>179.95</v>
       </c>
-      <c r="BM7">
+      <c r="CI7">
         <v>179.95</v>
       </c>
-      <c r="BN7">
+      <c r="CJ7">
         <v>179.95</v>
       </c>
-      <c r="BO7">
+      <c r="CK7">
         <v>179.95</v>
       </c>
-      <c r="BP7">
+      <c r="CL7">
         <v>126.25</v>
       </c>
-      <c r="BQ7">
+      <c r="CM7">
         <v>143.78</v>
       </c>
-      <c r="BR7">
+      <c r="CN7">
         <v>165.59</v>
       </c>
-      <c r="BS7">
+      <c r="CO7">
         <v>171.19</v>
       </c>
-      <c r="BT7">
+      <c r="CP7">
         <v>174.71</v>
       </c>
-      <c r="BU7">
+      <c r="CQ7">
         <v>174.71</v>
       </c>
-      <c r="BV7">
+      <c r="CR7">
         <v>174.71</v>
       </c>
-      <c r="BW7">
+      <c r="CS7">
         <v>174.71</v>
       </c>
-      <c r="BX7">
+      <c r="CT7">
         <v>174.71</v>
       </c>
-      <c r="BY7">
+      <c r="CU7">
         <v>174.71</v>
       </c>
-      <c r="BZ7">
+      <c r="CV7">
         <v>174.71</v>
       </c>
-      <c r="CA7">
+      <c r="CW7">
         <v>174.71</v>
       </c>
-      <c r="CB7">
+      <c r="CX7">
         <v>174.71</v>
       </c>
-      <c r="CC7">
+      <c r="CY7">
         <v>174.71</v>
       </c>
-      <c r="CD7">
+      <c r="CZ7">
         <v>174.71</v>
       </c>
-      <c r="CE7">
+      <c r="DA7">
         <v>174.71</v>
       </c>
-      <c r="CF7">
+      <c r="DB7">
         <v>174.71</v>
       </c>
-      <c r="CG7">
+      <c r="DC7">
         <v>174.71</v>
       </c>
-      <c r="CH7">
+      <c r="DD7">
         <v>174.71</v>
       </c>
-      <c r="CI7">
+      <c r="DE7">
         <v>174.71</v>
       </c>
-      <c r="CJ7">
+      <c r="DF7">
         <v>174.71</v>
       </c>
-      <c r="CK7">
+      <c r="DG7">
         <v>174.71</v>
       </c>
-      <c r="CL7">
+      <c r="DH7">
         <v>122.45</v>
       </c>
-      <c r="CM7">
+      <c r="DI7">
         <v>139.46</v>
       </c>
-      <c r="CN7">
+      <c r="DJ7">
         <v>160.61000000000001</v>
       </c>
-      <c r="CO7">
+      <c r="DK7">
         <v>166.04</v>
       </c>
-      <c r="CP7">
+      <c r="DL7">
         <v>169.46</v>
       </c>
-      <c r="CQ7">
+      <c r="DM7">
         <v>169.46</v>
       </c>
-      <c r="CR7">
+      <c r="DN7">
         <v>169.46</v>
       </c>
-      <c r="CS7">
+      <c r="DO7">
         <v>169.46</v>
       </c>
-      <c r="CT7">
+      <c r="DP7">
         <v>169.46</v>
       </c>
-      <c r="CU7">
+      <c r="DQ7">
         <v>169.46</v>
       </c>
-      <c r="CV7">
+      <c r="DR7">
         <v>169.46</v>
       </c>
-      <c r="CW7">
+      <c r="DS7">
         <v>169.46</v>
       </c>
-      <c r="CX7">
+      <c r="DT7">
         <v>169.46</v>
       </c>
-      <c r="CY7">
+      <c r="DU7">
         <v>169.46</v>
       </c>
-      <c r="CZ7">
+      <c r="DV7">
         <v>169.46</v>
       </c>
-      <c r="DA7">
+      <c r="DW7">
         <v>169.46</v>
       </c>
-      <c r="DB7">
+      <c r="DX7">
         <v>169.46</v>
       </c>
-      <c r="DC7">
+      <c r="DY7">
         <v>169.46</v>
       </c>
-      <c r="DD7">
+      <c r="DZ7">
         <v>169.46</v>
       </c>
-      <c r="DE7">
+      <c r="EA7">
         <v>169.46</v>
       </c>
-      <c r="DF7">
+      <c r="EB7">
         <v>169.46</v>
       </c>
-      <c r="DG7">
+      <c r="EC7">
         <v>169.46</v>
       </c>
     </row>
-    <row r="8" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>127.54</v>
+      </c>
+      <c r="C8">
+        <v>132.76</v>
+      </c>
+      <c r="D8">
+        <v>160.49</v>
+      </c>
+      <c r="E8">
+        <v>160.49</v>
+      </c>
+      <c r="F8">
+        <v>160.49</v>
+      </c>
+      <c r="G8">
+        <v>160.49</v>
+      </c>
+      <c r="H8">
+        <v>160.49</v>
+      </c>
+      <c r="I8">
+        <v>160.49</v>
+      </c>
+      <c r="J8">
+        <v>160.49</v>
+      </c>
+      <c r="K8">
+        <v>160.49</v>
+      </c>
+      <c r="L8">
+        <v>160.49</v>
+      </c>
+      <c r="M8">
+        <v>160.49</v>
+      </c>
+      <c r="N8">
+        <v>160.49</v>
+      </c>
+      <c r="O8">
+        <v>160.49</v>
+      </c>
+      <c r="P8">
+        <v>160.49</v>
+      </c>
+      <c r="Q8">
+        <v>160.49</v>
+      </c>
+      <c r="R8">
+        <v>160.49</v>
+      </c>
+      <c r="S8">
+        <v>160.49</v>
+      </c>
+      <c r="T8">
+        <v>160.49</v>
+      </c>
+      <c r="U8">
+        <v>160.49</v>
+      </c>
+      <c r="V8">
+        <v>160.49</v>
+      </c>
+      <c r="W8">
+        <v>160.49</v>
+      </c>
+      <c r="X8">
         <v>121.24</v>
       </c>
-      <c r="C8">
+      <c r="Y8">
         <v>126.2</v>
       </c>
-      <c r="D8">
+      <c r="Z8">
         <v>152.56</v>
       </c>
-      <c r="E8">
+      <c r="AA8">
         <v>152.56</v>
       </c>
-      <c r="F8">
+      <c r="AB8">
         <v>152.56</v>
       </c>
-      <c r="G8">
+      <c r="AC8">
         <v>152.56</v>
       </c>
-      <c r="H8">
+      <c r="AD8">
         <v>152.56</v>
       </c>
-      <c r="I8">
+      <c r="AE8">
         <v>152.56</v>
       </c>
-      <c r="J8">
+      <c r="AF8">
         <v>152.56</v>
       </c>
-      <c r="K8">
+      <c r="AG8">
         <v>152.56</v>
       </c>
-      <c r="L8">
+      <c r="AH8">
         <v>152.56</v>
       </c>
-      <c r="M8">
+      <c r="AI8">
         <v>152.56</v>
       </c>
-      <c r="N8">
+      <c r="AJ8">
         <v>152.56</v>
       </c>
-      <c r="O8">
+      <c r="AK8">
         <v>152.56</v>
       </c>
-      <c r="P8">
+      <c r="AL8">
         <v>152.56</v>
       </c>
-      <c r="Q8">
+      <c r="AM8">
         <v>152.56</v>
       </c>
-      <c r="R8">
+      <c r="AN8">
         <v>152.56</v>
       </c>
-      <c r="S8">
+      <c r="AO8">
         <v>152.56</v>
       </c>
-      <c r="T8">
+      <c r="AP8">
         <v>152.56</v>
       </c>
-      <c r="U8">
+      <c r="AQ8">
         <v>152.56</v>
       </c>
-      <c r="V8">
+      <c r="AR8">
         <v>152.56</v>
       </c>
-      <c r="W8">
+      <c r="AS8">
         <v>152.56</v>
       </c>
-      <c r="X8">
+      <c r="AT8">
         <v>115.91</v>
       </c>
-      <c r="Y8">
+      <c r="AU8">
         <v>120.65</v>
       </c>
-      <c r="Z8">
+      <c r="AV8">
         <v>145.85</v>
       </c>
-      <c r="AA8">
+      <c r="AW8">
         <v>145.85</v>
       </c>
-      <c r="AB8">
+      <c r="AX8">
         <v>145.85</v>
       </c>
-      <c r="AC8">
+      <c r="AY8">
         <v>145.85</v>
       </c>
-      <c r="AD8">
+      <c r="AZ8">
         <v>145.85</v>
       </c>
-      <c r="AE8">
+      <c r="BA8">
         <v>145.85</v>
       </c>
-      <c r="AF8">
+      <c r="BB8">
         <v>145.85</v>
       </c>
-      <c r="AG8">
+      <c r="BC8">
         <v>145.85</v>
       </c>
-      <c r="AH8">
+      <c r="BD8">
         <v>145.85</v>
       </c>
-      <c r="AI8">
+      <c r="BE8">
         <v>145.85</v>
       </c>
-      <c r="AJ8">
+      <c r="BF8">
         <v>145.85</v>
       </c>
-      <c r="AK8">
+      <c r="BG8">
         <v>145.85</v>
       </c>
-      <c r="AL8">
+      <c r="BH8">
         <v>145.85</v>
       </c>
-      <c r="AM8">
+      <c r="BI8">
         <v>145.85</v>
       </c>
-      <c r="AN8">
+      <c r="BJ8">
         <v>145.85</v>
       </c>
-      <c r="AO8">
+      <c r="BK8">
         <v>145.85</v>
       </c>
-      <c r="AP8">
+      <c r="BL8">
         <v>145.85</v>
       </c>
-      <c r="AQ8">
+      <c r="BM8">
         <v>145.85</v>
       </c>
-      <c r="AR8">
+      <c r="BN8">
         <v>145.85</v>
       </c>
-      <c r="AS8">
+      <c r="BO8">
         <v>145.85</v>
       </c>
-      <c r="AT8">
+      <c r="BP8">
         <v>112.86</v>
       </c>
-      <c r="AU8">
+      <c r="BQ8">
         <v>117.48</v>
       </c>
-      <c r="AV8">
+      <c r="BR8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AW8">
+      <c r="BS8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AX8">
+      <c r="BT8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AY8">
+      <c r="BU8">
         <v>142.02000000000001</v>
       </c>
-      <c r="AZ8">
+      <c r="BV8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BA8">
+      <c r="BW8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BB8">
+      <c r="BX8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BC8">
+      <c r="BY8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BD8">
+      <c r="BZ8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BE8">
+      <c r="CA8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BF8">
+      <c r="CB8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BG8">
+      <c r="CC8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BH8">
+      <c r="CD8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BI8">
+      <c r="CE8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BJ8">
+      <c r="CF8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BK8">
+      <c r="CG8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BL8">
+      <c r="CH8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BM8">
+      <c r="CI8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BN8">
+      <c r="CJ8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BO8">
+      <c r="CK8">
         <v>142.02000000000001</v>
       </c>
-      <c r="BP8">
+      <c r="CL8">
         <v>109.57</v>
       </c>
-      <c r="BQ8">
+      <c r="CM8">
         <v>114.06</v>
       </c>
-      <c r="BR8">
+      <c r="CN8">
         <v>137.88</v>
       </c>
-      <c r="BS8">
+      <c r="CO8">
         <v>137.88</v>
       </c>
-      <c r="BT8">
+      <c r="CP8">
         <v>137.88</v>
       </c>
-      <c r="BU8">
+      <c r="CQ8">
         <v>137.88</v>
       </c>
-      <c r="BV8">
+      <c r="CR8">
         <v>137.88</v>
       </c>
-      <c r="BW8">
+      <c r="CS8">
         <v>137.88</v>
       </c>
-      <c r="BX8">
+      <c r="CT8">
         <v>137.88</v>
       </c>
-      <c r="BY8">
+      <c r="CU8">
         <v>137.88</v>
       </c>
-      <c r="BZ8">
+      <c r="CV8">
         <v>137.88</v>
       </c>
-      <c r="CA8">
+      <c r="CW8">
         <v>137.88</v>
       </c>
-      <c r="CB8">
+      <c r="CX8">
         <v>137.88</v>
       </c>
-      <c r="CC8">
+      <c r="CY8">
         <v>137.88</v>
       </c>
-      <c r="CD8">
+      <c r="CZ8">
         <v>137.88</v>
       </c>
-      <c r="CE8">
+      <c r="DA8">
         <v>137.88</v>
       </c>
-      <c r="CF8">
+      <c r="DB8">
         <v>137.88</v>
       </c>
-      <c r="CG8">
+      <c r="DC8">
         <v>137.88</v>
       </c>
-      <c r="CH8">
+      <c r="DD8">
         <v>137.88</v>
       </c>
-      <c r="CI8">
+      <c r="DE8">
         <v>137.88</v>
       </c>
-      <c r="CJ8">
+      <c r="DF8">
         <v>137.88</v>
       </c>
-      <c r="CK8">
+      <c r="DG8">
         <v>137.88</v>
       </c>
-      <c r="CL8">
+      <c r="DH8">
         <v>106.28</v>
       </c>
-      <c r="CM8">
+      <c r="DI8">
         <v>110.63</v>
       </c>
-      <c r="CN8">
+      <c r="DJ8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CO8">
+      <c r="DK8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CP8">
+      <c r="DL8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CQ8">
+      <c r="DM8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CR8">
+      <c r="DN8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CS8">
+      <c r="DO8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CT8">
+      <c r="DP8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CU8">
+      <c r="DQ8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CV8">
+      <c r="DR8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CW8">
+      <c r="DS8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CX8">
+      <c r="DT8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CY8">
+      <c r="DU8">
         <v>133.72999999999999</v>
       </c>
-      <c r="CZ8">
+      <c r="DV8">
         <v>133.72999999999999</v>
       </c>
-      <c r="DA8">
+      <c r="DW8">
         <v>133.72999999999999</v>
       </c>
-      <c r="DB8">
+      <c r="DX8">
         <v>133.72999999999999</v>
       </c>
-      <c r="DC8">
+      <c r="DY8">
         <v>133.72999999999999</v>
       </c>
-      <c r="DD8">
+      <c r="DZ8">
         <v>133.72999999999999</v>
       </c>
-      <c r="DE8">
+      <c r="EA8">
         <v>133.72999999999999</v>
       </c>
-      <c r="DF8">
+      <c r="EB8">
         <v>133.72999999999999</v>
       </c>
-      <c r="DG8">
+      <c r="EC8">
         <v>133.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <v>212.35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>212.35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>212.35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>212.35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>212.35</v>
+      </c>
+      <c r="G9" s="1">
+        <v>212.35</v>
+      </c>
+      <c r="H9" s="1">
+        <v>212.35</v>
+      </c>
+      <c r="I9" s="1">
+        <v>217.16</v>
+      </c>
+      <c r="J9" s="1">
+        <v>223.22</v>
+      </c>
+      <c r="K9" s="1">
+        <v>230.35</v>
+      </c>
+      <c r="L9" s="1">
+        <v>237.57</v>
+      </c>
+      <c r="M9" s="1">
+        <v>249.07</v>
+      </c>
+      <c r="N9" s="1">
+        <v>258.83999999999997</v>
+      </c>
+      <c r="O9" s="1">
+        <v>269.08999999999997</v>
+      </c>
+      <c r="P9" s="1">
+        <v>284.8</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>284.8</v>
+      </c>
+      <c r="R9" s="1">
+        <v>299.01</v>
+      </c>
+      <c r="S9" s="1">
+        <v>299.01</v>
+      </c>
+      <c r="T9" s="1">
+        <v>313.98</v>
+      </c>
+      <c r="U9" s="1">
+        <v>313.98</v>
+      </c>
+      <c r="V9" s="1">
+        <v>329.71</v>
+      </c>
+      <c r="W9" s="1">
+        <v>329.71</v>
+      </c>
+      <c r="X9">
         <v>201.85</v>
       </c>
-      <c r="C9">
+      <c r="Y9">
         <v>201.85</v>
       </c>
-      <c r="D9">
+      <c r="Z9">
         <v>201.85</v>
       </c>
-      <c r="E9">
+      <c r="AA9">
         <v>201.85</v>
       </c>
-      <c r="F9">
+      <c r="AB9">
         <v>201.85</v>
       </c>
-      <c r="G9">
+      <c r="AC9">
         <v>201.85</v>
       </c>
-      <c r="H9">
+      <c r="AD9">
         <v>201.85</v>
       </c>
-      <c r="I9">
+      <c r="AE9">
         <v>206.43</v>
       </c>
-      <c r="J9">
+      <c r="AF9">
         <v>212.19</v>
       </c>
-      <c r="K9">
+      <c r="AG9">
         <v>218.96</v>
       </c>
-      <c r="L9">
+      <c r="AH9">
         <v>225.83</v>
       </c>
-      <c r="M9">
+      <c r="AI9">
         <v>236.76</v>
       </c>
-      <c r="N9">
+      <c r="AJ9">
         <v>246.05</v>
       </c>
-      <c r="O9">
+      <c r="AK9">
         <v>255.79</v>
       </c>
-      <c r="P9">
+      <c r="AL9">
         <v>270.72000000000003</v>
       </c>
-      <c r="Q9">
+      <c r="AM9">
         <v>270.72000000000003</v>
       </c>
-      <c r="R9">
+      <c r="AN9">
         <v>284.23</v>
       </c>
-      <c r="S9">
+      <c r="AO9">
         <v>284.23</v>
       </c>
-      <c r="T9">
+      <c r="AP9">
         <v>298.45999999999998</v>
       </c>
-      <c r="U9">
+      <c r="AQ9">
         <v>298.45999999999998</v>
       </c>
-      <c r="V9">
+      <c r="AR9">
         <v>313.41000000000003</v>
       </c>
-      <c r="W9">
+      <c r="AS9">
         <v>313.41000000000003</v>
       </c>
-      <c r="X9">
+      <c r="AT9">
         <v>192.97</v>
       </c>
-      <c r="Y9">
+      <c r="AU9">
         <v>192.97</v>
       </c>
-      <c r="Z9">
+      <c r="AV9">
         <v>192.97</v>
       </c>
-      <c r="AA9">
+      <c r="AW9">
         <v>192.97</v>
       </c>
-      <c r="AB9">
+      <c r="AX9">
         <v>192.97</v>
       </c>
-      <c r="AC9">
+      <c r="AY9">
         <v>192.97</v>
       </c>
-      <c r="AD9">
+      <c r="AZ9">
         <v>192.97</v>
       </c>
-      <c r="AE9">
+      <c r="BA9">
         <v>197.35</v>
       </c>
-      <c r="AF9">
+      <c r="BB9">
         <v>202.86</v>
       </c>
-      <c r="AG9">
+      <c r="BC9">
         <v>209.33</v>
       </c>
-      <c r="AH9">
+      <c r="BD9">
         <v>215.9</v>
       </c>
-      <c r="AI9">
+      <c r="BE9">
         <v>226.35</v>
       </c>
-      <c r="AJ9">
+      <c r="BF9">
         <v>235.23</v>
       </c>
-      <c r="AK9">
+      <c r="BG9">
         <v>244.54</v>
       </c>
-      <c r="AL9">
+      <c r="BH9">
         <v>258.81</v>
       </c>
-      <c r="AM9">
+      <c r="BI9">
         <v>258.81</v>
       </c>
-      <c r="AN9">
+      <c r="BJ9">
         <v>271.73</v>
       </c>
-      <c r="AO9">
+      <c r="BK9">
         <v>271.73</v>
       </c>
-      <c r="AP9">
+      <c r="BL9">
         <v>285.33</v>
       </c>
-      <c r="AQ9">
+      <c r="BM9">
         <v>285.33</v>
       </c>
-      <c r="AR9">
+      <c r="BN9">
         <v>299.63</v>
       </c>
-      <c r="AS9">
+      <c r="BO9">
         <v>299.63</v>
       </c>
-      <c r="AT9">
+      <c r="BP9">
         <v>187.9</v>
       </c>
-      <c r="AU9">
+      <c r="BQ9">
         <v>187.9</v>
       </c>
-      <c r="AV9">
+      <c r="BR9">
         <v>187.9</v>
       </c>
-      <c r="AW9">
+      <c r="BS9">
         <v>187.9</v>
       </c>
-      <c r="AX9">
+      <c r="BT9">
         <v>187.9</v>
       </c>
-      <c r="AY9">
+      <c r="BU9">
         <v>187.9</v>
       </c>
-      <c r="AZ9">
+      <c r="BV9">
         <v>187.9</v>
       </c>
-      <c r="BA9">
+      <c r="BW9">
         <v>192.16</v>
       </c>
-      <c r="BB9">
+      <c r="BX9">
         <v>197.53</v>
       </c>
-      <c r="BC9">
+      <c r="BY9">
         <v>203.83</v>
       </c>
-      <c r="BD9">
+      <c r="BZ9">
         <v>210.22</v>
       </c>
-      <c r="BE9">
+      <c r="CA9">
         <v>220.4</v>
       </c>
-      <c r="BF9">
+      <c r="CB9">
         <v>229.05</v>
       </c>
-      <c r="BG9">
+      <c r="CC9">
         <v>238.11</v>
       </c>
-      <c r="BH9">
+      <c r="CD9">
         <v>252.01</v>
       </c>
-      <c r="BI9">
+      <c r="CE9">
         <v>252.01</v>
       </c>
-      <c r="BJ9">
+      <c r="CF9">
         <v>264.58999999999997</v>
       </c>
-      <c r="BK9">
+      <c r="CG9">
         <v>264.58999999999997</v>
       </c>
-      <c r="BL9">
+      <c r="CH9">
         <v>277.83</v>
       </c>
-      <c r="BM9">
+      <c r="CI9">
         <v>277.83</v>
       </c>
-      <c r="BN9">
+      <c r="CJ9">
         <v>291.75</v>
       </c>
-      <c r="BO9">
+      <c r="CK9">
         <v>291.75</v>
       </c>
-      <c r="BP9">
+      <c r="CL9">
         <v>182.43</v>
       </c>
-      <c r="BQ9">
+      <c r="CM9">
         <v>182.43</v>
       </c>
-      <c r="BR9">
+      <c r="CN9">
         <v>182.43</v>
       </c>
-      <c r="BS9">
+      <c r="CO9">
         <v>182.43</v>
       </c>
-      <c r="BT9">
+      <c r="CP9">
         <v>182.43</v>
       </c>
-      <c r="BU9">
+      <c r="CQ9">
         <v>182.43</v>
       </c>
-      <c r="BV9">
+      <c r="CR9">
         <v>182.43</v>
       </c>
-      <c r="BW9">
+      <c r="CS9">
         <v>186.56</v>
       </c>
-      <c r="BX9">
+      <c r="CT9">
         <v>191.78</v>
       </c>
-      <c r="BY9">
+      <c r="CU9">
         <v>197.89</v>
       </c>
-      <c r="BZ9">
+      <c r="CV9">
         <v>204.1</v>
       </c>
-      <c r="CA9">
+      <c r="CW9">
         <v>213.98</v>
       </c>
-      <c r="CB9">
+      <c r="CX9">
         <v>222.38</v>
       </c>
-      <c r="CC9">
+      <c r="CY9">
         <v>231.17</v>
       </c>
-      <c r="CD9">
+      <c r="CZ9">
         <v>244.67</v>
       </c>
-      <c r="CE9">
+      <c r="DA9">
         <v>244.67</v>
       </c>
-      <c r="CF9">
+      <c r="DB9">
         <v>256.88</v>
       </c>
-      <c r="CG9">
+      <c r="DC9">
         <v>256.88</v>
       </c>
-      <c r="CH9">
+      <c r="DD9">
         <v>269.74</v>
       </c>
-      <c r="CI9">
+      <c r="DE9">
         <v>269.74</v>
       </c>
-      <c r="CJ9">
+      <c r="DF9">
         <v>283.25</v>
       </c>
-      <c r="CK9">
+      <c r="DG9">
         <v>283.25</v>
       </c>
-      <c r="CL9">
+      <c r="DH9">
         <v>176.94</v>
       </c>
-      <c r="CM9">
+      <c r="DI9">
         <v>176.94</v>
       </c>
-      <c r="CN9">
+      <c r="DJ9">
         <v>176.94</v>
       </c>
-      <c r="CO9">
+      <c r="DK9">
         <v>176.94</v>
       </c>
-      <c r="CP9">
+      <c r="DL9">
         <v>176.94</v>
       </c>
-      <c r="CQ9">
+      <c r="DM9">
         <v>176.94</v>
       </c>
-      <c r="CR9">
+      <c r="DN9">
         <v>176.94</v>
       </c>
-      <c r="CS9">
+      <c r="DO9">
         <v>180.95</v>
       </c>
-      <c r="CT9">
+      <c r="DP9">
         <v>186.01</v>
       </c>
-      <c r="CU9">
+      <c r="DQ9">
         <v>191.94</v>
       </c>
-      <c r="CV9">
+      <c r="DR9">
         <v>197.96</v>
       </c>
-      <c r="CW9">
+      <c r="DS9">
         <v>207.55</v>
       </c>
-      <c r="CX9">
+      <c r="DT9">
         <v>215.69</v>
       </c>
-      <c r="CY9">
+      <c r="DU9">
         <v>224.22</v>
       </c>
-      <c r="CZ9">
+      <c r="DV9">
         <v>237.31</v>
       </c>
-      <c r="DA9">
+      <c r="DW9">
         <v>237.31</v>
       </c>
-      <c r="DB9">
+      <c r="DX9">
         <v>249.16</v>
       </c>
-      <c r="DC9">
+      <c r="DY9">
         <v>249.16</v>
       </c>
-      <c r="DD9">
+      <c r="DZ9">
         <v>261.63</v>
       </c>
-      <c r="DE9">
+      <c r="EA9">
         <v>261.63</v>
       </c>
-      <c r="DF9">
+      <c r="EB9">
         <v>274.73</v>
       </c>
-      <c r="DG9">
+      <c r="EC9">
         <v>274.73</v>
       </c>
     </row>
-    <row r="10" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>173.83</v>
+      </c>
+      <c r="C10">
+        <v>173.83</v>
+      </c>
+      <c r="D10">
+        <v>173.83</v>
+      </c>
+      <c r="E10">
+        <v>173.83</v>
+      </c>
+      <c r="F10">
+        <v>173.83</v>
+      </c>
+      <c r="G10">
+        <v>173.83</v>
+      </c>
+      <c r="H10" s="1">
+        <v>181.52</v>
+      </c>
+      <c r="I10" s="1">
+        <v>186.28</v>
+      </c>
+      <c r="J10" s="1">
+        <v>191.98</v>
+      </c>
+      <c r="K10" s="1">
+        <v>198.15</v>
+      </c>
+      <c r="L10" s="1">
+        <v>209.31</v>
+      </c>
+      <c r="M10" s="1">
+        <v>214.97</v>
+      </c>
+      <c r="N10" s="1">
+        <v>224.58</v>
+      </c>
+      <c r="O10" s="1">
+        <v>229.91</v>
+      </c>
+      <c r="P10" s="1">
+        <v>243.04</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>243.04</v>
+      </c>
+      <c r="R10" s="1">
+        <v>247.91</v>
+      </c>
+      <c r="S10" s="1">
+        <v>247.91</v>
+      </c>
+      <c r="T10" s="1">
+        <v>247.91</v>
+      </c>
+      <c r="U10" s="1">
+        <v>247.91</v>
+      </c>
+      <c r="V10" s="1">
+        <v>247.91</v>
+      </c>
+      <c r="W10" s="1">
+        <v>247.91</v>
+      </c>
+      <c r="X10">
         <v>165.24</v>
       </c>
-      <c r="C10">
+      <c r="Y10">
         <v>165.24</v>
       </c>
-      <c r="D10">
+      <c r="Z10">
         <v>165.24</v>
       </c>
-      <c r="E10">
+      <c r="AA10">
         <v>165.24</v>
       </c>
-      <c r="F10">
+      <c r="AB10">
         <v>165.24</v>
       </c>
-      <c r="G10">
+      <c r="AC10">
         <v>165.24</v>
       </c>
-      <c r="H10">
+      <c r="AD10">
         <v>172.55</v>
       </c>
-      <c r="I10">
+      <c r="AE10">
         <v>177.07</v>
       </c>
-      <c r="J10">
+      <c r="AF10">
         <v>182.49</v>
       </c>
-      <c r="K10">
+      <c r="AG10">
         <v>188.36</v>
       </c>
-      <c r="L10">
+      <c r="AH10">
         <v>198.96</v>
       </c>
-      <c r="M10">
+      <c r="AI10">
         <v>204.34</v>
       </c>
-      <c r="N10">
+      <c r="AJ10">
         <v>213.48</v>
       </c>
-      <c r="O10">
+      <c r="AK10">
         <v>218.55</v>
       </c>
-      <c r="P10">
+      <c r="AL10">
         <v>231.03</v>
       </c>
-      <c r="Q10">
+      <c r="AM10">
         <v>231.03</v>
       </c>
-      <c r="R10">
+      <c r="AN10">
         <v>235.66</v>
       </c>
-      <c r="S10">
+      <c r="AO10">
         <v>235.66</v>
       </c>
-      <c r="T10">
+      <c r="AP10">
         <v>235.66</v>
       </c>
-      <c r="U10">
+      <c r="AQ10">
         <v>235.66</v>
       </c>
-      <c r="V10">
+      <c r="AR10">
         <v>235.66</v>
       </c>
-      <c r="W10">
+      <c r="AS10">
         <v>235.66</v>
       </c>
-      <c r="X10">
+      <c r="AT10">
         <v>157.97</v>
       </c>
-      <c r="Y10">
+      <c r="AU10">
         <v>157.97</v>
       </c>
-      <c r="Z10">
+      <c r="AV10">
         <v>157.97</v>
       </c>
-      <c r="AA10">
+      <c r="AW10">
         <v>157.97</v>
       </c>
-      <c r="AB10">
+      <c r="AX10">
         <v>157.97</v>
       </c>
-      <c r="AC10">
+      <c r="AY10">
         <v>157.97</v>
       </c>
-      <c r="AD10">
+      <c r="AZ10">
         <v>164.96</v>
       </c>
-      <c r="AE10">
+      <c r="BA10">
         <v>169.28</v>
       </c>
-      <c r="AF10">
+      <c r="BB10">
         <v>174.46</v>
       </c>
-      <c r="AG10">
+      <c r="BC10">
         <v>180.08</v>
       </c>
-      <c r="AH10">
+      <c r="BD10">
         <v>190.21</v>
       </c>
-      <c r="AI10">
+      <c r="BE10">
         <v>195.35</v>
       </c>
-      <c r="AJ10">
+      <c r="BF10">
         <v>204.09</v>
       </c>
-      <c r="AK10">
+      <c r="BG10">
         <v>208.94</v>
       </c>
-      <c r="AL10">
+      <c r="BH10">
         <v>220.87</v>
       </c>
-      <c r="AM10">
+      <c r="BI10">
         <v>220.87</v>
       </c>
-      <c r="AN10">
+      <c r="BJ10">
         <v>225.3</v>
       </c>
-      <c r="AO10">
+      <c r="BK10">
         <v>225.3</v>
       </c>
-      <c r="AP10">
+      <c r="BL10">
         <v>225.3</v>
       </c>
-      <c r="AQ10">
+      <c r="BM10">
         <v>225.3</v>
       </c>
-      <c r="AR10">
+      <c r="BN10">
         <v>225.3</v>
       </c>
-      <c r="AS10">
+      <c r="BO10">
         <v>225.3</v>
       </c>
-      <c r="AT10">
+      <c r="BP10">
         <v>153.82</v>
       </c>
-      <c r="AU10">
+      <c r="BQ10">
         <v>153.82</v>
       </c>
-      <c r="AV10">
+      <c r="BR10">
         <v>153.82</v>
       </c>
-      <c r="AW10">
+      <c r="BS10">
         <v>153.82</v>
       </c>
-      <c r="AX10">
+      <c r="BT10">
         <v>153.82</v>
       </c>
-      <c r="AY10">
+      <c r="BU10">
         <v>153.82</v>
       </c>
-      <c r="AZ10">
+      <c r="BV10">
         <v>160.62</v>
       </c>
-      <c r="BA10">
+      <c r="BW10">
         <v>164.83</v>
       </c>
-      <c r="BB10">
+      <c r="BX10">
         <v>169.87</v>
       </c>
-      <c r="BC10">
+      <c r="BY10">
         <v>175.35</v>
       </c>
-      <c r="BD10">
+      <c r="BZ10">
         <v>185.21</v>
       </c>
-      <c r="BE10">
+      <c r="CA10">
         <v>190.21</v>
       </c>
-      <c r="BF10">
+      <c r="CB10">
         <v>198.72</v>
       </c>
-      <c r="BG10">
+      <c r="CC10">
         <v>203.45</v>
       </c>
-      <c r="BH10">
+      <c r="CD10">
         <v>215.06</v>
       </c>
-      <c r="BI10">
+      <c r="CE10">
         <v>215.06</v>
       </c>
-      <c r="BJ10">
+      <c r="CF10">
         <v>219.38</v>
       </c>
-      <c r="BK10">
+      <c r="CG10">
         <v>219.38</v>
       </c>
-      <c r="BL10">
+      <c r="CH10">
         <v>219.38</v>
       </c>
-      <c r="BM10">
+      <c r="CI10">
         <v>219.38</v>
       </c>
-      <c r="BN10">
+      <c r="CJ10">
         <v>219.38</v>
       </c>
-      <c r="BO10">
+      <c r="CK10">
         <v>219.38</v>
       </c>
-      <c r="BP10">
+      <c r="CL10">
         <v>149.34</v>
       </c>
-      <c r="BQ10">
+      <c r="CM10">
         <v>149.34</v>
       </c>
-      <c r="BR10">
+      <c r="CN10">
         <v>149.34</v>
       </c>
-      <c r="BS10">
+      <c r="CO10">
         <v>149.34</v>
       </c>
-      <c r="BT10">
+      <c r="CP10">
         <v>149.34</v>
       </c>
-      <c r="BU10">
+      <c r="CQ10">
         <v>149.34</v>
       </c>
-      <c r="BV10">
+      <c r="CR10">
         <v>155.94</v>
       </c>
-      <c r="BW10">
+      <c r="CS10">
         <v>160.03</v>
       </c>
-      <c r="BX10">
+      <c r="CT10">
         <v>164.92</v>
       </c>
-      <c r="BY10">
+      <c r="CU10">
         <v>170.24</v>
       </c>
-      <c r="BZ10">
+      <c r="CV10">
         <v>179.82</v>
       </c>
-      <c r="CA10">
+      <c r="CW10">
         <v>184.67</v>
       </c>
-      <c r="CB10">
+      <c r="CX10">
         <v>192.93</v>
       </c>
-      <c r="CC10">
+      <c r="CY10">
         <v>197.52</v>
       </c>
-      <c r="CD10">
+      <c r="CZ10">
         <v>208.8</v>
       </c>
-      <c r="CE10">
+      <c r="DA10">
         <v>208.8</v>
       </c>
-      <c r="CF10">
+      <c r="DB10">
         <v>212.99</v>
       </c>
-      <c r="CG10">
+      <c r="DC10">
         <v>212.99</v>
       </c>
-      <c r="CH10">
+      <c r="DD10">
         <v>212.99</v>
       </c>
-      <c r="CI10">
+      <c r="DE10">
         <v>212.99</v>
       </c>
-      <c r="CJ10">
+      <c r="DF10">
         <v>212.99</v>
       </c>
-      <c r="CK10">
+      <c r="DG10">
         <v>212.99</v>
       </c>
-      <c r="CL10">
+      <c r="DH10">
         <v>144.85</v>
       </c>
-      <c r="CM10">
+      <c r="DI10">
         <v>144.85</v>
       </c>
-      <c r="CN10">
+      <c r="DJ10">
         <v>144.85</v>
       </c>
-      <c r="CO10">
+      <c r="DK10">
         <v>144.85</v>
       </c>
-      <c r="CP10">
+      <c r="DL10">
         <v>144.85</v>
       </c>
-      <c r="CQ10">
+      <c r="DM10">
         <v>144.85</v>
       </c>
-      <c r="CR10">
+      <c r="DN10">
         <v>151.25</v>
       </c>
-      <c r="CS10">
+      <c r="DO10">
         <v>155.22</v>
       </c>
-      <c r="CT10">
+      <c r="DP10">
         <v>159.96</v>
       </c>
-      <c r="CU10">
+      <c r="DQ10">
         <v>165.12</v>
       </c>
-      <c r="CV10">
+      <c r="DR10">
         <v>174.41</v>
       </c>
-      <c r="CW10">
+      <c r="DS10">
         <v>179.12</v>
       </c>
-      <c r="CX10">
+      <c r="DT10">
         <v>187.13</v>
       </c>
-      <c r="CY10">
+      <c r="DU10">
         <v>191.58</v>
       </c>
-      <c r="CZ10">
+      <c r="DV10">
         <v>202.52</v>
       </c>
-      <c r="DA10">
+      <c r="DW10">
         <v>202.52</v>
       </c>
-      <c r="DB10">
+      <c r="DX10">
         <v>206.59</v>
       </c>
-      <c r="DC10">
+      <c r="DY10">
         <v>206.59</v>
       </c>
-      <c r="DD10">
+      <c r="DZ10">
         <v>206.59</v>
       </c>
-      <c r="DE10">
+      <c r="EA10">
         <v>206.59</v>
       </c>
-      <c r="DF10">
+      <c r="EB10">
         <v>206.59</v>
       </c>
-      <c r="DG10">
+      <c r="EC10">
         <v>206.59</v>
       </c>
     </row>
-    <row r="11" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
+        <v>120.83</v>
+      </c>
+      <c r="C11" s="1">
+        <v>131.88</v>
+      </c>
+      <c r="D11" s="1">
+        <v>136.94</v>
+      </c>
+      <c r="E11" s="1">
+        <v>143.61000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>148.85</v>
+      </c>
+      <c r="G11" s="1">
+        <v>157.82</v>
+      </c>
+      <c r="H11" s="1">
+        <v>162.88</v>
+      </c>
+      <c r="I11" s="1">
+        <v>171.84</v>
+      </c>
+      <c r="J11" s="1">
+        <v>179.31</v>
+      </c>
+      <c r="K11" s="1">
+        <v>184.41</v>
+      </c>
+      <c r="L11" s="1">
+        <v>189.83</v>
+      </c>
+      <c r="M11" s="1">
+        <v>191.93</v>
+      </c>
+      <c r="N11" s="1">
+        <v>198.99</v>
+      </c>
+      <c r="O11" s="1">
+        <v>202.77</v>
+      </c>
+      <c r="P11" s="1">
+        <v>217.19</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>217.19</v>
+      </c>
+      <c r="R11" s="1">
+        <v>217.19</v>
+      </c>
+      <c r="S11" s="1">
+        <v>217.19</v>
+      </c>
+      <c r="T11" s="1">
+        <v>217.19</v>
+      </c>
+      <c r="U11" s="1">
+        <v>217.19</v>
+      </c>
+      <c r="V11" s="1">
+        <v>217.19</v>
+      </c>
+      <c r="W11" s="1">
+        <v>217.19</v>
+      </c>
+      <c r="X11">
         <v>114.86</v>
       </c>
-      <c r="C11">
+      <c r="Y11">
         <v>125.36</v>
       </c>
-      <c r="D11">
+      <c r="Z11">
         <v>130.16999999999999</v>
       </c>
-      <c r="E11">
+      <c r="AA11">
         <v>136.51</v>
       </c>
-      <c r="F11">
+      <c r="AB11">
         <v>141.49</v>
       </c>
-      <c r="G11">
+      <c r="AC11">
         <v>150.02000000000001</v>
       </c>
-      <c r="H11">
+      <c r="AD11">
         <v>154.83000000000001</v>
       </c>
-      <c r="I11">
+      <c r="AE11">
         <v>163.35</v>
       </c>
-      <c r="J11">
+      <c r="AF11">
         <v>170.45</v>
       </c>
-      <c r="K11">
+      <c r="AG11">
         <v>175.29</v>
       </c>
-      <c r="L11">
+      <c r="AH11">
         <v>180.45</v>
       </c>
-      <c r="M11">
+      <c r="AI11">
         <v>182.44</v>
       </c>
-      <c r="N11">
+      <c r="AJ11">
         <v>189.15</v>
       </c>
-      <c r="O11">
+      <c r="AK11">
         <v>192.75</v>
       </c>
-      <c r="P11">
+      <c r="AL11">
         <v>206.45</v>
       </c>
-      <c r="Q11">
+      <c r="AM11">
         <v>206.45</v>
       </c>
-      <c r="R11">
+      <c r="AN11">
         <v>206.45</v>
       </c>
-      <c r="S11">
+      <c r="AO11">
         <v>206.45</v>
       </c>
-      <c r="T11">
+      <c r="AP11">
         <v>206.45</v>
       </c>
-      <c r="U11">
+      <c r="AQ11">
         <v>206.45</v>
       </c>
-      <c r="V11">
+      <c r="AR11">
         <v>206.45</v>
       </c>
-      <c r="W11">
+      <c r="AS11">
         <v>206.45</v>
       </c>
-      <c r="X11">
+      <c r="AT11">
         <v>109.81</v>
       </c>
-      <c r="Y11">
+      <c r="AU11">
         <v>119.85</v>
       </c>
-      <c r="Z11">
+      <c r="AV11">
         <v>124.45</v>
       </c>
-      <c r="AA11">
+      <c r="AW11">
         <v>130.51</v>
       </c>
-      <c r="AB11">
+      <c r="AX11">
         <v>135.27000000000001</v>
       </c>
-      <c r="AC11">
+      <c r="AY11">
         <v>143.41999999999999</v>
       </c>
-      <c r="AD11">
+      <c r="AZ11">
         <v>148.02000000000001</v>
       </c>
-      <c r="AE11">
+      <c r="BA11">
         <v>156.16999999999999</v>
       </c>
-      <c r="AF11">
+      <c r="BB11">
         <v>162.94999999999999</v>
       </c>
-      <c r="AG11">
+      <c r="BC11">
         <v>167.58</v>
       </c>
-      <c r="AH11">
+      <c r="BD11">
         <v>172.51</v>
       </c>
-      <c r="AI11">
+      <c r="BE11">
         <v>174.42</v>
       </c>
-      <c r="AJ11">
+      <c r="BF11">
         <v>180.83</v>
       </c>
-      <c r="AK11">
+      <c r="BG11">
         <v>184.27</v>
       </c>
-      <c r="AL11">
+      <c r="BH11">
         <v>197.37</v>
       </c>
-      <c r="AM11">
+      <c r="BI11">
         <v>197.37</v>
       </c>
-      <c r="AN11">
+      <c r="BJ11">
         <v>197.37</v>
       </c>
-      <c r="AO11">
+      <c r="BK11">
         <v>197.37</v>
       </c>
-      <c r="AP11">
+      <c r="BL11">
         <v>197.37</v>
       </c>
-      <c r="AQ11">
+      <c r="BM11">
         <v>197.37</v>
       </c>
-      <c r="AR11">
+      <c r="BN11">
         <v>197.37</v>
       </c>
-      <c r="AS11">
+      <c r="BO11">
         <v>197.37</v>
       </c>
-      <c r="AT11">
+      <c r="BP11">
         <v>106.92</v>
       </c>
-      <c r="AU11">
+      <c r="BQ11">
         <v>116.7</v>
       </c>
-      <c r="AV11">
+      <c r="BR11">
         <v>121.18</v>
       </c>
-      <c r="AW11">
+      <c r="BS11">
         <v>127.08</v>
       </c>
-      <c r="AX11">
+      <c r="BT11">
         <v>131.71</v>
       </c>
-      <c r="AY11">
+      <c r="BU11">
         <v>139.65</v>
       </c>
-      <c r="AZ11">
+      <c r="BV11">
         <v>144.13</v>
       </c>
-      <c r="BA11">
+      <c r="BW11">
         <v>152.06</v>
       </c>
-      <c r="BB11">
+      <c r="BX11">
         <v>158.66999999999999</v>
       </c>
-      <c r="BC11">
+      <c r="BY11">
         <v>163.16999999999999</v>
       </c>
-      <c r="BD11">
+      <c r="BZ11">
         <v>167.97</v>
       </c>
-      <c r="BE11">
+      <c r="CA11">
         <v>169.83</v>
       </c>
-      <c r="BF11">
+      <c r="CB11">
         <v>176.08</v>
       </c>
-      <c r="BG11">
+      <c r="CC11">
         <v>179.43</v>
       </c>
-      <c r="BH11">
+      <c r="CD11">
         <v>192.18</v>
       </c>
-      <c r="BI11">
+      <c r="CE11">
         <v>192.18</v>
       </c>
-      <c r="BJ11">
+      <c r="CF11">
         <v>192.18</v>
       </c>
-      <c r="BK11">
+      <c r="CG11">
         <v>192.18</v>
       </c>
-      <c r="BL11">
+      <c r="CH11">
         <v>192.18</v>
       </c>
-      <c r="BM11">
+      <c r="CI11">
         <v>192.18</v>
       </c>
-      <c r="BN11">
+      <c r="CJ11">
         <v>192.18</v>
       </c>
-      <c r="BO11">
+      <c r="CK11">
         <v>192.18</v>
       </c>
-      <c r="BP11">
+      <c r="CL11">
         <v>103.81</v>
       </c>
-      <c r="BQ11">
+      <c r="CM11">
         <v>113.3</v>
       </c>
-      <c r="BR11">
+      <c r="CN11">
         <v>117.65</v>
       </c>
-      <c r="BS11">
+      <c r="CO11">
         <v>123.38</v>
       </c>
-      <c r="BT11">
+      <c r="CP11">
         <v>127.87</v>
       </c>
-      <c r="BU11">
+      <c r="CQ11">
         <v>135.58000000000001</v>
       </c>
-      <c r="BV11">
+      <c r="CR11">
         <v>139.93</v>
       </c>
-      <c r="BW11">
+      <c r="CS11">
         <v>147.63</v>
       </c>
-      <c r="BX11">
+      <c r="CT11">
         <v>154.05000000000001</v>
       </c>
-      <c r="BY11">
+      <c r="CU11">
         <v>158.41999999999999</v>
       </c>
-      <c r="BZ11">
+      <c r="CV11">
         <v>163.08000000000001</v>
       </c>
-      <c r="CA11">
+      <c r="CW11">
         <v>164.88</v>
       </c>
-      <c r="CB11">
+      <c r="CX11">
         <v>170.95</v>
       </c>
-      <c r="CC11">
+      <c r="CY11">
         <v>174.2</v>
       </c>
-      <c r="CD11">
+      <c r="CZ11">
         <v>186.58</v>
       </c>
-      <c r="CE11">
+      <c r="DA11">
         <v>186.58</v>
       </c>
-      <c r="CF11">
+      <c r="DB11">
         <v>186.58</v>
       </c>
-      <c r="CG11">
+      <c r="DC11">
         <v>186.58</v>
       </c>
-      <c r="CH11">
+      <c r="DD11">
         <v>186.58</v>
       </c>
-      <c r="CI11">
+      <c r="DE11">
         <v>186.58</v>
       </c>
-      <c r="CJ11">
+      <c r="DF11">
         <v>186.58</v>
       </c>
-      <c r="CK11">
+      <c r="DG11">
         <v>186.58</v>
       </c>
-      <c r="CL11">
+      <c r="DH11">
         <v>100.69</v>
       </c>
-      <c r="CM11">
+      <c r="DI11">
         <v>109.89</v>
       </c>
-      <c r="CN11">
+      <c r="DJ11">
         <v>114.11</v>
       </c>
-      <c r="CO11">
+      <c r="DK11">
         <v>119.67</v>
       </c>
-      <c r="CP11">
+      <c r="DL11">
         <v>124.03</v>
       </c>
-      <c r="CQ11">
+      <c r="DM11">
         <v>131.5</v>
       </c>
-      <c r="CR11">
+      <c r="DN11">
         <v>135.72</v>
       </c>
-      <c r="CS11">
+      <c r="DO11">
         <v>143.19</v>
       </c>
-      <c r="CT11">
+      <c r="DP11">
         <v>149.41999999999999</v>
       </c>
-      <c r="CU11">
+      <c r="DQ11">
         <v>153.66</v>
       </c>
-      <c r="CV11">
+      <c r="DR11">
         <v>158.18</v>
       </c>
-      <c r="CW11">
+      <c r="DS11">
         <v>159.91999999999999</v>
       </c>
-      <c r="CX11">
+      <c r="DT11">
         <v>165.81</v>
       </c>
-      <c r="CY11">
+      <c r="DU11">
         <v>168.96</v>
       </c>
-      <c r="CZ11">
+      <c r="DV11">
         <v>180.97</v>
       </c>
-      <c r="DA11">
+      <c r="DW11">
         <v>180.97</v>
       </c>
-      <c r="DB11">
+      <c r="DX11">
         <v>180.97</v>
       </c>
-      <c r="DC11">
+      <c r="DY11">
         <v>180.97</v>
       </c>
-      <c r="DD11">
+      <c r="DZ11">
         <v>180.97</v>
       </c>
-      <c r="DE11">
+      <c r="EA11">
         <v>180.97</v>
       </c>
-      <c r="DF11">
+      <c r="EB11">
         <v>180.97</v>
       </c>
-      <c r="DG11">
+      <c r="EC11">
         <v>180.97</v>
       </c>
     </row>
-    <row r="12" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>104.52</v>
+      </c>
+      <c r="C12">
+        <v>115.02</v>
+      </c>
+      <c r="D12">
+        <v>120.1</v>
+      </c>
+      <c r="E12">
+        <v>125.03</v>
+      </c>
+      <c r="F12">
+        <v>130.16</v>
+      </c>
+      <c r="G12">
+        <v>141.75</v>
+      </c>
+      <c r="H12">
+        <v>146.26</v>
+      </c>
+      <c r="I12">
+        <v>154.99</v>
+      </c>
+      <c r="J12">
+        <v>157.66</v>
+      </c>
+      <c r="K12">
+        <v>159.6</v>
+      </c>
+      <c r="L12">
+        <v>161.88</v>
+      </c>
+      <c r="M12">
+        <v>161.88</v>
+      </c>
+      <c r="N12">
+        <v>161.88</v>
+      </c>
+      <c r="O12">
+        <v>161.88</v>
+      </c>
+      <c r="P12">
+        <v>161.88</v>
+      </c>
+      <c r="Q12">
+        <v>161.88</v>
+      </c>
+      <c r="R12">
+        <v>161.88</v>
+      </c>
+      <c r="S12">
+        <v>161.88</v>
+      </c>
+      <c r="T12">
+        <v>161.88</v>
+      </c>
+      <c r="U12">
+        <v>161.88</v>
+      </c>
+      <c r="V12">
+        <v>161.88</v>
+      </c>
+      <c r="W12">
+        <v>161.88</v>
+      </c>
+      <c r="X12">
         <v>99.35</v>
       </c>
-      <c r="C12">
+      <c r="Y12">
         <v>109.33</v>
       </c>
-      <c r="D12">
+      <c r="Z12">
         <v>114.16</v>
       </c>
-      <c r="E12">
+      <c r="AA12">
         <v>118.85</v>
       </c>
-      <c r="F12">
+      <c r="AB12">
         <v>123.73</v>
       </c>
-      <c r="G12">
+      <c r="AC12">
         <v>134.74</v>
       </c>
-      <c r="H12">
+      <c r="AD12">
         <v>139.03</v>
       </c>
-      <c r="I12">
+      <c r="AE12">
         <v>147.33000000000001</v>
       </c>
-      <c r="J12">
+      <c r="AF12">
         <v>149.87</v>
       </c>
-      <c r="K12">
+      <c r="AG12">
         <v>151.71</v>
       </c>
-      <c r="L12">
+      <c r="AH12">
         <v>153.88</v>
       </c>
-      <c r="M12">
+      <c r="AI12">
         <v>153.88</v>
       </c>
-      <c r="N12">
+      <c r="AJ12">
         <v>153.88</v>
       </c>
-      <c r="O12">
+      <c r="AK12">
         <v>153.88</v>
       </c>
-      <c r="P12">
+      <c r="AL12">
         <v>153.88</v>
       </c>
-      <c r="Q12">
+      <c r="AM12">
         <v>153.88</v>
       </c>
-      <c r="R12">
+      <c r="AN12">
         <v>153.88</v>
       </c>
-      <c r="S12">
+      <c r="AO12">
         <v>153.88</v>
       </c>
-      <c r="T12">
+      <c r="AP12">
         <v>153.88</v>
       </c>
-      <c r="U12">
+      <c r="AQ12">
         <v>153.88</v>
       </c>
-      <c r="V12">
+      <c r="AR12">
         <v>153.88</v>
       </c>
-      <c r="W12">
+      <c r="AS12">
         <v>153.88</v>
       </c>
-      <c r="X12">
+      <c r="AT12">
         <v>94.98</v>
       </c>
-      <c r="Y12">
+      <c r="AU12">
         <v>104.52</v>
       </c>
-      <c r="Z12">
+      <c r="AV12">
         <v>109.14</v>
       </c>
-      <c r="AA12">
+      <c r="AW12">
         <v>113.62</v>
       </c>
-      <c r="AB12">
+      <c r="AX12">
         <v>118.29</v>
       </c>
-      <c r="AC12">
+      <c r="AY12">
         <v>128.81</v>
       </c>
-      <c r="AD12">
+      <c r="AZ12">
         <v>132.91999999999999</v>
       </c>
-      <c r="AE12">
+      <c r="BA12">
         <v>140.85</v>
       </c>
-      <c r="AF12">
+      <c r="BB12">
         <v>143.28</v>
       </c>
-      <c r="AG12">
+      <c r="BC12">
         <v>145.04</v>
       </c>
-      <c r="AH12">
+      <c r="BD12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AI12">
+      <c r="BE12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AJ12">
+      <c r="BF12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AK12">
+      <c r="BG12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AL12">
+      <c r="BH12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AM12">
+      <c r="BI12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AN12">
+      <c r="BJ12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AO12">
+      <c r="BK12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AP12">
+      <c r="BL12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AQ12">
+      <c r="BM12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AR12">
+      <c r="BN12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AS12">
+      <c r="BO12">
         <v>147.11000000000001</v>
       </c>
-      <c r="AT12">
+      <c r="BP12">
         <v>92.48</v>
       </c>
-      <c r="AU12">
+      <c r="BQ12">
         <v>101.77</v>
       </c>
-      <c r="AV12">
+      <c r="BR12">
         <v>106.27</v>
       </c>
-      <c r="AW12">
+      <c r="BS12">
         <v>110.63</v>
       </c>
-      <c r="AX12">
+      <c r="BT12">
         <v>115.18</v>
       </c>
-      <c r="AY12">
+      <c r="BU12">
         <v>125.42</v>
       </c>
-      <c r="AZ12">
+      <c r="BV12">
         <v>129.43</v>
       </c>
-      <c r="BA12">
+      <c r="BW12">
         <v>137.15</v>
       </c>
-      <c r="BB12">
+      <c r="BX12">
         <v>139.51</v>
       </c>
-      <c r="BC12">
+      <c r="BY12">
         <v>141.22999999999999</v>
       </c>
-      <c r="BD12">
+      <c r="BZ12">
         <v>143.24</v>
       </c>
-      <c r="BE12">
+      <c r="CA12">
         <v>143.24</v>
       </c>
-      <c r="BF12">
+      <c r="CB12">
         <v>143.24</v>
       </c>
-      <c r="BG12">
+      <c r="CC12">
         <v>143.24</v>
       </c>
-      <c r="BH12">
+      <c r="CD12">
         <v>143.24</v>
       </c>
-      <c r="BI12">
+      <c r="CE12">
         <v>143.24</v>
       </c>
-      <c r="BJ12">
+      <c r="CF12">
         <v>143.24</v>
       </c>
-      <c r="BK12">
+      <c r="CG12">
         <v>143.24</v>
       </c>
-      <c r="BL12">
+      <c r="CH12">
         <v>143.24</v>
       </c>
-      <c r="BM12">
+      <c r="CI12">
         <v>143.24</v>
       </c>
-      <c r="BN12">
+      <c r="CJ12">
         <v>143.24</v>
       </c>
-      <c r="BO12">
+      <c r="CK12">
         <v>143.24</v>
       </c>
-      <c r="BP12">
+      <c r="CL12">
         <v>89.79</v>
       </c>
-      <c r="BQ12">
+      <c r="CM12">
         <v>98.81</v>
       </c>
-      <c r="BR12">
+      <c r="CN12">
         <v>103.17</v>
       </c>
-      <c r="BS12">
+      <c r="CO12">
         <v>107.41</v>
       </c>
-      <c r="BT12">
+      <c r="CP12">
         <v>111.83</v>
       </c>
-      <c r="BU12">
+      <c r="CQ12">
         <v>121.77</v>
       </c>
-      <c r="BV12">
+      <c r="CR12">
         <v>125.66</v>
       </c>
-      <c r="BW12">
+      <c r="CS12">
         <v>133.16</v>
       </c>
-      <c r="BX12">
+      <c r="CT12">
         <v>135.44999999999999</v>
       </c>
-      <c r="BY12">
+      <c r="CU12">
         <v>137.12</v>
       </c>
-      <c r="BZ12">
+      <c r="CV12">
         <v>139.07</v>
       </c>
-      <c r="CA12">
+      <c r="CW12">
         <v>139.07</v>
       </c>
-      <c r="CB12">
+      <c r="CX12">
         <v>139.07</v>
       </c>
-      <c r="CC12">
+      <c r="CY12">
         <v>139.07</v>
       </c>
-      <c r="CD12">
+      <c r="CZ12">
         <v>139.07</v>
       </c>
-      <c r="CE12">
+      <c r="DA12">
         <v>139.07</v>
       </c>
-      <c r="CF12">
+      <c r="DB12">
         <v>139.07</v>
       </c>
-      <c r="CG12">
+      <c r="DC12">
         <v>139.07</v>
       </c>
-      <c r="CH12">
+      <c r="DD12">
         <v>139.07</v>
       </c>
-      <c r="CI12">
+      <c r="DE12">
         <v>139.07</v>
       </c>
-      <c r="CJ12">
+      <c r="DF12">
         <v>139.07</v>
       </c>
-      <c r="CK12">
+      <c r="DG12">
         <v>139.07</v>
       </c>
-      <c r="CL12">
+      <c r="DH12">
         <v>87.09</v>
       </c>
-      <c r="CM12">
+      <c r="DI12">
         <v>95.84</v>
       </c>
-      <c r="CN12">
+      <c r="DJ12">
         <v>100.07</v>
       </c>
-      <c r="CO12">
+      <c r="DK12">
         <v>104.18</v>
       </c>
-      <c r="CP12">
+      <c r="DL12">
         <v>108.47</v>
       </c>
-      <c r="CQ12">
+      <c r="DM12">
         <v>118.11</v>
       </c>
-      <c r="CR12">
+      <c r="DN12">
         <v>121.88</v>
       </c>
-      <c r="CS12">
+      <c r="DO12">
         <v>129.16</v>
       </c>
-      <c r="CT12">
+      <c r="DP12">
         <v>131.38</v>
       </c>
-      <c r="CU12">
+      <c r="DQ12">
         <v>133</v>
       </c>
-      <c r="CV12">
+      <c r="DR12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CW12">
+      <c r="DS12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CX12">
+      <c r="DT12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CY12">
+      <c r="DU12">
         <v>134.88999999999999</v>
       </c>
-      <c r="CZ12">
+      <c r="DV12">
         <v>134.88999999999999</v>
       </c>
-      <c r="DA12">
+      <c r="DW12">
         <v>134.88999999999999</v>
       </c>
-      <c r="DB12">
+      <c r="DX12">
         <v>134.88999999999999</v>
       </c>
-      <c r="DC12">
+      <c r="DY12">
         <v>134.88999999999999</v>
       </c>
-      <c r="DD12">
+      <c r="DZ12">
         <v>134.88999999999999</v>
       </c>
-      <c r="DE12">
+      <c r="EA12">
         <v>134.88999999999999</v>
       </c>
-      <c r="DF12">
+      <c r="EB12">
         <v>134.88999999999999</v>
       </c>
-      <c r="DG12">
+      <c r="EC12">
         <v>134.88999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>95.74</v>
+      </c>
+      <c r="C13">
+        <v>102.19</v>
+      </c>
+      <c r="D13">
+        <v>107.14</v>
+      </c>
+      <c r="E13">
+        <v>112.19</v>
+      </c>
+      <c r="F13">
+        <v>120.06</v>
+      </c>
+      <c r="G13">
+        <v>128.29</v>
+      </c>
+      <c r="H13">
+        <v>135.07</v>
+      </c>
+      <c r="I13">
+        <v>135.88</v>
+      </c>
+      <c r="J13">
+        <v>135.88</v>
+      </c>
+      <c r="K13">
+        <v>135.88</v>
+      </c>
+      <c r="L13">
+        <v>135.88</v>
+      </c>
+      <c r="M13">
+        <v>135.88</v>
+      </c>
+      <c r="N13">
+        <v>135.88</v>
+      </c>
+      <c r="O13">
+        <v>135.88</v>
+      </c>
+      <c r="P13">
+        <v>135.88</v>
+      </c>
+      <c r="Q13">
+        <v>135.88</v>
+      </c>
+      <c r="R13">
+        <v>135.88</v>
+      </c>
+      <c r="S13">
+        <v>135.88</v>
+      </c>
+      <c r="T13">
+        <v>135.88</v>
+      </c>
+      <c r="U13">
+        <v>135.88</v>
+      </c>
+      <c r="V13">
+        <v>135.88</v>
+      </c>
+      <c r="W13">
+        <v>135.88</v>
+      </c>
+      <c r="X13">
         <v>91.01</v>
       </c>
-      <c r="C13">
+      <c r="Y13">
         <v>97.14</v>
       </c>
-      <c r="D13">
+      <c r="Z13">
         <v>101.84</v>
       </c>
-      <c r="E13">
+      <c r="AA13">
         <v>106.64</v>
       </c>
-      <c r="F13">
+      <c r="AB13">
         <v>114.13</v>
       </c>
-      <c r="G13">
+      <c r="AC13">
         <v>121.95</v>
       </c>
-      <c r="H13">
+      <c r="AD13">
         <v>128.38999999999999</v>
       </c>
-      <c r="I13">
+      <c r="AE13">
         <v>129.16</v>
       </c>
-      <c r="J13">
+      <c r="AF13">
         <v>129.16</v>
       </c>
-      <c r="K13">
+      <c r="AG13">
         <v>129.16</v>
       </c>
-      <c r="L13">
+      <c r="AH13">
         <v>129.16</v>
       </c>
-      <c r="M13">
+      <c r="AI13">
         <v>129.16</v>
       </c>
-      <c r="N13">
+      <c r="AJ13">
         <v>129.16</v>
       </c>
-      <c r="O13">
+      <c r="AK13">
         <v>129.16</v>
       </c>
-      <c r="P13">
+      <c r="AL13">
         <v>129.16</v>
       </c>
-      <c r="Q13">
+      <c r="AM13">
         <v>129.16</v>
       </c>
-      <c r="R13">
+      <c r="AN13">
         <v>129.16</v>
       </c>
-      <c r="S13">
+      <c r="AO13">
         <v>129.16</v>
       </c>
-      <c r="T13">
+      <c r="AP13">
         <v>129.16</v>
       </c>
-      <c r="U13">
+      <c r="AQ13">
         <v>129.16</v>
       </c>
-      <c r="V13">
+      <c r="AR13">
         <v>129.16</v>
       </c>
-      <c r="W13">
+      <c r="AS13">
         <v>129.16</v>
       </c>
-      <c r="X13">
+      <c r="AT13">
         <v>87.01</v>
       </c>
-      <c r="Y13">
+      <c r="AU13">
         <v>92.87</v>
       </c>
-      <c r="Z13">
+      <c r="AV13">
         <v>97.36</v>
       </c>
-      <c r="AA13">
+      <c r="AW13">
         <v>101.95</v>
       </c>
-      <c r="AB13">
+      <c r="AX13">
         <v>109.11</v>
       </c>
-      <c r="AC13">
+      <c r="AY13">
         <v>116.59</v>
       </c>
-      <c r="AD13">
+      <c r="AZ13">
         <v>122.74</v>
       </c>
-      <c r="AE13">
+      <c r="BA13">
         <v>123.48</v>
       </c>
-      <c r="AF13">
+      <c r="BB13">
         <v>123.48</v>
       </c>
-      <c r="AG13">
+      <c r="BC13">
         <v>123.48</v>
       </c>
-      <c r="AH13">
+      <c r="BD13">
         <v>123.48</v>
       </c>
-      <c r="AI13">
+      <c r="BE13">
         <v>123.48</v>
       </c>
-      <c r="AJ13">
+      <c r="BF13">
         <v>123.48</v>
       </c>
-      <c r="AK13">
+      <c r="BG13">
         <v>123.48</v>
       </c>
-      <c r="AL13">
+      <c r="BH13">
         <v>123.48</v>
       </c>
-      <c r="AM13">
+      <c r="BI13">
         <v>123.48</v>
       </c>
-      <c r="AN13">
+      <c r="BJ13">
         <v>123.48</v>
       </c>
-      <c r="AO13">
+      <c r="BK13">
         <v>123.48</v>
       </c>
-      <c r="AP13">
+      <c r="BL13">
         <v>123.48</v>
       </c>
-      <c r="AQ13">
+      <c r="BM13">
         <v>123.48</v>
       </c>
-      <c r="AR13">
+      <c r="BN13">
         <v>123.48</v>
       </c>
-      <c r="AS13">
+      <c r="BO13">
         <v>123.48</v>
       </c>
-      <c r="AT13">
+      <c r="BP13">
         <v>84.72</v>
       </c>
-      <c r="AU13">
+      <c r="BQ13">
         <v>90.43</v>
       </c>
-      <c r="AV13">
+      <c r="BR13">
         <v>94.8</v>
       </c>
-      <c r="AW13">
+      <c r="BS13">
         <v>99.27</v>
       </c>
-      <c r="AX13">
+      <c r="BT13">
         <v>106.24</v>
       </c>
-      <c r="AY13">
+      <c r="BU13">
         <v>113.52</v>
       </c>
-      <c r="AZ13">
+      <c r="BV13">
         <v>119.51</v>
       </c>
-      <c r="BA13">
+      <c r="BW13">
         <v>120.23</v>
       </c>
-      <c r="BB13">
+      <c r="BX13">
         <v>120.23</v>
       </c>
-      <c r="BC13">
+      <c r="BY13">
         <v>120.23</v>
       </c>
-      <c r="BD13">
+      <c r="BZ13">
         <v>120.23</v>
       </c>
-      <c r="BE13">
+      <c r="CA13">
         <v>120.23</v>
       </c>
-      <c r="BF13">
+      <c r="CB13">
         <v>120.23</v>
       </c>
-      <c r="BG13">
+      <c r="CC13">
         <v>120.23</v>
       </c>
-      <c r="BH13">
+      <c r="CD13">
         <v>120.23</v>
       </c>
-      <c r="BI13">
+      <c r="CE13">
         <v>120.23</v>
       </c>
-      <c r="BJ13">
+      <c r="CF13">
         <v>120.23</v>
       </c>
-      <c r="BK13">
+      <c r="CG13">
         <v>120.23</v>
       </c>
-      <c r="BL13">
+      <c r="CH13">
         <v>120.23</v>
       </c>
-      <c r="BM13">
+      <c r="CI13">
         <v>120.23</v>
       </c>
-      <c r="BN13">
+      <c r="CJ13">
         <v>120.23</v>
       </c>
-      <c r="BO13">
+      <c r="CK13">
         <v>120.23</v>
       </c>
-      <c r="BP13">
+      <c r="CL13">
         <v>82.25</v>
       </c>
-      <c r="BQ13">
+      <c r="CM13">
         <v>87.8</v>
       </c>
-      <c r="BR13">
+      <c r="CN13">
         <v>92.04</v>
       </c>
-      <c r="BS13">
+      <c r="CO13">
         <v>96.38</v>
       </c>
-      <c r="BT13">
+      <c r="CP13">
         <v>103.15</v>
       </c>
-      <c r="BU13">
+      <c r="CQ13">
         <v>110.21</v>
       </c>
-      <c r="BV13">
+      <c r="CR13">
         <v>116.03</v>
       </c>
-      <c r="BW13">
+      <c r="CS13">
         <v>116.73</v>
       </c>
-      <c r="BX13">
+      <c r="CT13">
         <v>116.73</v>
       </c>
-      <c r="BY13">
+      <c r="CU13">
         <v>116.73</v>
       </c>
-      <c r="BZ13">
+      <c r="CV13">
         <v>116.73</v>
       </c>
-      <c r="CA13">
+      <c r="CW13">
         <v>116.73</v>
       </c>
-      <c r="CB13">
+      <c r="CX13">
         <v>116.73</v>
       </c>
-      <c r="CC13">
+      <c r="CY13">
         <v>116.73</v>
       </c>
-      <c r="CD13">
+      <c r="CZ13">
         <v>116.73</v>
       </c>
-      <c r="CE13">
+      <c r="DA13">
         <v>116.73</v>
       </c>
-      <c r="CF13">
+      <c r="DB13">
         <v>116.73</v>
       </c>
-      <c r="CG13">
+      <c r="DC13">
         <v>116.73</v>
       </c>
-      <c r="CH13">
+      <c r="DD13">
         <v>116.73</v>
       </c>
-      <c r="CI13">
+      <c r="DE13">
         <v>116.73</v>
       </c>
-      <c r="CJ13">
+      <c r="DF13">
         <v>116.73</v>
       </c>
-      <c r="CK13">
+      <c r="DG13">
         <v>116.73</v>
       </c>
-      <c r="CL13">
+      <c r="DH13">
         <v>79.78</v>
       </c>
-      <c r="CM13">
+      <c r="DI13">
         <v>85.16</v>
       </c>
-      <c r="CN13">
+      <c r="DJ13">
         <v>89.27</v>
       </c>
-      <c r="CO13">
+      <c r="DK13">
         <v>93.48</v>
       </c>
-      <c r="CP13">
+      <c r="DL13">
         <v>100.05</v>
       </c>
-      <c r="CQ13">
+      <c r="DM13">
         <v>106.9</v>
       </c>
-      <c r="CR13">
+      <c r="DN13">
         <v>112.54</v>
       </c>
-      <c r="CS13">
+      <c r="DO13">
         <v>113.22</v>
       </c>
-      <c r="CT13">
+      <c r="DP13">
         <v>113.22</v>
       </c>
-      <c r="CU13">
+      <c r="DQ13">
         <v>113.22</v>
       </c>
-      <c r="CV13">
+      <c r="DR13">
         <v>113.22</v>
       </c>
-      <c r="CW13">
+      <c r="DS13">
         <v>113.22</v>
       </c>
-      <c r="CX13">
+      <c r="DT13">
         <v>113.22</v>
       </c>
-      <c r="CY13">
+      <c r="DU13">
         <v>113.22</v>
       </c>
-      <c r="CZ13">
+      <c r="DV13">
         <v>113.22</v>
       </c>
-      <c r="DA13">
+      <c r="DW13">
         <v>113.22</v>
       </c>
-      <c r="DB13">
+      <c r="DX13">
         <v>113.22</v>
       </c>
-      <c r="DC13">
+      <c r="DY13">
         <v>113.22</v>
       </c>
-      <c r="DD13">
+      <c r="DZ13">
         <v>113.22</v>
       </c>
-      <c r="DE13">
+      <c r="EA13">
         <v>113.22</v>
       </c>
-      <c r="DF13">
+      <c r="EB13">
         <v>113.22</v>
       </c>
-      <c r="DG13">
+      <c r="EC13">
         <v>113.22</v>
       </c>
     </row>
-    <row r="14" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>87.79</v>
+      </c>
+      <c r="C14">
+        <v>92.28</v>
+      </c>
+      <c r="D14">
+        <v>97.28</v>
+      </c>
+      <c r="E14">
+        <v>102.21</v>
+      </c>
+      <c r="F14">
+        <v>106.58</v>
+      </c>
+      <c r="G14">
+        <v>106.58</v>
+      </c>
+      <c r="H14">
+        <v>106.58</v>
+      </c>
+      <c r="I14">
+        <v>106.58</v>
+      </c>
+      <c r="J14">
+        <v>106.58</v>
+      </c>
+      <c r="K14">
+        <v>106.58</v>
+      </c>
+      <c r="L14">
+        <v>106.58</v>
+      </c>
+      <c r="M14">
+        <v>106.58</v>
+      </c>
+      <c r="N14">
+        <v>106.58</v>
+      </c>
+      <c r="O14">
+        <v>106.58</v>
+      </c>
+      <c r="P14">
+        <v>106.58</v>
+      </c>
+      <c r="Q14">
+        <v>106.58</v>
+      </c>
+      <c r="R14">
+        <v>106.58</v>
+      </c>
+      <c r="S14">
+        <v>106.58</v>
+      </c>
+      <c r="T14">
+        <v>106.58</v>
+      </c>
+      <c r="U14">
+        <v>106.58</v>
+      </c>
+      <c r="V14">
+        <v>106.58</v>
+      </c>
+      <c r="W14">
+        <v>106.58</v>
+      </c>
+      <c r="X14">
         <v>83.45</v>
       </c>
-      <c r="C14">
+      <c r="Y14">
         <v>87.72</v>
       </c>
-      <c r="D14">
+      <c r="Z14">
         <v>92.47</v>
       </c>
-      <c r="E14">
+      <c r="AA14">
         <v>97.16</v>
       </c>
-      <c r="F14">
+      <c r="AB14">
         <v>101.31</v>
       </c>
-      <c r="G14">
+      <c r="AC14">
         <v>101.31</v>
       </c>
-      <c r="H14">
+      <c r="AD14">
         <v>101.31</v>
       </c>
-      <c r="I14">
+      <c r="AE14">
         <v>101.31</v>
       </c>
-      <c r="J14">
+      <c r="AF14">
         <v>101.31</v>
       </c>
-      <c r="K14">
+      <c r="AG14">
         <v>101.31</v>
       </c>
-      <c r="L14">
+      <c r="AH14">
         <v>101.31</v>
       </c>
-      <c r="M14">
+      <c r="AI14">
         <v>101.31</v>
       </c>
-      <c r="N14">
+      <c r="AJ14">
         <v>101.31</v>
       </c>
-      <c r="O14">
+      <c r="AK14">
         <v>101.31</v>
       </c>
-      <c r="P14">
+      <c r="AL14">
         <v>101.31</v>
       </c>
-      <c r="Q14">
+      <c r="AM14">
         <v>101.31</v>
       </c>
-      <c r="R14">
+      <c r="AN14">
         <v>101.31</v>
       </c>
-      <c r="S14">
+      <c r="AO14">
         <v>101.31</v>
       </c>
-      <c r="T14">
+      <c r="AP14">
         <v>101.31</v>
       </c>
-      <c r="U14">
+      <c r="AQ14">
         <v>101.31</v>
       </c>
-      <c r="V14">
+      <c r="AR14">
         <v>101.31</v>
       </c>
-      <c r="W14">
+      <c r="AS14">
         <v>101.31</v>
       </c>
-      <c r="X14">
+      <c r="AT14">
         <v>79.78</v>
       </c>
-      <c r="Y14">
+      <c r="AU14">
         <v>83.86</v>
       </c>
-      <c r="Z14">
+      <c r="AV14">
         <v>88.4</v>
       </c>
-      <c r="AA14">
+      <c r="AW14">
         <v>92.89</v>
       </c>
-      <c r="AB14">
+      <c r="AX14">
         <v>96.85</v>
       </c>
-      <c r="AC14">
+      <c r="AY14">
         <v>96.85</v>
       </c>
-      <c r="AD14">
+      <c r="AZ14">
         <v>96.85</v>
       </c>
-      <c r="AE14">
+      <c r="BA14">
         <v>96.85</v>
       </c>
-      <c r="AF14">
+      <c r="BB14">
         <v>96.85</v>
       </c>
-      <c r="AG14">
+      <c r="BC14">
         <v>96.85</v>
       </c>
-      <c r="AH14">
+      <c r="BD14">
         <v>96.85</v>
       </c>
-      <c r="AI14">
+      <c r="BE14">
         <v>96.85</v>
       </c>
-      <c r="AJ14">
+      <c r="BF14">
         <v>96.85</v>
       </c>
-      <c r="AK14">
+      <c r="BG14">
         <v>96.85</v>
       </c>
-      <c r="AL14">
+      <c r="BH14">
         <v>96.85</v>
       </c>
-      <c r="AM14">
+      <c r="BI14">
         <v>96.85</v>
       </c>
-      <c r="AN14">
+      <c r="BJ14">
         <v>96.85</v>
       </c>
-      <c r="AO14">
+      <c r="BK14">
         <v>96.85</v>
       </c>
-      <c r="AP14">
+      <c r="BL14">
         <v>96.85</v>
       </c>
-      <c r="AQ14">
+      <c r="BM14">
         <v>96.85</v>
       </c>
-      <c r="AR14">
+      <c r="BN14">
         <v>96.85</v>
       </c>
-      <c r="AS14">
+      <c r="BO14">
         <v>96.85</v>
       </c>
-      <c r="AT14">
+      <c r="BP14">
         <v>77.680000000000007</v>
       </c>
-      <c r="AU14">
+      <c r="BQ14">
         <v>81.66</v>
       </c>
-      <c r="AV14">
+      <c r="BR14">
         <v>86.08</v>
       </c>
-      <c r="AW14">
+      <c r="BS14">
         <v>90.45</v>
       </c>
-      <c r="AX14">
+      <c r="BT14">
         <v>94.3</v>
       </c>
-      <c r="AY14">
+      <c r="BU14">
         <v>94.3</v>
       </c>
-      <c r="AZ14">
+      <c r="BV14">
         <v>94.3</v>
       </c>
-      <c r="BA14">
+      <c r="BW14">
         <v>94.3</v>
       </c>
-      <c r="BB14">
+      <c r="BX14">
         <v>94.3</v>
       </c>
-      <c r="BC14">
+      <c r="BY14">
         <v>94.3</v>
       </c>
-      <c r="BD14">
+      <c r="BZ14">
         <v>94.3</v>
       </c>
-      <c r="BE14">
+      <c r="CA14">
         <v>94.3</v>
       </c>
-      <c r="BF14">
+      <c r="CB14">
         <v>94.3</v>
       </c>
-      <c r="BG14">
+      <c r="CC14">
         <v>94.3</v>
       </c>
-      <c r="BH14">
+      <c r="CD14">
         <v>94.3</v>
       </c>
-      <c r="BI14">
+      <c r="CE14">
         <v>94.3</v>
       </c>
-      <c r="BJ14">
+      <c r="CF14">
         <v>94.3</v>
       </c>
-      <c r="BK14">
+      <c r="CG14">
         <v>94.3</v>
       </c>
-      <c r="BL14">
+      <c r="CH14">
         <v>94.3</v>
       </c>
-      <c r="BM14">
+      <c r="CI14">
         <v>94.3</v>
       </c>
-      <c r="BN14">
+      <c r="CJ14">
         <v>94.3</v>
       </c>
-      <c r="BO14">
+      <c r="CK14">
         <v>94.3</v>
       </c>
-      <c r="BP14">
+      <c r="CL14">
         <v>75.42</v>
       </c>
-      <c r="BQ14">
+      <c r="CM14">
         <v>79.28</v>
       </c>
-      <c r="BR14">
+      <c r="CN14">
         <v>83.57</v>
       </c>
-      <c r="BS14">
+      <c r="CO14">
         <v>87.82</v>
       </c>
-      <c r="BT14">
+      <c r="CP14">
         <v>91.55</v>
       </c>
-      <c r="BU14">
+      <c r="CQ14">
         <v>91.55</v>
       </c>
-      <c r="BV14">
+      <c r="CR14">
         <v>91.55</v>
       </c>
-      <c r="BW14">
+      <c r="CS14">
         <v>91.55</v>
       </c>
-      <c r="BX14">
+      <c r="CT14">
         <v>91.55</v>
       </c>
-      <c r="BY14">
+      <c r="CU14">
         <v>91.55</v>
       </c>
-      <c r="BZ14">
+      <c r="CV14">
         <v>91.55</v>
       </c>
-      <c r="CA14">
+      <c r="CW14">
         <v>91.55</v>
       </c>
-      <c r="CB14">
+      <c r="CX14">
         <v>91.55</v>
       </c>
-      <c r="CC14">
+      <c r="CY14">
         <v>91.55</v>
       </c>
-      <c r="CD14">
+      <c r="CZ14">
         <v>91.55</v>
       </c>
-      <c r="CE14">
+      <c r="DA14">
         <v>91.55</v>
       </c>
-      <c r="CF14">
+      <c r="DB14">
         <v>91.55</v>
       </c>
-      <c r="CG14">
+      <c r="DC14">
         <v>91.55</v>
       </c>
-      <c r="CH14">
+      <c r="DD14">
         <v>91.55</v>
       </c>
-      <c r="CI14">
+      <c r="DE14">
         <v>91.55</v>
       </c>
-      <c r="CJ14">
+      <c r="DF14">
         <v>91.55</v>
       </c>
-      <c r="CK14">
+      <c r="DG14">
         <v>91.55</v>
       </c>
-      <c r="CL14">
+      <c r="DH14">
         <v>73.150000000000006</v>
       </c>
-      <c r="CM14">
+      <c r="DI14">
         <v>76.900000000000006</v>
       </c>
-      <c r="CN14">
+      <c r="DJ14">
         <v>81.06</v>
       </c>
-      <c r="CO14">
+      <c r="DK14">
         <v>85.18</v>
       </c>
-      <c r="CP14">
+      <c r="DL14">
         <v>88.8</v>
       </c>
-      <c r="CQ14">
+      <c r="DM14">
         <v>88.8</v>
       </c>
-      <c r="CR14">
+      <c r="DN14">
         <v>88.8</v>
       </c>
-      <c r="CS14">
+      <c r="DO14">
         <v>88.8</v>
       </c>
-      <c r="CT14">
+      <c r="DP14">
         <v>88.8</v>
       </c>
-      <c r="CU14">
+      <c r="DQ14">
         <v>88.8</v>
       </c>
-      <c r="CV14">
+      <c r="DR14">
         <v>88.8</v>
       </c>
-      <c r="CW14">
+      <c r="DS14">
         <v>88.8</v>
       </c>
-      <c r="CX14">
+      <c r="DT14">
         <v>88.8</v>
       </c>
-      <c r="CY14">
+      <c r="DU14">
         <v>88.8</v>
       </c>
-      <c r="CZ14">
+      <c r="DV14">
         <v>88.8</v>
       </c>
-      <c r="DA14">
+      <c r="DW14">
         <v>88.8</v>
       </c>
-      <c r="DB14">
+      <c r="DX14">
         <v>88.8</v>
       </c>
-      <c r="DC14">
+      <c r="DY14">
         <v>88.8</v>
       </c>
-      <c r="DD14">
+      <c r="DZ14">
         <v>88.8</v>
       </c>
-      <c r="DE14">
+      <c r="EA14">
         <v>88.8</v>
       </c>
-      <c r="DF14">
+      <c r="EB14">
         <v>88.8</v>
       </c>
-      <c r="DG14">
+      <c r="EC14">
         <v>88.8</v>
       </c>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
+        <v>79.25</v>
+      </c>
+      <c r="C15">
+        <v>84.23</v>
+      </c>
+      <c r="D15">
+        <v>89.34</v>
+      </c>
+      <c r="E15">
+        <v>89.34</v>
+      </c>
+      <c r="F15">
+        <v>89.34</v>
+      </c>
+      <c r="G15">
+        <v>89.34</v>
+      </c>
+      <c r="H15">
+        <v>89.34</v>
+      </c>
+      <c r="I15">
+        <v>89.34</v>
+      </c>
+      <c r="J15">
+        <v>89.34</v>
+      </c>
+      <c r="K15">
+        <v>89.34</v>
+      </c>
+      <c r="L15">
+        <v>89.34</v>
+      </c>
+      <c r="M15">
+        <v>89.34</v>
+      </c>
+      <c r="N15">
+        <v>89.34</v>
+      </c>
+      <c r="O15">
+        <v>89.34</v>
+      </c>
+      <c r="P15">
+        <v>89.34</v>
+      </c>
+      <c r="Q15">
+        <v>89.34</v>
+      </c>
+      <c r="R15">
+        <v>89.34</v>
+      </c>
+      <c r="S15">
+        <v>89.34</v>
+      </c>
+      <c r="T15">
+        <v>89.34</v>
+      </c>
+      <c r="U15">
+        <v>89.34</v>
+      </c>
+      <c r="V15">
+        <v>89.34</v>
+      </c>
+      <c r="W15">
+        <v>89.34</v>
+      </c>
+      <c r="X15">
         <v>75.33</v>
       </c>
-      <c r="C15">
+      <c r="Y15">
         <v>80.069999999999993</v>
       </c>
-      <c r="D15">
+      <c r="Z15">
         <v>84.92</v>
       </c>
-      <c r="E15">
+      <c r="AA15">
         <v>84.92</v>
       </c>
-      <c r="F15">
+      <c r="AB15">
         <v>84.92</v>
       </c>
-      <c r="G15">
+      <c r="AC15">
         <v>84.92</v>
       </c>
-      <c r="H15">
+      <c r="AD15">
         <v>84.92</v>
       </c>
-      <c r="I15">
+      <c r="AE15">
         <v>84.92</v>
       </c>
-      <c r="J15">
+      <c r="AF15">
         <v>84.92</v>
       </c>
-      <c r="K15">
+      <c r="AG15">
         <v>84.92</v>
       </c>
-      <c r="L15">
+      <c r="AH15">
         <v>84.92</v>
       </c>
-      <c r="M15">
+      <c r="AI15">
         <v>84.92</v>
       </c>
-      <c r="N15">
+      <c r="AJ15">
         <v>84.92</v>
       </c>
-      <c r="O15">
+      <c r="AK15">
         <v>84.92</v>
       </c>
-      <c r="P15">
+      <c r="AL15">
         <v>84.92</v>
       </c>
-      <c r="Q15">
+      <c r="AM15">
         <v>84.92</v>
       </c>
-      <c r="R15">
+      <c r="AN15">
         <v>84.92</v>
       </c>
-      <c r="S15">
+      <c r="AO15">
         <v>84.92</v>
       </c>
-      <c r="T15">
+      <c r="AP15">
         <v>84.92</v>
       </c>
-      <c r="U15">
+      <c r="AQ15">
         <v>84.92</v>
       </c>
-      <c r="V15">
+      <c r="AR15">
         <v>84.92</v>
       </c>
-      <c r="W15">
+      <c r="AS15">
         <v>84.92</v>
       </c>
-      <c r="X15">
+      <c r="AT15">
         <v>72.02</v>
       </c>
-      <c r="Y15">
+      <c r="AU15">
         <v>76.55</v>
       </c>
-      <c r="Z15">
+      <c r="AV15">
         <v>81.19</v>
       </c>
-      <c r="AA15">
+      <c r="AW15">
         <v>81.19</v>
       </c>
-      <c r="AB15">
+      <c r="AX15">
         <v>81.19</v>
       </c>
-      <c r="AC15">
+      <c r="AY15">
         <v>81.19</v>
       </c>
-      <c r="AD15">
+      <c r="AZ15">
         <v>81.19</v>
       </c>
-      <c r="AE15">
+      <c r="BA15">
         <v>81.19</v>
       </c>
-      <c r="AF15">
+      <c r="BB15">
         <v>81.19</v>
       </c>
-      <c r="AG15">
+      <c r="BC15">
         <v>81.19</v>
       </c>
-      <c r="AH15">
+      <c r="BD15">
         <v>81.19</v>
       </c>
-      <c r="AI15">
+      <c r="BE15">
         <v>81.19</v>
       </c>
-      <c r="AJ15">
+      <c r="BF15">
         <v>81.19</v>
       </c>
-      <c r="AK15">
+      <c r="BG15">
         <v>81.19</v>
       </c>
-      <c r="AL15">
+      <c r="BH15">
         <v>81.19</v>
       </c>
-      <c r="AM15">
+      <c r="BI15">
         <v>81.19</v>
       </c>
-      <c r="AN15">
+      <c r="BJ15">
         <v>81.19</v>
       </c>
-      <c r="AO15">
+      <c r="BK15">
         <v>81.19</v>
       </c>
-      <c r="AP15">
+      <c r="BL15">
         <v>81.19</v>
       </c>
-      <c r="AQ15">
+      <c r="BM15">
         <v>81.19</v>
       </c>
-      <c r="AR15">
+      <c r="BN15">
         <v>81.19</v>
       </c>
-      <c r="AS15">
+      <c r="BO15">
         <v>81.19</v>
       </c>
-      <c r="AT15">
+      <c r="BP15">
         <v>70.13</v>
       </c>
-      <c r="AU15">
+      <c r="BQ15">
         <v>74.540000000000006</v>
       </c>
-      <c r="AV15">
+      <c r="BR15">
         <v>79.06</v>
       </c>
-      <c r="AW15">
+      <c r="BS15">
         <v>79.06</v>
       </c>
-      <c r="AX15">
+      <c r="BT15">
         <v>79.06</v>
       </c>
-      <c r="AY15">
+      <c r="BU15">
         <v>79.06</v>
       </c>
-      <c r="AZ15">
+      <c r="BV15">
         <v>79.06</v>
       </c>
-      <c r="BA15">
+      <c r="BW15">
         <v>79.06</v>
       </c>
-      <c r="BB15">
+      <c r="BX15">
         <v>79.06</v>
       </c>
-      <c r="BC15">
+      <c r="BY15">
         <v>79.06</v>
       </c>
-      <c r="BD15">
+      <c r="BZ15">
         <v>79.06</v>
       </c>
-      <c r="BE15">
+      <c r="CA15">
         <v>79.06</v>
       </c>
-      <c r="BF15">
+      <c r="CB15">
         <v>79.06</v>
       </c>
-      <c r="BG15">
+      <c r="CC15">
         <v>79.06</v>
       </c>
-      <c r="BH15">
+      <c r="CD15">
         <v>79.06</v>
       </c>
-      <c r="BI15">
+      <c r="CE15">
         <v>79.06</v>
       </c>
-      <c r="BJ15">
+      <c r="CF15">
         <v>79.06</v>
       </c>
-      <c r="BK15">
+      <c r="CG15">
         <v>79.06</v>
       </c>
-      <c r="BL15">
+      <c r="CH15">
         <v>79.06</v>
       </c>
-      <c r="BM15">
+      <c r="CI15">
         <v>79.06</v>
       </c>
-      <c r="BN15">
+      <c r="CJ15">
         <v>79.06</v>
       </c>
-      <c r="BO15">
+      <c r="CK15">
         <v>79.06</v>
       </c>
-      <c r="BP15">
+      <c r="CL15">
         <v>68.09</v>
       </c>
-      <c r="BQ15">
+      <c r="CM15">
         <v>72.37</v>
       </c>
-      <c r="BR15">
+      <c r="CN15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BS15">
+      <c r="CO15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BT15">
+      <c r="CP15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BU15">
+      <c r="CQ15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BV15">
+      <c r="CR15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BW15">
+      <c r="CS15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BX15">
+      <c r="CT15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BY15">
+      <c r="CU15">
         <v>76.760000000000005</v>
       </c>
-      <c r="BZ15">
+      <c r="CV15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CA15">
+      <c r="CW15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CB15">
+      <c r="CX15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CC15">
+      <c r="CY15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CD15">
+      <c r="CZ15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CE15">
+      <c r="DA15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CF15">
+      <c r="DB15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CG15">
+      <c r="DC15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CH15">
+      <c r="DD15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CI15">
+      <c r="DE15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CJ15">
+      <c r="DF15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CK15">
+      <c r="DG15">
         <v>76.760000000000005</v>
       </c>
-      <c r="CL15">
+      <c r="DH15">
         <v>66.040000000000006</v>
       </c>
-      <c r="CM15">
+      <c r="DI15">
         <v>70.19</v>
       </c>
-      <c r="CN15">
+      <c r="DJ15">
         <v>74.45</v>
       </c>
-      <c r="CO15">
+      <c r="DK15">
         <v>74.45</v>
       </c>
-      <c r="CP15">
+      <c r="DL15">
         <v>74.45</v>
       </c>
-      <c r="CQ15">
+      <c r="DM15">
         <v>74.45</v>
       </c>
-      <c r="CR15">
+      <c r="DN15">
         <v>74.45</v>
       </c>
-      <c r="CS15">
+      <c r="DO15">
         <v>74.45</v>
       </c>
-      <c r="CT15">
+      <c r="DP15">
         <v>74.45</v>
       </c>
-      <c r="CU15">
+      <c r="DQ15">
         <v>74.45</v>
       </c>
-      <c r="CV15">
+      <c r="DR15">
         <v>74.45</v>
       </c>
-      <c r="CW15">
+      <c r="DS15">
         <v>74.45</v>
       </c>
-      <c r="CX15">
+      <c r="DT15">
         <v>74.45</v>
       </c>
-      <c r="CY15">
+      <c r="DU15">
         <v>74.45</v>
       </c>
-      <c r="CZ15">
+      <c r="DV15">
         <v>74.45</v>
       </c>
-      <c r="DA15">
+      <c r="DW15">
         <v>74.45</v>
       </c>
-      <c r="DB15">
+      <c r="DX15">
         <v>74.45</v>
       </c>
-      <c r="DC15">
+      <c r="DY15">
         <v>74.45</v>
       </c>
-      <c r="DD15">
+      <c r="DZ15">
         <v>74.45</v>
       </c>
-      <c r="DE15">
+      <c r="EA15">
         <v>74.45</v>
       </c>
-      <c r="DF15">
+      <c r="EB15">
         <v>74.45</v>
       </c>
-      <c r="DG15">
+      <c r="EC15">
         <v>74.45</v>
       </c>
     </row>
-    <row r="16" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
+        <v>75.37</v>
+      </c>
+      <c r="C16">
+        <v>75.37</v>
+      </c>
+      <c r="D16">
+        <v>75.37</v>
+      </c>
+      <c r="E16">
+        <v>75.37</v>
+      </c>
+      <c r="F16">
+        <v>75.37</v>
+      </c>
+      <c r="G16">
+        <v>75.37</v>
+      </c>
+      <c r="H16">
+        <v>75.37</v>
+      </c>
+      <c r="I16">
+        <v>75.37</v>
+      </c>
+      <c r="J16">
+        <v>75.37</v>
+      </c>
+      <c r="K16">
+        <v>75.37</v>
+      </c>
+      <c r="L16">
+        <v>75.37</v>
+      </c>
+      <c r="M16">
+        <v>75.37</v>
+      </c>
+      <c r="N16">
+        <v>75.37</v>
+      </c>
+      <c r="O16">
+        <v>75.37</v>
+      </c>
+      <c r="P16">
+        <v>75.37</v>
+      </c>
+      <c r="Q16">
+        <v>75.37</v>
+      </c>
+      <c r="R16">
+        <v>75.37</v>
+      </c>
+      <c r="S16">
+        <v>75.37</v>
+      </c>
+      <c r="T16">
+        <v>75.37</v>
+      </c>
+      <c r="U16">
+        <v>75.37</v>
+      </c>
+      <c r="V16">
+        <v>75.37</v>
+      </c>
+      <c r="W16">
+        <v>75.37</v>
+      </c>
+      <c r="X16">
         <v>71.64</v>
       </c>
-      <c r="C16">
+      <c r="Y16">
         <v>71.64</v>
       </c>
-      <c r="D16">
+      <c r="Z16">
         <v>71.64</v>
       </c>
-      <c r="E16">
+      <c r="AA16">
         <v>71.64</v>
       </c>
-      <c r="F16">
+      <c r="AB16">
         <v>71.64</v>
       </c>
-      <c r="G16">
+      <c r="AC16">
         <v>71.64</v>
       </c>
-      <c r="H16">
+      <c r="AD16">
         <v>71.64</v>
       </c>
-      <c r="I16">
+      <c r="AE16">
         <v>71.64</v>
       </c>
-      <c r="J16">
+      <c r="AF16">
         <v>71.64</v>
       </c>
-      <c r="K16">
+      <c r="AG16">
         <v>71.64</v>
       </c>
-      <c r="L16">
+      <c r="AH16">
         <v>71.64</v>
       </c>
-      <c r="M16">
+      <c r="AI16">
         <v>71.64</v>
       </c>
-      <c r="N16">
+      <c r="AJ16">
         <v>71.64</v>
       </c>
-      <c r="O16">
+      <c r="AK16">
         <v>71.64</v>
       </c>
-      <c r="P16">
+      <c r="AL16">
         <v>71.64</v>
       </c>
-      <c r="Q16">
+      <c r="AM16">
         <v>71.64</v>
       </c>
-      <c r="R16">
+      <c r="AN16">
         <v>71.64</v>
       </c>
-      <c r="S16">
+      <c r="AO16">
         <v>71.64</v>
       </c>
-      <c r="T16">
+      <c r="AP16">
         <v>71.64</v>
       </c>
-      <c r="U16">
+      <c r="AQ16">
         <v>71.64</v>
       </c>
-      <c r="V16">
+      <c r="AR16">
         <v>71.64</v>
       </c>
-      <c r="W16">
+      <c r="AS16">
         <v>71.64</v>
       </c>
-      <c r="X16">
+      <c r="AT16">
         <v>68.489999999999995</v>
       </c>
-      <c r="Y16">
+      <c r="AU16">
         <v>68.489999999999995</v>
       </c>
-      <c r="Z16">
+      <c r="AV16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AA16">
+      <c r="AW16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AB16">
+      <c r="AX16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AC16">
+      <c r="AY16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AD16">
+      <c r="AZ16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AE16">
+      <c r="BA16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AF16">
+      <c r="BB16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AG16">
+      <c r="BC16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AH16">
+      <c r="BD16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AI16">
+      <c r="BE16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AJ16">
+      <c r="BF16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AK16">
+      <c r="BG16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AL16">
+      <c r="BH16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AM16">
+      <c r="BI16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AN16">
+      <c r="BJ16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AO16">
+      <c r="BK16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AP16">
+      <c r="BL16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AQ16">
+      <c r="BM16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AR16">
+      <c r="BN16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AS16">
+      <c r="BO16">
         <v>68.489999999999995</v>
       </c>
-      <c r="AT16">
+      <c r="BP16">
         <v>66.69</v>
       </c>
-      <c r="AU16">
+      <c r="BQ16">
         <v>66.69</v>
       </c>
-      <c r="AV16">
+      <c r="BR16">
         <v>66.69</v>
       </c>
-      <c r="AW16">
+      <c r="BS16">
         <v>66.69</v>
       </c>
-      <c r="AX16">
+      <c r="BT16">
         <v>66.69</v>
       </c>
-      <c r="AY16">
+      <c r="BU16">
         <v>66.69</v>
       </c>
-      <c r="AZ16">
+      <c r="BV16">
         <v>66.69</v>
       </c>
-      <c r="BA16">
+      <c r="BW16">
         <v>66.69</v>
       </c>
-      <c r="BB16">
+      <c r="BX16">
         <v>66.69</v>
       </c>
-      <c r="BC16">
+      <c r="BY16">
         <v>66.69</v>
       </c>
-      <c r="BD16">
+      <c r="BZ16">
         <v>66.69</v>
       </c>
-      <c r="BE16">
+      <c r="CA16">
         <v>66.69</v>
       </c>
-      <c r="BF16">
+      <c r="CB16">
         <v>66.69</v>
       </c>
-      <c r="BG16">
+      <c r="CC16">
         <v>66.69</v>
       </c>
-      <c r="BH16">
+      <c r="CD16">
         <v>66.69</v>
       </c>
-      <c r="BI16">
+      <c r="CE16">
         <v>66.69</v>
       </c>
-      <c r="BJ16">
+      <c r="CF16">
         <v>66.69</v>
       </c>
-      <c r="BK16">
+      <c r="CG16">
         <v>66.69</v>
       </c>
-      <c r="BL16">
+      <c r="CH16">
         <v>66.69</v>
       </c>
-      <c r="BM16">
+      <c r="CI16">
         <v>66.69</v>
       </c>
-      <c r="BN16">
+      <c r="CJ16">
         <v>66.69</v>
       </c>
-      <c r="BO16">
+      <c r="CK16">
         <v>66.69</v>
       </c>
-      <c r="BP16">
+      <c r="CL16">
         <v>64.75</v>
       </c>
-      <c r="BQ16">
+      <c r="CM16">
         <v>64.75</v>
       </c>
-      <c r="BR16">
+      <c r="CN16">
         <v>64.75</v>
       </c>
-      <c r="BS16">
+      <c r="CO16">
         <v>64.75</v>
       </c>
-      <c r="BT16">
+      <c r="CP16">
         <v>64.75</v>
       </c>
-      <c r="BU16">
+      <c r="CQ16">
         <v>64.75</v>
       </c>
-      <c r="BV16">
+      <c r="CR16">
         <v>64.75</v>
       </c>
-      <c r="BW16">
+      <c r="CS16">
         <v>64.75</v>
       </c>
-      <c r="BX16">
+      <c r="CT16">
         <v>64.75</v>
       </c>
-      <c r="BY16">
+      <c r="CU16">
         <v>64.75</v>
       </c>
-      <c r="BZ16">
+      <c r="CV16">
         <v>64.75</v>
       </c>
-      <c r="CA16">
+      <c r="CW16">
         <v>64.75</v>
       </c>
-      <c r="CB16">
+      <c r="CX16">
         <v>64.75</v>
       </c>
-      <c r="CC16">
+      <c r="CY16">
         <v>64.75</v>
       </c>
-      <c r="CD16">
+      <c r="CZ16">
         <v>64.75</v>
       </c>
-      <c r="CE16">
+      <c r="DA16">
         <v>64.75</v>
       </c>
-      <c r="CF16">
+      <c r="DB16">
         <v>64.75</v>
       </c>
-      <c r="CG16">
+      <c r="DC16">
         <v>64.75</v>
       </c>
-      <c r="CH16">
+      <c r="DD16">
         <v>64.75</v>
       </c>
-      <c r="CI16">
+      <c r="DE16">
         <v>64.75</v>
       </c>
-      <c r="CJ16">
+      <c r="DF16">
         <v>64.75</v>
       </c>
-      <c r="CK16">
+      <c r="DG16">
         <v>64.75</v>
       </c>
-      <c r="CL16">
+      <c r="DH16">
         <v>62.8</v>
       </c>
-      <c r="CM16">
+      <c r="DI16">
         <v>62.8</v>
       </c>
-      <c r="CN16">
+      <c r="DJ16">
         <v>62.8</v>
       </c>
-      <c r="CO16">
+      <c r="DK16">
         <v>62.8</v>
       </c>
-      <c r="CP16">
+      <c r="DL16">
         <v>62.8</v>
       </c>
-      <c r="CQ16">
+      <c r="DM16">
         <v>62.8</v>
       </c>
-      <c r="CR16">
+      <c r="DN16">
         <v>62.8</v>
       </c>
-      <c r="CS16">
+      <c r="DO16">
         <v>62.8</v>
       </c>
-      <c r="CT16">
+      <c r="DP16">
         <v>62.8</v>
       </c>
-      <c r="CU16">
+      <c r="DQ16">
         <v>62.8</v>
       </c>
-      <c r="CV16">
+      <c r="DR16">
         <v>62.8</v>
       </c>
-      <c r="CW16">
+      <c r="DS16">
         <v>62.8</v>
       </c>
-      <c r="CX16">
+      <c r="DT16">
         <v>62.8</v>
       </c>
-      <c r="CY16">
+      <c r="DU16">
         <v>62.8</v>
       </c>
-      <c r="CZ16">
+      <c r="DV16">
         <v>62.8</v>
       </c>
-      <c r="DA16">
+      <c r="DW16">
         <v>62.8</v>
       </c>
-      <c r="DB16">
+      <c r="DX16">
         <v>62.8</v>
       </c>
-      <c r="DC16">
+      <c r="DY16">
         <v>62.8</v>
       </c>
-      <c r="DD16">
+      <c r="DZ16">
         <v>62.8</v>
       </c>
-      <c r="DE16">
+      <c r="EA16">
         <v>62.8</v>
       </c>
-      <c r="DF16">
+      <c r="EB16">
         <v>62.8</v>
       </c>
-      <c r="DG16">
+      <c r="EC16">
         <v>62.8</v>
       </c>
     </row>
-    <row r="17" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="C17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="D17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="E17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="F17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="G17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="H17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="I17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="J17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="K17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="L17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="M17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="N17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="O17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="P17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="Q17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="R17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="S17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="T17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="U17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="V17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="W17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="X17">
         <v>59.1</v>
       </c>
-      <c r="C17">
+      <c r="Y17">
         <v>63.92</v>
       </c>
-      <c r="D17">
+      <c r="Z17">
         <v>63.92</v>
       </c>
-      <c r="E17">
+      <c r="AA17">
         <v>63.92</v>
       </c>
-      <c r="F17">
+      <c r="AB17">
         <v>63.92</v>
       </c>
-      <c r="G17">
+      <c r="AC17">
         <v>63.92</v>
       </c>
-      <c r="H17">
+      <c r="AD17">
         <v>63.92</v>
       </c>
-      <c r="I17">
+      <c r="AE17">
         <v>63.92</v>
       </c>
-      <c r="J17">
+      <c r="AF17">
         <v>63.92</v>
       </c>
-      <c r="K17">
+      <c r="AG17">
         <v>63.92</v>
       </c>
-      <c r="L17">
+      <c r="AH17">
         <v>63.92</v>
       </c>
-      <c r="M17">
+      <c r="AI17">
         <v>63.92</v>
       </c>
-      <c r="N17">
+      <c r="AJ17">
         <v>63.92</v>
       </c>
-      <c r="O17">
+      <c r="AK17">
         <v>63.92</v>
       </c>
-      <c r="P17">
+      <c r="AL17">
         <v>63.92</v>
       </c>
-      <c r="Q17">
+      <c r="AM17">
         <v>63.92</v>
       </c>
-      <c r="R17">
+      <c r="AN17">
         <v>63.92</v>
       </c>
-      <c r="S17">
+      <c r="AO17">
         <v>63.92</v>
       </c>
-      <c r="T17">
+      <c r="AP17">
         <v>63.92</v>
       </c>
-      <c r="U17">
+      <c r="AQ17">
         <v>63.92</v>
       </c>
-      <c r="V17">
+      <c r="AR17">
         <v>63.92</v>
       </c>
-      <c r="W17">
+      <c r="AS17">
         <v>63.92</v>
       </c>
-      <c r="X17">
+      <c r="AT17">
         <v>61.11</v>
       </c>
-      <c r="Y17">
+      <c r="AU17">
         <v>61.11</v>
       </c>
-      <c r="Z17">
+      <c r="AV17">
         <v>61.11</v>
       </c>
-      <c r="AA17">
+      <c r="AW17">
         <v>61.11</v>
       </c>
-      <c r="AB17">
+      <c r="AX17">
         <v>61.11</v>
       </c>
-      <c r="AC17">
+      <c r="AY17">
         <v>61.11</v>
       </c>
-      <c r="AD17">
+      <c r="AZ17">
         <v>61.11</v>
       </c>
-      <c r="AE17">
+      <c r="BA17">
         <v>61.11</v>
       </c>
-      <c r="AF17">
+      <c r="BB17">
         <v>61.11</v>
       </c>
-      <c r="AG17">
+      <c r="BC17">
         <v>61.11</v>
       </c>
-      <c r="AH17">
+      <c r="BD17">
         <v>61.11</v>
       </c>
-      <c r="AI17">
+      <c r="BE17">
         <v>61.11</v>
       </c>
-      <c r="AJ17">
+      <c r="BF17">
         <v>61.11</v>
       </c>
-      <c r="AK17">
+      <c r="BG17">
         <v>61.11</v>
       </c>
-      <c r="AL17">
+      <c r="BH17">
         <v>61.11</v>
       </c>
-      <c r="AM17">
+      <c r="BI17">
         <v>61.11</v>
       </c>
-      <c r="AN17">
+      <c r="BJ17">
         <v>61.11</v>
       </c>
-      <c r="AO17">
+      <c r="BK17">
         <v>61.11</v>
       </c>
-      <c r="AP17">
+      <c r="BL17">
         <v>61.11</v>
       </c>
-      <c r="AQ17">
+      <c r="BM17">
         <v>61.11</v>
       </c>
-      <c r="AR17">
+      <c r="BN17">
         <v>61.11</v>
       </c>
-      <c r="AS17">
+      <c r="BO17">
         <v>61.11</v>
       </c>
-      <c r="AT17">
+      <c r="BP17">
         <v>59.5</v>
       </c>
-      <c r="AU17">
+      <c r="BQ17">
         <v>59.5</v>
       </c>
-      <c r="AV17">
+      <c r="BR17">
         <v>59.5</v>
       </c>
-      <c r="AW17">
+      <c r="BS17">
         <v>59.5</v>
       </c>
-      <c r="AX17">
+      <c r="BT17">
         <v>59.5</v>
       </c>
-      <c r="AY17">
+      <c r="BU17">
         <v>59.5</v>
       </c>
-      <c r="AZ17">
+      <c r="BV17">
         <v>59.5</v>
       </c>
-      <c r="BA17">
+      <c r="BW17">
         <v>59.5</v>
       </c>
-      <c r="BB17">
+      <c r="BX17">
         <v>59.5</v>
       </c>
-      <c r="BC17">
+      <c r="BY17">
         <v>59.5</v>
       </c>
-      <c r="BD17">
+      <c r="BZ17">
         <v>59.5</v>
       </c>
-      <c r="BE17">
+      <c r="CA17">
         <v>59.5</v>
       </c>
-      <c r="BF17">
+      <c r="CB17">
         <v>59.5</v>
       </c>
-      <c r="BG17">
+      <c r="CC17">
         <v>59.5</v>
       </c>
-      <c r="BH17">
+      <c r="CD17">
         <v>59.5</v>
       </c>
-      <c r="BI17">
+      <c r="CE17">
         <v>59.5</v>
       </c>
-      <c r="BJ17">
+      <c r="CF17">
         <v>59.5</v>
       </c>
-      <c r="BK17">
+      <c r="CG17">
         <v>59.5</v>
       </c>
-      <c r="BL17">
+      <c r="CH17">
         <v>59.5</v>
       </c>
-      <c r="BM17">
+      <c r="CI17">
         <v>59.5</v>
       </c>
-      <c r="BN17">
+      <c r="CJ17">
         <v>59.5</v>
       </c>
-      <c r="BO17">
+      <c r="CK17">
         <v>59.5</v>
       </c>
-      <c r="BP17">
+      <c r="CL17">
         <v>57.77</v>
       </c>
-      <c r="BQ17">
+      <c r="CM17">
         <v>57.77</v>
       </c>
-      <c r="BR17">
+      <c r="CN17">
         <v>57.77</v>
       </c>
-      <c r="BS17">
+      <c r="CO17">
         <v>57.77</v>
       </c>
-      <c r="BT17">
+      <c r="CP17">
         <v>57.77</v>
       </c>
-      <c r="BU17">
+      <c r="CQ17">
         <v>57.77</v>
       </c>
-      <c r="BV17">
+      <c r="CR17">
         <v>57.77</v>
       </c>
-      <c r="BW17">
+      <c r="CS17">
         <v>57.77</v>
       </c>
-      <c r="BX17">
+      <c r="CT17">
         <v>57.77</v>
       </c>
-      <c r="BY17">
+      <c r="CU17">
         <v>57.77</v>
       </c>
-      <c r="BZ17">
+      <c r="CV17">
         <v>57.77</v>
       </c>
-      <c r="CA17">
+      <c r="CW17">
         <v>57.77</v>
       </c>
-      <c r="CB17">
+      <c r="CX17">
         <v>57.77</v>
       </c>
-      <c r="CC17">
+      <c r="CY17">
         <v>57.77</v>
       </c>
-      <c r="CD17">
+      <c r="CZ17">
         <v>57.77</v>
       </c>
-      <c r="CE17">
+      <c r="DA17">
         <v>57.77</v>
       </c>
-      <c r="CF17">
+      <c r="DB17">
         <v>57.77</v>
       </c>
-      <c r="CG17">
+      <c r="DC17">
         <v>57.77</v>
       </c>
-      <c r="CH17">
+      <c r="DD17">
         <v>57.77</v>
       </c>
-      <c r="CI17">
+      <c r="DE17">
         <v>57.77</v>
       </c>
-      <c r="CJ17">
+      <c r="DF17">
         <v>57.77</v>
       </c>
-      <c r="CK17">
+      <c r="DG17">
         <v>57.77</v>
       </c>
-      <c r="CL17">
+      <c r="DH17">
         <v>56.03</v>
       </c>
-      <c r="CM17">
+      <c r="DI17">
         <v>56.03</v>
       </c>
-      <c r="CN17">
+      <c r="DJ17">
         <v>56.03</v>
       </c>
-      <c r="CO17">
+      <c r="DK17">
         <v>56.03</v>
       </c>
-      <c r="CP17">
+      <c r="DL17">
         <v>56.03</v>
       </c>
-      <c r="CQ17">
+      <c r="DM17">
         <v>56.03</v>
       </c>
-      <c r="CR17">
+      <c r="DN17">
         <v>56.03</v>
       </c>
-      <c r="CS17">
+      <c r="DO17">
         <v>56.03</v>
       </c>
-      <c r="CT17">
+      <c r="DP17">
         <v>56.03</v>
       </c>
-      <c r="CU17">
+      <c r="DQ17">
         <v>56.03</v>
       </c>
-      <c r="CV17">
+      <c r="DR17">
         <v>56.03</v>
       </c>
-      <c r="CW17">
+      <c r="DS17">
         <v>56.03</v>
       </c>
-      <c r="CX17">
+      <c r="DT17">
         <v>56.03</v>
       </c>
-      <c r="CY17">
+      <c r="DU17">
         <v>56.03</v>
       </c>
-      <c r="CZ17">
+      <c r="DV17">
         <v>56.03</v>
       </c>
-      <c r="DA17">
+      <c r="DW17">
         <v>56.03</v>
       </c>
-      <c r="DB17">
+      <c r="DX17">
         <v>56.03</v>
       </c>
-      <c r="DC17">
+      <c r="DY17">
         <v>56.03</v>
       </c>
-      <c r="DD17">
+      <c r="DZ17">
         <v>56.03</v>
       </c>
-      <c r="DE17">
+      <c r="EA17">
         <v>56.03</v>
       </c>
-      <c r="DF17">
+      <c r="EB17">
         <v>56.03</v>
       </c>
-      <c r="DG17">
+      <c r="EC17">
         <v>56.03</v>
       </c>
+    </row>
+    <row r="22" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="EZ22" s="1"/>
+    </row>
+    <row r="26" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+    </row>
+    <row r="27" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+    </row>
+    <row r="28" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+    </row>
+    <row r="30" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="EZ30" s="1"/>
+    </row>
+    <row r="31" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="EZ31" s="1"/>
+    </row>
+    <row r="32" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="EZ32" s="1"/>
+    </row>
+    <row r="33" spans="134:156" x14ac:dyDescent="0.25">
+      <c r="EZ33" s="1"/>
+    </row>
+    <row r="44" spans="134:156" x14ac:dyDescent="0.25">
+      <c r="EH44" s="1"/>
+      <c r="EI44" s="1"/>
+      <c r="EJ44" s="1"/>
+      <c r="EK44" s="1"/>
+      <c r="EL44" s="1"/>
+      <c r="EM44" s="1"/>
+      <c r="EN44" s="1"/>
+      <c r="EO44" s="1"/>
+      <c r="EP44" s="1"/>
+      <c r="EQ44" s="1"/>
+      <c r="ER44" s="1"/>
+      <c r="ES44" s="1"/>
+      <c r="ET44" s="1"/>
+      <c r="EU44" s="1"/>
+      <c r="EV44" s="1"/>
+      <c r="EW44" s="1"/>
+      <c r="EX44" s="1"/>
+      <c r="EY44" s="1"/>
+    </row>
+    <row r="45" spans="134:156" x14ac:dyDescent="0.25">
+      <c r="ED45" s="1"/>
+      <c r="EE45" s="1"/>
+      <c r="EF45" s="1"/>
+      <c r="EG45" s="1"/>
+      <c r="EH45" s="1"/>
+      <c r="EI45" s="1"/>
+      <c r="EJ45" s="1"/>
+      <c r="EK45" s="1"/>
+      <c r="EL45" s="1"/>
+      <c r="EM45" s="1"/>
+      <c r="EN45" s="1"/>
+      <c r="EO45" s="1"/>
+      <c r="EP45" s="1"/>
+      <c r="EQ45" s="1"/>
+      <c r="ER45" s="1"/>
+      <c r="ES45" s="1"/>
+      <c r="ET45" s="1"/>
+      <c r="EU45" s="1"/>
+      <c r="EV45" s="1"/>
+      <c r="EW45" s="1"/>
+      <c r="EX45" s="1"/>
+      <c r="EY45" s="1"/>
+    </row>
+    <row r="46" spans="134:156" x14ac:dyDescent="0.25">
+      <c r="ED46" s="1"/>
+      <c r="EE46" s="1"/>
+      <c r="EF46" s="1"/>
+      <c r="EG46" s="1"/>
+      <c r="EH46" s="1"/>
+      <c r="EI46" s="1"/>
+      <c r="EJ46" s="1"/>
+      <c r="EK46" s="1"/>
+      <c r="EL46" s="1"/>
+      <c r="EM46" s="1"/>
+      <c r="EN46" s="1"/>
+      <c r="EO46" s="1"/>
+      <c r="EP46" s="1"/>
+      <c r="EQ46" s="1"/>
+      <c r="ER46" s="1"/>
+      <c r="ES46" s="1"/>
+      <c r="ET46" s="1"/>
+      <c r="EU46" s="1"/>
+      <c r="EV46" s="1"/>
+      <c r="EW46" s="1"/>
+      <c r="EX46" s="1"/>
+      <c r="EY46" s="1"/>
+    </row>
+    <row r="47" spans="134:156" x14ac:dyDescent="0.25">
+      <c r="ED47" s="1"/>
+      <c r="EE47" s="1"/>
+      <c r="EF47" s="1"/>
+      <c r="EG47" s="1"/>
+      <c r="EH47" s="1"/>
+      <c r="EI47" s="1"/>
+      <c r="EJ47" s="1"/>
+      <c r="EK47" s="1"/>
+      <c r="EL47" s="1"/>
+      <c r="EM47" s="1"/>
+      <c r="EN47" s="1"/>
+      <c r="EO47" s="1"/>
+      <c r="EP47" s="1"/>
+      <c r="EQ47" s="1"/>
+      <c r="ER47" s="1"/>
+      <c r="ES47" s="1"/>
+      <c r="ET47" s="1"/>
+      <c r="EU47" s="1"/>
+      <c r="EV47" s="1"/>
+      <c r="EW47" s="1"/>
+      <c r="EX47" s="1"/>
+      <c r="EY47" s="1"/>
+    </row>
+    <row r="49" spans="134:155" x14ac:dyDescent="0.25">
+      <c r="ED49" s="1"/>
+      <c r="EE49" s="1"/>
+      <c r="EF49" s="1"/>
+      <c r="EG49" s="1"/>
+      <c r="EH49" s="1"/>
+      <c r="EI49" s="1"/>
+      <c r="EJ49" s="1"/>
+      <c r="EK49" s="1"/>
+      <c r="EL49" s="1"/>
+      <c r="EM49" s="1"/>
+      <c r="EN49" s="1"/>
+      <c r="EO49" s="1"/>
+      <c r="EP49" s="1"/>
+      <c r="EQ49" s="1"/>
+      <c r="ER49" s="1"/>
+      <c r="ES49" s="1"/>
+      <c r="ET49" s="1"/>
+      <c r="EU49" s="1"/>
+      <c r="EV49" s="1"/>
+      <c r="EW49" s="1"/>
+      <c r="EX49" s="1"/>
+      <c r="EY49" s="1"/>
+    </row>
+    <row r="51" spans="134:155" x14ac:dyDescent="0.25">
+      <c r="ED51" s="1"/>
+      <c r="EE51" s="1"/>
+      <c r="EF51" s="1"/>
+      <c r="EG51" s="1"/>
+      <c r="EH51" s="1"/>
+      <c r="EI51" s="1"/>
+      <c r="EJ51" s="1"/>
+      <c r="EK51" s="1"/>
+      <c r="EL51" s="1"/>
+      <c r="EM51" s="1"/>
+      <c r="EN51" s="1"/>
+      <c r="EO51" s="1"/>
+      <c r="EP51" s="1"/>
+      <c r="EQ51" s="1"/>
+      <c r="ER51" s="1"/>
+      <c r="ES51" s="1"/>
+      <c r="ET51" s="1"/>
+      <c r="EU51" s="1"/>
+      <c r="EV51" s="1"/>
+      <c r="EW51" s="1"/>
+      <c r="EX51" s="1"/>
+      <c r="EY51" s="1"/>
+    </row>
+    <row r="53" spans="134:155" x14ac:dyDescent="0.25">
+      <c r="ED53" s="1"/>
+      <c r="EE53" s="1"/>
+      <c r="EF53" s="1"/>
+      <c r="EG53" s="1"/>
+      <c r="EH53" s="1"/>
+      <c r="EI53" s="1"/>
+      <c r="EJ53" s="1"/>
+      <c r="EK53" s="1"/>
+      <c r="EL53" s="1"/>
+      <c r="EM53" s="1"/>
+      <c r="EN53" s="1"/>
+      <c r="EO53" s="1"/>
+      <c r="EP53" s="1"/>
+      <c r="EQ53" s="1"/>
+      <c r="ER53" s="1"/>
+      <c r="ES53" s="1"/>
+      <c r="ET53" s="1"/>
+      <c r="EU53" s="1"/>
+      <c r="EV53" s="1"/>
+      <c r="EW53" s="1"/>
+      <c r="EX53" s="1"/>
+      <c r="EY53" s="1"/>
+    </row>
+    <row r="55" spans="134:155" x14ac:dyDescent="0.25">
+      <c r="ED55" s="1"/>
+      <c r="EE55" s="1"/>
+      <c r="EF55" s="1"/>
+      <c r="EG55" s="1"/>
+      <c r="EH55" s="1"/>
+      <c r="EI55" s="1"/>
+      <c r="EJ55" s="1"/>
+      <c r="EK55" s="1"/>
+      <c r="EL55" s="1"/>
+      <c r="EM55" s="1"/>
+      <c r="EN55" s="1"/>
+      <c r="EO55" s="1"/>
+      <c r="EP55" s="1"/>
+      <c r="EQ55" s="1"/>
+      <c r="ER55" s="1"/>
+      <c r="ES55" s="1"/>
+      <c r="ET55" s="1"/>
+      <c r="EU55" s="1"/>
+      <c r="EV55" s="1"/>
+      <c r="EW55" s="1"/>
+      <c r="EX55" s="1"/>
+      <c r="EY55" s="1"/>
+    </row>
+    <row r="57" spans="134:155" x14ac:dyDescent="0.25">
+      <c r="ED57" s="1"/>
+      <c r="EE57" s="1"/>
+      <c r="EF57" s="1"/>
+      <c r="EG57" s="1"/>
+      <c r="EH57" s="1"/>
+      <c r="EI57" s="1"/>
+      <c r="EJ57" s="1"/>
+      <c r="EK57" s="1"/>
+      <c r="EL57" s="1"/>
+      <c r="EM57" s="1"/>
+      <c r="EN57" s="1"/>
+      <c r="EO57" s="1"/>
+      <c r="EP57" s="1"/>
+      <c r="EQ57" s="1"/>
+      <c r="ER57" s="1"/>
+      <c r="ES57" s="1"/>
+      <c r="ET57" s="1"/>
+      <c r="EU57" s="1"/>
+      <c r="EV57" s="1"/>
+      <c r="EW57" s="1"/>
+      <c r="EX57" s="1"/>
+      <c r="EY57" s="1"/>
+    </row>
+    <row r="59" spans="134:155" x14ac:dyDescent="0.25">
+      <c r="ED59" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="ED35:EY59">
+    <sortCondition descending="1" ref="ED35:ED59"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
